--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -7,13 +7,14 @@
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
     <sheet name="zh-cn" sheetId="2" r:id="rId3"/>
+    <sheet name="de-de" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>File Name</t>
   </si>
@@ -30,6 +31,9 @@
     <t>zh-cn</t>
   </si>
   <si>
+    <t>de-de</t>
+  </si>
+  <si>
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
@@ -48,75 +52,90 @@
     <t>Ready for handoff</t>
   </si>
   <si>
+    <t>2016-11-02 03:47:29</t>
+  </si>
+  <si>
+    <t>afdd7d41-72f4-4df1-aba0-133ad75c042a.md</t>
+  </si>
+  <si>
+    <t>e2e\afdd7d41-72f4-4df1-aba0-133ad75c042a.md</t>
+  </si>
+  <si>
+    <t>e05b360d-2fd3-4275-9404-14655c46e33e.md</t>
+  </si>
+  <si>
+    <t>e2e\e05b360d-2fd3-4275-9404-14655c46e33e.md</t>
+  </si>
+  <si>
+    <t>ebb60103-3a13-4be0-89c9-6678f5550b3a.md</t>
+  </si>
+  <si>
+    <t>e2e\ebb60103-3a13-4be0-89c9-6678f5550b3a.md</t>
+  </si>
+  <si>
+    <t>Source File Name</t>
+  </si>
+  <si>
+    <t>File Extension</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Source Path</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Content Duplicate</t>
+  </si>
+  <si>
+    <t>Latest Handoff File</t>
+  </si>
+  <si>
+    <t>Latest Handoff Datetime</t>
+  </si>
+  <si>
+    <t>Latest Target File</t>
+  </si>
+  <si>
+    <t>Latest Handback File</t>
+  </si>
+  <si>
+    <t>Latest Handback DateTime</t>
+  </si>
+  <si>
+    <t>Reference Tokens</t>
+  </si>
+  <si>
+    <t>To be localized</t>
+  </si>
+  <si>
+    <t>Dependency From</t>
+  </si>
+  <si>
+    <t>Has metadata</t>
+  </si>
+  <si>
+    <t>Error Detail</t>
+  </si>
+  <si>
+    <t>e2e</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.5134902f7947eb4e5928667de1e59cda74b842a1.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-11-02 03:46:19</t>
   </si>
   <si>
-    <t>afdd7d41-72f4-4df1-aba0-133ad75c042a.md</t>
-  </si>
-  <si>
-    <t>e2e\afdd7d41-72f4-4df1-aba0-133ad75c042a.md</t>
-  </si>
-  <si>
-    <t>Source File Name</t>
-  </si>
-  <si>
-    <t>File Extension</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Source Path</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Content Duplicate</t>
-  </si>
-  <si>
-    <t>Latest Handoff File</t>
-  </si>
-  <si>
-    <t>Latest Handoff Datetime</t>
-  </si>
-  <si>
-    <t>Latest Target File</t>
-  </si>
-  <si>
-    <t>Latest Handback File</t>
-  </si>
-  <si>
-    <t>Latest Handback DateTime</t>
-  </si>
-  <si>
-    <t>Reference Tokens</t>
-  </si>
-  <si>
-    <t>To be localized</t>
-  </si>
-  <si>
-    <t>Dependency From</t>
-  </si>
-  <si>
-    <t>Has metadata</t>
-  </si>
-  <si>
-    <t>Error Detail</t>
-  </si>
-  <si>
-    <t>e2e</t>
-  </si>
-  <si>
-    <t>ht</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.5134902f7947eb4e5928667de1e59cda74b842a1.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -124,6 +143,27 @@
   </si>
   <si>
     <t>afdd7d41-72f4-4df1-aba0-133ad75c042a.4a2c0a42bfd7dbdc29f53c7283043dbf72c9c29b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>e05b360d-2fd3-4275-9404-14655c46e33e.0d4bde80c5d3095eadbc2f4b4fb2ca98e78f1ad7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 03:47:18</t>
+  </si>
+  <si>
+    <t>ebb60103-3a13-4be0-89c9-6678f5550b3a.39a0144d334d68bc06418ee82e42c5e7ed56fa14.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.5134902f7947eb4e5928667de1e59cda74b842a1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>afdd7d41-72f4-4df1-aba0-133ad75c042a.4a2c0a42bfd7dbdc29f53c7283043dbf72c9c29b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>e05b360d-2fd3-4275-9404-14655c46e33e.0d4bde80c5d3095eadbc2f4b4fb2ca98e78f1ad7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>ebb60103-3a13-4be0-89c9-6678f5550b3a.39a0144d334d68bc06418ee82e42c5e7ed56fa14.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -180,8 +220,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P3" headerRowCount="1">
-  <autoFilter ref="A1:P3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P5" headerRowCount="1">
+  <autoFilter ref="A1:P5"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -205,15 +245,41 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:F3" headerRowCount="1">
-  <autoFilter ref="A1:F3"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P5" headerRowCount="1">
+  <autoFilter ref="A1:P5"/>
+  <tableColumns count="16">
+    <tableColumn id="1" name="Source File Name"/>
+    <tableColumn id="2" name="File Extension"/>
+    <tableColumn id="3" name="Status"/>
+    <tableColumn id="4" name="Source Path"/>
+    <tableColumn id="5" name="Priority"/>
+    <tableColumn id="6" name="Content Duplicate"/>
+    <tableColumn id="7" name="Latest Handoff File"/>
+    <tableColumn id="8" name="Latest Handoff Datetime"/>
+    <tableColumn id="9" name="Latest Target File"/>
+    <tableColumn id="10" name="Latest Handback File"/>
+    <tableColumn id="11" name="Latest Handback DateTime"/>
+    <tableColumn id="12" name="Reference Tokens"/>
+    <tableColumn id="13" name="To be localized"/>
+    <tableColumn id="14" name="Dependency From"/>
+    <tableColumn id="15" name="Has metadata"/>
+    <tableColumn id="16" name="Error Detail"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G5" headerRowCount="1">
+  <autoFilter ref="A1:G5"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
     <tableColumn id="3" name="Extension"/>
     <tableColumn id="4" name="Publish URL"/>
     <tableColumn id="5" name="zh-cn"/>
-    <tableColumn id="6" name="Latest HO Xliff Generate Date"/>
+    <tableColumn id="6" name="de-de"/>
+    <tableColumn id="7" name="Latest HO Xliff Generate Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -221,7 +287,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -232,7 +298,8 @@
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
     <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="29.5073738098145" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -254,51 +321,108 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -309,7 +433,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -335,158 +459,550 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="0" t="s">
+      <c r="F4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>9</v>
+      <c r="E5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId2"/>
     <hyperlink ref="A3" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId5"/>
+  </hyperlinks>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:P5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="4" max="4" width="14.157301902771" customWidth="1"/>
+    <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
+    <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
+    <col min="7" max="7" width="40" customWidth="1"/>
+    <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
+    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
+    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
+    <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
+    <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
+    <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
+    <col min="15" max="15" width="15.850474357605" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>File Name</t>
   </si>
@@ -67,6 +67,9 @@
     <t>e2e\e05b360d-2fd3-4275-9404-14655c46e33e.md</t>
   </si>
   <si>
+    <t>2016-11-02 03:48:20</t>
+  </si>
+  <si>
     <t>ebb60103-3a13-4be0-89c9-6678f5550b3a.md</t>
   </si>
   <si>
@@ -148,10 +151,13 @@
     <t>e05b360d-2fd3-4275-9404-14655c46e33e.0d4bde80c5d3095eadbc2f4b4fb2ca98e78f1ad7.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-11-02 03:48:07</t>
+  </si>
+  <si>
+    <t>ebb60103-3a13-4be0-89c9-6678f5550b3a.39a0144d334d68bc06418ee82e42c5e7ed56fa14.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-11-02 03:47:18</t>
-  </si>
-  <si>
-    <t>ebb60103-3a13-4be0-89c9-6678f5550b3a.39a0144d334d68bc06418ee82e42c5e7ed56fa14.zh-cn.xlf</t>
   </si>
   <si>
     <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.5134902f7947eb4e5928667de1e59cda74b842a1.de-de.xlf</t>
@@ -391,15 +397,15 @@
         <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -459,52 +465,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -518,19 +524,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -539,19 +545,19 @@
         <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -568,40 +574,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -618,19 +624,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -639,19 +645,19 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -659,7 +665,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -668,19 +674,19 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -689,19 +695,19 @@
         <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -749,52 +755,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -808,16 +814,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -829,19 +835,19 @@
         <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -858,16 +864,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -879,19 +885,19 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -908,19 +914,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -929,19 +935,19 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -949,7 +955,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -958,16 +964,16 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>12</v>
@@ -979,19 +985,19 @@
         <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>File Name</t>
   </si>
@@ -37,24 +37,33 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>ebb60103-3a13-4be0-89c9-6678f5550b3a.md</t>
+  </si>
+  <si>
+    <t>e2e\ebb60103-3a13-4be0-89c9-6678f5550b3a.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2016-11-02 03:47:29</t>
+  </si>
+  <si>
     <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.md</t>
   </si>
   <si>
     <t>e2e\82612ca7-fe78-41a1-96aa-1d12a6b67f89.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-11-02 03:47:29</t>
-  </si>
-  <si>
     <t>afdd7d41-72f4-4df1-aba0-133ad75c042a.md</t>
   </si>
   <si>
@@ -70,12 +79,6 @@
     <t>2016-11-02 03:48:20</t>
   </si>
   <si>
-    <t>ebb60103-3a13-4be0-89c9-6678f5550b3a.md</t>
-  </si>
-  <si>
-    <t>e2e\ebb60103-3a13-4be0-89c9-6678f5550b3a.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -133,18 +136,24 @@
     <t>False</t>
   </si>
   <si>
+    <t>ebb60103-3a13-4be0-89c9-6678f5550b3a.39a0144d334d68bc06418ee82e42c5e7ed56fa14.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 03:47:18</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.5134902f7947eb4e5928667de1e59cda74b842a1.zh-cn.xlf</t>
   </si>
   <si>
     <t>2016-11-02 03:46:19</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>afdd7d41-72f4-4df1-aba0-133ad75c042a.4a2c0a42bfd7dbdc29f53c7283043dbf72c9c29b.zh-cn.xlf</t>
   </si>
   <si>
@@ -154,10 +163,7 @@
     <t>2016-11-02 03:48:07</t>
   </si>
   <si>
-    <t>ebb60103-3a13-4be0-89c9-6678f5550b3a.39a0144d334d68bc06418ee82e42c5e7ed56fa14.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 03:47:18</t>
+    <t>ebb60103-3a13-4be0-89c9-6678f5550b3a.39a0144d334d68bc06418ee82e42c5e7ed56fa14.de-de.xlf</t>
   </si>
   <si>
     <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.5134902f7947eb4e5928667de1e59cda74b842a1.de-de.xlf</t>
@@ -167,9 +173,6 @@
   </si>
   <si>
     <t>e05b360d-2fd3-4275-9404-14655c46e33e.0d4bde80c5d3095eadbc2f4b4fb2ca98e78f1ad7.de-de.xlf</t>
-  </si>
-  <si>
-    <t>ebb60103-3a13-4be0-89c9-6678f5550b3a.39a0144d334d68bc06418ee82e42c5e7ed56fa14.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -368,10 +371,10 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
@@ -379,10 +382,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -391,13 +394,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -414,21 +417,21 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId5"/>
+    <hyperlink ref="B2" display="e2e\ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -465,52 +468,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -524,19 +527,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -545,19 +548,19 @@
         <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -571,43 +574,43 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -615,25 +618,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>45</v>
@@ -645,19 +648,19 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -671,22 +674,22 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -695,19 +698,19 @@
         <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -715,10 +718,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -755,52 +758,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -814,16 +817,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -835,19 +838,19 @@
         <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -861,19 +864,19 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -885,19 +888,19 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -905,28 +908,28 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -935,19 +938,19 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -961,22 +964,22 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -985,19 +988,19 @@
         <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -1005,10 +1008,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -64,7 +64,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-11-02 03:49:55</t>
+    <t>2016-11-02 03:50:44</t>
   </si>
   <si>
     <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.md</t>
@@ -160,7 +160,7 @@
     <t>6dbca37e-ee19-4e7c-b31c-898559327818.33c3686746f2cad6aa423f2949bdacf27b3c99f4.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-11-02 03:49:43</t>
+    <t>2016-11-02 03:50:31</t>
   </si>
   <si>
     <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.5134902f7947eb4e5928667de1e59cda74b842a1.zh-cn.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>File Name</t>
   </si>
@@ -163,6 +163,12 @@
     <t>2016-11-02 03:50:31</t>
   </si>
   <si>
+    <t>2016-11-02 03:51:25</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/385c6aacfa6c15bd351c7fc6e5cf52e10d2687fe/e2e/6dbca37e-ee19-4e7c-b31c-898559327818.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/7d9c2a4eba589d9d28bda4c847a88cba998dd0b4/e2e/6dbca37e-ee19-4e7c-b31c-898559327818.md.</t>
+  </si>
+  <si>
     <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.5134902f7947eb4e5928667de1e59cda74b842a1.zh-cn.xlf</t>
   </si>
   <si>
@@ -182,6 +188,9 @@
   </si>
   <si>
     <t>6dbca37e-ee19-4e7c-b31c-898559327818.33c3686746f2cad6aa423f2949bdacf27b3c99f4.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 03:51:43</t>
   </si>
   <si>
     <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.5134902f7947eb4e5928667de1e59cda74b842a1.de-de.xlf</t>
@@ -498,14 +507,14 @@
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -633,14 +642,14 @@
       <c r="H3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -655,7 +664,7 @@
         <v>42</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -678,10 +687,10 @@
         <v>42</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -728,10 +737,10 @@
         <v>42</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -778,10 +787,10 @@
         <v>42</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -812,9 +821,10 @@
   <hyperlinks>
     <hyperlink ref="A2" display="ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId2"/>
     <hyperlink ref="A3" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId6"/>
+    <hyperlink ref="I3" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId5"/>
+    <hyperlink ref="A5" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId6"/>
+    <hyperlink ref="A6" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -839,14 +849,14 @@
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -919,7 +929,7 @@
         <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -969,19 +979,19 @@
         <v>42</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -996,7 +1006,7 @@
         <v>42</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -1019,7 +1029,7 @@
         <v>42</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
@@ -1069,7 +1079,7 @@
         <v>42</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>12</v>
@@ -1119,7 +1129,7 @@
         <v>42</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>23</v>
@@ -1153,9 +1163,10 @@
   <hyperlinks>
     <hyperlink ref="A2" display="ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId2"/>
     <hyperlink ref="A3" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId6"/>
+    <hyperlink ref="I3" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId5"/>
+    <hyperlink ref="A5" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId6"/>
+    <hyperlink ref="A6" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -37,42 +37,42 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>6dbca37e-ee19-4e7c-b31c-898559327818.md</t>
+  </si>
+  <si>
+    <t>e2e\6dbca37e-ee19-4e7c-b31c-898559327818.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2016-11-02 03:50:44</t>
+  </si>
+  <si>
     <t>ebb60103-3a13-4be0-89c9-6678f5550b3a.md</t>
   </si>
   <si>
     <t>e2e\ebb60103-3a13-4be0-89c9-6678f5550b3a.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
     <t>2016-11-02 03:47:29</t>
   </si>
   <si>
-    <t>6dbca37e-ee19-4e7c-b31c-898559327818.md</t>
-  </si>
-  <si>
-    <t>e2e\6dbca37e-ee19-4e7c-b31c-898559327818.md</t>
+    <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.md</t>
+  </si>
+  <si>
+    <t>e2e\82612ca7-fe78-41a1-96aa-1d12a6b67f89.md</t>
   </si>
   <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-11-02 03:50:44</t>
-  </si>
-  <si>
-    <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.md</t>
-  </si>
-  <si>
-    <t>e2e\82612ca7-fe78-41a1-96aa-1d12a6b67f89.md</t>
-  </si>
-  <si>
     <t>afdd7d41-72f4-4df1-aba0-133ad75c042a.md</t>
   </si>
   <si>
@@ -145,6 +145,21 @@
     <t>False</t>
   </si>
   <si>
+    <t>6dbca37e-ee19-4e7c-b31c-898559327818.33c3686746f2cad6aa423f2949bdacf27b3c99f4.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 03:50:31</t>
+  </si>
+  <si>
+    <t>2016-11-02 03:51:25</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/385c6aacfa6c15bd351c7fc6e5cf52e10d2687fe/e2e/6dbca37e-ee19-4e7c-b31c-898559327818.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/7d9c2a4eba589d9d28bda4c847a88cba998dd0b4/e2e/6dbca37e-ee19-4e7c-b31c-898559327818.md.</t>
+  </si>
+  <si>
     <t>ebb60103-3a13-4be0-89c9-6678f5550b3a.39a0144d334d68bc06418ee82e42c5e7ed56fa14.zh-cn.xlf</t>
   </si>
   <si>
@@ -154,21 +169,6 @@
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>6dbca37e-ee19-4e7c-b31c-898559327818.33c3686746f2cad6aa423f2949bdacf27b3c99f4.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 03:50:31</t>
-  </si>
-  <si>
-    <t>2016-11-02 03:51:25</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/385c6aacfa6c15bd351c7fc6e5cf52e10d2687fe/e2e/6dbca37e-ee19-4e7c-b31c-898559327818.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/7d9c2a4eba589d9d28bda4c847a88cba998dd0b4/e2e/6dbca37e-ee19-4e7c-b31c-898559327818.md.</t>
-  </si>
-  <si>
     <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.5134902f7947eb4e5928667de1e59cda74b842a1.zh-cn.xlf</t>
   </si>
   <si>
@@ -184,13 +184,13 @@
     <t>2016-11-02 03:48:07</t>
   </si>
   <si>
+    <t>6dbca37e-ee19-4e7c-b31c-898559327818.33c3686746f2cad6aa423f2949bdacf27b3c99f4.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 03:51:43</t>
+  </si>
+  <si>
     <t>ebb60103-3a13-4be0-89c9-6678f5550b3a.39a0144d334d68bc06418ee82e42c5e7ed56fa14.de-de.xlf</t>
-  </si>
-  <si>
-    <t>6dbca37e-ee19-4e7c-b31c-898559327818.33c3686746f2cad6aa423f2949bdacf27b3c99f4.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 03:51:43</t>
   </si>
   <si>
     <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.5134902f7947eb4e5928667de1e59cda74b842a1.de-de.xlf</t>
@@ -398,36 +398,36 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -444,13 +444,13 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -467,10 +467,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>23</v>
@@ -478,8 +478,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId6"/>
@@ -592,11 +592,11 @@
       <c r="H2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>45</v>
@@ -614,7 +614,7 @@
         <v>42</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -625,7 +625,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>40</v>
@@ -637,19 +637,19 @@
         <v>42</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -664,18 +664,18 @@
         <v>42</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>40</v>
@@ -699,7 +699,7 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
@@ -725,7 +725,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>40</v>
@@ -749,7 +749,7 @@
         <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
@@ -775,7 +775,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>40</v>
@@ -799,7 +799,7 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
@@ -819,9 +819,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId3"/>
-    <hyperlink ref="I3" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId4"/>
     <hyperlink ref="A4" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId5"/>
     <hyperlink ref="A5" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId6"/>
     <hyperlink ref="A6" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId7"/>
@@ -934,14 +934,14 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -956,7 +956,7 @@
         <v>42</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>40</v>
@@ -979,19 +979,19 @@
         <v>42</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -1006,18 +1006,18 @@
         <v>42</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>40</v>
@@ -1032,7 +1032,7 @@
         <v>59</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -1041,7 +1041,7 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
@@ -1067,7 +1067,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>40</v>
@@ -1082,7 +1082,7 @@
         <v>60</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -1091,7 +1091,7 @@
         <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
@@ -1117,7 +1117,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>40</v>
@@ -1141,7 +1141,7 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
@@ -1161,9 +1161,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId3"/>
-    <hyperlink ref="I3" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId4"/>
     <hyperlink ref="A4" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId5"/>
     <hyperlink ref="A5" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId6"/>
     <hyperlink ref="A6" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId7"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>File Name</t>
   </si>
@@ -64,15 +64,24 @@
     <t>2016-11-02 03:47:29</t>
   </si>
   <si>
+    <t>7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md</t>
+  </si>
+  <si>
+    <t>e2e\7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-11-02 03:53:09</t>
+  </si>
+  <si>
     <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.md</t>
   </si>
   <si>
     <t>e2e\82612ca7-fe78-41a1-96aa-1d12a6b67f89.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>afdd7d41-72f4-4df1-aba0-133ad75c042a.md</t>
   </si>
   <si>
@@ -169,6 +178,12 @@
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
+    <t>7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.4ccae68f039605e25fadd91893142b8cc6ebf79e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 03:52:56</t>
+  </si>
+  <si>
     <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.5134902f7947eb4e5928667de1e59cda74b842a1.zh-cn.xlf</t>
   </si>
   <si>
@@ -191,6 +206,9 @@
   </si>
   <si>
     <t>ebb60103-3a13-4be0-89c9-6678f5550b3a.39a0144d334d68bc06418ee82e42c5e7ed56fa14.de-de.xlf</t>
+  </si>
+  <si>
+    <t>7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.4ccae68f039605e25fadd91893142b8cc6ebf79e.de-de.xlf</t>
   </si>
   <si>
     <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.5134902f7947eb4e5928667de1e59cda74b842a1.de-de.xlf</t>
@@ -256,8 +274,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P6" headerRowCount="1">
-  <autoFilter ref="A1:P6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P7" headerRowCount="1">
+  <autoFilter ref="A1:P7"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -281,8 +299,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P6" headerRowCount="1">
-  <autoFilter ref="A1:P6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P7" headerRowCount="1">
+  <autoFilter ref="A1:P7"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -306,8 +324,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G6" headerRowCount="1">
-  <autoFilter ref="A1:G6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G7" headerRowCount="1">
+  <autoFilter ref="A1:G7"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -323,7 +341,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,15 +445,15 @@
         <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -455,10 +473,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -473,16 +491,40 @@
         <v>18</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId6"/>
+    <hyperlink ref="B4" display="e2e\7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -493,7 +535,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -519,52 +561,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -578,43 +620,43 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -628,40 +670,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -678,19 +720,19 @@
         <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -699,19 +741,19 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -719,7 +761,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -728,40 +770,40 @@
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -769,7 +811,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -778,19 +820,19 @@
         <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -799,21 +841,71 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -822,9 +914,10 @@
     <hyperlink ref="A2" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId2"/>
     <hyperlink ref="I2" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId3"/>
     <hyperlink ref="A3" display="ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md" r:id="rId5"/>
+    <hyperlink ref="A5" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId6"/>
+    <hyperlink ref="A6" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId7"/>
+    <hyperlink ref="A7" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -835,7 +928,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -861,52 +954,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -920,16 +1013,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -938,25 +1031,25 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -970,16 +1063,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
@@ -991,19 +1084,19 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -1020,19 +1113,19 @@
         <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -1041,19 +1134,19 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1061,7 +1154,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -1070,16 +1163,16 @@
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>15</v>
@@ -1091,19 +1184,19 @@
         <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -1111,7 +1204,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -1120,19 +1213,19 @@
         <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1141,21 +1234,71 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1164,9 +1307,10 @@
     <hyperlink ref="A2" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId2"/>
     <hyperlink ref="I2" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId3"/>
     <hyperlink ref="A3" display="ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md" r:id="rId5"/>
+    <hyperlink ref="A5" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId6"/>
+    <hyperlink ref="A6" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId7"/>
+    <hyperlink ref="A7" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -55,6 +55,15 @@
     <t>2016-11-02 03:50:44</t>
   </si>
   <si>
+    <t>7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md</t>
+  </si>
+  <si>
+    <t>e2e\7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md</t>
+  </si>
+  <si>
+    <t>2016-11-02 03:53:09</t>
+  </si>
+  <si>
     <t>ebb60103-3a13-4be0-89c9-6678f5550b3a.md</t>
   </si>
   <si>
@@ -64,24 +73,15 @@
     <t>2016-11-02 03:47:29</t>
   </si>
   <si>
-    <t>7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md</t>
-  </si>
-  <si>
-    <t>e2e\7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md</t>
+    <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.md</t>
+  </si>
+  <si>
+    <t>e2e\82612ca7-fe78-41a1-96aa-1d12a6b67f89.md</t>
   </si>
   <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-11-02 03:53:09</t>
-  </si>
-  <si>
-    <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.md</t>
-  </si>
-  <si>
-    <t>e2e\82612ca7-fe78-41a1-96aa-1d12a6b67f89.md</t>
-  </si>
-  <si>
     <t>afdd7d41-72f4-4df1-aba0-133ad75c042a.md</t>
   </si>
   <si>
@@ -169,21 +169,21 @@
     <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/385c6aacfa6c15bd351c7fc6e5cf52e10d2687fe/e2e/6dbca37e-ee19-4e7c-b31c-898559327818.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/7d9c2a4eba589d9d28bda4c847a88cba998dd0b4/e2e/6dbca37e-ee19-4e7c-b31c-898559327818.md.</t>
   </si>
   <si>
+    <t>7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.4ccae68f039605e25fadd91893142b8cc6ebf79e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 03:52:56</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
     <t>ebb60103-3a13-4be0-89c9-6678f5550b3a.39a0144d334d68bc06418ee82e42c5e7ed56fa14.zh-cn.xlf</t>
   </si>
   <si>
     <t>2016-11-02 03:47:18</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.4ccae68f039605e25fadd91893142b8cc6ebf79e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 03:52:56</t>
-  </si>
-  <si>
     <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.5134902f7947eb4e5928667de1e59cda74b842a1.zh-cn.xlf</t>
   </si>
   <si>
@@ -205,10 +205,10 @@
     <t>2016-11-02 03:51:43</t>
   </si>
   <si>
+    <t>7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.4ccae68f039605e25fadd91893142b8cc6ebf79e.de-de.xlf</t>
+  </si>
+  <si>
     <t>ebb60103-3a13-4be0-89c9-6678f5550b3a.39a0144d334d68bc06418ee82e42c5e7ed56fa14.de-de.xlf</t>
-  </si>
-  <si>
-    <t>7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.4ccae68f039605e25fadd91893142b8cc6ebf79e.de-de.xlf</t>
   </si>
   <si>
     <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.5134902f7947eb4e5928667de1e59cda74b842a1.de-de.xlf</t>
@@ -439,36 +439,36 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -485,13 +485,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -508,10 +508,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>26</v>
@@ -520,8 +520,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md" r:id="rId4"/>
+    <hyperlink ref="B3" display="e2e\7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId6"/>
     <hyperlink ref="B7" display="e2e\e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId7"/>
@@ -717,7 +717,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>43</v>
@@ -761,13 +761,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>43</v>
@@ -817,7 +817,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>43</v>
@@ -867,7 +867,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>43</v>
@@ -913,8 +913,8 @@
   <hyperlinks>
     <hyperlink ref="A2" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId2"/>
     <hyperlink ref="I2" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md" r:id="rId5"/>
+    <hyperlink ref="A3" display="7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId5"/>
     <hyperlink ref="A5" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId6"/>
     <hyperlink ref="A6" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId7"/>
     <hyperlink ref="A7" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId8"/>
@@ -1110,7 +1110,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>43</v>
@@ -1125,7 +1125,7 @@
         <v>64</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -1154,13 +1154,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>43</v>
@@ -1175,7 +1175,7 @@
         <v>65</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -1210,7 +1210,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>43</v>
@@ -1225,7 +1225,7 @@
         <v>66</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1260,7 +1260,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>43</v>
@@ -1306,8 +1306,8 @@
   <hyperlinks>
     <hyperlink ref="A2" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId2"/>
     <hyperlink ref="I2" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md" r:id="rId5"/>
+    <hyperlink ref="A3" display="7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId5"/>
     <hyperlink ref="A5" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId6"/>
     <hyperlink ref="A6" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId7"/>
     <hyperlink ref="A7" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId8"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -55,22 +55,25 @@
     <t>2016-11-02 03:50:44</t>
   </si>
   <si>
+    <t>ebb60103-3a13-4be0-89c9-6678f5550b3a.md</t>
+  </si>
+  <si>
+    <t>e2e\ebb60103-3a13-4be0-89c9-6678f5550b3a.md</t>
+  </si>
+  <si>
+    <t>2016-11-02 03:47:29</t>
+  </si>
+  <si>
     <t>7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md</t>
   </si>
   <si>
     <t>e2e\7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md</t>
   </si>
   <si>
-    <t>2016-11-02 03:53:09</t>
-  </si>
-  <si>
-    <t>ebb60103-3a13-4be0-89c9-6678f5550b3a.md</t>
-  </si>
-  <si>
-    <t>e2e\ebb60103-3a13-4be0-89c9-6678f5550b3a.md</t>
-  </si>
-  <si>
-    <t>2016-11-02 03:47:29</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-11-02 03:54:44</t>
   </si>
   <si>
     <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.md</t>
@@ -79,9 +82,6 @@
     <t>e2e\82612ca7-fe78-41a1-96aa-1d12a6b67f89.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>afdd7d41-72f4-4df1-aba0-133ad75c042a.md</t>
   </si>
   <si>
@@ -169,19 +169,19 @@
     <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/385c6aacfa6c15bd351c7fc6e5cf52e10d2687fe/e2e/6dbca37e-ee19-4e7c-b31c-898559327818.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/7d9c2a4eba589d9d28bda4c847a88cba998dd0b4/e2e/6dbca37e-ee19-4e7c-b31c-898559327818.md.</t>
   </si>
   <si>
+    <t>ebb60103-3a13-4be0-89c9-6678f5550b3a.39a0144d334d68bc06418ee82e42c5e7ed56fa14.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 03:47:18</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
     <t>7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.4ccae68f039605e25fadd91893142b8cc6ebf79e.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-11-02 03:52:56</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>ebb60103-3a13-4be0-89c9-6678f5550b3a.39a0144d334d68bc06418ee82e42c5e7ed56fa14.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 03:47:18</t>
+    <t>2016-11-02 03:54:32</t>
   </si>
   <si>
     <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.5134902f7947eb4e5928667de1e59cda74b842a1.zh-cn.xlf</t>
@@ -205,10 +205,10 @@
     <t>2016-11-02 03:51:43</t>
   </si>
   <si>
+    <t>ebb60103-3a13-4be0-89c9-6678f5550b3a.39a0144d334d68bc06418ee82e42c5e7ed56fa14.de-de.xlf</t>
+  </si>
+  <si>
     <t>7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.4ccae68f039605e25fadd91893142b8cc6ebf79e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>ebb60103-3a13-4be0-89c9-6678f5550b3a.39a0144d334d68bc06418ee82e42c5e7ed56fa14.de-de.xlf</t>
   </si>
   <si>
     <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.5134902f7947eb4e5928667de1e59cda74b842a1.de-de.xlf</t>
@@ -439,21 +439,21 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -462,13 +462,13 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -485,13 +485,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -508,10 +508,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>26</v>
@@ -520,8 +520,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId4"/>
+    <hyperlink ref="B3" display="e2e\ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId6"/>
     <hyperlink ref="B7" display="e2e\e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId7"/>
@@ -717,7 +717,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>43</v>
@@ -761,13 +761,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>43</v>
@@ -817,7 +817,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>43</v>
@@ -867,7 +867,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>43</v>
@@ -913,8 +913,8 @@
   <hyperlinks>
     <hyperlink ref="A2" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId2"/>
     <hyperlink ref="I2" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId5"/>
+    <hyperlink ref="A3" display="ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md" r:id="rId5"/>
     <hyperlink ref="A5" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId6"/>
     <hyperlink ref="A6" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId7"/>
     <hyperlink ref="A7" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId8"/>
@@ -1110,7 +1110,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>43</v>
@@ -1125,7 +1125,7 @@
         <v>64</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -1154,13 +1154,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>43</v>
@@ -1175,7 +1175,7 @@
         <v>65</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -1210,7 +1210,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>43</v>
@@ -1225,7 +1225,7 @@
         <v>66</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1260,7 +1260,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>43</v>
@@ -1306,8 +1306,8 @@
   <hyperlinks>
     <hyperlink ref="A2" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId2"/>
     <hyperlink ref="I2" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId5"/>
+    <hyperlink ref="A3" display="ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md" r:id="rId5"/>
     <hyperlink ref="A5" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId6"/>
     <hyperlink ref="A6" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId7"/>
     <hyperlink ref="A7" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId8"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -55,6 +55,15 @@
     <t>2016-11-02 03:50:44</t>
   </si>
   <si>
+    <t>7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md</t>
+  </si>
+  <si>
+    <t>e2e\7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md</t>
+  </si>
+  <si>
+    <t>2016-11-02 03:55:35</t>
+  </si>
+  <si>
     <t>ebb60103-3a13-4be0-89c9-6678f5550b3a.md</t>
   </si>
   <si>
@@ -64,24 +73,15 @@
     <t>2016-11-02 03:47:29</t>
   </si>
   <si>
-    <t>7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md</t>
-  </si>
-  <si>
-    <t>e2e\7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md</t>
+    <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.md</t>
+  </si>
+  <si>
+    <t>e2e\82612ca7-fe78-41a1-96aa-1d12a6b67f89.md</t>
   </si>
   <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-11-02 03:54:44</t>
-  </si>
-  <si>
-    <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.md</t>
-  </si>
-  <si>
-    <t>e2e\82612ca7-fe78-41a1-96aa-1d12a6b67f89.md</t>
-  </si>
-  <si>
     <t>afdd7d41-72f4-4df1-aba0-133ad75c042a.md</t>
   </si>
   <si>
@@ -169,21 +169,21 @@
     <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/385c6aacfa6c15bd351c7fc6e5cf52e10d2687fe/e2e/6dbca37e-ee19-4e7c-b31c-898559327818.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/7d9c2a4eba589d9d28bda4c847a88cba998dd0b4/e2e/6dbca37e-ee19-4e7c-b31c-898559327818.md.</t>
   </si>
   <si>
+    <t>7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.4ccae68f039605e25fadd91893142b8cc6ebf79e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 03:55:22</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
     <t>ebb60103-3a13-4be0-89c9-6678f5550b3a.39a0144d334d68bc06418ee82e42c5e7ed56fa14.zh-cn.xlf</t>
   </si>
   <si>
     <t>2016-11-02 03:47:18</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.4ccae68f039605e25fadd91893142b8cc6ebf79e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 03:54:32</t>
-  </si>
-  <si>
     <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.5134902f7947eb4e5928667de1e59cda74b842a1.zh-cn.xlf</t>
   </si>
   <si>
@@ -205,10 +205,10 @@
     <t>2016-11-02 03:51:43</t>
   </si>
   <si>
+    <t>7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.4ccae68f039605e25fadd91893142b8cc6ebf79e.de-de.xlf</t>
+  </si>
+  <si>
     <t>ebb60103-3a13-4be0-89c9-6678f5550b3a.39a0144d334d68bc06418ee82e42c5e7ed56fa14.de-de.xlf</t>
-  </si>
-  <si>
-    <t>7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.4ccae68f039605e25fadd91893142b8cc6ebf79e.de-de.xlf</t>
   </si>
   <si>
     <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.5134902f7947eb4e5928667de1e59cda74b842a1.de-de.xlf</t>
@@ -439,36 +439,36 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -485,13 +485,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -508,10 +508,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>26</v>
@@ -520,8 +520,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md" r:id="rId4"/>
+    <hyperlink ref="B3" display="e2e\7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId6"/>
     <hyperlink ref="B7" display="e2e\e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId7"/>
@@ -717,7 +717,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>43</v>
@@ -761,13 +761,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>43</v>
@@ -817,7 +817,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>43</v>
@@ -867,7 +867,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>43</v>
@@ -913,8 +913,8 @@
   <hyperlinks>
     <hyperlink ref="A2" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId2"/>
     <hyperlink ref="I2" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md" r:id="rId5"/>
+    <hyperlink ref="A3" display="7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId5"/>
     <hyperlink ref="A5" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId6"/>
     <hyperlink ref="A6" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId7"/>
     <hyperlink ref="A7" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId8"/>
@@ -1110,7 +1110,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>43</v>
@@ -1125,7 +1125,7 @@
         <v>64</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -1154,13 +1154,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>43</v>
@@ -1175,7 +1175,7 @@
         <v>65</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -1210,7 +1210,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>43</v>
@@ -1225,7 +1225,7 @@
         <v>66</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1260,7 +1260,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>43</v>
@@ -1306,8 +1306,8 @@
   <hyperlinks>
     <hyperlink ref="A2" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId2"/>
     <hyperlink ref="I2" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md" r:id="rId5"/>
+    <hyperlink ref="A3" display="7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId5"/>
     <hyperlink ref="A5" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId6"/>
     <hyperlink ref="A6" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId7"/>
     <hyperlink ref="A7" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId8"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>File Name</t>
   </si>
@@ -97,6 +97,15 @@
     <t>2016-11-02 03:48:20</t>
   </si>
   <si>
+    <t>ff4ca007-f0b9-485c-904d-fd61ac214a7d.md</t>
+  </si>
+  <si>
+    <t>e2e\ff4ca007-f0b9-485c-904d-fd61ac214a7d.md</t>
+  </si>
+  <si>
+    <t>2016-11-02 03:56:31</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -199,6 +208,12 @@
     <t>2016-11-02 03:48:07</t>
   </si>
   <si>
+    <t>ff4ca007-f0b9-485c-904d-fd61ac214a7d.d37c0275f3b44857206912caf5d9cf06afe27168.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 03:56:17</t>
+  </si>
+  <si>
     <t>6dbca37e-ee19-4e7c-b31c-898559327818.33c3686746f2cad6aa423f2949bdacf27b3c99f4.de-de.xlf</t>
   </si>
   <si>
@@ -218,6 +233,9 @@
   </si>
   <si>
     <t>e05b360d-2fd3-4275-9404-14655c46e33e.0d4bde80c5d3095eadbc2f4b4fb2ca98e78f1ad7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>ff4ca007-f0b9-485c-904d-fd61ac214a7d.d37c0275f3b44857206912caf5d9cf06afe27168.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -274,8 +292,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P7" headerRowCount="1">
-  <autoFilter ref="A1:P7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P8" headerRowCount="1">
+  <autoFilter ref="A1:P8"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -299,8 +317,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P7" headerRowCount="1">
-  <autoFilter ref="A1:P7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P8" headerRowCount="1">
+  <autoFilter ref="A1:P8"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -324,8 +342,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G7" headerRowCount="1">
-  <autoFilter ref="A1:G7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G8" headerRowCount="1">
+  <autoFilter ref="A1:G8"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -341,7 +359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -517,6 +535,29 @@
         <v>26</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId2"/>
@@ -525,6 +566,7 @@
     <hyperlink ref="B5" display="e2e\82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId6"/>
     <hyperlink ref="B7" display="e2e\e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\ff4ca007-f0b9-485c-904d-fd61ac214a7d.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -535,7 +577,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -561,52 +603,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -620,43 +662,43 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -670,40 +712,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -720,19 +762,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -741,19 +783,19 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -770,40 +812,40 @@
         <v>21</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -820,19 +862,19 @@
         <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -841,19 +883,19 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -870,19 +912,19 @@
         <v>21</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -891,21 +933,71 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -918,6 +1010,7 @@
     <hyperlink ref="A5" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId6"/>
     <hyperlink ref="A6" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId7"/>
     <hyperlink ref="A7" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId8"/>
+    <hyperlink ref="A8" display="ff4ca007-f0b9-485c-904d-fd61ac214a7d.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -928,7 +1021,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -954,52 +1047,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -1013,16 +1106,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1031,25 +1124,25 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -1063,16 +1156,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
@@ -1084,19 +1177,19 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -1113,16 +1206,16 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>18</v>
@@ -1134,19 +1227,19 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1163,16 +1256,16 @@
         <v>21</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>18</v>
@@ -1184,19 +1277,19 @@
         <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -1213,16 +1306,16 @@
         <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>18</v>
@@ -1234,19 +1327,19 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -1263,16 +1356,16 @@
         <v>21</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>26</v>
@@ -1284,21 +1377,71 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1311,6 +1454,7 @@
     <hyperlink ref="A5" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId6"/>
     <hyperlink ref="A6" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId7"/>
     <hyperlink ref="A7" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId8"/>
+    <hyperlink ref="A8" display="ff4ca007-f0b9-485c-904d-fd61ac214a7d.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>File Name</t>
   </si>
@@ -37,18 +37,30 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>ff4ca007-f0b9-485c-904d-fd61ac214a7d.md</t>
+  </si>
+  <si>
+    <t>e2e\ff4ca007-f0b9-485c-904d-fd61ac214a7d.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-11-02 03:56:31</t>
+  </si>
+  <si>
     <t>6dbca37e-ee19-4e7c-b31c-898559327818.md</t>
   </si>
   <si>
     <t>e2e\6dbca37e-ee19-4e7c-b31c-898559327818.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>In Translation</t>
   </si>
   <si>
@@ -97,15 +109,6 @@
     <t>2016-11-02 03:48:20</t>
   </si>
   <si>
-    <t>ff4ca007-f0b9-485c-904d-fd61ac214a7d.md</t>
-  </si>
-  <si>
-    <t>e2e\ff4ca007-f0b9-485c-904d-fd61ac214a7d.md</t>
-  </si>
-  <si>
-    <t>2016-11-02 03:56:31</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -163,6 +166,18 @@
     <t>False</t>
   </si>
   <si>
+    <t>ff4ca007-f0b9-485c-904d-fd61ac214a7d.d37c0275f3b44857206912caf5d9cf06afe27168.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 03:56:17</t>
+  </si>
+  <si>
+    <t>2016-11-02 03:57:14</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>6dbca37e-ee19-4e7c-b31c-898559327818.33c3686746f2cad6aa423f2949bdacf27b3c99f4.zh-cn.xlf</t>
   </si>
   <si>
@@ -172,9 +187,6 @@
     <t>2016-11-02 03:51:25</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/385c6aacfa6c15bd351c7fc6e5cf52e10d2687fe/e2e/6dbca37e-ee19-4e7c-b31c-898559327818.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/7d9c2a4eba589d9d28bda4c847a88cba998dd0b4/e2e/6dbca37e-ee19-4e7c-b31c-898559327818.md.</t>
   </si>
   <si>
@@ -208,10 +220,10 @@
     <t>2016-11-02 03:48:07</t>
   </si>
   <si>
-    <t>ff4ca007-f0b9-485c-904d-fd61ac214a7d.d37c0275f3b44857206912caf5d9cf06afe27168.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 03:56:17</t>
+    <t>ff4ca007-f0b9-485c-904d-fd61ac214a7d.d37c0275f3b44857206912caf5d9cf06afe27168.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 03:57:34</t>
   </si>
   <si>
     <t>6dbca37e-ee19-4e7c-b31c-898559327818.33c3686746f2cad6aa423f2949bdacf27b3c99f4.de-de.xlf</t>
@@ -233,9 +245,6 @@
   </si>
   <si>
     <t>e05b360d-2fd3-4275-9404-14655c46e33e.0d4bde80c5d3095eadbc2f4b4fb2ca98e78f1ad7.de-de.xlf</t>
-  </si>
-  <si>
-    <t>ff4ca007-f0b9-485c-904d-fd61ac214a7d.d37c0275f3b44857206912caf5d9cf06afe27168.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -369,8 +378,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -434,21 +443,21 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -457,21 +466,21 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -480,67 +489,67 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="F7" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>9</v>
@@ -549,24 +558,24 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\ff4ca007-f0b9-485c-904d-fd61ac214a7d.md" r:id="rId8"/>
+    <hyperlink ref="B2" display="e2e\ff4ca007-f0b9-485c-904d-fd61ac214a7d.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -585,7 +594,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -603,52 +612,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -662,43 +671,43 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -709,16 +718,16 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>54</v>
@@ -726,11 +735,11 @@
       <c r="H3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>56</v>
@@ -739,42 +748,42 @@
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -783,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -803,49 +812,49 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -853,49 +862,49 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -903,28 +912,28 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -933,19 +942,19 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
@@ -953,28 +962,28 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -983,19 +992,19 @@
         <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
@@ -1003,14 +1012,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId8"/>
-    <hyperlink ref="A8" display="ff4ca007-f0b9-485c-904d-fd61ac214a7d.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="ff4ca007-f0b9-485c-904d-fd61ac214a7d.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="ff4ca007-f0b9-485c-904d-fd61ac214a7d.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId9"/>
+    <hyperlink ref="A8" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1029,7 +1039,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -1047,52 +1057,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -1106,16 +1116,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1124,25 +1134,25 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1153,72 +1163,72 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -1227,19 +1237,19 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1247,28 +1257,28 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -1277,19 +1287,19 @@
         <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -1297,29 +1307,29 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
       </c>
@@ -1327,19 +1337,19 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -1347,28 +1357,28 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -1377,19 +1387,19 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
@@ -1397,28 +1407,28 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1427,19 +1437,19 @@
         <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
@@ -1447,14 +1457,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId8"/>
-    <hyperlink ref="A8" display="ff4ca007-f0b9-485c-904d-fd61ac214a7d.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="ff4ca007-f0b9-485c-904d-fd61ac214a7d.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="ff4ca007-f0b9-485c-904d-fd61ac214a7d.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId9"/>
+    <hyperlink ref="A8" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>File Name</t>
   </si>
@@ -109,6 +109,15 @@
     <t>2016-11-02 03:48:20</t>
   </si>
   <si>
+    <t>f5e4b942-b750-4773-a8ac-dab448c62e81.md</t>
+  </si>
+  <si>
+    <t>e2e\f5e4b942-b750-4773-a8ac-dab448c62e81.md</t>
+  </si>
+  <si>
+    <t>2016-11-02 03:58:41</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -220,6 +229,12 @@
     <t>2016-11-02 03:48:07</t>
   </si>
   <si>
+    <t>f5e4b942-b750-4773-a8ac-dab448c62e81.1fddcda1355f33bd7100de31b0b59ef5b6de3338.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 03:58:28</t>
+  </si>
+  <si>
     <t>ff4ca007-f0b9-485c-904d-fd61ac214a7d.d37c0275f3b44857206912caf5d9cf06afe27168.de-de.xlf</t>
   </si>
   <si>
@@ -245,6 +260,9 @@
   </si>
   <si>
     <t>e05b360d-2fd3-4275-9404-14655c46e33e.0d4bde80c5d3095eadbc2f4b4fb2ca98e78f1ad7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>f5e4b942-b750-4773-a8ac-dab448c62e81.1fddcda1355f33bd7100de31b0b59ef5b6de3338.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -301,8 +319,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P8" headerRowCount="1">
-  <autoFilter ref="A1:P8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P9" headerRowCount="1">
+  <autoFilter ref="A1:P9"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -326,8 +344,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P8" headerRowCount="1">
-  <autoFilter ref="A1:P8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P9" headerRowCount="1">
+  <autoFilter ref="A1:P9"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -351,8 +369,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G8" headerRowCount="1">
-  <autoFilter ref="A1:G8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G9" headerRowCount="1">
+  <autoFilter ref="A1:G9"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -368,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -567,6 +585,29 @@
         <v>30</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\ff4ca007-f0b9-485c-904d-fd61ac214a7d.md" r:id="rId2"/>
@@ -576,6 +617,7 @@
     <hyperlink ref="B6" display="e2e\82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId6"/>
     <hyperlink ref="B7" display="e2e\afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId7"/>
     <hyperlink ref="B8" display="e2e\e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\f5e4b942-b750-4773-a8ac-dab448c62e81.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -586,7 +628,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -612,52 +654,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -671,40 +713,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -721,43 +763,43 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -771,19 +813,19 @@
         <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -792,19 +834,19 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -821,19 +863,19 @@
         <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -842,19 +884,19 @@
         <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -871,40 +913,40 @@
         <v>25</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G6" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -921,19 +963,19 @@
         <v>25</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -942,19 +984,19 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
@@ -971,19 +1013,19 @@
         <v>25</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -992,21 +1034,71 @@
         <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1021,6 +1113,7 @@
     <hyperlink ref="A6" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId8"/>
     <hyperlink ref="A7" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId9"/>
     <hyperlink ref="A8" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId10"/>
+    <hyperlink ref="A9" display="f5e4b942-b750-4773-a8ac-dab448c62e81.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1031,7 +1124,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1057,52 +1150,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -1116,16 +1209,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1134,22 +1227,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -1166,16 +1259,16 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
@@ -1184,25 +1277,25 @@
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -1216,16 +1309,16 @@
         <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>19</v>
@@ -1237,19 +1330,19 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1266,16 +1359,16 @@
         <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>22</v>
@@ -1287,19 +1380,19 @@
         <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -1316,16 +1409,16 @@
         <v>25</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>22</v>
@@ -1337,19 +1430,19 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -1366,16 +1459,16 @@
         <v>25</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>22</v>
@@ -1387,19 +1480,19 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
@@ -1416,16 +1509,16 @@
         <v>25</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>30</v>
@@ -1437,21 +1530,71 @@
         <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1466,6 +1609,7 @@
     <hyperlink ref="A6" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId8"/>
     <hyperlink ref="A7" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId9"/>
     <hyperlink ref="A8" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId10"/>
+    <hyperlink ref="A9" display="f5e4b942-b750-4773-a8ac-dab448c62e81.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -85,6 +85,15 @@
     <t>2016-11-02 03:47:29</t>
   </si>
   <si>
+    <t>f5e4b942-b750-4773-a8ac-dab448c62e81.md</t>
+  </si>
+  <si>
+    <t>e2e\f5e4b942-b750-4773-a8ac-dab448c62e81.md</t>
+  </si>
+  <si>
+    <t>2016-11-02 03:58:41</t>
+  </si>
+  <si>
     <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.md</t>
   </si>
   <si>
@@ -109,15 +118,6 @@
     <t>2016-11-02 03:48:20</t>
   </si>
   <si>
-    <t>f5e4b942-b750-4773-a8ac-dab448c62e81.md</t>
-  </si>
-  <si>
-    <t>e2e\f5e4b942-b750-4773-a8ac-dab448c62e81.md</t>
-  </si>
-  <si>
-    <t>2016-11-02 03:58:41</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -214,6 +214,12 @@
     <t>2016-11-02 03:47:18</t>
   </si>
   <si>
+    <t>f5e4b942-b750-4773-a8ac-dab448c62e81.1fddcda1355f33bd7100de31b0b59ef5b6de3338.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 03:58:28</t>
+  </si>
+  <si>
     <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.5134902f7947eb4e5928667de1e59cda74b842a1.zh-cn.xlf</t>
   </si>
   <si>
@@ -229,12 +235,6 @@
     <t>2016-11-02 03:48:07</t>
   </si>
   <si>
-    <t>f5e4b942-b750-4773-a8ac-dab448c62e81.1fddcda1355f33bd7100de31b0b59ef5b6de3338.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 03:58:28</t>
-  </si>
-  <si>
     <t>ff4ca007-f0b9-485c-904d-fd61ac214a7d.d37c0275f3b44857206912caf5d9cf06afe27168.de-de.xlf</t>
   </si>
   <si>
@@ -253,6 +253,9 @@
     <t>ebb60103-3a13-4be0-89c9-6678f5550b3a.39a0144d334d68bc06418ee82e42c5e7ed56fa14.de-de.xlf</t>
   </si>
   <si>
+    <t>f5e4b942-b750-4773-a8ac-dab448c62e81.1fddcda1355f33bd7100de31b0b59ef5b6de3338.de-de.xlf</t>
+  </si>
+  <si>
     <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.5134902f7947eb4e5928667de1e59cda74b842a1.de-de.xlf</t>
   </si>
   <si>
@@ -260,9 +263,6 @@
   </si>
   <si>
     <t>e05b360d-2fd3-4275-9404-14655c46e33e.0d4bde80c5d3095eadbc2f4b4fb2ca98e78f1ad7.de-de.xlf</t>
-  </si>
-  <si>
-    <t>f5e4b942-b750-4773-a8ac-dab448c62e81.1fddcda1355f33bd7100de31b0b59ef5b6de3338.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -530,13 +530,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -553,10 +553,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>22</v>
@@ -564,25 +564,25 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="F8" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -599,10 +599,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>33</v>
@@ -614,10 +614,10 @@
     <hyperlink ref="B3" display="e2e\6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId8"/>
-    <hyperlink ref="B9" display="e2e\f5e4b942-b750-4773-a8ac-dab448c62e81.md" r:id="rId9"/>
+    <hyperlink ref="B6" display="e2e\f5e4b942-b750-4773-a8ac-dab448c62e81.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -910,7 +910,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>50</v>
@@ -960,7 +960,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>50</v>
@@ -975,7 +975,7 @@
         <v>68</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -1004,13 +1004,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>25</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>50</v>
@@ -1022,10 +1022,10 @@
         <v>52</v>
       </c>
       <c r="G8" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1060,7 +1060,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>50</v>
@@ -1110,10 +1110,10 @@
     <hyperlink ref="I3" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId5"/>
     <hyperlink ref="A4" display="7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md" r:id="rId6"/>
     <hyperlink ref="A5" display="ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId7"/>
-    <hyperlink ref="A6" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId8"/>
-    <hyperlink ref="A7" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId9"/>
-    <hyperlink ref="A8" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId10"/>
-    <hyperlink ref="A9" display="f5e4b942-b750-4773-a8ac-dab448c62e81.md" r:id="rId11"/>
+    <hyperlink ref="A6" display="f5e4b942-b750-4773-a8ac-dab448c62e81.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId9"/>
+    <hyperlink ref="A8" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId10"/>
+    <hyperlink ref="A9" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1406,7 +1406,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>50</v>
@@ -1421,7 +1421,7 @@
         <v>79</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1456,7 +1456,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>50</v>
@@ -1500,13 +1500,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>25</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>50</v>
@@ -1521,7 +1521,7 @@
         <v>81</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1556,7 +1556,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>50</v>
@@ -1606,10 +1606,10 @@
     <hyperlink ref="I3" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId5"/>
     <hyperlink ref="A4" display="7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md" r:id="rId6"/>
     <hyperlink ref="A5" display="ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId7"/>
-    <hyperlink ref="A6" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId8"/>
-    <hyperlink ref="A7" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId9"/>
-    <hyperlink ref="A8" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId10"/>
-    <hyperlink ref="A9" display="f5e4b942-b750-4773-a8ac-dab448c62e81.md" r:id="rId11"/>
+    <hyperlink ref="A6" display="f5e4b942-b750-4773-a8ac-dab448c62e81.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId9"/>
+    <hyperlink ref="A8" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId10"/>
+    <hyperlink ref="A9" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>File Name</t>
   </si>
@@ -85,37 +85,40 @@
     <t>2016-11-02 03:47:29</t>
   </si>
   <si>
+    <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.md</t>
+  </si>
+  <si>
+    <t>e2e\82612ca7-fe78-41a1-96aa-1d12a6b67f89.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>afdd7d41-72f4-4df1-aba0-133ad75c042a.md</t>
+  </si>
+  <si>
+    <t>e2e\afdd7d41-72f4-4df1-aba0-133ad75c042a.md</t>
+  </si>
+  <si>
+    <t>e05b360d-2fd3-4275-9404-14655c46e33e.md</t>
+  </si>
+  <si>
+    <t>e2e\e05b360d-2fd3-4275-9404-14655c46e33e.md</t>
+  </si>
+  <si>
+    <t>2016-11-02 03:48:20</t>
+  </si>
+  <si>
     <t>f5e4b942-b750-4773-a8ac-dab448c62e81.md</t>
   </si>
   <si>
     <t>e2e\f5e4b942-b750-4773-a8ac-dab448c62e81.md</t>
   </si>
   <si>
-    <t>2016-11-02 03:58:41</t>
-  </si>
-  <si>
-    <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.md</t>
-  </si>
-  <si>
-    <t>e2e\82612ca7-fe78-41a1-96aa-1d12a6b67f89.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>afdd7d41-72f4-4df1-aba0-133ad75c042a.md</t>
-  </si>
-  <si>
-    <t>e2e\afdd7d41-72f4-4df1-aba0-133ad75c042a.md</t>
-  </si>
-  <si>
-    <t>e05b360d-2fd3-4275-9404-14655c46e33e.md</t>
-  </si>
-  <si>
-    <t>e2e\e05b360d-2fd3-4275-9404-14655c46e33e.md</t>
-  </si>
-  <si>
-    <t>2016-11-02 03:48:20</t>
+    <t>N\A</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:00:15</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -214,12 +217,6 @@
     <t>2016-11-02 03:47:18</t>
   </si>
   <si>
-    <t>f5e4b942-b750-4773-a8ac-dab448c62e81.1fddcda1355f33bd7100de31b0b59ef5b6de3338.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 03:58:28</t>
-  </si>
-  <si>
     <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.5134902f7947eb4e5928667de1e59cda74b842a1.zh-cn.xlf</t>
   </si>
   <si>
@@ -253,16 +250,16 @@
     <t>ebb60103-3a13-4be0-89c9-6678f5550b3a.39a0144d334d68bc06418ee82e42c5e7ed56fa14.de-de.xlf</t>
   </si>
   <si>
+    <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.5134902f7947eb4e5928667de1e59cda74b842a1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>afdd7d41-72f4-4df1-aba0-133ad75c042a.4a2c0a42bfd7dbdc29f53c7283043dbf72c9c29b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>e05b360d-2fd3-4275-9404-14655c46e33e.0d4bde80c5d3095eadbc2f4b4fb2ca98e78f1ad7.de-de.xlf</t>
+  </si>
+  <si>
     <t>f5e4b942-b750-4773-a8ac-dab448c62e81.1fddcda1355f33bd7100de31b0b59ef5b6de3338.de-de.xlf</t>
-  </si>
-  <si>
-    <t>82612ca7-fe78-41a1-96aa-1d12a6b67f89.5134902f7947eb4e5928667de1e59cda74b842a1.de-de.xlf</t>
-  </si>
-  <si>
-    <t>afdd7d41-72f4-4df1-aba0-133ad75c042a.4a2c0a42bfd7dbdc29f53c7283043dbf72c9c29b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>e05b360d-2fd3-4275-9404-14655c46e33e.0d4bde80c5d3095eadbc2f4b4fb2ca98e78f1ad7.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -319,8 +316,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P9" headerRowCount="1">
-  <autoFilter ref="A1:P9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P8" headerRowCount="1">
+  <autoFilter ref="A1:P8"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -530,13 +527,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -553,10 +550,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>22</v>
@@ -564,25 +561,25 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -599,13 +596,13 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -614,10 +611,10 @@
     <hyperlink ref="B3" display="e2e\6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\f5e4b942-b750-4773-a8ac-dab448c62e81.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId8"/>
-    <hyperlink ref="B9" display="e2e\e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId9"/>
+    <hyperlink ref="B6" display="e2e\82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\f5e4b942-b750-4773-a8ac-dab448c62e81.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -628,7 +625,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -654,52 +651,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -713,40 +710,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -763,43 +760,43 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -813,19 +810,19 @@
         <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -834,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -863,40 +860,40 @@
         <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -910,22 +907,22 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -934,19 +931,19 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -960,23 +957,23 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G7" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
       </c>
@@ -984,19 +981,19 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
@@ -1004,28 +1001,28 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>70</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1034,71 +1031,21 @@
         <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1110,10 +1057,9 @@
     <hyperlink ref="I3" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId5"/>
     <hyperlink ref="A4" display="7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md" r:id="rId6"/>
     <hyperlink ref="A5" display="ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId7"/>
-    <hyperlink ref="A6" display="f5e4b942-b750-4773-a8ac-dab448c62e81.md" r:id="rId8"/>
-    <hyperlink ref="A7" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId9"/>
-    <hyperlink ref="A8" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId10"/>
-    <hyperlink ref="A9" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId11"/>
+    <hyperlink ref="A6" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId9"/>
+    <hyperlink ref="A8" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1150,52 +1096,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -1209,16 +1155,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1227,22 +1173,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -1259,16 +1205,16 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
@@ -1277,25 +1223,25 @@
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -1309,16 +1255,16 @@
         <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>19</v>
@@ -1330,19 +1276,19 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1359,16 +1305,16 @@
         <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>22</v>
@@ -1380,19 +1326,19 @@
         <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -1406,22 +1352,22 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1430,19 +1376,19 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -1456,19 +1402,19 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>22</v>
@@ -1480,19 +1426,19 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
@@ -1500,28 +1446,28 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1530,19 +1476,19 @@
         <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
@@ -1556,22 +1502,22 @@
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
@@ -1580,19 +1526,19 @@
         <v>10</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>10</v>
@@ -1606,10 +1552,10 @@
     <hyperlink ref="I3" display="6dbca37e-ee19-4e7c-b31c-898559327818.md" r:id="rId5"/>
     <hyperlink ref="A4" display="7fb02bfb-5711-4bfb-8b48-7534ad7c06c3.md" r:id="rId6"/>
     <hyperlink ref="A5" display="ebb60103-3a13-4be0-89c9-6678f5550b3a.md" r:id="rId7"/>
-    <hyperlink ref="A6" display="f5e4b942-b750-4773-a8ac-dab448c62e81.md" r:id="rId8"/>
-    <hyperlink ref="A7" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId9"/>
-    <hyperlink ref="A8" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId10"/>
-    <hyperlink ref="A9" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId11"/>
+    <hyperlink ref="A6" display="82612ca7-fe78-41a1-96aa-1d12a6b67f89.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="afdd7d41-72f4-4df1-aba0-133ad75c042a.md" r:id="rId9"/>
+    <hyperlink ref="A8" display="e05b360d-2fd3-4275-9404-14655c46e33e.md" r:id="rId10"/>
+    <hyperlink ref="A9" display="f5e4b942-b750-4773-a8ac-dab448c62e81.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-11-02 04:05:31</t>
@@ -124,13 +124,16 @@
     <t>2016-11-02 04:05:16</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-11-02 04:06:16</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
     <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:06:34</t>
   </si>
 </sst>
 </file>
@@ -264,8 +267,8 @@
     <col min="2" max="2" width="17.3850727081299" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -360,14 +363,14 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -451,11 +454,11 @@
       <c r="H2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>36</v>
@@ -501,11 +504,11 @@
       <c r="H3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>36</v>
@@ -529,7 +532,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="b.md" r:id="rId3"/>
+    <hyperlink ref="I2" display="a.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -548,14 +553,14 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -639,14 +644,14 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -689,14 +694,14 @@
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -717,7 +722,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="b.md" r:id="rId3"/>
+    <hyperlink ref="I2" display="a.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>File Name</t>
   </si>
@@ -61,6 +61,12 @@
     <t>e2e\b.md</t>
   </si>
   <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:07:24</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -130,10 +136,22 @@
     <t>True</t>
   </si>
   <si>
+    <t>b.63290e5768f688058c7b37413b0a5c26c308f864.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:07:10</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/6fb9fcdb6a20aa5214973c9f4f124620dcfe6840/e2e/a.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/bfb26d106b33d9a0ee8e4744d1e60dff9af30bb1/e2e/b.md.</t>
+  </si>
+  <si>
     <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf</t>
   </si>
   <si>
     <t>2016-11-02 04:06:34</t>
+  </si>
+  <si>
+    <t>b.63290e5768f688058c7b37413b0a5c26c308f864.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -332,13 +350,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -376,57 +394,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -440,40 +458,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -487,46 +505,46 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -566,57 +584,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -630,16 +648,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -648,22 +666,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -677,46 +695,46 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -61,7 +61,7 @@
     <t>e2e\b.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2016-11-02 04:07:24</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>test-content-1.md</t>
-  </si>
-  <si>
-    <t>e2e\test-content-1.md</t>
+    <t>file_full_deleted_multi_path_1.md</t>
+  </si>
+  <si>
+    <t>e2e\file_full_deleted_multi_path_1.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -52,7 +52,49 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-11-02 04:09:40</t>
+    <t>2016-11-02 04:10:30</t>
+  </si>
+  <si>
+    <t>file_full_deleted_multi_path_2.md</t>
+  </si>
+  <si>
+    <t>e2e\file_full_deleted_multi_path_2.md</t>
+  </si>
+  <si>
+    <t>file_full_deleted_single_path.md</t>
+  </si>
+  <si>
+    <t>e2e\file_full_deleted_single_path.md</t>
+  </si>
+  <si>
+    <t>file_no_deleted_multi_path_1.md</t>
+  </si>
+  <si>
+    <t>e2e\file_no_deleted_multi_path_1.md</t>
+  </si>
+  <si>
+    <t>file_no_deleted_multi_path_2.md</t>
+  </si>
+  <si>
+    <t>e2e\file_no_deleted_multi_path_2.md</t>
+  </si>
+  <si>
+    <t>file_no_deleted_single_path.md</t>
+  </si>
+  <si>
+    <t>e2e\file_no_deleted_single_path.md</t>
+  </si>
+  <si>
+    <t>file_partial_deleted_multi_path_1.md</t>
+  </si>
+  <si>
+    <t>e2e\file_partial_deleted_multi_path_1.md</t>
+  </si>
+  <si>
+    <t>file_partial_deleted_multi_path_2.md</t>
+  </si>
+  <si>
+    <t>e2e\file_partial_deleted_multi_path_2.md</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -106,16 +148,16 @@
     <t>e2e</t>
   </si>
   <si>
-    <t>ht</t>
+    <t>mt</t>
   </si>
   <si>
     <t>False</t>
   </si>
   <si>
-    <t>test-content-1.fc92bd3ea58825d16dce72b4174897baa7b370e7.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:09:09</t>
+    <t>file_full_deleted_multi_path_1.48e6116bf01773078e82b70d69ae824d9d3335bf.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:10:17</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -124,7 +166,31 @@
     <t>True</t>
   </si>
   <si>
-    <t>test-content-1.fc92bd3ea58825d16dce72b4174897baa7b370e7.de-de.xlf</t>
+    <t>file_full_deleted_single_path.e86419d14c4ef175629cef2c2aa65b39701a3167.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>file_no_deleted_multi_path_1.2336e4b28de82563dc9ea89a1eb254ab730456de.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>file_no_deleted_single_path.84480e30a75eaa7877ca77d49d2059db6121edd7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>file_partial_deleted_multi_path_1.950eb2cafff7c1eccbf1f4ff641b1cbe66aecd0c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>file_full_deleted_multi_path_1.48e6116bf01773078e82b70d69ae824d9d3335bf.de-de.xlf</t>
+  </si>
+  <si>
+    <t>file_full_deleted_single_path.e86419d14c4ef175629cef2c2aa65b39701a3167.de-de.xlf</t>
+  </si>
+  <si>
+    <t>file_no_deleted_multi_path_1.2336e4b28de82563dc9ea89a1eb254ab730456de.de-de.xlf</t>
+  </si>
+  <si>
+    <t>file_no_deleted_single_path.84480e30a75eaa7877ca77d49d2059db6121edd7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>file_partial_deleted_multi_path_1.950eb2cafff7c1eccbf1f4ff641b1cbe66aecd0c.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -181,8 +247,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P2" headerRowCount="1">
-  <autoFilter ref="A1:P2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P9" headerRowCount="1">
+  <autoFilter ref="A1:P9"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -206,8 +272,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P2" headerRowCount="1">
-  <autoFilter ref="A1:P2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P9" headerRowCount="1">
+  <autoFilter ref="A1:P9"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -231,8 +297,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G9" headerRowCount="1">
+  <autoFilter ref="A1:G9"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -248,14 +314,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.4339008331299" customWidth="1"/>
-    <col min="2" max="2" width="21.5097942352295" customWidth="1"/>
+    <col min="1" max="1" width="34.977424621582" customWidth="1"/>
+    <col min="2" max="2" width="39.0533142089844" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
     <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
@@ -309,9 +375,177 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\test-content-1.md" r:id="rId2"/>
+    <hyperlink ref="B2" display="e2e\file_full_deleted_multi_path_1.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\file_full_deleted_multi_path_2.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\file_full_deleted_single_path.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\file_no_deleted_multi_path_1.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\file_no_deleted_multi_path_2.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\file_no_deleted_single_path.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\file_partial_deleted_multi_path_1.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\file_partial_deleted_multi_path_2.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -322,13 +556,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
+    <col min="1" max="1" width="34.977424621582" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
     <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
@@ -348,52 +582,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -407,19 +641,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -428,27 +662,384 @@
         <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="P2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="test-content-1.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="file_full_deleted_multi_path_1.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="file_full_deleted_multi_path_2.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="file_full_deleted_single_path.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="file_no_deleted_multi_path_1.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="file_no_deleted_multi_path_2.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="file_no_deleted_single_path.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="file_partial_deleted_multi_path_1.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="file_partial_deleted_multi_path_2.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -459,13 +1050,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
+    <col min="1" max="1" width="34.977424621582" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
     <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
@@ -485,52 +1076,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -544,16 +1135,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -565,27 +1156,384 @@
         <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="P2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="test-content-1.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="file_full_deleted_multi_path_1.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="file_full_deleted_multi_path_2.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="file_full_deleted_single_path.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="file_no_deleted_multi_path_1.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="file_no_deleted_multi_path_2.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="file_no_deleted_single_path.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="file_partial_deleted_multi_path_1.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="file_partial_deleted_multi_path_2.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>file_full_deleted_multi_path_1.md</t>
-  </si>
-  <si>
-    <t>e2e\file_full_deleted_multi_path_1.md</t>
+    <t>file_no_deleted_multi_path_1.md</t>
+  </si>
+  <si>
+    <t>e2e\file_no_deleted_multi_path_1.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -55,24 +55,6 @@
     <t>2016-11-02 04:10:30</t>
   </si>
   <si>
-    <t>file_full_deleted_multi_path_2.md</t>
-  </si>
-  <si>
-    <t>e2e\file_full_deleted_multi_path_2.md</t>
-  </si>
-  <si>
-    <t>file_full_deleted_single_path.md</t>
-  </si>
-  <si>
-    <t>e2e\file_full_deleted_single_path.md</t>
-  </si>
-  <si>
-    <t>file_no_deleted_multi_path_1.md</t>
-  </si>
-  <si>
-    <t>e2e\file_no_deleted_multi_path_1.md</t>
-  </si>
-  <si>
     <t>file_no_deleted_multi_path_2.md</t>
   </si>
   <si>
@@ -85,16 +67,19 @@
     <t>e2e\file_no_deleted_single_path.md</t>
   </si>
   <si>
+    <t>2016-11-02 04:11:28</t>
+  </si>
+  <si>
     <t>file_partial_deleted_multi_path_1.md</t>
   </si>
   <si>
     <t>e2e\file_partial_deleted_multi_path_1.md</t>
   </si>
   <si>
-    <t>file_partial_deleted_multi_path_2.md</t>
-  </si>
-  <si>
-    <t>e2e\file_partial_deleted_multi_path_2.md</t>
+    <t>newfile.77e153cc-db46-4e3c-8a9a-5ec5fd323643.md</t>
+  </si>
+  <si>
+    <t>e2e\newfile.77e153cc-db46-4e3c-8a9a-5ec5fd323643.md</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -154,7 +139,7 @@
     <t>False</t>
   </si>
   <si>
-    <t>file_full_deleted_multi_path_1.48e6116bf01773078e82b70d69ae824d9d3335bf.zh-cn.xlf</t>
+    <t>file_no_deleted_multi_path_1.2336e4b28de82563dc9ea89a1eb254ab730456de.zh-cn.xlf</t>
   </si>
   <si>
     <t>2016-11-02 04:10:17</t>
@@ -166,22 +151,16 @@
     <t>True</t>
   </si>
   <si>
-    <t>file_full_deleted_single_path.e86419d14c4ef175629cef2c2aa65b39701a3167.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>file_no_deleted_multi_path_1.2336e4b28de82563dc9ea89a1eb254ab730456de.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>file_no_deleted_single_path.84480e30a75eaa7877ca77d49d2059db6121edd7.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-11-02 04:11:15</t>
+  </si>
+  <si>
     <t>file_partial_deleted_multi_path_1.950eb2cafff7c1eccbf1f4ff641b1cbe66aecd0c.zh-cn.xlf</t>
   </si>
   <si>
-    <t>file_full_deleted_multi_path_1.48e6116bf01773078e82b70d69ae824d9d3335bf.de-de.xlf</t>
-  </si>
-  <si>
-    <t>file_full_deleted_single_path.e86419d14c4ef175629cef2c2aa65b39701a3167.de-de.xlf</t>
+    <t>newfile.77e153cc-db46-4e3c-8a9a-5ec5fd323643.ce75f0da61dc6f3962244607a1729974b51cca32.zh-cn.xlf</t>
   </si>
   <si>
     <t>file_no_deleted_multi_path_1.2336e4b28de82563dc9ea89a1eb254ab730456de.de-de.xlf</t>
@@ -191,6 +170,9 @@
   </si>
   <si>
     <t>file_partial_deleted_multi_path_1.950eb2cafff7c1eccbf1f4ff641b1cbe66aecd0c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>newfile.77e153cc-db46-4e3c-8a9a-5ec5fd323643.ce75f0da61dc6f3962244607a1729974b51cca32.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -247,8 +229,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P9" headerRowCount="1">
-  <autoFilter ref="A1:P9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P6" headerRowCount="1">
+  <autoFilter ref="A1:P6"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -272,8 +254,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P9" headerRowCount="1">
-  <autoFilter ref="A1:P9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P6" headerRowCount="1">
+  <autoFilter ref="A1:P6"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -297,8 +279,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G9" headerRowCount="1">
-  <autoFilter ref="A1:G9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G6" headerRowCount="1">
+  <autoFilter ref="A1:G6"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -314,14 +296,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.977424621582" customWidth="1"/>
-    <col min="2" max="2" width="39.0533142089844" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
     <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
@@ -418,15 +400,15 @@
         <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -446,10 +428,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -464,88 +446,16 @@
         <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\file_full_deleted_multi_path_1.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\file_full_deleted_multi_path_2.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\file_full_deleted_single_path.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\file_no_deleted_multi_path_1.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\file_no_deleted_multi_path_2.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\file_no_deleted_single_path.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\file_partial_deleted_multi_path_1.md" r:id="rId8"/>
-    <hyperlink ref="B9" display="e2e\file_partial_deleted_multi_path_2.md" r:id="rId9"/>
+    <hyperlink ref="B2" display="e2e\file_no_deleted_multi_path_1.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\file_no_deleted_multi_path_2.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\file_no_deleted_single_path.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\file_partial_deleted_multi_path_1.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\newfile.77e153cc-db46-4e3c-8a9a-5ec5fd323643.md" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -556,13 +466,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.977424621582" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
     <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
@@ -582,52 +492,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -641,40 +551,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -691,40 +601,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -741,40 +651,40 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -782,7 +692,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -791,40 +701,40 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="L5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -832,7 +742,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -841,205 +751,52 @@
         <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="L6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="P9" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="file_full_deleted_multi_path_1.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="file_full_deleted_multi_path_2.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="file_full_deleted_single_path.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="file_no_deleted_multi_path_1.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="file_no_deleted_multi_path_2.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="file_no_deleted_single_path.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="file_partial_deleted_multi_path_1.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="file_partial_deleted_multi_path_2.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="file_no_deleted_multi_path_1.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="file_no_deleted_multi_path_2.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="file_no_deleted_single_path.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="file_partial_deleted_multi_path_1.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="newfile.77e153cc-db46-4e3c-8a9a-5ec5fd323643.md" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1050,13 +807,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.977424621582" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
     <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
@@ -1076,52 +833,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -1135,16 +892,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1156,19 +913,19 @@
         <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -1185,16 +942,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>54</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -1206,19 +963,19 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -1235,40 +992,40 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1276,7 +1033,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -1285,16 +1042,16 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>12</v>
@@ -1306,19 +1063,19 @@
         <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -1326,7 +1083,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -1335,205 +1092,52 @@
         <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="L6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="P9" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="file_full_deleted_multi_path_1.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="file_full_deleted_multi_path_2.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="file_full_deleted_single_path.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="file_no_deleted_multi_path_1.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="file_no_deleted_multi_path_2.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="file_no_deleted_single_path.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="file_partial_deleted_multi_path_1.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="file_partial_deleted_multi_path_2.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="file_no_deleted_multi_path_1.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="file_no_deleted_multi_path_2.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="file_no_deleted_single_path.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="file_partial_deleted_multi_path_1.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="newfile.77e153cc-db46-4e3c-8a9a-5ec5fd323643.md" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>File Name</t>
   </si>
@@ -49,33 +49,36 @@
     <t/>
   </si>
   <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:10:30</t>
+  </si>
+  <si>
+    <t>file_no_deleted_multi_path_2.md</t>
+  </si>
+  <si>
+    <t>e2e\file_no_deleted_multi_path_2.md</t>
+  </si>
+  <si>
+    <t>file_partial_deleted_multi_path_1.md</t>
+  </si>
+  <si>
+    <t>e2e\file_partial_deleted_multi_path_1.md</t>
+  </si>
+  <si>
+    <t>file_no_deleted_single_path.md</t>
+  </si>
+  <si>
+    <t>e2e\file_no_deleted_single_path.md</t>
+  </si>
+  <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-11-02 04:10:30</t>
-  </si>
-  <si>
-    <t>file_no_deleted_multi_path_2.md</t>
-  </si>
-  <si>
-    <t>e2e\file_no_deleted_multi_path_2.md</t>
-  </si>
-  <si>
-    <t>file_no_deleted_single_path.md</t>
-  </si>
-  <si>
-    <t>e2e\file_no_deleted_single_path.md</t>
-  </si>
-  <si>
     <t>2016-11-02 04:11:28</t>
   </si>
   <si>
-    <t>file_partial_deleted_multi_path_1.md</t>
-  </si>
-  <si>
-    <t>e2e\file_partial_deleted_multi_path_1.md</t>
-  </si>
-  <si>
     <t>newfile.77e153cc-db46-4e3c-8a9a-5ec5fd323643.md</t>
   </si>
   <si>
@@ -145,31 +148,40 @@
     <t>2016-11-02 04:10:17</t>
   </si>
   <si>
+    <t>2016-11-02 04:12:07</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>file_partial_deleted_multi_path_1.950eb2cafff7c1eccbf1f4ff641b1cbe66aecd0c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>file_no_deleted_single_path.84480e30a75eaa7877ca77d49d2059db6121edd7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:11:15</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/553ed420f5d7e362589624b4cd6a28550b9d2bf1/e2e/file_no_deleted_single_path.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/ef86bf97b68b014d035e6f7cf59cf37ba6071c97/e2e/file_no_deleted_single_path.md.</t>
+  </si>
+  <si>
+    <t>newfile.77e153cc-db46-4e3c-8a9a-5ec5fd323643.ce75f0da61dc6f3962244607a1729974b51cca32.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>file_no_deleted_single_path.84480e30a75eaa7877ca77d49d2059db6121edd7.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:11:15</t>
-  </si>
-  <si>
-    <t>file_partial_deleted_multi_path_1.950eb2cafff7c1eccbf1f4ff641b1cbe66aecd0c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>newfile.77e153cc-db46-4e3c-8a9a-5ec5fd323643.ce75f0da61dc6f3962244607a1729974b51cca32.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>file_no_deleted_multi_path_1.2336e4b28de82563dc9ea89a1eb254ab730456de.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-11-02 04:12:25</t>
+  </si>
+  <si>
+    <t>file_partial_deleted_multi_path_1.950eb2cafff7c1eccbf1f4ff641b1cbe66aecd0c.de-de.xlf</t>
+  </si>
+  <si>
     <t>file_no_deleted_single_path.84480e30a75eaa7877ca77d49d2059db6121edd7.de-de.xlf</t>
-  </si>
-  <si>
-    <t>file_partial_deleted_multi_path_1.950eb2cafff7c1eccbf1f4ff641b1cbe66aecd0c.de-de.xlf</t>
   </si>
   <si>
     <t>newfile.77e153cc-db46-4e3c-8a9a-5ec5fd323643.ce75f0da61dc6f3962244607a1729974b51cca32.de-de.xlf</t>
@@ -306,8 +318,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -400,61 +412,61 @@
         <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\file_no_deleted_multi_path_1.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\file_no_deleted_multi_path_2.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\file_no_deleted_single_path.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\file_partial_deleted_multi_path_1.md" r:id="rId5"/>
+    <hyperlink ref="B4" display="e2e\file_partial_deleted_multi_path_1.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\file_no_deleted_single_path.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\newfile.77e153cc-db46-4e3c-8a9a-5ec5fd323643.md" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
@@ -474,70 +486,70 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="34.977424621582" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -551,40 +563,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -601,40 +613,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -651,40 +663,40 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -692,79 +704,79 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>47</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
       </c>
@@ -772,19 +784,19 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -793,10 +805,14 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="file_no_deleted_multi_path_1.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="file_no_deleted_multi_path_2.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="file_no_deleted_single_path.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="file_partial_deleted_multi_path_1.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="newfile.77e153cc-db46-4e3c-8a9a-5ec5fd323643.md" r:id="rId6"/>
+    <hyperlink ref="I2" display="file_no_deleted_multi_path_1.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="file_no_deleted_multi_path_2.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="file_no_deleted_multi_path_1.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="file_partial_deleted_multi_path_1.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="file_partial_deleted_multi_path_1.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="file_no_deleted_single_path.md" r:id="rId8"/>
+    <hyperlink ref="I5" display="file_no_deleted_single_path.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="newfile.77e153cc-db46-4e3c-8a9a-5ec5fd323643.md" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -815,70 +831,70 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="34.977424621582" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -892,40 +908,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -942,40 +958,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -992,40 +1008,40 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1033,79 +1049,79 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
       </c>
@@ -1113,19 +1129,19 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -1134,10 +1150,14 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="file_no_deleted_multi_path_1.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="file_no_deleted_multi_path_2.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="file_no_deleted_single_path.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="file_partial_deleted_multi_path_1.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="newfile.77e153cc-db46-4e3c-8a9a-5ec5fd323643.md" r:id="rId6"/>
+    <hyperlink ref="I2" display="file_no_deleted_multi_path_1.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="file_no_deleted_multi_path_2.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="file_no_deleted_multi_path_1.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="file_partial_deleted_multi_path_1.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="file_partial_deleted_multi_path_1.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="file_no_deleted_single_path.md" r:id="rId8"/>
+    <hyperlink ref="I5" display="file_no_deleted_single_path.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="newfile.77e153cc-db46-4e3c-8a9a-5ec5fd323643.md" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-11-02 04:13:44</t>
@@ -67,21 +67,6 @@
     <t>e2e\e1684adc-9350-4923-87d9-1adb840606c9.md</t>
   </si>
   <si>
-    <t>58b9e847-cd5b-4a03-9acc-33fa80094f44.png</t>
-  </si>
-  <si>
-    <t>e2e\58b9e847-cd5b-4a03-9acc-33fa80094f44.png</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png</t>
-  </si>
-  <si>
-    <t>e2e\77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -145,7 +130,7 @@
     <t>2016-11-02 04:13:29</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-11-02 04:14:28</t>
   </si>
   <si>
     <t>True</t>
@@ -157,16 +142,10 @@
     <t>e1684adc-9350-4923-87d9-1adb840606c9.61b2fd45ee7d6adaf61be10d67b256ba36e4faef.zh-cn.xlf</t>
   </si>
   <si>
-    <t>8d15a2e3fb727261e2a94125ebdebdf9942adcfd.png</t>
-  </si>
-  <si>
-    <t>True(Dependency)</t>
-  </si>
-  <si>
-    <t>ae74153a10fb15b2eac5830a95d95cbce64267af.png</t>
-  </si>
-  <si>
     <t>4bad256f-2880-4cce-b0e1-fea91db02514.0dad97eda92f227a9cb276d24ad6d0c1a1350959.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:14:47</t>
   </si>
   <si>
     <t>544d23ad-c6e0-4e28-8640-c4f67bf310f5.18164ab7b05def6625e611d5d7bb4c9a82cfb16d.de-de.xlf</t>
@@ -229,8 +208,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P6" headerRowCount="1">
-  <autoFilter ref="A1:P6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P4" headerRowCount="1">
+  <autoFilter ref="A1:P4"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -254,8 +233,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P6" headerRowCount="1">
-  <autoFilter ref="A1:P6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P4" headerRowCount="1">
+  <autoFilter ref="A1:P4"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -279,8 +258,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G6" headerRowCount="1">
-  <autoFilter ref="A1:G6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -296,7 +275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -306,8 +285,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -403,59 +382,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\4bad256f-2880-4cce-b0e1-fea91db02514.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\544d23ad-c6e0-4e28-8640-c4f67bf310f5.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -466,7 +397,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -474,70 +405,70 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
-    <col min="13" max="13" width="17.7080821990967" customWidth="1"/>
-    <col min="14" max="14" width="40" customWidth="1"/>
+    <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
+    <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
     <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -551,40 +482,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -601,40 +532,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -651,152 +582,53 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="4bad256f-2880-4cce-b0e1-fea91db02514.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="544d23ad-c6e0-4e28-8640-c4f67bf310f5.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId5"/>
-    <hyperlink ref="A6" display="77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId6"/>
+    <hyperlink ref="I2" display="4bad256f-2880-4cce-b0e1-fea91db02514.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="544d23ad-c6e0-4e28-8640-c4f67bf310f5.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="544d23ad-c6e0-4e28-8640-c4f67bf310f5.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -807,7 +639,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -815,70 +647,70 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
-    <col min="13" max="13" width="17.7080821990967" customWidth="1"/>
-    <col min="14" max="14" width="40" customWidth="1"/>
+    <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
+    <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
     <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -892,25 +724,25 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>43</v>
@@ -919,13 +751,13 @@
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -942,25 +774,25 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>43</v>
@@ -969,13 +801,13 @@
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -992,25 +824,25 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>43</v>
@@ -1019,125 +851,26 @@
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="4bad256f-2880-4cce-b0e1-fea91db02514.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="544d23ad-c6e0-4e28-8640-c4f67bf310f5.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId5"/>
-    <hyperlink ref="A6" display="77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId6"/>
+    <hyperlink ref="I2" display="4bad256f-2880-4cce-b0e1-fea91db02514.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="544d23ad-c6e0-4e28-8640-c4f67bf310f5.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="544d23ad-c6e0-4e28-8640-c4f67bf310f5.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>File Name</t>
   </si>
@@ -37,21 +37,30 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md</t>
+  </si>
+  <si>
+    <t>e2e\19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:18:48</t>
+  </si>
+  <si>
     <t>4bad256f-2880-4cce-b0e1-fea91db02514.md</t>
   </si>
   <si>
     <t>e2e\4bad256f-2880-4cce-b0e1-fea91db02514.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2016-11-02 04:13:44</t>
   </si>
   <si>
@@ -61,45 +70,18 @@
     <t>e2e\544d23ad-c6e0-4e28-8640-c4f67bf310f5.md</t>
   </si>
   <si>
+    <t>c4b81aca-92bd-4af4-bc8d-e7b2b1613a26.md</t>
+  </si>
+  <si>
+    <t>e2e\c4b81aca-92bd-4af4-bc8d-e7b2b1613a26.md</t>
+  </si>
+  <si>
     <t>e1684adc-9350-4923-87d9-1adb840606c9.md</t>
   </si>
   <si>
     <t>e2e\e1684adc-9350-4923-87d9-1adb840606c9.md</t>
   </si>
   <si>
-    <t>58b9e847-cd5b-4a03-9acc-33fa80094f44.png</t>
-  </si>
-  <si>
-    <t>e2e\58b9e847-cd5b-4a03-9acc-33fa80094f44.png</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png</t>
-  </si>
-  <si>
-    <t>e2e\77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png</t>
-  </si>
-  <si>
-    <t>19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md</t>
-  </si>
-  <si>
-    <t>e2e\19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:18:48</t>
-  </si>
-  <si>
-    <t>c4b81aca-92bd-4af4-bc8d-e7b2b1613a26.md</t>
-  </si>
-  <si>
-    <t>e2e\c4b81aca-92bd-4af4-bc8d-e7b2b1613a26.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -157,6 +139,18 @@
     <t>False</t>
   </si>
   <si>
+    <t>19ebb255-2a8a-4f97-b2de-eae3d2440ff5.75e757e6f847cf8c55c6acac1d8994a689b22aa5.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:18:32</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:19:43</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>4bad256f-2880-4cce-b0e1-fea91db02514.0dad97eda92f227a9cb276d24ad6d0c1a1350959.zh-cn.xlf</t>
   </si>
   <si>
@@ -166,31 +160,16 @@
     <t>2016-11-02 04:14:28</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>544d23ad-c6e0-4e28-8640-c4f67bf310f5.18164ab7b05def6625e611d5d7bb4c9a82cfb16d.zh-cn.xlf</t>
   </si>
   <si>
     <t>e1684adc-9350-4923-87d9-1adb840606c9.61b2fd45ee7d6adaf61be10d67b256ba36e4faef.zh-cn.xlf</t>
   </si>
   <si>
-    <t>8d15a2e3fb727261e2a94125ebdebdf9942adcfd.png</t>
-  </si>
-  <si>
-    <t>True(Dependency)</t>
-  </si>
-  <si>
-    <t>ae74153a10fb15b2eac5830a95d95cbce64267af.png</t>
-  </si>
-  <si>
-    <t>19ebb255-2a8a-4f97-b2de-eae3d2440ff5.75e757e6f847cf8c55c6acac1d8994a689b22aa5.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:18:32</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>19ebb255-2a8a-4f97-b2de-eae3d2440ff5.75e757e6f847cf8c55c6acac1d8994a689b22aa5.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:20:01</t>
   </si>
   <si>
     <t>4bad256f-2880-4cce-b0e1-fea91db02514.0dad97eda92f227a9cb276d24ad6d0c1a1350959.de-de.xlf</t>
@@ -203,9 +182,6 @@
   </si>
   <si>
     <t>e1684adc-9350-4923-87d9-1adb840606c9.61b2fd45ee7d6adaf61be10d67b256ba36e4faef.de-de.xlf</t>
-  </si>
-  <si>
-    <t>19ebb255-2a8a-4f97-b2de-eae3d2440ff5.75e757e6f847cf8c55c6acac1d8994a689b22aa5.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -262,8 +238,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P8" headerRowCount="1">
-  <autoFilter ref="A1:P8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P6" headerRowCount="1">
+  <autoFilter ref="A1:P6"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -287,8 +263,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P8" headerRowCount="1">
-  <autoFilter ref="A1:P8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P6" headerRowCount="1">
+  <autoFilter ref="A1:P6"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -312,8 +288,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G8" headerRowCount="1">
-  <autoFilter ref="A1:G8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G6" headerRowCount="1">
+  <autoFilter ref="A1:G6"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -329,7 +305,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,41 +386,41 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>10</v>
@@ -467,7 +443,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>10</v>
@@ -479,64 +455,16 @@
         <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\4bad256f-2880-4cce-b0e1-fea91db02514.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\544d23ad-c6e0-4e28-8640-c4f67bf310f5.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\c4b81aca-92bd-4af4-bc8d-e7b2b1613a26.md" r:id="rId8"/>
+    <hyperlink ref="B2" display="e2e\19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\4bad256f-2880-4cce-b0e1-fea91db02514.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\544d23ad-c6e0-4e28-8640-c4f67bf310f5.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\c4b81aca-92bd-4af4-bc8d-e7b2b1613a26.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -547,7 +475,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -565,60 +493,60 @@
     <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
-    <col min="13" max="13" width="17.7080821990967" customWidth="1"/>
-    <col min="14" max="14" width="40" customWidth="1"/>
+    <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
+    <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
     <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2">
@@ -632,40 +560,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -682,40 +610,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="H3" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -723,7 +651,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -732,40 +660,40 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -773,49 +701,49 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -826,165 +754,63 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="P8" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="4bad256f-2880-4cce-b0e1-fea91db02514.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="4bad256f-2880-4cce-b0e1-fea91db02514.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="544d23ad-c6e0-4e28-8640-c4f67bf310f5.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="544d23ad-c6e0-4e28-8640-c4f67bf310f5.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId8"/>
-    <hyperlink ref="I5" display="58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId9"/>
-    <hyperlink ref="A6" display="77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId10"/>
-    <hyperlink ref="I6" display="77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId11"/>
-    <hyperlink ref="A7" display="19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md" r:id="rId12"/>
-    <hyperlink ref="A8" display="c4b81aca-92bd-4af4-bc8d-e7b2b1613a26.md" r:id="rId13"/>
+    <hyperlink ref="A2" display="19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="4bad256f-2880-4cce-b0e1-fea91db02514.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="4bad256f-2880-4cce-b0e1-fea91db02514.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="544d23ad-c6e0-4e28-8640-c4f67bf310f5.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="544d23ad-c6e0-4e28-8640-c4f67bf310f5.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="c4b81aca-92bd-4af4-bc8d-e7b2b1613a26.md" r:id="rId8"/>
+    <hyperlink ref="I5" display="19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId10"/>
+    <hyperlink ref="I6" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -995,7 +821,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1013,60 +839,60 @@
     <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
-    <col min="13" max="13" width="17.7080821990967" customWidth="1"/>
-    <col min="14" max="14" width="40" customWidth="1"/>
+    <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
+    <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
     <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2">
@@ -1080,16 +906,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1098,22 +924,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -1130,40 +956,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -1171,49 +997,49 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="0" t="s">
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1221,49 +1047,49 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -1274,25 +1100,25 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>55</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>20</v>
@@ -1301,138 +1127,36 @@
         <v>55</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="P8" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="4bad256f-2880-4cce-b0e1-fea91db02514.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="4bad256f-2880-4cce-b0e1-fea91db02514.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="544d23ad-c6e0-4e28-8640-c4f67bf310f5.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="544d23ad-c6e0-4e28-8640-c4f67bf310f5.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId8"/>
-    <hyperlink ref="I5" display="58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId9"/>
-    <hyperlink ref="A6" display="77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId10"/>
-    <hyperlink ref="I6" display="77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId11"/>
-    <hyperlink ref="A7" display="19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md" r:id="rId12"/>
-    <hyperlink ref="A8" display="c4b81aca-92bd-4af4-bc8d-e7b2b1613a26.md" r:id="rId13"/>
+    <hyperlink ref="A2" display="19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="4bad256f-2880-4cce-b0e1-fea91db02514.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="4bad256f-2880-4cce-b0e1-fea91db02514.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="544d23ad-c6e0-4e28-8640-c4f67bf310f5.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="544d23ad-c6e0-4e28-8640-c4f67bf310f5.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="c4b81aca-92bd-4af4-bc8d-e7b2b1613a26.md" r:id="rId8"/>
+    <hyperlink ref="I5" display="19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId10"/>
+    <hyperlink ref="I6" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -106,7 +106,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-11-02 04:21:02</t>
+    <t>2016-11-02 04:21:52</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -205,7 +205,7 @@
     <t>b6dd0abe-121e-41d1-bf94-79d5fe98a847.4cc8cc259add74f22a297c241ec91e10dccf4dbf.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-11-02 04:20:48</t>
+    <t>2016-11-02 04:21:37</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>File Name</t>
   </si>
@@ -82,21 +82,6 @@
     <t>e2e\e1684adc-9350-4923-87d9-1adb840606c9.md</t>
   </si>
   <si>
-    <t>58b9e847-cd5b-4a03-9acc-33fa80094f44.png</t>
-  </si>
-  <si>
-    <t>e2e\58b9e847-cd5b-4a03-9acc-33fa80094f44.png</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png</t>
-  </si>
-  <si>
-    <t>e2e\77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png</t>
-  </si>
-  <si>
     <t>b6dd0abe-121e-41d1-bf94-79d5fe98a847.md</t>
   </si>
   <si>
@@ -193,22 +178,16 @@
     <t>e1684adc-9350-4923-87d9-1adb840606c9.61b2fd45ee7d6adaf61be10d67b256ba36e4faef.zh-cn.xlf</t>
   </si>
   <si>
-    <t>8d15a2e3fb727261e2a94125ebdebdf9942adcfd.png</t>
-  </si>
-  <si>
-    <t>True(Dependency)</t>
-  </si>
-  <si>
-    <t>ae74153a10fb15b2eac5830a95d95cbce64267af.png</t>
-  </si>
-  <si>
     <t>b6dd0abe-121e-41d1-bf94-79d5fe98a847.4cc8cc259add74f22a297c241ec91e10dccf4dbf.zh-cn.xlf</t>
   </si>
   <si>
     <t>2016-11-02 04:21:37</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-11-02 04:22:29</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/d16535ba2506d151efa473331350521186c113b7/e2e/b6dd0abe-121e-41d1-bf94-79d5fe98a847.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/2d623e3a0dc69ba90af4466b11e8ab9e6e3e1a2a/e2e/b6dd0abe-121e-41d1-bf94-79d5fe98a847.md.</t>
   </si>
   <si>
     <t>19ebb255-2a8a-4f97-b2de-eae3d2440ff5.75e757e6f847cf8c55c6acac1d8994a689b22aa5.de-de.xlf</t>
@@ -230,6 +209,9 @@
   </si>
   <si>
     <t>b6dd0abe-121e-41d1-bf94-79d5fe98a847.4cc8cc259add74f22a297c241ec91e10dccf4dbf.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:22:47</t>
   </si>
 </sst>
 </file>
@@ -286,8 +268,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P9" headerRowCount="1">
-  <autoFilter ref="A1:P9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P7" headerRowCount="1">
+  <autoFilter ref="A1:P7"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -311,8 +293,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P9" headerRowCount="1">
-  <autoFilter ref="A1:P9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P7" headerRowCount="1">
+  <autoFilter ref="A1:P7"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -336,8 +318,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G9" headerRowCount="1">
-  <autoFilter ref="A1:G9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G7" headerRowCount="1">
+  <autoFilter ref="A1:G7"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -353,7 +335,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -514,65 +496,19 @@
         <v>23</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="F7" s="0" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -582,9 +518,7 @@
     <hyperlink ref="B4" display="e2e\544d23ad-c6e0-4e28-8640-c4f67bf310f5.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\c4b81aca-92bd-4af4-bc8d-e7b2b1613a26.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId8"/>
-    <hyperlink ref="B9" display="e2e\b6dd0abe-121e-41d1-bf94-79d5fe98a847.md" r:id="rId9"/>
+    <hyperlink ref="B7" display="e2e\b6dd0abe-121e-41d1-bf94-79d5fe98a847.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -595,7 +529,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -613,60 +547,60 @@
     <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
-    <col min="13" max="13" width="17.7080821990967" customWidth="1"/>
-    <col min="14" max="14" width="40" customWidth="1"/>
+    <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
+    <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -680,40 +614,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -730,40 +664,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -780,40 +714,40 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -830,40 +764,40 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -880,40 +814,40 @@
         <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -924,22 +858,22 @@
         <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="D7" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>55</v>
@@ -948,7 +882,7 @@
         <v>22</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>56</v>
@@ -957,116 +891,16 @@
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P8" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P9" s="0" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1081,11 +915,8 @@
     <hyperlink ref="I5" display="19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md" r:id="rId9"/>
     <hyperlink ref="A6" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId10"/>
     <hyperlink ref="I6" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId11"/>
-    <hyperlink ref="A7" display="58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId12"/>
-    <hyperlink ref="I7" display="58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId13"/>
-    <hyperlink ref="A8" display="77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId14"/>
-    <hyperlink ref="I8" display="77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId15"/>
-    <hyperlink ref="A9" display="b6dd0abe-121e-41d1-bf94-79d5fe98a847.md" r:id="rId16"/>
+    <hyperlink ref="A7" display="b6dd0abe-121e-41d1-bf94-79d5fe98a847.md" r:id="rId12"/>
+    <hyperlink ref="I7" display="b6dd0abe-121e-41d1-bf94-79d5fe98a847.md" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1096,7 +927,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1114,60 +945,60 @@
     <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
-    <col min="13" max="13" width="17.7080821990967" customWidth="1"/>
-    <col min="14" max="14" width="40" customWidth="1"/>
+    <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
+    <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -1181,16 +1012,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1199,22 +1030,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -1231,16 +1062,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
@@ -1249,22 +1080,22 @@
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -1281,16 +1112,16 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>15</v>
@@ -1299,22 +1130,22 @@
         <v>16</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1331,16 +1162,16 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>12</v>
@@ -1349,22 +1180,22 @@
         <v>7</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -1381,16 +1212,16 @@
         <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>15</v>
@@ -1399,22 +1230,22 @@
         <v>20</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -1425,149 +1256,49 @@
         <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="D7" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P8" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P9" s="0" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1582,11 +1313,8 @@
     <hyperlink ref="I5" display="19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md" r:id="rId9"/>
     <hyperlink ref="A6" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId10"/>
     <hyperlink ref="I6" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId11"/>
-    <hyperlink ref="A7" display="58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId12"/>
-    <hyperlink ref="I7" display="58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId13"/>
-    <hyperlink ref="A8" display="77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId14"/>
-    <hyperlink ref="I8" display="77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId15"/>
-    <hyperlink ref="A9" display="b6dd0abe-121e-41d1-bf94-79d5fe98a847.md" r:id="rId16"/>
+    <hyperlink ref="A7" display="b6dd0abe-121e-41d1-bf94-79d5fe98a847.md" r:id="rId12"/>
+    <hyperlink ref="I7" display="b6dd0abe-121e-41d1-bf94-79d5fe98a847.md" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>File Name</t>
   </si>
@@ -70,6 +70,15 @@
     <t>e2e\544d23ad-c6e0-4e28-8640-c4f67bf310f5.md</t>
   </si>
   <si>
+    <t>b6dd0abe-121e-41d1-bf94-79d5fe98a847.md</t>
+  </si>
+  <si>
+    <t>e2e\b6dd0abe-121e-41d1-bf94-79d5fe98a847.md</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:21:52</t>
+  </si>
+  <si>
     <t>c4b81aca-92bd-4af4-bc8d-e7b2b1613a26.md</t>
   </si>
   <si>
@@ -82,18 +91,6 @@
     <t>e2e\e1684adc-9350-4923-87d9-1adb840606c9.md</t>
   </si>
   <si>
-    <t>b6dd0abe-121e-41d1-bf94-79d5fe98a847.md</t>
-  </si>
-  <si>
-    <t>e2e\b6dd0abe-121e-41d1-bf94-79d5fe98a847.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:21:52</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -175,21 +172,18 @@
     <t>544d23ad-c6e0-4e28-8640-c4f67bf310f5.18164ab7b05def6625e611d5d7bb4c9a82cfb16d.zh-cn.xlf</t>
   </si>
   <si>
+    <t>b6dd0abe-121e-41d1-bf94-79d5fe98a847.4cc8cc259add74f22a297c241ec91e10dccf4dbf.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:21:37</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:23:25</t>
+  </si>
+  <si>
     <t>e1684adc-9350-4923-87d9-1adb840606c9.61b2fd45ee7d6adaf61be10d67b256ba36e4faef.zh-cn.xlf</t>
   </si>
   <si>
-    <t>b6dd0abe-121e-41d1-bf94-79d5fe98a847.4cc8cc259add74f22a297c241ec91e10dccf4dbf.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:21:37</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:22:29</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/d16535ba2506d151efa473331350521186c113b7/e2e/b6dd0abe-121e-41d1-bf94-79d5fe98a847.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/2d623e3a0dc69ba90af4466b11e8ab9e6e3e1a2a/e2e/b6dd0abe-121e-41d1-bf94-79d5fe98a847.md.</t>
-  </si>
-  <si>
     <t>19ebb255-2a8a-4f97-b2de-eae3d2440ff5.75e757e6f847cf8c55c6acac1d8994a689b22aa5.de-de.xlf</t>
   </si>
   <si>
@@ -205,13 +199,13 @@
     <t>544d23ad-c6e0-4e28-8640-c4f67bf310f5.18164ab7b05def6625e611d5d7bb4c9a82cfb16d.de-de.xlf</t>
   </si>
   <si>
+    <t>b6dd0abe-121e-41d1-bf94-79d5fe98a847.4cc8cc259add74f22a297c241ec91e10dccf4dbf.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:23:43</t>
+  </si>
+  <si>
     <t>e1684adc-9350-4923-87d9-1adb840606c9.61b2fd45ee7d6adaf61be10d67b256ba36e4faef.de-de.xlf</t>
-  </si>
-  <si>
-    <t>b6dd0abe-121e-41d1-bf94-79d5fe98a847.4cc8cc259add74f22a297c241ec91e10dccf4dbf.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:22:47</t>
   </si>
 </sst>
 </file>
@@ -462,15 +456,15 @@
         <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -485,15 +479,15 @@
         <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>9</v>
@@ -502,13 +496,13 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -516,9 +510,9 @@
     <hyperlink ref="B2" display="e2e\19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\4bad256f-2880-4cce-b0e1-fea91db02514.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\544d23ad-c6e0-4e28-8640-c4f67bf310f5.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\c4b81aca-92bd-4af4-bc8d-e7b2b1613a26.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\b6dd0abe-121e-41d1-bf94-79d5fe98a847.md" r:id="rId7"/>
+    <hyperlink ref="B5" display="e2e\b6dd0abe-121e-41d1-bf94-79d5fe98a847.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\c4b81aca-92bd-4af4-bc8d-e7b2b1613a26.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -550,57 +544,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -614,40 +608,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="F2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>48</v>
-      </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -664,40 +658,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -714,40 +708,40 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -764,40 +758,40 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>48</v>
-      </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -805,7 +799,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -814,40 +808,40 @@
         <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="F6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -855,52 +849,52 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="F7" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -911,12 +905,12 @@
     <hyperlink ref="I3" display="4bad256f-2880-4cce-b0e1-fea91db02514.md" r:id="rId5"/>
     <hyperlink ref="A4" display="544d23ad-c6e0-4e28-8640-c4f67bf310f5.md" r:id="rId6"/>
     <hyperlink ref="I4" display="544d23ad-c6e0-4e28-8640-c4f67bf310f5.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="c4b81aca-92bd-4af4-bc8d-e7b2b1613a26.md" r:id="rId8"/>
-    <hyperlink ref="I5" display="19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId10"/>
-    <hyperlink ref="I6" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId11"/>
-    <hyperlink ref="A7" display="b6dd0abe-121e-41d1-bf94-79d5fe98a847.md" r:id="rId12"/>
-    <hyperlink ref="I7" display="b6dd0abe-121e-41d1-bf94-79d5fe98a847.md" r:id="rId13"/>
+    <hyperlink ref="A5" display="b6dd0abe-121e-41d1-bf94-79d5fe98a847.md" r:id="rId8"/>
+    <hyperlink ref="I5" display="b6dd0abe-121e-41d1-bf94-79d5fe98a847.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="c4b81aca-92bd-4af4-bc8d-e7b2b1613a26.md" r:id="rId10"/>
+    <hyperlink ref="I6" display="19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId12"/>
+    <hyperlink ref="I7" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -948,57 +942,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -1012,16 +1006,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1030,22 +1024,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -1062,16 +1056,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
@@ -1080,22 +1074,22 @@
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -1112,16 +1106,16 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>15</v>
@@ -1130,22 +1124,22 @@
         <v>16</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1162,40 +1156,40 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -1203,7 +1197,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -1212,40 +1206,40 @@
         <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="F6" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -1253,52 +1247,52 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="F7" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1309,12 +1303,12 @@
     <hyperlink ref="I3" display="4bad256f-2880-4cce-b0e1-fea91db02514.md" r:id="rId5"/>
     <hyperlink ref="A4" display="544d23ad-c6e0-4e28-8640-c4f67bf310f5.md" r:id="rId6"/>
     <hyperlink ref="I4" display="544d23ad-c6e0-4e28-8640-c4f67bf310f5.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="c4b81aca-92bd-4af4-bc8d-e7b2b1613a26.md" r:id="rId8"/>
-    <hyperlink ref="I5" display="19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId10"/>
-    <hyperlink ref="I6" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId11"/>
-    <hyperlink ref="A7" display="b6dd0abe-121e-41d1-bf94-79d5fe98a847.md" r:id="rId12"/>
-    <hyperlink ref="I7" display="b6dd0abe-121e-41d1-bf94-79d5fe98a847.md" r:id="rId13"/>
+    <hyperlink ref="A5" display="b6dd0abe-121e-41d1-bf94-79d5fe98a847.md" r:id="rId8"/>
+    <hyperlink ref="I5" display="b6dd0abe-121e-41d1-bf94-79d5fe98a847.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="c4b81aca-92bd-4af4-bc8d-e7b2b1613a26.md" r:id="rId10"/>
+    <hyperlink ref="I6" display="19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId12"/>
+    <hyperlink ref="I7" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -91,21 +91,21 @@
     <t>e2e\e1684adc-9350-4923-87d9-1adb840606c9.md</t>
   </si>
   <si>
+    <t>58b9e847-cd5b-4a03-9acc-33fa80094f44.png</t>
+  </si>
+  <si>
+    <t>e2e\58b9e847-cd5b-4a03-9acc-33fa80094f44.png</t>
+  </si>
+  <si>
+    <t>.png</t>
+  </si>
+  <si>
     <t>77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png</t>
   </si>
   <si>
     <t>e2e\77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png</t>
   </si>
   <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>58b9e847-cd5b-4a03-9acc-33fa80094f44.png</t>
-  </si>
-  <si>
-    <t>e2e\58b9e847-cd5b-4a03-9acc-33fa80094f44.png</t>
-  </si>
-  <si>
     <t>d4d5660d-a719-48e8-a02a-0861b8ad483f.md</t>
   </si>
   <si>
@@ -115,7 +115,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-11-02 04:25:16</t>
+    <t>2016-11-02 04:26:27</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -211,19 +211,19 @@
     <t>e1684adc-9350-4923-87d9-1adb840606c9.61b2fd45ee7d6adaf61be10d67b256ba36e4faef.zh-cn.xlf</t>
   </si>
   <si>
+    <t>8d15a2e3fb727261e2a94125ebdebdf9942adcfd.png</t>
+  </si>
+  <si>
+    <t>True(Dependency)</t>
+  </si>
+  <si>
     <t>ae74153a10fb15b2eac5830a95d95cbce64267af.png</t>
   </si>
   <si>
-    <t>True(Dependency)</t>
-  </si>
-  <si>
-    <t>8d15a2e3fb727261e2a94125ebdebdf9942adcfd.png</t>
-  </si>
-  <si>
     <t>d4d5660d-a719-48e8-a02a-0861b8ad483f.a79fbb9cbb1a841320f2029b74468635958b5d58.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-11-02 04:25:01</t>
+    <t>2016-11-02 04:26:12</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -630,8 +630,8 @@
     <hyperlink ref="B5" display="e2e\b6dd0abe-121e-41d1-bf94-79d5fe98a847.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\c4b81aca-92bd-4af4-bc8d-e7b2b1613a26.md" r:id="rId6"/>
     <hyperlink ref="B7" display="e2e\e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId8"/>
-    <hyperlink ref="B9" display="e2e\58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId9"/>
+    <hyperlink ref="B8" display="e2e\58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId9"/>
     <hyperlink ref="B10" display="e2e\d4d5660d-a719-48e8-a02a-0861b8ad483f.md" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
@@ -1058,7 +1058,7 @@
         <v>66</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="O8" s="0" t="s">
         <v>52</v>
@@ -1108,7 +1108,7 @@
         <v>66</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="O9" s="0" t="s">
         <v>52</v>
@@ -1181,10 +1181,10 @@
     <hyperlink ref="I6" display="19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md" r:id="rId11"/>
     <hyperlink ref="A7" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId12"/>
     <hyperlink ref="I7" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId13"/>
-    <hyperlink ref="A8" display="77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId14"/>
-    <hyperlink ref="I8" display="77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId15"/>
-    <hyperlink ref="A9" display="58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId16"/>
-    <hyperlink ref="I9" display="58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId17"/>
+    <hyperlink ref="A8" display="58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId14"/>
+    <hyperlink ref="I8" display="58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId15"/>
+    <hyperlink ref="A9" display="77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId16"/>
+    <hyperlink ref="I9" display="77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId17"/>
     <hyperlink ref="A10" display="d4d5660d-a719-48e8-a02a-0861b8ad483f.md" r:id="rId18"/>
   </hyperlinks>
   <headerFooter/>
@@ -1611,7 +1611,7 @@
         <v>66</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="O8" s="0" t="s">
         <v>52</v>
@@ -1661,7 +1661,7 @@
         <v>66</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="O9" s="0" t="s">
         <v>52</v>
@@ -1734,10 +1734,10 @@
     <hyperlink ref="I6" display="19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md" r:id="rId11"/>
     <hyperlink ref="A7" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId12"/>
     <hyperlink ref="I7" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId13"/>
-    <hyperlink ref="A8" display="77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId14"/>
-    <hyperlink ref="I8" display="77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId15"/>
-    <hyperlink ref="A9" display="58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId16"/>
-    <hyperlink ref="I9" display="58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId17"/>
+    <hyperlink ref="A8" display="58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId14"/>
+    <hyperlink ref="I8" display="58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId15"/>
+    <hyperlink ref="A9" display="77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId16"/>
+    <hyperlink ref="I9" display="77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId17"/>
     <hyperlink ref="A10" display="d4d5660d-a719-48e8-a02a-0861b8ad483f.md" r:id="rId18"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>File Name</t>
   </si>
@@ -85,39 +85,21 @@
     <t>e2e\c4b81aca-92bd-4af4-bc8d-e7b2b1613a26.md</t>
   </si>
   <si>
+    <t>d4d5660d-a719-48e8-a02a-0861b8ad483f.md</t>
+  </si>
+  <si>
+    <t>e2e\d4d5660d-a719-48e8-a02a-0861b8ad483f.md</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:26:27</t>
+  </si>
+  <si>
     <t>e1684adc-9350-4923-87d9-1adb840606c9.md</t>
   </si>
   <si>
     <t>e2e\e1684adc-9350-4923-87d9-1adb840606c9.md</t>
   </si>
   <si>
-    <t>58b9e847-cd5b-4a03-9acc-33fa80094f44.png</t>
-  </si>
-  <si>
-    <t>e2e\58b9e847-cd5b-4a03-9acc-33fa80094f44.png</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png</t>
-  </si>
-  <si>
-    <t>e2e\77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png</t>
-  </si>
-  <si>
-    <t>d4d5660d-a719-48e8-a02a-0861b8ad483f.md</t>
-  </si>
-  <si>
-    <t>e2e\d4d5660d-a719-48e8-a02a-0861b8ad483f.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:26:27</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -208,27 +190,18 @@
     <t>2016-11-02 04:23:25</t>
   </si>
   <si>
+    <t>d4d5660d-a719-48e8-a02a-0861b8ad483f.a79fbb9cbb1a841320f2029b74468635958b5d58.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:26:12</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:27:05</t>
+  </si>
+  <si>
     <t>e1684adc-9350-4923-87d9-1adb840606c9.61b2fd45ee7d6adaf61be10d67b256ba36e4faef.zh-cn.xlf</t>
   </si>
   <si>
-    <t>8d15a2e3fb727261e2a94125ebdebdf9942adcfd.png</t>
-  </si>
-  <si>
-    <t>True(Dependency)</t>
-  </si>
-  <si>
-    <t>ae74153a10fb15b2eac5830a95d95cbce64267af.png</t>
-  </si>
-  <si>
-    <t>d4d5660d-a719-48e8-a02a-0861b8ad483f.a79fbb9cbb1a841320f2029b74468635958b5d58.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:26:12</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
     <t>19ebb255-2a8a-4f97-b2de-eae3d2440ff5.75e757e6f847cf8c55c6acac1d8994a689b22aa5.de-de.xlf</t>
   </si>
   <si>
@@ -250,10 +223,13 @@
     <t>2016-11-02 04:23:43</t>
   </si>
   <si>
+    <t>d4d5660d-a719-48e8-a02a-0861b8ad483f.a79fbb9cbb1a841320f2029b74468635958b5d58.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:27:23</t>
+  </si>
+  <si>
     <t>e1684adc-9350-4923-87d9-1adb840606c9.61b2fd45ee7d6adaf61be10d67b256ba36e4faef.de-de.xlf</t>
-  </si>
-  <si>
-    <t>d4d5660d-a719-48e8-a02a-0861b8ad483f.a79fbb9cbb1a841320f2029b74468635958b5d58.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -310,8 +286,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P10" headerRowCount="1">
-  <autoFilter ref="A1:P10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P8" headerRowCount="1">
+  <autoFilter ref="A1:P8"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -335,8 +311,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P10" headerRowCount="1">
-  <autoFilter ref="A1:P10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P8" headerRowCount="1">
+  <autoFilter ref="A1:P8"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -360,8 +336,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G10" headerRowCount="1">
-  <autoFilter ref="A1:G10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G8" headerRowCount="1">
+  <autoFilter ref="A1:G8"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -377,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -550,18 +526,18 @@
         <v>11</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>10</v>
@@ -574,52 +550,6 @@
       </c>
       <c r="G8" s="2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -629,10 +559,8 @@
     <hyperlink ref="B4" display="e2e\544d23ad-c6e0-4e28-8640-c4f67bf310f5.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\b6dd0abe-121e-41d1-bf94-79d5fe98a847.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\c4b81aca-92bd-4af4-bc8d-e7b2b1613a26.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId8"/>
-    <hyperlink ref="B9" display="e2e\77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId9"/>
-    <hyperlink ref="B10" display="e2e\d4d5660d-a719-48e8-a02a-0861b8ad483f.md" r:id="rId10"/>
+    <hyperlink ref="B7" display="e2e\d4d5660d-a719-48e8-a02a-0861b8ad483f.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -643,7 +571,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -661,60 +589,60 @@
     <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
-    <col min="13" max="13" width="17.7080821990967" customWidth="1"/>
-    <col min="14" max="14" width="40" customWidth="1"/>
+    <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
+    <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
     <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -728,40 +656,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -778,40 +706,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="H3" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -828,40 +756,40 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -878,40 +806,40 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -928,40 +856,40 @@
         <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -978,40 +906,40 @@
         <v>11</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
@@ -1019,151 +947,51 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1179,13 +1007,10 @@
     <hyperlink ref="I5" display="b6dd0abe-121e-41d1-bf94-79d5fe98a847.md" r:id="rId9"/>
     <hyperlink ref="A6" display="c4b81aca-92bd-4af4-bc8d-e7b2b1613a26.md" r:id="rId10"/>
     <hyperlink ref="I6" display="19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md" r:id="rId11"/>
-    <hyperlink ref="A7" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId12"/>
-    <hyperlink ref="I7" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId13"/>
-    <hyperlink ref="A8" display="58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId14"/>
-    <hyperlink ref="I8" display="58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId15"/>
-    <hyperlink ref="A9" display="77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId16"/>
-    <hyperlink ref="I9" display="77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId17"/>
-    <hyperlink ref="A10" display="d4d5660d-a719-48e8-a02a-0861b8ad483f.md" r:id="rId18"/>
+    <hyperlink ref="A7" display="d4d5660d-a719-48e8-a02a-0861b8ad483f.md" r:id="rId12"/>
+    <hyperlink ref="I7" display="d4d5660d-a719-48e8-a02a-0861b8ad483f.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId14"/>
+    <hyperlink ref="I8" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId15"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1196,7 +1021,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1214,60 +1039,60 @@
     <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
-    <col min="13" max="13" width="17.7080821990967" customWidth="1"/>
-    <col min="14" max="14" width="40" customWidth="1"/>
+    <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
+    <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
     <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -1281,16 +1106,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1299,22 +1124,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -1331,16 +1156,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
@@ -1349,22 +1174,22 @@
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -1381,16 +1206,16 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>15</v>
@@ -1399,22 +1224,22 @@
         <v>16</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1431,16 +1256,16 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>20</v>
@@ -1449,22 +1274,22 @@
         <v>18</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -1481,16 +1306,16 @@
         <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>12</v>
@@ -1499,22 +1324,22 @@
         <v>7</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -1531,40 +1356,40 @@
         <v>11</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
@@ -1572,151 +1397,51 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J8" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="L8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1732,13 +1457,10 @@
     <hyperlink ref="I5" display="b6dd0abe-121e-41d1-bf94-79d5fe98a847.md" r:id="rId9"/>
     <hyperlink ref="A6" display="c4b81aca-92bd-4af4-bc8d-e7b2b1613a26.md" r:id="rId10"/>
     <hyperlink ref="I6" display="19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md" r:id="rId11"/>
-    <hyperlink ref="A7" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId12"/>
-    <hyperlink ref="I7" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId13"/>
-    <hyperlink ref="A8" display="58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId14"/>
-    <hyperlink ref="I8" display="58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId15"/>
-    <hyperlink ref="A9" display="77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId16"/>
-    <hyperlink ref="I9" display="77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId17"/>
-    <hyperlink ref="A10" display="d4d5660d-a719-48e8-a02a-0861b8ad483f.md" r:id="rId18"/>
+    <hyperlink ref="A7" display="d4d5660d-a719-48e8-a02a-0861b8ad483f.md" r:id="rId12"/>
+    <hyperlink ref="I7" display="d4d5660d-a719-48e8-a02a-0861b8ad483f.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId14"/>
+    <hyperlink ref="I8" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId15"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>File Name</t>
   </si>
@@ -85,46 +85,28 @@
     <t>e2e\c4b81aca-92bd-4af4-bc8d-e7b2b1613a26.md</t>
   </si>
   <si>
+    <t>d4d5660d-a719-48e8-a02a-0861b8ad483f.md</t>
+  </si>
+  <si>
+    <t>e2e\d4d5660d-a719-48e8-a02a-0861b8ad483f.md</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:29:41</t>
+  </si>
+  <si>
     <t>e1684adc-9350-4923-87d9-1adb840606c9.md</t>
   </si>
   <si>
     <t>e2e\e1684adc-9350-4923-87d9-1adb840606c9.md</t>
   </si>
   <si>
-    <t>77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png</t>
-  </si>
-  <si>
-    <t>e2e\77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>58b9e847-cd5b-4a03-9acc-33fa80094f44.png</t>
-  </si>
-  <si>
-    <t>e2e\58b9e847-cd5b-4a03-9acc-33fa80094f44.png</t>
-  </si>
-  <si>
-    <t>d4d5660d-a719-48e8-a02a-0861b8ad483f.md</t>
-  </si>
-  <si>
-    <t>e2e\d4d5660d-a719-48e8-a02a-0861b8ad483f.md</t>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:29:41</t>
-  </si>
-  <si>
     <t>e019f529-fa44-42f9-aea4-7148ac120188.md</t>
   </si>
   <si>
     <t>e2e\e019f529-fa44-42f9-aea4-7148ac120188.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handback transform failed</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -217,31 +199,25 @@
     <t>2016-11-02 04:23:25</t>
   </si>
   <si>
+    <t>d4d5660d-a719-48e8-a02a-0861b8ad483f.a79fbb9cbb1a841320f2029b74468635958b5d58.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:29:26</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:30:18</t>
+  </si>
+  <si>
     <t>e1684adc-9350-4923-87d9-1adb840606c9.61b2fd45ee7d6adaf61be10d67b256ba36e4faef.zh-cn.xlf</t>
   </si>
   <si>
-    <t>ae74153a10fb15b2eac5830a95d95cbce64267af.png</t>
-  </si>
-  <si>
-    <t>True(Dependency)</t>
-  </si>
-  <si>
-    <t>8d15a2e3fb727261e2a94125ebdebdf9942adcfd.png</t>
-  </si>
-  <si>
-    <t>d4d5660d-a719-48e8-a02a-0861b8ad483f.a79fbb9cbb1a841320f2029b74468635958b5d58.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:29:26</t>
+    <t>e019f529-fa44-42f9-aea4-7148ac120188.49d21b2961e46962a44788a8b455e594c4853520.zh-cn.xlf</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Targeting source file commit 5d1494a02fc2a805005097e31504d622df4ccae1 is lower than latest handed back source file commit 0a43a98345991c44a6d10f3b5faf8ce45a7bd62b</t>
-  </si>
-  <si>
-    <t>e019f529-fa44-42f9-aea4-7148ac120188.49d21b2961e46962a44788a8b455e594c4853520.zh-cn.xlf</t>
+    <t>Handback file name: uegddldj.b5u is different with handoff file name: e019f529-fa44-42f9-aea4-7148ac120188.49d21b2961e46962a44788a8b455e594c4853520.zh-cn.</t>
   </si>
   <si>
     <t>19ebb255-2a8a-4f97-b2de-eae3d2440ff5.75e757e6f847cf8c55c6acac1d8994a689b22aa5.de-de.xlf</t>
@@ -265,13 +241,19 @@
     <t>2016-11-02 04:23:43</t>
   </si>
   <si>
+    <t>d4d5660d-a719-48e8-a02a-0861b8ad483f.a79fbb9cbb1a841320f2029b74468635958b5d58.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:30:35</t>
+  </si>
+  <si>
     <t>e1684adc-9350-4923-87d9-1adb840606c9.61b2fd45ee7d6adaf61be10d67b256ba36e4faef.de-de.xlf</t>
   </si>
   <si>
-    <t>d4d5660d-a719-48e8-a02a-0861b8ad483f.a79fbb9cbb1a841320f2029b74468635958b5d58.de-de.xlf</t>
-  </si>
-  <si>
     <t>e019f529-fa44-42f9-aea4-7148ac120188.49d21b2961e46962a44788a8b455e594c4853520.de-de.xlf</t>
+  </si>
+  <si>
+    <t>Handback file name: uegddldj.b5u is different with handoff file name: e019f529-fa44-42f9-aea4-7148ac120188.49d21b2961e46962a44788a8b455e594c4853520.de-de.</t>
   </si>
 </sst>
 </file>
@@ -328,8 +310,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P11" headerRowCount="1">
-  <autoFilter ref="A1:P11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P9" headerRowCount="1">
+  <autoFilter ref="A1:P9"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -353,8 +335,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P11" headerRowCount="1">
-  <autoFilter ref="A1:P11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P9" headerRowCount="1">
+  <autoFilter ref="A1:P9"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -378,8 +360,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G11" headerRowCount="1">
-  <autoFilter ref="A1:G11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G9" headerRowCount="1">
+  <autoFilter ref="A1:G9"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -395,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -568,18 +550,18 @@
         <v>11</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>10</v>
@@ -602,65 +584,19 @@
         <v>29</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -670,11 +606,9 @@
     <hyperlink ref="B4" display="e2e\544d23ad-c6e0-4e28-8640-c4f67bf310f5.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\b6dd0abe-121e-41d1-bf94-79d5fe98a847.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\c4b81aca-92bd-4af4-bc8d-e7b2b1613a26.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId8"/>
-    <hyperlink ref="B9" display="e2e\58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId9"/>
-    <hyperlink ref="B10" display="e2e\d4d5660d-a719-48e8-a02a-0861b8ad483f.md" r:id="rId10"/>
-    <hyperlink ref="B11" display="e2e\e019f529-fa44-42f9-aea4-7148ac120188.md" r:id="rId11"/>
+    <hyperlink ref="B7" display="e2e\d4d5660d-a719-48e8-a02a-0861b8ad483f.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\e019f529-fa44-42f9-aea4-7148ac120188.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -685,7 +619,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -703,60 +637,60 @@
     <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
-    <col min="13" max="13" width="17.7080821990967" customWidth="1"/>
-    <col min="14" max="14" width="40" customWidth="1"/>
+    <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
+    <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
     <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2">
@@ -770,40 +704,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -820,40 +754,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="H3" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -870,40 +804,40 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -920,40 +854,40 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -970,40 +904,40 @@
         <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -1020,40 +954,40 @@
         <v>11</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
@@ -1061,49 +995,49 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
@@ -1114,149 +1048,49 @@
         <v>28</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="P10" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="P11" s="0" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1271,14 +1105,11 @@
     <hyperlink ref="I5" display="b6dd0abe-121e-41d1-bf94-79d5fe98a847.md" r:id="rId9"/>
     <hyperlink ref="A6" display="c4b81aca-92bd-4af4-bc8d-e7b2b1613a26.md" r:id="rId10"/>
     <hyperlink ref="I6" display="19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md" r:id="rId11"/>
-    <hyperlink ref="A7" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId12"/>
-    <hyperlink ref="I7" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId13"/>
-    <hyperlink ref="A8" display="77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId14"/>
-    <hyperlink ref="I8" display="77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId15"/>
-    <hyperlink ref="A9" display="58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId16"/>
-    <hyperlink ref="I9" display="58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId17"/>
-    <hyperlink ref="A10" display="d4d5660d-a719-48e8-a02a-0861b8ad483f.md" r:id="rId18"/>
-    <hyperlink ref="A11" display="e019f529-fa44-42f9-aea4-7148ac120188.md" r:id="rId19"/>
+    <hyperlink ref="A7" display="d4d5660d-a719-48e8-a02a-0861b8ad483f.md" r:id="rId12"/>
+    <hyperlink ref="I7" display="d4d5660d-a719-48e8-a02a-0861b8ad483f.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId14"/>
+    <hyperlink ref="I8" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId15"/>
+    <hyperlink ref="A9" display="e019f529-fa44-42f9-aea4-7148ac120188.md" r:id="rId16"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1289,7 +1120,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1307,60 +1138,60 @@
     <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
-    <col min="13" max="13" width="17.7080821990967" customWidth="1"/>
-    <col min="14" max="14" width="40" customWidth="1"/>
+    <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
+    <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
     <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2">
@@ -1374,16 +1205,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1392,22 +1223,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -1424,16 +1255,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
@@ -1442,22 +1273,22 @@
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -1474,16 +1305,16 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>15</v>
@@ -1492,22 +1323,22 @@
         <v>16</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1524,16 +1355,16 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>20</v>
@@ -1542,22 +1373,22 @@
         <v>18</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -1574,16 +1405,16 @@
         <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>12</v>
@@ -1592,22 +1423,22 @@
         <v>7</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -1624,40 +1455,40 @@
         <v>11</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
@@ -1665,49 +1496,49 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
@@ -1718,149 +1549,49 @@
         <v>28</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="K9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" s="0" t="s">
         <v>79</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="P9" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="P10" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="P11" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1875,14 +1606,11 @@
     <hyperlink ref="I5" display="b6dd0abe-121e-41d1-bf94-79d5fe98a847.md" r:id="rId9"/>
     <hyperlink ref="A6" display="c4b81aca-92bd-4af4-bc8d-e7b2b1613a26.md" r:id="rId10"/>
     <hyperlink ref="I6" display="19ebb255-2a8a-4f97-b2de-eae3d2440ff5.md" r:id="rId11"/>
-    <hyperlink ref="A7" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId12"/>
-    <hyperlink ref="I7" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId13"/>
-    <hyperlink ref="A8" display="77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId14"/>
-    <hyperlink ref="I8" display="77cc3acf-e3e9-4929-9c6f-63f0c76ed509.png" r:id="rId15"/>
-    <hyperlink ref="A9" display="58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId16"/>
-    <hyperlink ref="I9" display="58b9e847-cd5b-4a03-9acc-33fa80094f44.png" r:id="rId17"/>
-    <hyperlink ref="A10" display="d4d5660d-a719-48e8-a02a-0861b8ad483f.md" r:id="rId18"/>
-    <hyperlink ref="A11" display="e019f529-fa44-42f9-aea4-7148ac120188.md" r:id="rId19"/>
+    <hyperlink ref="A7" display="d4d5660d-a719-48e8-a02a-0861b8ad483f.md" r:id="rId12"/>
+    <hyperlink ref="I7" display="d4d5660d-a719-48e8-a02a-0861b8ad483f.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId14"/>
+    <hyperlink ref="I8" display="e1684adc-9350-4923-87d9-1adb840606c9.md" r:id="rId15"/>
+    <hyperlink ref="A9" display="e019f529-fa44-42f9-aea4-7148ac120188.md" r:id="rId16"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-11-02 04:32:46</t>
+    <t>2016-11-02 04:33:38</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -115,7 +115,7 @@
     <t>ca9ba320-4adf-46eb-a883-ff98c8244dd5.df0c6167d37e2ebbea1d0d17c5773b8deaffae7f.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-11-02 04:32:30</t>
+    <t>2016-11-02 04:33:25</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>ca9ba320-4adf-46eb-a883-ff98c8244dd5.md</t>
-  </si>
-  <si>
-    <t>e2e\ca9ba320-4adf-46eb-a883-ff98c8244dd5.md</t>
+    <t>7e20927e-8b7a-402d-8725-1c2f054d95f3.md</t>
+  </si>
+  <si>
+    <t>e2e\7e20927e-8b7a-402d-8725-1c2f054d95f3.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-11-02 04:33:38</t>
+    <t>2016-11-02 04:34:34</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -112,10 +112,10 @@
     <t>False</t>
   </si>
   <si>
-    <t>ca9ba320-4adf-46eb-a883-ff98c8244dd5.df0c6167d37e2ebbea1d0d17c5773b8deaffae7f.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:33:25</t>
+    <t>7e20927e-8b7a-402d-8725-1c2f054d95f3.83caa9580234578fa9d27c5ac6c43d5c8bea55dd.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:34:21</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -124,7 +124,7 @@
     <t>True</t>
   </si>
   <si>
-    <t>ca9ba320-4adf-46eb-a883-ff98c8244dd5.df0c6167d37e2ebbea1d0d17c5773b8deaffae7f.de-de.xlf</t>
+    <t>7e20927e-8b7a-402d-8725-1c2f054d95f3.83caa9580234578fa9d27c5ac6c43d5c8bea55dd.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -311,7 +311,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\ca9ba320-4adf-46eb-a883-ff98c8244dd5.md" r:id="rId2"/>
+    <hyperlink ref="B2" display="e2e\7e20927e-8b7a-402d-8725-1c2f054d95f3.md" r:id="rId2"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -448,7 +448,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ca9ba320-4adf-46eb-a883-ff98c8244dd5.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="7e20927e-8b7a-402d-8725-1c2f054d95f3.md" r:id="rId2"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -585,7 +585,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ca9ba320-4adf-46eb-a883-ff98c8244dd5.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="7e20927e-8b7a-402d-8725-1c2f054d95f3.md" r:id="rId2"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-11-02 04:34:34</t>
+    <t>2016-11-02 04:35:23</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -115,7 +115,7 @@
     <t>7e20927e-8b7a-402d-8725-1c2f054d95f3.83caa9580234578fa9d27c5ac6c43d5c8bea55dd.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-11-02 04:34:21</t>
+    <t>2016-11-02 04:35:11</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-11-02 04:35:23</t>
+    <t>2016-11-02 04:36:13</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -115,7 +115,7 @@
     <t>7e20927e-8b7a-402d-8725-1c2f054d95f3.83caa9580234578fa9d27c5ac6c43d5c8bea55dd.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-11-02 04:35:11</t>
+    <t>2016-11-02 04:36:00</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>7e20927e-8b7a-402d-8725-1c2f054d95f3.md</t>
-  </si>
-  <si>
-    <t>e2e\7e20927e-8b7a-402d-8725-1c2f054d95f3.md</t>
+    <t>82d32d4c-cf37-4306-b183-47801baf35d0.md</t>
+  </si>
+  <si>
+    <t>e2e\82d32d4c-cf37-4306-b183-47801baf35d0.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -52,7 +52,13 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-11-02 04:36:13</t>
+    <t>2016-11-02 04:37:08</t>
+  </si>
+  <si>
+    <t>ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md</t>
+  </si>
+  <si>
+    <t>e2e\ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -112,10 +118,10 @@
     <t>False</t>
   </si>
   <si>
-    <t>7e20927e-8b7a-402d-8725-1c2f054d95f3.83caa9580234578fa9d27c5ac6c43d5c8bea55dd.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:36:00</t>
+    <t>82d32d4c-cf37-4306-b183-47801baf35d0.7b13ff6e5a2ab60e646f5d41475e7be25a97bbc6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:36:55</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -124,7 +130,7 @@
     <t>True</t>
   </si>
   <si>
-    <t>7e20927e-8b7a-402d-8725-1c2f054d95f3.83caa9580234578fa9d27c5ac6c43d5c8bea55dd.de-de.xlf</t>
+    <t>82d32d4c-cf37-4306-b183-47801baf35d0.7b13ff6e5a2ab60e646f5d41475e7be25a97bbc6.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -181,8 +187,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P2" headerRowCount="1">
-  <autoFilter ref="A1:P2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P3" headerRowCount="1">
+  <autoFilter ref="A1:P3"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -206,8 +212,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P2" headerRowCount="1">
-  <autoFilter ref="A1:P2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P3" headerRowCount="1">
+  <autoFilter ref="A1:P3"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -231,8 +237,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -248,7 +254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -309,9 +315,33 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\7e20927e-8b7a-402d-8725-1c2f054d95f3.md" r:id="rId2"/>
+    <hyperlink ref="B2" display="e2e\82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -322,7 +352,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -348,52 +378,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -407,48 +437,99 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="F3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="0" t="s">
+      <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="7e20927e-8b7a-402d-8725-1c2f054d95f3.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -459,7 +540,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -485,52 +566,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -544,16 +625,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -565,27 +646,78 @@
         <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="E3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="7e20927e-8b7a-402d-8725-1c2f054d95f3.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-11-02 04:37:08</t>
@@ -124,13 +124,16 @@
     <t>2016-11-02 04:36:55</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-11-02 04:37:47</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
     <t>82d32d4c-cf37-4306-b183-47801baf35d0.7b13ff6e5a2ab60e646f5d41475e7be25a97bbc6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:38:05</t>
   </si>
 </sst>
 </file>
@@ -264,8 +267,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -360,14 +363,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -451,11 +454,11 @@
       <c r="H2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>36</v>
@@ -501,11 +504,11 @@
       <c r="H3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>36</v>
@@ -529,7 +532,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId3"/>
+    <hyperlink ref="I2" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -548,14 +553,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -639,14 +644,14 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -689,14 +694,14 @@
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -717,7 +722,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId3"/>
+    <hyperlink ref="I2" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -37,21 +37,30 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>a3636508-ba0d-4ab5-b52b-9bdd24526192.md</t>
+  </si>
+  <si>
+    <t>e2e\a3636508-ba0d-4ab5-b52b-9bdd24526192.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:39:39</t>
+  </si>
+  <si>
     <t>ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md</t>
   </si>
   <si>
     <t>e2e\ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2016-11-02 04:37:08</t>
   </si>
   <si>
@@ -61,18 +70,6 @@
     <t>e2e\fffffffca5057d-3369-4bf0-8404-aee71af0527c.md</t>
   </si>
   <si>
-    <t>a3636508-ba0d-4ab5-b52b-9bdd24526192.md</t>
-  </si>
-  <si>
-    <t>e2e\a3636508-ba0d-4ab5-b52b-9bdd24526192.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:39:39</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -130,6 +127,18 @@
     <t>False</t>
   </si>
   <si>
+    <t>a3636508-ba0d-4ab5-b52b-9bdd24526192.23fc36f000ff382d855676566cfb15d7ba32cd81.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:39:25</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:40:19</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>82d32d4c-cf37-4306-b183-47801baf35d0.7b13ff6e5a2ab60e646f5d41475e7be25a97bbc6.zh-cn.xlf</t>
   </si>
   <si>
@@ -142,25 +151,16 @@
     <t>2016-11-02 04:37:47</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>a3636508-ba0d-4ab5-b52b-9bdd24526192.23fc36f000ff382d855676566cfb15d7ba32cd81.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:39:25</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>a3636508-ba0d-4ab5-b52b-9bdd24526192.23fc36f000ff382d855676566cfb15d7ba32cd81.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:40:36</t>
   </si>
   <si>
     <t>82d32d4c-cf37-4306-b183-47801baf35d0.7b13ff6e5a2ab60e646f5d41475e7be25a97bbc6.de-de.xlf</t>
   </si>
   <si>
     <t>2016-11-02 04:38:05</t>
-  </si>
-  <si>
-    <t>a3636508-ba0d-4ab5-b52b-9bdd24526192.23fc36f000ff382d855676566cfb15d7ba32cd81.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -365,15 +365,15 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -382,20 +382,20 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -432,52 +432,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -491,40 +491,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="F2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -541,40 +541,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="F3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="I3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -582,49 +582,49 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -632,11 +632,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId4"/>
     <hyperlink ref="I3" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId6"/>
+    <hyperlink ref="A4" display="fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -673,52 +674,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -732,40 +733,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -782,40 +783,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -823,49 +824,49 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -873,11 +874,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId4"/>
     <hyperlink ref="I3" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId6"/>
+    <hyperlink ref="A4" display="fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>File Name</t>
   </si>
@@ -37,37 +37,40 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md</t>
+  </si>
+  <si>
+    <t>e2e\ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:37:08</t>
+  </si>
+  <si>
+    <t>fffffffca5057d-3369-4bf0-8404-aee71af0527c.md</t>
+  </si>
+  <si>
+    <t>e2e\fffffffca5057d-3369-4bf0-8404-aee71af0527c.md</t>
+  </si>
+  <si>
     <t>a3636508-ba0d-4ab5-b52b-9bdd24526192.md</t>
   </si>
   <si>
     <t>e2e\a3636508-ba0d-4ab5-b52b-9bdd24526192.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:39:39</t>
-  </si>
-  <si>
-    <t>ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md</t>
-  </si>
-  <si>
-    <t>e2e\ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:37:08</t>
-  </si>
-  <si>
-    <t>fffffffca5057d-3369-4bf0-8404-aee71af0527c.md</t>
-  </si>
-  <si>
-    <t>e2e\fffffffca5057d-3369-4bf0-8404-aee71af0527c.md</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:41:33</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -127,40 +130,43 @@
     <t>False</t>
   </si>
   <si>
+    <t>82d32d4c-cf37-4306-b183-47801baf35d0.7b13ff6e5a2ab60e646f5d41475e7be25a97bbc6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:36:55</t>
+  </si>
+  <si>
+    <t>82d32d4c-cf37-4306-b183-47801baf35d0.md</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:37:47</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>a3636508-ba0d-4ab5-b52b-9bdd24526192.23fc36f000ff382d855676566cfb15d7ba32cd81.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-11-02 04:39:25</t>
+    <t>2016-11-02 04:41:19</t>
   </si>
   <si>
     <t>2016-11-02 04:40:19</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>82d32d4c-cf37-4306-b183-47801baf35d0.7b13ff6e5a2ab60e646f5d41475e7be25a97bbc6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:36:55</t>
-  </si>
-  <si>
-    <t>82d32d4c-cf37-4306-b183-47801baf35d0.md</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:37:47</t>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/63002b9fed1b91daf49f695d577bba09c9af82e5/e2e/a3636508-ba0d-4ab5-b52b-9bdd24526192.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/058618c50ba6348257816adf42524bd6ef76b554/e2e/a3636508-ba0d-4ab5-b52b-9bdd24526192.md.</t>
+  </si>
+  <si>
+    <t>82d32d4c-cf37-4306-b183-47801baf35d0.7b13ff6e5a2ab60e646f5d41475e7be25a97bbc6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:38:05</t>
   </si>
   <si>
     <t>a3636508-ba0d-4ab5-b52b-9bdd24526192.23fc36f000ff382d855676566cfb15d7ba32cd81.de-de.xlf</t>
   </si>
   <si>
     <t>2016-11-02 04:40:36</t>
-  </si>
-  <si>
-    <t>82d32d4c-cf37-4306-b183-47801baf35d0.7b13ff6e5a2ab60e646f5d41475e7be25a97bbc6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:38:05</t>
   </si>
 </sst>
 </file>
@@ -365,15 +371,15 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -382,20 +388,20 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -427,57 +433,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -491,40 +497,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -541,40 +547,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -582,62 +588,62 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId4"/>
     <hyperlink ref="I3" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -669,57 +675,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -733,40 +739,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -783,22 +789,22 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>47</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>47</v>
@@ -810,13 +816,13 @@
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -824,62 +830,62 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="J4" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId4"/>
     <hyperlink ref="I3" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>File Name</t>
   </si>
@@ -37,21 +37,30 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>a3636508-ba0d-4ab5-b52b-9bdd24526192.md</t>
+  </si>
+  <si>
+    <t>e2e\a3636508-ba0d-4ab5-b52b-9bdd24526192.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:41:33</t>
+  </si>
+  <si>
     <t>ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md</t>
   </si>
   <si>
     <t>e2e\ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2016-11-02 04:37:08</t>
   </si>
   <si>
@@ -61,18 +70,6 @@
     <t>e2e\fffffffca5057d-3369-4bf0-8404-aee71af0527c.md</t>
   </si>
   <si>
-    <t>a3636508-ba0d-4ab5-b52b-9bdd24526192.md</t>
-  </si>
-  <si>
-    <t>e2e\a3636508-ba0d-4ab5-b52b-9bdd24526192.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:41:33</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -130,6 +127,18 @@
     <t>False</t>
   </si>
   <si>
+    <t>a3636508-ba0d-4ab5-b52b-9bdd24526192.23fc36f000ff382d855676566cfb15d7ba32cd81.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:41:19</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:42:13</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>82d32d4c-cf37-4306-b183-47801baf35d0.7b13ff6e5a2ab60e646f5d41475e7be25a97bbc6.zh-cn.xlf</t>
   </si>
   <si>
@@ -142,31 +151,16 @@
     <t>2016-11-02 04:37:47</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>a3636508-ba0d-4ab5-b52b-9bdd24526192.23fc36f000ff382d855676566cfb15d7ba32cd81.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:41:19</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:40:19</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/63002b9fed1b91daf49f695d577bba09c9af82e5/e2e/a3636508-ba0d-4ab5-b52b-9bdd24526192.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/058618c50ba6348257816adf42524bd6ef76b554/e2e/a3636508-ba0d-4ab5-b52b-9bdd24526192.md.</t>
+    <t>a3636508-ba0d-4ab5-b52b-9bdd24526192.23fc36f000ff382d855676566cfb15d7ba32cd81.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:42:31</t>
   </si>
   <si>
     <t>82d32d4c-cf37-4306-b183-47801baf35d0.7b13ff6e5a2ab60e646f5d41475e7be25a97bbc6.de-de.xlf</t>
   </si>
   <si>
     <t>2016-11-02 04:38:05</t>
-  </si>
-  <si>
-    <t>a3636508-ba0d-4ab5-b52b-9bdd24526192.23fc36f000ff382d855676566cfb15d7ba32cd81.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:40:36</t>
   </si>
 </sst>
 </file>
@@ -371,15 +365,15 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -388,20 +382,20 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -433,57 +427,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -497,40 +491,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="F2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -547,40 +541,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="F3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="I3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -588,62 +582,62 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId4"/>
     <hyperlink ref="I3" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -675,57 +669,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -739,40 +733,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -789,22 +783,22 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>47</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>47</v>
@@ -816,13 +810,13 @@
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -830,62 +824,62 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId4"/>
     <hyperlink ref="I3" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>File Name</t>
   </si>
@@ -37,37 +37,40 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md</t>
+  </si>
+  <si>
+    <t>e2e\ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:37:08</t>
+  </si>
+  <si>
+    <t>fffffffca5057d-3369-4bf0-8404-aee71af0527c.md</t>
+  </si>
+  <si>
+    <t>e2e\fffffffca5057d-3369-4bf0-8404-aee71af0527c.md</t>
+  </si>
+  <si>
     <t>a3636508-ba0d-4ab5-b52b-9bdd24526192.md</t>
   </si>
   <si>
     <t>e2e\a3636508-ba0d-4ab5-b52b-9bdd24526192.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:41:33</t>
-  </si>
-  <si>
-    <t>ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md</t>
-  </si>
-  <si>
-    <t>e2e\ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:37:08</t>
-  </si>
-  <si>
-    <t>fffffffca5057d-3369-4bf0-8404-aee71af0527c.md</t>
-  </si>
-  <si>
-    <t>e2e\fffffffca5057d-3369-4bf0-8404-aee71af0527c.md</t>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:43:25</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -127,40 +130,43 @@
     <t>False</t>
   </si>
   <si>
+    <t>82d32d4c-cf37-4306-b183-47801baf35d0.7b13ff6e5a2ab60e646f5d41475e7be25a97bbc6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:36:55</t>
+  </si>
+  <si>
+    <t>82d32d4c-cf37-4306-b183-47801baf35d0.md</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:37:47</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>a3636508-ba0d-4ab5-b52b-9bdd24526192.23fc36f000ff382d855676566cfb15d7ba32cd81.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-11-02 04:41:19</t>
+    <t>2016-11-02 04:43:11</t>
   </si>
   <si>
     <t>2016-11-02 04:42:13</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>82d32d4c-cf37-4306-b183-47801baf35d0.7b13ff6e5a2ab60e646f5d41475e7be25a97bbc6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:36:55</t>
-  </si>
-  <si>
-    <t>82d32d4c-cf37-4306-b183-47801baf35d0.md</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:37:47</t>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/058618c50ba6348257816adf42524bd6ef76b554/e2e/a3636508-ba0d-4ab5-b52b-9bdd24526192.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/26f65efa2763fdd11922af556ce1cd6244f0adbd/e2e/a3636508-ba0d-4ab5-b52b-9bdd24526192.md.</t>
+  </si>
+  <si>
+    <t>82d32d4c-cf37-4306-b183-47801baf35d0.7b13ff6e5a2ab60e646f5d41475e7be25a97bbc6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:38:05</t>
   </si>
   <si>
     <t>a3636508-ba0d-4ab5-b52b-9bdd24526192.23fc36f000ff382d855676566cfb15d7ba32cd81.de-de.xlf</t>
   </si>
   <si>
     <t>2016-11-02 04:42:31</t>
-  </si>
-  <si>
-    <t>82d32d4c-cf37-4306-b183-47801baf35d0.7b13ff6e5a2ab60e646f5d41475e7be25a97bbc6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:38:05</t>
   </si>
 </sst>
 </file>
@@ -365,15 +371,15 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -382,20 +388,20 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -427,57 +433,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -491,40 +497,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -541,40 +547,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -582,62 +588,62 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId4"/>
     <hyperlink ref="I3" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -669,57 +675,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -733,40 +739,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -783,22 +789,22 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>47</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>47</v>
@@ -810,13 +816,13 @@
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -824,62 +830,62 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="J4" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId4"/>
     <hyperlink ref="I3" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>File Name</t>
   </si>
@@ -37,21 +37,30 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>a3636508-ba0d-4ab5-b52b-9bdd24526192.md</t>
+  </si>
+  <si>
+    <t>e2e\a3636508-ba0d-4ab5-b52b-9bdd24526192.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:43:25</t>
+  </si>
+  <si>
     <t>ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md</t>
   </si>
   <si>
     <t>e2e\ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2016-11-02 04:37:08</t>
   </si>
   <si>
@@ -61,18 +70,6 @@
     <t>e2e\fffffffca5057d-3369-4bf0-8404-aee71af0527c.md</t>
   </si>
   <si>
-    <t>a3636508-ba0d-4ab5-b52b-9bdd24526192.md</t>
-  </si>
-  <si>
-    <t>e2e\a3636508-ba0d-4ab5-b52b-9bdd24526192.md</t>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:43:25</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -130,6 +127,18 @@
     <t>False</t>
   </si>
   <si>
+    <t>a3636508-ba0d-4ab5-b52b-9bdd24526192.23fc36f000ff382d855676566cfb15d7ba32cd81.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:43:11</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:44:00</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>82d32d4c-cf37-4306-b183-47801baf35d0.7b13ff6e5a2ab60e646f5d41475e7be25a97bbc6.zh-cn.xlf</t>
   </si>
   <si>
@@ -142,31 +151,16 @@
     <t>2016-11-02 04:37:47</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>a3636508-ba0d-4ab5-b52b-9bdd24526192.23fc36f000ff382d855676566cfb15d7ba32cd81.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:43:11</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:42:13</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/058618c50ba6348257816adf42524bd6ef76b554/e2e/a3636508-ba0d-4ab5-b52b-9bdd24526192.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/26f65efa2763fdd11922af556ce1cd6244f0adbd/e2e/a3636508-ba0d-4ab5-b52b-9bdd24526192.md.</t>
+    <t>a3636508-ba0d-4ab5-b52b-9bdd24526192.23fc36f000ff382d855676566cfb15d7ba32cd81.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:44:19</t>
   </si>
   <si>
     <t>82d32d4c-cf37-4306-b183-47801baf35d0.7b13ff6e5a2ab60e646f5d41475e7be25a97bbc6.de-de.xlf</t>
   </si>
   <si>
     <t>2016-11-02 04:38:05</t>
-  </si>
-  <si>
-    <t>a3636508-ba0d-4ab5-b52b-9bdd24526192.23fc36f000ff382d855676566cfb15d7ba32cd81.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:42:31</t>
   </si>
 </sst>
 </file>
@@ -371,15 +365,15 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -388,20 +382,20 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -433,57 +427,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -497,40 +491,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="F2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -547,40 +541,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="F3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="I3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -588,62 +582,62 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId4"/>
     <hyperlink ref="I3" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -675,57 +669,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -739,40 +733,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -789,22 +783,22 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>47</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>47</v>
@@ -816,13 +810,13 @@
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -830,62 +824,62 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId4"/>
     <hyperlink ref="I3" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>a3636508-ba0d-4ab5-b52b-9bdd24526192.md</t>
-  </si>
-  <si>
-    <t>e2e\a3636508-ba0d-4ab5-b52b-9bdd24526192.md</t>
+    <t>1adc526a-b25d-4b14-9df2-5bfd2f8431b0.md</t>
+  </si>
+  <si>
+    <t>e2e\1adc526a-b25d-4b14-9df2-5bfd2f8431b0.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -49,25 +49,16 @@
     <t/>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:43:25</t>
-  </si>
-  <si>
-    <t>ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md</t>
-  </si>
-  <si>
-    <t>e2e\ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:37:08</t>
-  </si>
-  <si>
-    <t>fffffffca5057d-3369-4bf0-8404-aee71af0527c.md</t>
-  </si>
-  <si>
-    <t>e2e\fffffffca5057d-3369-4bf0-8404-aee71af0527c.md</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:45:20</t>
+  </si>
+  <si>
+    <t>670edbe3-948b-43f5-b718-d7f8383d33b6.md</t>
+  </si>
+  <si>
+    <t>e2e\670edbe3-948b-43f5-b718-d7f8383d33b6.md</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -127,40 +118,25 @@
     <t>False</t>
   </si>
   <si>
-    <t>a3636508-ba0d-4ab5-b52b-9bdd24526192.23fc36f000ff382d855676566cfb15d7ba32cd81.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:43:11</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:44:00</t>
+    <t>1adc526a-b25d-4b14-9df2-5bfd2f8431b0.823152f22ffe6fe23754a4062526b7d51dabff28.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:45:04</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>82d32d4c-cf37-4306-b183-47801baf35d0.7b13ff6e5a2ab60e646f5d41475e7be25a97bbc6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:36:55</t>
-  </si>
-  <si>
-    <t>82d32d4c-cf37-4306-b183-47801baf35d0.md</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:37:47</t>
-  </si>
-  <si>
-    <t>a3636508-ba0d-4ab5-b52b-9bdd24526192.23fc36f000ff382d855676566cfb15d7ba32cd81.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:44:19</t>
-  </si>
-  <si>
-    <t>82d32d4c-cf37-4306-b183-47801baf35d0.7b13ff6e5a2ab60e646f5d41475e7be25a97bbc6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:38:05</t>
+    <t>670edbe3-948b-43f5-b718-d7f8383d33b6.897bccd2b6bd1d6724235009a0c80123072bb8d4.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>1adc526a-b25d-4b14-9df2-5bfd2f8431b0.823152f22ffe6fe23754a4062526b7d51dabff28.de-de.xlf</t>
+  </si>
+  <si>
+    <t>670edbe3-948b-43f5-b718-d7f8383d33b6.897bccd2b6bd1d6724235009a0c80123072bb8d4.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -217,8 +193,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P4" headerRowCount="1">
-  <autoFilter ref="A1:P4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P3" headerRowCount="1">
+  <autoFilter ref="A1:P3"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -242,8 +218,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P4" headerRowCount="1">
-  <autoFilter ref="A1:P4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P3" headerRowCount="1">
+  <autoFilter ref="A1:P3"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -267,8 +243,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
-  <autoFilter ref="A1:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -284,7 +260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -294,8 +270,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -365,37 +341,13 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\1adc526a-b25d-4b14-9df2-5bfd2f8431b0.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\670edbe3-948b-43f5-b718-d7f8383d33b6.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -406,7 +358,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -414,14 +366,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="40" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
+    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -432,52 +384,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -491,40 +443,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -541,103 +493,49 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="1adc526a-b25d-4b14-9df2-5bfd2f8431b0.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="670edbe3-948b-43f5-b718-d7f8383d33b6.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -648,7 +546,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -656,14 +554,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="40" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
+    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -674,52 +572,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -733,40 +631,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -783,103 +681,49 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="a3636508-ba0d-4ab5-b52b-9bdd24526192.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffff42bd2111-91e7-4a0b-bf14-716f4332f4d8.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="fffffffca5057d-3369-4bf0-8404-aee71af0527c.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="82d32d4c-cf37-4306-b183-47801baf35d0.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="1adc526a-b25d-4b14-9df2-5bfd2f8431b0.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="670edbe3-948b-43f5-b718-d7f8383d33b6.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-11-02 04:45:20</t>
@@ -124,7 +124,7 @@
     <t>2016-11-02 04:45:04</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-11-02 04:45:57</t>
   </si>
   <si>
     <t>True</t>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>1adc526a-b25d-4b14-9df2-5bfd2f8431b0.823152f22ffe6fe23754a4062526b7d51dabff28.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:46:16</t>
   </si>
   <si>
     <t>670edbe3-948b-43f5-b718-d7f8383d33b6.897bccd2b6bd1d6724235009a0c80123072bb8d4.de-de.xlf</t>
@@ -270,8 +273,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -366,14 +369,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -457,11 +460,11 @@
       <c r="H2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>36</v>
@@ -507,11 +510,11 @@
       <c r="H3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>36</v>
@@ -535,7 +538,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1adc526a-b25d-4b14-9df2-5bfd2f8431b0.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="670edbe3-948b-43f5-b718-d7f8383d33b6.md" r:id="rId3"/>
+    <hyperlink ref="I2" display="1adc526a-b25d-4b14-9df2-5bfd2f8431b0.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="670edbe3-948b-43f5-b718-d7f8383d33b6.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="670edbe3-948b-43f5-b718-d7f8383d33b6.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -554,14 +559,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -645,14 +650,14 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -690,19 +695,19 @@
         <v>33</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -723,7 +728,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1adc526a-b25d-4b14-9df2-5bfd2f8431b0.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="670edbe3-948b-43f5-b718-d7f8383d33b6.md" r:id="rId3"/>
+    <hyperlink ref="I2" display="1adc526a-b25d-4b14-9df2-5bfd2f8431b0.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="670edbe3-948b-43f5-b718-d7f8383d33b6.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="670edbe3-948b-43f5-b718-d7f8383d33b6.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>1adc526a-b25d-4b14-9df2-5bfd2f8431b0.md</t>
-  </si>
-  <si>
-    <t>e2e\1adc526a-b25d-4b14-9df2-5bfd2f8431b0.md</t>
+    <t>calleeMd1.md</t>
+  </si>
+  <si>
+    <t>e2e\calleeMd1.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -49,16 +49,28 @@
     <t/>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:45:20</t>
-  </si>
-  <si>
-    <t>670edbe3-948b-43f5-b718-d7f8383d33b6.md</t>
-  </si>
-  <si>
-    <t>e2e\670edbe3-948b-43f5-b718-d7f8383d33b6.md</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:47:58</t>
+  </si>
+  <si>
+    <t>calleeMd2.md</t>
+  </si>
+  <si>
+    <t>e2e\calleeMd2.md</t>
+  </si>
+  <si>
+    <t>callerMd1.md</t>
+  </si>
+  <si>
+    <t>e2e\callerMd1.md</t>
+  </si>
+  <si>
+    <t>callerMd2.md</t>
+  </si>
+  <si>
+    <t>e2e\callerMd2.md</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -118,28 +130,43 @@
     <t>False</t>
   </si>
   <si>
-    <t>1adc526a-b25d-4b14-9df2-5bfd2f8431b0.823152f22ffe6fe23754a4062526b7d51dabff28.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:45:04</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:45:57</t>
+    <t>calleeMd1.e8f5ecec2b522eb147a4ff0ca19ca72e17f2186d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:47:45</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>670edbe3-948b-43f5-b718-d7f8383d33b6.897bccd2b6bd1d6724235009a0c80123072bb8d4.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>1adc526a-b25d-4b14-9df2-5bfd2f8431b0.823152f22ffe6fe23754a4062526b7d51dabff28.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:46:16</t>
-  </si>
-  <si>
-    <t>670edbe3-948b-43f5-b718-d7f8383d33b6.897bccd2b6bd1d6724235009a0c80123072bb8d4.de-de.xlf</t>
+    <t>e2e\callerMd2.md,e2e\callerMd1.md</t>
+  </si>
+  <si>
+    <t>calleeMd2.63b76063f058ecc63ff1dda71ea2a67db72ae6e1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>callerMd1.a3bf9f4e7fa2750ec06df0b78a76ae5cafa0e0fd.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>e2e\calleeMd1.md,e2e\calleeMd2.md</t>
+  </si>
+  <si>
+    <t>callerMd2.c7d976edeb9cd5406eae7aba4c05d6d92e81ae95.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>calleeMd1.e8f5ecec2b522eb147a4ff0ca19ca72e17f2186d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>calleeMd2.63b76063f058ecc63ff1dda71ea2a67db72ae6e1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>callerMd1.a3bf9f4e7fa2750ec06df0b78a76ae5cafa0e0fd.de-de.xlf</t>
+  </si>
+  <si>
+    <t>callerMd2.c7d976edeb9cd5406eae7aba4c05d6d92e81ae95.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -196,8 +223,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P3" headerRowCount="1">
-  <autoFilter ref="A1:P3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P5" headerRowCount="1">
+  <autoFilter ref="A1:P5"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -221,8 +248,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P3" headerRowCount="1">
-  <autoFilter ref="A1:P3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P5" headerRowCount="1">
+  <autoFilter ref="A1:P5"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -246,8 +273,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G5" headerRowCount="1">
+  <autoFilter ref="A1:G5"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -263,18 +290,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="1" max="1" width="13.9728708267212" customWidth="1"/>
+    <col min="2" max="2" width="18.0487632751465" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -347,10 +374,58 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\1adc526a-b25d-4b14-9df2-5bfd2f8431b0.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\670edbe3-948b-43f5-b718-d7f8383d33b6.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\calleeMd1.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\calleeMd2.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\callerMd1.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\callerMd2.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -361,78 +436,78 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="40" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
+    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
-    <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
+    <col min="12" max="12" width="35.2229614257813" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
-    <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
+    <col min="14" max="14" width="34.5784301757813" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
     <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -446,40 +521,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -496,51 +571,151 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="E4" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="0" t="s">
+      <c r="F4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1adc526a-b25d-4b14-9df2-5bfd2f8431b0.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="1adc526a-b25d-4b14-9df2-5bfd2f8431b0.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="670edbe3-948b-43f5-b718-d7f8383d33b6.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="670edbe3-948b-43f5-b718-d7f8383d33b6.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="calleeMd1.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="calleeMd2.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="callerMd1.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="callerMd2.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -551,78 +726,78 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="40" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
+    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
-    <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
+    <col min="12" max="12" width="35.2229614257813" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
-    <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
+    <col min="14" max="14" width="34.5784301757813" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
     <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -636,25 +811,25 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>40</v>
@@ -663,13 +838,13 @@
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -686,25 +861,25 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>40</v>
@@ -713,24 +888,124 @@
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="P3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1adc526a-b25d-4b14-9df2-5bfd2f8431b0.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="1adc526a-b25d-4b14-9df2-5bfd2f8431b0.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="670edbe3-948b-43f5-b718-d7f8383d33b6.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="670edbe3-948b-43f5-b718-d7f8383d33b6.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="calleeMd1.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="calleeMd2.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="callerMd1.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="callerMd2.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-11-02 04:48:51</t>
+    <t>2016-11-02 04:49:44</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -115,7 +115,7 @@
     <t>8044ce69-e978-409c-8034-3b926dfa5efe.3fe97e5f2a72da5ad7bedea435681151d4d5cdb4.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-11-02 04:48:37</t>
+    <t>2016-11-02 04:49:31</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2016-11-02 04:49:44</t>
@@ -258,8 +258,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
+    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -330,7 +330,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -467,7 +467,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -49,10 +49,10 @@
     <t/>
   </si>
   <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:49:44</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:51:00</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -115,7 +115,7 @@
     <t>8044ce69-e978-409c-8034-3b926dfa5efe.3fe97e5f2a72da5ad7bedea435681151d4d5cdb4.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-11-02 04:49:31</t>
+    <t>2016-11-02 04:50:46</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -258,8 +258,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
-    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -330,7 +330,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -467,7 +467,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-11-02 04:51:00</t>
@@ -118,13 +118,16 @@
     <t>2016-11-02 04:50:46</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-11-02 04:51:43</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
     <t>8044ce69-e978-409c-8034-3b926dfa5efe.3fe97e5f2a72da5ad7bedea435681151d4d5cdb4.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:52:01</t>
   </si>
 </sst>
 </file>
@@ -258,8 +261,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -330,14 +333,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -421,11 +424,11 @@
       <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>34</v>
@@ -449,6 +452,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="8044ce69-e978-409c-8034-3b926dfa5efe.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="8044ce69-e978-409c-8034-3b926dfa5efe.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -467,14 +471,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -558,14 +562,14 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -586,6 +590,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="8044ce69-e978-409c-8034-3b926dfa5efe.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="8044ce69-e978-409c-8034-3b926dfa5efe.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -49,10 +49,10 @@
     <t/>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:51:00</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:52:51</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -115,7 +115,7 @@
     <t>8044ce69-e978-409c-8034-3b926dfa5efe.3fe97e5f2a72da5ad7bedea435681151d4d5cdb4.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-11-02 04:50:46</t>
+    <t>2016-11-02 04:52:37</t>
   </si>
   <si>
     <t>2016-11-02 04:51:43</t>
@@ -261,8 +261,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -333,7 +333,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -471,7 +471,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-11-02 04:56:24</t>
@@ -124,7 +124,7 @@
     <t>2016-11-02 04:56:09</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-11-02 04:57:07</t>
   </si>
   <si>
     <t>True</t>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.4825d3dc9a02fd03ee555e1aa0b75e2623b28ceb.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:57:26</t>
   </si>
   <si>
     <t>c1298a7c-69a1-4f15-9393-a695e307238f.9f228a0894e611fe268525e595f3399c95b6df0c.de-de.xlf</t>
@@ -270,8 +273,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -366,14 +369,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -457,11 +460,11 @@
       <c r="H2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>36</v>
@@ -507,11 +510,11 @@
       <c r="H3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>36</v>
@@ -535,7 +538,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId3"/>
+    <hyperlink ref="I2" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -554,14 +559,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -645,14 +650,14 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -690,19 +695,19 @@
         <v>33</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -723,7 +728,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId3"/>
+    <hyperlink ref="I2" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>File Name</t>
   </si>
@@ -37,28 +37,31 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>c1298a7c-69a1-4f15-9393-a695e307238f.md</t>
+  </si>
+  <si>
+    <t>e2e\c1298a7c-69a1-4f15-9393-a695e307238f.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:58:15</t>
+  </si>
+  <si>
     <t>3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md</t>
   </si>
   <si>
     <t>e2e\3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:56:24</t>
-  </si>
-  <si>
-    <t>c1298a7c-69a1-4f15-9393-a695e307238f.md</t>
-  </si>
-  <si>
-    <t>e2e\c1298a7c-69a1-4f15-9393-a695e307238f.md</t>
+    <t>Ready for handoff</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -118,28 +121,34 @@
     <t>False</t>
   </si>
   <si>
+    <t>c1298a7c-69a1-4f15-9393-a695e307238f.9f228a0894e611fe268525e595f3399c95b6df0c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:58:00</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:57:07</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/e52459422917ddab1e8592443e9df5a63fbf53cb/e2e/c1298a7c-69a1-4f15-9393-a695e307238f.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/2ac42011f3fadd174dbfe997421a0861be2b3188/e2e/c1298a7c-69a1-4f15-9393-a695e307238f.md.</t>
+  </si>
+  <si>
     <t>3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.4825d3dc9a02fd03ee555e1aa0b75e2623b28ceb.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-11-02 04:56:09</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:57:07</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>c1298a7c-69a1-4f15-9393-a695e307238f.9f228a0894e611fe268525e595f3399c95b6df0c.zh-cn.xlf</t>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/e52459422917ddab1e8592443e9df5a63fbf53cb/e2e/3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/2ac42011f3fadd174dbfe997421a0861be2b3188/e2e/3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md.</t>
+  </si>
+  <si>
+    <t>c1298a7c-69a1-4f15-9393-a695e307238f.9f228a0894e611fe268525e595f3399c95b6df0c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:57:26</t>
   </si>
   <si>
     <t>3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.4825d3dc9a02fd03ee555e1aa0b75e2623b28ceb.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:57:26</t>
-  </si>
-  <si>
-    <t>c1298a7c-69a1-4f15-9393-a695e307238f.9f228a0894e611fe268525e595f3399c95b6df0c.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -273,8 +282,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -338,10 +347,10 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
@@ -349,8 +358,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -369,7 +378,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -382,57 +391,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -446,43 +455,43 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -493,54 +502,54 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -559,7 +568,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -572,57 +581,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -636,16 +645,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -654,25 +663,25 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -683,19 +692,19 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -704,33 +713,33 @@
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>File Name</t>
   </si>
@@ -127,28 +127,34 @@
     <t>2016-11-02 04:58:00</t>
   </si>
   <si>
+    <t>2016-11-02 04:58:54</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/e52459422917ddab1e8592443e9df5a63fbf53cb/e2e/c1298a7c-69a1-4f15-9393-a695e307238f.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/2ac42011f3fadd174dbfe997421a0861be2b3188/e2e/c1298a7c-69a1-4f15-9393-a695e307238f.md.</t>
+  </si>
+  <si>
+    <t>3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.4825d3dc9a02fd03ee555e1aa0b75e2623b28ceb.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-11-02 04:57:07</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/e52459422917ddab1e8592443e9df5a63fbf53cb/e2e/c1298a7c-69a1-4f15-9393-a695e307238f.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/2ac42011f3fadd174dbfe997421a0861be2b3188/e2e/c1298a7c-69a1-4f15-9393-a695e307238f.md.</t>
-  </si>
-  <si>
-    <t>3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.4825d3dc9a02fd03ee555e1aa0b75e2623b28ceb.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/e52459422917ddab1e8592443e9df5a63fbf53cb/e2e/3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/2ac42011f3fadd174dbfe997421a0861be2b3188/e2e/3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md.</t>
   </si>
   <si>
     <t>c1298a7c-69a1-4f15-9393-a695e307238f.9f228a0894e611fe268525e595f3399c95b6df0c.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-11-02 04:59:12</t>
+  </si>
+  <si>
+    <t>3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.4825d3dc9a02fd03ee555e1aa0b75e2623b28ceb.de-de.xlf</t>
+  </si>
+  <si>
     <t>2016-11-02 04:57:26</t>
-  </si>
-  <si>
-    <t>3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.4825d3dc9a02fd03ee555e1aa0b75e2623b28ceb.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -526,7 +532,7 @@
         <v>40</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -541,7 +547,7 @@
         <v>34</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +660,7 @@
         <v>34</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -663,10 +669,10 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -704,7 +710,7 @@
         <v>34</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -713,10 +719,10 @@
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -731,7 +737,7 @@
         <v>34</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>File Name</t>
   </si>
@@ -64,6 +64,15 @@
     <t>Ready for handoff</t>
   </si>
   <si>
+    <t>6e517505-cb33-4cb8-8334-ca867d235b70.md</t>
+  </si>
+  <si>
+    <t>e2e\6e517505-cb33-4cb8-8334-ca867d235b70.md</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:00:01</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -145,6 +154,15 @@
     <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/e52459422917ddab1e8592443e9df5a63fbf53cb/e2e/3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/2ac42011f3fadd174dbfe997421a0861be2b3188/e2e/3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md.</t>
   </si>
   <si>
+    <t>6e517505-cb33-4cb8-8334-ca867d235b70.70939e164cf26fb3ff54b576882348749a073883.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:59:47</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
     <t>c1298a7c-69a1-4f15-9393-a695e307238f.9f228a0894e611fe268525e595f3399c95b6df0c.de-de.xlf</t>
   </si>
   <si>
@@ -155,6 +173,9 @@
   </si>
   <si>
     <t>2016-11-02 04:57:26</t>
+  </si>
+  <si>
+    <t>6e517505-cb33-4cb8-8334-ca867d235b70.70939e164cf26fb3ff54b576882348749a073883.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -211,8 +232,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P3" headerRowCount="1">
-  <autoFilter ref="A1:P3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P4" headerRowCount="1">
+  <autoFilter ref="A1:P4"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -236,8 +257,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P3" headerRowCount="1">
-  <autoFilter ref="A1:P3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P4" headerRowCount="1">
+  <autoFilter ref="A1:P4"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -261,8 +282,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -278,7 +299,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -362,10 +383,34 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -376,7 +421,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,52 +447,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -461,43 +506,43 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -511,43 +556,93 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -556,6 +651,7 @@
     <hyperlink ref="I2" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId3"/>
     <hyperlink ref="A3" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId4"/>
     <hyperlink ref="I3" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -566,7 +662,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -592,52 +688,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -651,16 +747,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -669,25 +765,25 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -701,16 +797,16 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -719,25 +815,75 @@
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>42</v>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -746,6 +892,7 @@
     <hyperlink ref="I2" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId3"/>
     <hyperlink ref="A3" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId4"/>
     <hyperlink ref="I3" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>File Name</t>
   </si>
@@ -37,18 +37,30 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>6e517505-cb33-4cb8-8334-ca867d235b70.md</t>
+  </si>
+  <si>
+    <t>e2e\6e517505-cb33-4cb8-8334-ca867d235b70.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:00:01</t>
+  </si>
+  <si>
     <t>c1298a7c-69a1-4f15-9393-a695e307238f.md</t>
   </si>
   <si>
     <t>e2e\c1298a7c-69a1-4f15-9393-a695e307238f.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>In Translation</t>
   </si>
   <si>
@@ -64,15 +76,6 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>6e517505-cb33-4cb8-8334-ca867d235b70.md</t>
-  </si>
-  <si>
-    <t>e2e\6e517505-cb33-4cb8-8334-ca867d235b70.md</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:00:01</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -130,6 +133,18 @@
     <t>False</t>
   </si>
   <si>
+    <t>6e517505-cb33-4cb8-8334-ca867d235b70.70939e164cf26fb3ff54b576882348749a073883.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:59:47</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:00:43</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>c1298a7c-69a1-4f15-9393-a695e307238f.9f228a0894e611fe268525e595f3399c95b6df0c.zh-cn.xlf</t>
   </si>
   <si>
@@ -139,9 +154,6 @@
     <t>2016-11-02 04:58:54</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/e52459422917ddab1e8592443e9df5a63fbf53cb/e2e/c1298a7c-69a1-4f15-9393-a695e307238f.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/2ac42011f3fadd174dbfe997421a0861be2b3188/e2e/c1298a7c-69a1-4f15-9393-a695e307238f.md.</t>
   </si>
   <si>
@@ -154,13 +166,10 @@
     <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/e52459422917ddab1e8592443e9df5a63fbf53cb/e2e/3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/2ac42011f3fadd174dbfe997421a0861be2b3188/e2e/3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md.</t>
   </si>
   <si>
-    <t>6e517505-cb33-4cb8-8334-ca867d235b70.70939e164cf26fb3ff54b576882348749a073883.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:59:47</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>6e517505-cb33-4cb8-8334-ca867d235b70.70939e164cf26fb3ff54b576882348749a073883.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:01:02</t>
   </si>
   <si>
     <t>c1298a7c-69a1-4f15-9393-a695e307238f.9f228a0894e611fe268525e595f3399c95b6df0c.de-de.xlf</t>
@@ -173,9 +182,6 @@
   </si>
   <si>
     <t>2016-11-02 04:57:26</t>
-  </si>
-  <si>
-    <t>6e517505-cb33-4cb8-8334-ca867d235b70.70939e164cf26fb3ff54b576882348749a073883.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -309,8 +315,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -380,15 +386,15 @@
         <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -397,20 +403,20 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -429,7 +435,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -447,52 +453,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -506,43 +512,43 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -556,19 +562,19 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
@@ -577,54 +583,54 @@
         <v>43</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>48</v>
@@ -633,25 +639,26 @@
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -670,7 +677,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -688,52 +695,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -747,16 +754,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -765,25 +772,25 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -797,102 +804,103 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>6e517505-cb33-4cb8-8334-ca867d235b70.md</t>
-  </si>
-  <si>
-    <t>e2e\6e517505-cb33-4cb8-8334-ca867d235b70.md</t>
+    <t>0ac4873a-1b02-420b-be87-e9bae8dbe671.md</t>
+  </si>
+  <si>
+    <t>e2e\0ac4873a-1b02-420b-be87-e9bae8dbe671.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -49,33 +49,48 @@
     <t/>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:00:01</t>
-  </si>
-  <si>
-    <t>c1298a7c-69a1-4f15-9393-a695e307238f.md</t>
-  </si>
-  <si>
-    <t>e2e\c1298a7c-69a1-4f15-9393-a695e307238f.md</t>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:58:15</t>
-  </si>
-  <si>
-    <t>3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md</t>
-  </si>
-  <si>
-    <t>e2e\3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md</t>
-  </si>
-  <si>
     <t>Ready for handoff</t>
   </si>
   <si>
+    <t>2016-11-02 05:02:02</t>
+  </si>
+  <si>
+    <t>211c26fe-0f85-49d9-899a-e61e2d70a4c9.md</t>
+  </si>
+  <si>
+    <t>e2e\211c26fe-0f85-49d9-899a-e61e2d70a4c9.md</t>
+  </si>
+  <si>
+    <t>33c9ee0c-d2d3-4861-8473-a84a503522ab.md</t>
+  </si>
+  <si>
+    <t>e2e\33c9ee0c-d2d3-4861-8473-a84a503522ab.md</t>
+  </si>
+  <si>
+    <t>6643e966-a856-4162-8920-bf9cb829a284.md</t>
+  </si>
+  <si>
+    <t>e2e\6643e966-a856-4162-8920-bf9cb829a284.md</t>
+  </si>
+  <si>
+    <t>979a39dd-93fb-485c-a351-4c1e55fcce2a.md</t>
+  </si>
+  <si>
+    <t>e2e\979a39dd-93fb-485c-a351-4c1e55fcce2a.md</t>
+  </si>
+  <si>
+    <t>ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.md</t>
+  </si>
+  <si>
+    <t>e2e\ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.md</t>
+  </si>
+  <si>
+    <t>b114e47b-e077-4cc3-9607-22bdba3f728c.md</t>
+  </si>
+  <si>
+    <t>e2e\b114e47b-e077-4cc3-9607-22bdba3f728c.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -133,55 +148,55 @@
     <t>False</t>
   </si>
   <si>
-    <t>6e517505-cb33-4cb8-8334-ca867d235b70.70939e164cf26fb3ff54b576882348749a073883.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:59:47</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:00:43</t>
+    <t>0ac4873a-1b02-420b-be87-e9bae8dbe671.86e90596c087158dc9b7b15493c7e92e53216742.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:01:46</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>c1298a7c-69a1-4f15-9393-a695e307238f.9f228a0894e611fe268525e595f3399c95b6df0c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:58:00</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:58:54</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/e52459422917ddab1e8592443e9df5a63fbf53cb/e2e/c1298a7c-69a1-4f15-9393-a695e307238f.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/2ac42011f3fadd174dbfe997421a0861be2b3188/e2e/c1298a7c-69a1-4f15-9393-a695e307238f.md.</t>
-  </si>
-  <si>
-    <t>3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.4825d3dc9a02fd03ee555e1aa0b75e2623b28ceb.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:57:07</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/e52459422917ddab1e8592443e9df5a63fbf53cb/e2e/3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/2ac42011f3fadd174dbfe997421a0861be2b3188/e2e/3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md.</t>
-  </si>
-  <si>
-    <t>6e517505-cb33-4cb8-8334-ca867d235b70.70939e164cf26fb3ff54b576882348749a073883.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:01:02</t>
-  </si>
-  <si>
-    <t>c1298a7c-69a1-4f15-9393-a695e307238f.9f228a0894e611fe268525e595f3399c95b6df0c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:59:12</t>
-  </si>
-  <si>
-    <t>3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.4825d3dc9a02fd03ee555e1aa0b75e2623b28ceb.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:57:26</t>
+    <t>211c26fe-0f85-49d9-899a-e61e2d70a4c9.6176e7233ca4af644f58ed922493f12045c11db0.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>33c9ee0c-d2d3-4861-8473-a84a503522ab.8ae843325e2ba805748aa47d67449a6a0f294381.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>6643e966-a856-4162-8920-bf9cb829a284.87d727eb08db27a3db493f887958861cb19cbdaf.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>979a39dd-93fb-485c-a351-4c1e55fcce2a.7bdaafff7cf2e256eac0f59075fba2e91af340d2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.46079bd78f063b7ccc5d378baf8f577fe17fa430.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>b114e47b-e077-4cc3-9607-22bdba3f728c.ad97648c95b8e4eb9a712ee0c1302895b2aacf2b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>0ac4873a-1b02-420b-be87-e9bae8dbe671.86e90596c087158dc9b7b15493c7e92e53216742.de-de.xlf</t>
+  </si>
+  <si>
+    <t>211c26fe-0f85-49d9-899a-e61e2d70a4c9.6176e7233ca4af644f58ed922493f12045c11db0.de-de.xlf</t>
+  </si>
+  <si>
+    <t>33c9ee0c-d2d3-4861-8473-a84a503522ab.8ae843325e2ba805748aa47d67449a6a0f294381.de-de.xlf</t>
+  </si>
+  <si>
+    <t>6643e966-a856-4162-8920-bf9cb829a284.87d727eb08db27a3db493f887958861cb19cbdaf.de-de.xlf</t>
+  </si>
+  <si>
+    <t>979a39dd-93fb-485c-a351-4c1e55fcce2a.7bdaafff7cf2e256eac0f59075fba2e91af340d2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.46079bd78f063b7ccc5d378baf8f577fe17fa430.de-de.xlf</t>
+  </si>
+  <si>
+    <t>b114e47b-e077-4cc3-9607-22bdba3f728c.ad97648c95b8e4eb9a712ee0c1302895b2aacf2b.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -238,8 +253,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P4" headerRowCount="1">
-  <autoFilter ref="A1:P4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P8" headerRowCount="1">
+  <autoFilter ref="A1:P8"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -263,8 +278,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P4" headerRowCount="1">
-  <autoFilter ref="A1:P4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P8" headerRowCount="1">
+  <autoFilter ref="A1:P8"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -288,8 +303,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
-  <autoFilter ref="A1:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G8" headerRowCount="1">
+  <autoFilter ref="A1:G8"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -305,7 +320,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -315,8 +330,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -380,43 +395,139 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\0ac4873a-1b02-420b-be87-e9bae8dbe671.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\211c26fe-0f85-49d9-899a-e61e2d70a4c9.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\33c9ee0c-d2d3-4861-8473-a84a503522ab.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\6643e966-a856-4162-8920-bf9cb829a284.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\979a39dd-93fb-485c-a351-4c1e55fcce2a.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\b114e47b-e077-4cc3-9607-22bdba3f728c.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -427,7 +538,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -435,70 +546,70 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="40" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
+    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
@@ -512,40 +623,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
+        <v>45</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -559,106 +670,307 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="0" t="s">
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="0" t="s">
+      <c r="N6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
+      <c r="N7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>49</v>
+      <c r="F8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="0ac4873a-1b02-420b-be87-e9bae8dbe671.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="211c26fe-0f85-49d9-899a-e61e2d70a4c9.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="33c9ee0c-d2d3-4861-8473-a84a503522ab.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="6643e966-a856-4162-8920-bf9cb829a284.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="979a39dd-93fb-485c-a351-4c1e55fcce2a.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="b114e47b-e077-4cc3-9607-22bdba3f728c.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -669,7 +981,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -677,70 +989,70 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="40" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
+    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
@@ -754,40 +1066,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -801,106 +1113,307 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>49</v>
+      <c r="F6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="0ac4873a-1b02-420b-be87-e9bae8dbe671.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="211c26fe-0f85-49d9-899a-e61e2d70a4c9.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="33c9ee0c-d2d3-4861-8473-a84a503522ab.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="6643e966-a856-4162-8920-bf9cb829a284.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="979a39dd-93fb-485c-a351-4c1e55fcce2a.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="b114e47b-e077-4cc3-9607-22bdba3f728c.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>File Name</t>
   </si>
@@ -37,34 +37,76 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>6e517505-cb33-4cb8-8334-ca867d235b70.md</t>
+  </si>
+  <si>
+    <t>e2e\6e517505-cb33-4cb8-8334-ca867d235b70.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:00:01</t>
+  </si>
+  <si>
     <t>0ac4873a-1b02-420b-be87-e9bae8dbe671.md</t>
   </si>
   <si>
     <t>e2e\0ac4873a-1b02-420b-be87-e9bae8dbe671.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:02:02</t>
+  </si>
+  <si>
+    <t>211c26fe-0f85-49d9-899a-e61e2d70a4c9.md</t>
+  </si>
+  <si>
+    <t>e2e\211c26fe-0f85-49d9-899a-e61e2d70a4c9.md</t>
+  </si>
+  <si>
+    <t>979a39dd-93fb-485c-a351-4c1e55fcce2a.md</t>
+  </si>
+  <si>
+    <t>e2e\979a39dd-93fb-485c-a351-4c1e55fcce2a.md</t>
+  </si>
+  <si>
+    <t>ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.md</t>
+  </si>
+  <si>
+    <t>e2e\ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.md</t>
+  </si>
+  <si>
+    <t>c1298a7c-69a1-4f15-9393-a695e307238f.md</t>
+  </si>
+  <si>
+    <t>e2e\c1298a7c-69a1-4f15-9393-a695e307238f.md</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:58:15</t>
+  </si>
+  <si>
+    <t>33c9ee0c-d2d3-4861-8473-a84a503522ab.md</t>
+  </si>
+  <si>
+    <t>e2e\33c9ee0c-d2d3-4861-8473-a84a503522ab.md</t>
   </si>
   <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-11-02 05:02:02</t>
-  </si>
-  <si>
-    <t>211c26fe-0f85-49d9-899a-e61e2d70a4c9.md</t>
-  </si>
-  <si>
-    <t>e2e\211c26fe-0f85-49d9-899a-e61e2d70a4c9.md</t>
-  </si>
-  <si>
-    <t>33c9ee0c-d2d3-4861-8473-a84a503522ab.md</t>
-  </si>
-  <si>
-    <t>e2e\33c9ee0c-d2d3-4861-8473-a84a503522ab.md</t>
+    <t>3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md</t>
+  </si>
+  <si>
+    <t>e2e\3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md</t>
   </si>
   <si>
     <t>6643e966-a856-4162-8920-bf9cb829a284.md</t>
@@ -73,18 +115,6 @@
     <t>e2e\6643e966-a856-4162-8920-bf9cb829a284.md</t>
   </si>
   <si>
-    <t>979a39dd-93fb-485c-a351-4c1e55fcce2a.md</t>
-  </si>
-  <si>
-    <t>e2e\979a39dd-93fb-485c-a351-4c1e55fcce2a.md</t>
-  </si>
-  <si>
-    <t>ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.md</t>
-  </si>
-  <si>
-    <t>e2e\ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.md</t>
-  </si>
-  <si>
     <t>b114e47b-e077-4cc3-9607-22bdba3f728c.md</t>
   </si>
   <si>
@@ -148,6 +178,18 @@
     <t>False</t>
   </si>
   <si>
+    <t>6e517505-cb33-4cb8-8334-ca867d235b70.70939e164cf26fb3ff54b576882348749a073883.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:59:47</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:00:43</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>0ac4873a-1b02-420b-be87-e9bae8dbe671.86e90596c087158dc9b7b15493c7e92e53216742.zh-cn.xlf</t>
   </si>
   <si>
@@ -157,43 +199,79 @@
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>211c26fe-0f85-49d9-899a-e61e2d70a4c9.6176e7233ca4af644f58ed922493f12045c11db0.zh-cn.xlf</t>
   </si>
   <si>
+    <t>979a39dd-93fb-485c-a351-4c1e55fcce2a.7bdaafff7cf2e256eac0f59075fba2e91af340d2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.46079bd78f063b7ccc5d378baf8f577fe17fa430.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>c1298a7c-69a1-4f15-9393-a695e307238f.9f228a0894e611fe268525e595f3399c95b6df0c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:58:00</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:58:54</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/e52459422917ddab1e8592443e9df5a63fbf53cb/e2e/c1298a7c-69a1-4f15-9393-a695e307238f.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/2ac42011f3fadd174dbfe997421a0861be2b3188/e2e/c1298a7c-69a1-4f15-9393-a695e307238f.md.</t>
+  </si>
+  <si>
     <t>33c9ee0c-d2d3-4861-8473-a84a503522ab.8ae843325e2ba805748aa47d67449a6a0f294381.zh-cn.xlf</t>
   </si>
   <si>
+    <t>3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.4825d3dc9a02fd03ee555e1aa0b75e2623b28ceb.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:57:07</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/e52459422917ddab1e8592443e9df5a63fbf53cb/e2e/3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/2ac42011f3fadd174dbfe997421a0861be2b3188/e2e/3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md.</t>
+  </si>
+  <si>
     <t>6643e966-a856-4162-8920-bf9cb829a284.87d727eb08db27a3db493f887958861cb19cbdaf.zh-cn.xlf</t>
   </si>
   <si>
-    <t>979a39dd-93fb-485c-a351-4c1e55fcce2a.7bdaafff7cf2e256eac0f59075fba2e91af340d2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.46079bd78f063b7ccc5d378baf8f577fe17fa430.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>b114e47b-e077-4cc3-9607-22bdba3f728c.ad97648c95b8e4eb9a712ee0c1302895b2aacf2b.zh-cn.xlf</t>
   </si>
   <si>
+    <t>6e517505-cb33-4cb8-8334-ca867d235b70.70939e164cf26fb3ff54b576882348749a073883.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:01:02</t>
+  </si>
+  <si>
     <t>0ac4873a-1b02-420b-be87-e9bae8dbe671.86e90596c087158dc9b7b15493c7e92e53216742.de-de.xlf</t>
   </si>
   <si>
     <t>211c26fe-0f85-49d9-899a-e61e2d70a4c9.6176e7233ca4af644f58ed922493f12045c11db0.de-de.xlf</t>
   </si>
   <si>
+    <t>979a39dd-93fb-485c-a351-4c1e55fcce2a.7bdaafff7cf2e256eac0f59075fba2e91af340d2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.46079bd78f063b7ccc5d378baf8f577fe17fa430.de-de.xlf</t>
+  </si>
+  <si>
+    <t>c1298a7c-69a1-4f15-9393-a695e307238f.9f228a0894e611fe268525e595f3399c95b6df0c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:59:12</t>
+  </si>
+  <si>
     <t>33c9ee0c-d2d3-4861-8473-a84a503522ab.8ae843325e2ba805748aa47d67449a6a0f294381.de-de.xlf</t>
   </si>
   <si>
+    <t>3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.4825d3dc9a02fd03ee555e1aa0b75e2623b28ceb.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 04:57:26</t>
+  </si>
+  <si>
     <t>6643e966-a856-4162-8920-bf9cb829a284.87d727eb08db27a3db493f887958861cb19cbdaf.de-de.xlf</t>
-  </si>
-  <si>
-    <t>979a39dd-93fb-485c-a351-4c1e55fcce2a.7bdaafff7cf2e256eac0f59075fba2e91af340d2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.46079bd78f063b7ccc5d378baf8f577fe17fa430.de-de.xlf</t>
   </si>
   <si>
     <t>b114e47b-e077-4cc3-9607-22bdba3f728c.ad97648c95b8e4eb9a712ee0c1302895b2aacf2b.de-de.xlf</t>
@@ -253,8 +331,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P8" headerRowCount="1">
-  <autoFilter ref="A1:P8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P11" headerRowCount="1">
+  <autoFilter ref="A1:P11"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -278,8 +356,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P8" headerRowCount="1">
-  <autoFilter ref="A1:P8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P11" headerRowCount="1">
+  <autoFilter ref="A1:P11"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -303,8 +381,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G8" headerRowCount="1">
-  <autoFilter ref="A1:G8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G11" headerRowCount="1">
+  <autoFilter ref="A1:G11"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -320,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -330,8 +408,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -395,44 +473,44 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -441,21 +519,21 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -464,21 +542,21 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>9</v>
@@ -487,21 +565,21 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>9</v>
@@ -510,24 +588,96 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\0ac4873a-1b02-420b-be87-e9bae8dbe671.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\211c26fe-0f85-49d9-899a-e61e2d70a4c9.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\33c9ee0c-d2d3-4861-8473-a84a503522ab.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\6643e966-a856-4162-8920-bf9cb829a284.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\979a39dd-93fb-485c-a351-4c1e55fcce2a.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\b114e47b-e077-4cc3-9607-22bdba3f728c.md" r:id="rId8"/>
+    <hyperlink ref="B2" display="e2e\6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\0ac4873a-1b02-420b-be87-e9bae8dbe671.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\211c26fe-0f85-49d9-899a-e61e2d70a4c9.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\979a39dd-93fb-485c-a351-4c1e55fcce2a.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\33c9ee0c-d2d3-4861-8473-a84a503522ab.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId9"/>
+    <hyperlink ref="B10" display="e2e\6643e966-a856-4162-8920-bf9cb829a284.md" r:id="rId10"/>
+    <hyperlink ref="B11" display="e2e\b114e47b-e077-4cc3-9607-22bdba3f728c.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -538,7 +688,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -546,70 +696,70 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -623,40 +773,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>55</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -670,22 +820,22 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -694,19 +844,19 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -714,28 +864,28 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -744,19 +894,19 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -764,28 +914,28 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -794,19 +944,19 @@
         <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -814,28 +964,28 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -844,19 +994,19 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -864,78 +1014,78 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
+        <v>65</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -944,33 +1094,189 @@
         <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="P8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="0ac4873a-1b02-420b-be87-e9bae8dbe671.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="211c26fe-0f85-49d9-899a-e61e2d70a4c9.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="33c9ee0c-d2d3-4861-8473-a84a503522ab.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="6643e966-a856-4162-8920-bf9cb829a284.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="979a39dd-93fb-485c-a351-4c1e55fcce2a.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="b114e47b-e077-4cc3-9607-22bdba3f728c.md" r:id="rId8"/>
+    <hyperlink ref="A2" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="0ac4873a-1b02-420b-be87-e9bae8dbe671.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="211c26fe-0f85-49d9-899a-e61e2d70a4c9.md" r:id="rId5"/>
+    <hyperlink ref="A5" display="979a39dd-93fb-485c-a351-4c1e55fcce2a.md" r:id="rId6"/>
+    <hyperlink ref="A6" display="ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.md" r:id="rId7"/>
+    <hyperlink ref="A7" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId8"/>
+    <hyperlink ref="I7" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId9"/>
+    <hyperlink ref="A8" display="33c9ee0c-d2d3-4861-8473-a84a503522ab.md" r:id="rId10"/>
+    <hyperlink ref="A9" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId11"/>
+    <hyperlink ref="I9" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId12"/>
+    <hyperlink ref="A10" display="6643e966-a856-4162-8920-bf9cb829a284.md" r:id="rId13"/>
+    <hyperlink ref="A11" display="b114e47b-e077-4cc3-9607-22bdba3f728c.md" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -981,7 +1287,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -989,70 +1295,70 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -1066,40 +1372,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -1113,22 +1419,22 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -1137,19 +1443,19 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -1157,28 +1463,28 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -1187,19 +1493,19 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1207,28 +1513,28 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -1237,19 +1543,19 @@
         <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -1257,28 +1563,28 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1287,19 +1593,19 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -1307,113 +1613,269 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G8" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="L8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="P8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="0ac4873a-1b02-420b-be87-e9bae8dbe671.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="211c26fe-0f85-49d9-899a-e61e2d70a4c9.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="33c9ee0c-d2d3-4861-8473-a84a503522ab.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="6643e966-a856-4162-8920-bf9cb829a284.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="979a39dd-93fb-485c-a351-4c1e55fcce2a.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="b114e47b-e077-4cc3-9607-22bdba3f728c.md" r:id="rId8"/>
+    <hyperlink ref="A2" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="0ac4873a-1b02-420b-be87-e9bae8dbe671.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="211c26fe-0f85-49d9-899a-e61e2d70a4c9.md" r:id="rId5"/>
+    <hyperlink ref="A5" display="979a39dd-93fb-485c-a351-4c1e55fcce2a.md" r:id="rId6"/>
+    <hyperlink ref="A6" display="ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.md" r:id="rId7"/>
+    <hyperlink ref="A7" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId8"/>
+    <hyperlink ref="I7" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId9"/>
+    <hyperlink ref="A8" display="33c9ee0c-d2d3-4861-8473-a84a503522ab.md" r:id="rId10"/>
+    <hyperlink ref="A9" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId11"/>
+    <hyperlink ref="I9" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId12"/>
+    <hyperlink ref="A10" display="6643e966-a856-4162-8920-bf9cb829a284.md" r:id="rId13"/>
+    <hyperlink ref="A11" display="b114e47b-e077-4cc3-9607-22bdba3f728c.md" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>File Name</t>
   </si>
@@ -37,48 +37,60 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>0ac4873a-1b02-420b-be87-e9bae8dbe671.md</t>
+  </si>
+  <si>
+    <t>e2e\0ac4873a-1b02-420b-be87-e9bae8dbe671.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:02:02</t>
+  </si>
+  <si>
+    <t>6643e966-a856-4162-8920-bf9cb829a284.md</t>
+  </si>
+  <si>
+    <t>e2e\6643e966-a856-4162-8920-bf9cb829a284.md</t>
+  </si>
+  <si>
     <t>6e517505-cb33-4cb8-8334-ca867d235b70.md</t>
   </si>
   <si>
     <t>e2e\6e517505-cb33-4cb8-8334-ca867d235b70.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2016-11-02 05:00:01</t>
   </si>
   <si>
-    <t>0ac4873a-1b02-420b-be87-e9bae8dbe671.md</t>
-  </si>
-  <si>
-    <t>e2e\0ac4873a-1b02-420b-be87-e9bae8dbe671.md</t>
+    <t>979a39dd-93fb-485c-a351-4c1e55fcce2a.md</t>
+  </si>
+  <si>
+    <t>e2e\979a39dd-93fb-485c-a351-4c1e55fcce2a.md</t>
+  </si>
+  <si>
+    <t>b114e47b-e077-4cc3-9607-22bdba3f728c.md</t>
+  </si>
+  <si>
+    <t>e2e\b114e47b-e077-4cc3-9607-22bdba3f728c.md</t>
+  </si>
+  <si>
+    <t>211c26fe-0f85-49d9-899a-e61e2d70a4c9.md</t>
+  </si>
+  <si>
+    <t>e2e\211c26fe-0f85-49d9-899a-e61e2d70a4c9.md</t>
   </si>
   <si>
     <t>In Translation</t>
   </si>
   <si>
-    <t>2016-11-02 05:02:02</t>
-  </si>
-  <si>
-    <t>211c26fe-0f85-49d9-899a-e61e2d70a4c9.md</t>
-  </si>
-  <si>
-    <t>e2e\211c26fe-0f85-49d9-899a-e61e2d70a4c9.md</t>
-  </si>
-  <si>
-    <t>979a39dd-93fb-485c-a351-4c1e55fcce2a.md</t>
-  </si>
-  <si>
-    <t>e2e\979a39dd-93fb-485c-a351-4c1e55fcce2a.md</t>
-  </si>
-  <si>
     <t>ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.md</t>
   </si>
   <si>
@@ -109,18 +121,6 @@
     <t>e2e\3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md</t>
   </si>
   <si>
-    <t>6643e966-a856-4162-8920-bf9cb829a284.md</t>
-  </si>
-  <si>
-    <t>e2e\6643e966-a856-4162-8920-bf9cb829a284.md</t>
-  </si>
-  <si>
-    <t>b114e47b-e077-4cc3-9607-22bdba3f728c.md</t>
-  </si>
-  <si>
-    <t>e2e\b114e47b-e077-4cc3-9607-22bdba3f728c.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -178,6 +178,21 @@
     <t>False</t>
   </si>
   <si>
+    <t>0ac4873a-1b02-420b-be87-e9bae8dbe671.86e90596c087158dc9b7b15493c7e92e53216742.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:01:46</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:03:40</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>6643e966-a856-4162-8920-bf9cb829a284.87d727eb08db27a3db493f887958861cb19cbdaf.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>6e517505-cb33-4cb8-8334-ca867d235b70.70939e164cf26fb3ff54b576882348749a073883.zh-cn.xlf</t>
   </si>
   <si>
@@ -187,24 +202,18 @@
     <t>2016-11-02 05:00:43</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>0ac4873a-1b02-420b-be87-e9bae8dbe671.86e90596c087158dc9b7b15493c7e92e53216742.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:01:46</t>
+    <t>979a39dd-93fb-485c-a351-4c1e55fcce2a.7bdaafff7cf2e256eac0f59075fba2e91af340d2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>b114e47b-e077-4cc3-9607-22bdba3f728c.ad97648c95b8e4eb9a712ee0c1302895b2aacf2b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>211c26fe-0f85-49d9-899a-e61e2d70a4c9.6176e7233ca4af644f58ed922493f12045c11db0.zh-cn.xlf</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>211c26fe-0f85-49d9-899a-e61e2d70a4c9.6176e7233ca4af644f58ed922493f12045c11db0.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>979a39dd-93fb-485c-a351-4c1e55fcce2a.7bdaafff7cf2e256eac0f59075fba2e91af340d2.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.46079bd78f063b7ccc5d378baf8f577fe17fa430.zh-cn.xlf</t>
   </si>
   <si>
@@ -232,10 +241,13 @@
     <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/e52459422917ddab1e8592443e9df5a63fbf53cb/e2e/3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/2ac42011f3fadd174dbfe997421a0861be2b3188/e2e/3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md.</t>
   </si>
   <si>
-    <t>6643e966-a856-4162-8920-bf9cb829a284.87d727eb08db27a3db493f887958861cb19cbdaf.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>b114e47b-e077-4cc3-9607-22bdba3f728c.ad97648c95b8e4eb9a712ee0c1302895b2aacf2b.zh-cn.xlf</t>
+    <t>0ac4873a-1b02-420b-be87-e9bae8dbe671.86e90596c087158dc9b7b15493c7e92e53216742.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:03:59</t>
+  </si>
+  <si>
+    <t>6643e966-a856-4162-8920-bf9cb829a284.87d727eb08db27a3db493f887958861cb19cbdaf.de-de.xlf</t>
   </si>
   <si>
     <t>6e517505-cb33-4cb8-8334-ca867d235b70.70939e164cf26fb3ff54b576882348749a073883.de-de.xlf</t>
@@ -244,15 +256,15 @@
     <t>2016-11-02 05:01:02</t>
   </si>
   <si>
-    <t>0ac4873a-1b02-420b-be87-e9bae8dbe671.86e90596c087158dc9b7b15493c7e92e53216742.de-de.xlf</t>
+    <t>979a39dd-93fb-485c-a351-4c1e55fcce2a.7bdaafff7cf2e256eac0f59075fba2e91af340d2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>b114e47b-e077-4cc3-9607-22bdba3f728c.ad97648c95b8e4eb9a712ee0c1302895b2aacf2b.de-de.xlf</t>
   </si>
   <si>
     <t>211c26fe-0f85-49d9-899a-e61e2d70a4c9.6176e7233ca4af644f58ed922493f12045c11db0.de-de.xlf</t>
   </si>
   <si>
-    <t>979a39dd-93fb-485c-a351-4c1e55fcce2a.7bdaafff7cf2e256eac0f59075fba2e91af340d2.de-de.xlf</t>
-  </si>
-  <si>
     <t>ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.46079bd78f063b7ccc5d378baf8f577fe17fa430.de-de.xlf</t>
   </si>
   <si>
@@ -269,12 +281,6 @@
   </si>
   <si>
     <t>2016-11-02 04:57:26</t>
-  </si>
-  <si>
-    <t>6643e966-a856-4162-8920-bf9cb829a284.87d727eb08db27a3db493f887958861cb19cbdaf.de-de.xlf</t>
-  </si>
-  <si>
-    <t>b114e47b-e077-4cc3-9607-22bdba3f728c.ad97648c95b8e4eb9a712ee0c1302895b2aacf2b.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -473,45 +479,45 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
       </c>
@@ -519,22 +525,22 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
       </c>
@@ -542,45 +548,45 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="F7" s="0" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C8" s="0" t="s">
         <v>9</v>
       </c>
@@ -588,59 +594,59 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="F10" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -657,27 +663,27 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\0ac4873a-1b02-420b-be87-e9bae8dbe671.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\211c26fe-0f85-49d9-899a-e61e2d70a4c9.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\0ac4873a-1b02-420b-be87-e9bae8dbe671.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\6643e966-a856-4162-8920-bf9cb829a284.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\979a39dd-93fb-485c-a351-4c1e55fcce2a.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\33c9ee0c-d2d3-4861-8473-a84a503522ab.md" r:id="rId8"/>
-    <hyperlink ref="B9" display="e2e\3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId9"/>
-    <hyperlink ref="B10" display="e2e\6643e966-a856-4162-8920-bf9cb829a284.md" r:id="rId10"/>
-    <hyperlink ref="B11" display="e2e\b114e47b-e077-4cc3-9607-22bdba3f728c.md" r:id="rId11"/>
+    <hyperlink ref="B6" display="e2e\b114e47b-e077-4cc3-9607-22bdba3f728c.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\211c26fe-0f85-49d9-899a-e61e2d70a4c9.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId9"/>
+    <hyperlink ref="B10" display="e2e\33c9ee0c-d2d3-4861-8473-a84a503522ab.md" r:id="rId10"/>
+    <hyperlink ref="B11" display="e2e\3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -820,7 +826,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>51</v>
@@ -835,16 +841,16 @@
         <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+        <v>55</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -864,37 +870,37 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="0" t="s">
+      <c r="J4" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
@@ -914,13 +920,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>51</v>
@@ -935,16 +941,16 @@
         <v>62</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
+        <v>55</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
@@ -964,13 +970,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>51</v>
@@ -985,16 +991,16 @@
         <v>63</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
+        <v>55</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
@@ -1014,13 +1020,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>51</v>
@@ -1035,17 +1041,17 @@
         <v>64</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
@@ -1059,18 +1065,18 @@
         <v>53</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>51</v>
@@ -1082,10 +1088,10 @@
         <v>53</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1094,7 +1100,7 @@
         <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>10</v>
@@ -1114,13 +1120,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>51</v>
@@ -1132,45 +1138,45 @@
         <v>53</v>
       </c>
       <c r="G9" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" s="0" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>51</v>
@@ -1182,10 +1188,10 @@
         <v>53</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>10</v>
@@ -1194,7 +1200,7 @@
         <v>10</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>10</v>
@@ -1220,7 +1226,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>51</v>
@@ -1232,20 +1238,20 @@
         <v>53</v>
       </c>
       <c r="G11" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="L11" s="0" t="s">
         <v>10</v>
       </c>
@@ -1259,24 +1265,28 @@
         <v>53</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="0ac4873a-1b02-420b-be87-e9bae8dbe671.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="211c26fe-0f85-49d9-899a-e61e2d70a4c9.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="979a39dd-93fb-485c-a351-4c1e55fcce2a.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId8"/>
-    <hyperlink ref="I7" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId9"/>
-    <hyperlink ref="A8" display="33c9ee0c-d2d3-4861-8473-a84a503522ab.md" r:id="rId10"/>
-    <hyperlink ref="A9" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId11"/>
-    <hyperlink ref="I9" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId12"/>
-    <hyperlink ref="A10" display="6643e966-a856-4162-8920-bf9cb829a284.md" r:id="rId13"/>
-    <hyperlink ref="A11" display="b114e47b-e077-4cc3-9607-22bdba3f728c.md" r:id="rId14"/>
+    <hyperlink ref="A2" display="0ac4873a-1b02-420b-be87-e9bae8dbe671.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="0ac4873a-1b02-420b-be87-e9bae8dbe671.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="6643e966-a856-4162-8920-bf9cb829a284.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="6643e966-a856-4162-8920-bf9cb829a284.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="979a39dd-93fb-485c-a351-4c1e55fcce2a.md" r:id="rId8"/>
+    <hyperlink ref="I5" display="979a39dd-93fb-485c-a351-4c1e55fcce2a.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="b114e47b-e077-4cc3-9607-22bdba3f728c.md" r:id="rId10"/>
+    <hyperlink ref="I6" display="b114e47b-e077-4cc3-9607-22bdba3f728c.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="211c26fe-0f85-49d9-899a-e61e2d70a4c9.md" r:id="rId12"/>
+    <hyperlink ref="A8" display="ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.md" r:id="rId13"/>
+    <hyperlink ref="A9" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId14"/>
+    <hyperlink ref="I9" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId15"/>
+    <hyperlink ref="A10" display="33c9ee0c-d2d3-4861-8473-a84a503522ab.md" r:id="rId16"/>
+    <hyperlink ref="A11" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId17"/>
+    <hyperlink ref="I11" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId18"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1381,7 +1391,7 @@
         <v>53</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1390,10 +1400,10 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -1419,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>51</v>
@@ -1431,19 +1441,19 @@
         <v>53</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -1463,37 +1473,37 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="J4" s="0" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
@@ -1513,13 +1523,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>51</v>
@@ -1531,19 +1541,19 @@
         <v>53</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
@@ -1563,13 +1573,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>51</v>
@@ -1581,19 +1591,19 @@
         <v>53</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
@@ -1613,13 +1623,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>51</v>
@@ -1631,19 +1641,19 @@
         <v>53</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
@@ -1658,18 +1668,18 @@
         <v>53</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>51</v>
@@ -1681,10 +1691,10 @@
         <v>53</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1693,7 +1703,7 @@
         <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>10</v>
@@ -1713,37 +1723,37 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>10</v>
@@ -1758,18 +1768,18 @@
         <v>53</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>51</v>
@@ -1781,10 +1791,10 @@
         <v>53</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>10</v>
@@ -1793,7 +1803,7 @@
         <v>10</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>10</v>
@@ -1819,7 +1829,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>51</v>
@@ -1831,19 +1841,19 @@
         <v>53</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>10</v>
@@ -1858,24 +1868,28 @@
         <v>53</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="0ac4873a-1b02-420b-be87-e9bae8dbe671.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="211c26fe-0f85-49d9-899a-e61e2d70a4c9.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="979a39dd-93fb-485c-a351-4c1e55fcce2a.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId8"/>
-    <hyperlink ref="I7" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId9"/>
-    <hyperlink ref="A8" display="33c9ee0c-d2d3-4861-8473-a84a503522ab.md" r:id="rId10"/>
-    <hyperlink ref="A9" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId11"/>
-    <hyperlink ref="I9" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId12"/>
-    <hyperlink ref="A10" display="6643e966-a856-4162-8920-bf9cb829a284.md" r:id="rId13"/>
-    <hyperlink ref="A11" display="b114e47b-e077-4cc3-9607-22bdba3f728c.md" r:id="rId14"/>
+    <hyperlink ref="A2" display="0ac4873a-1b02-420b-be87-e9bae8dbe671.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="0ac4873a-1b02-420b-be87-e9bae8dbe671.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="6643e966-a856-4162-8920-bf9cb829a284.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="6643e966-a856-4162-8920-bf9cb829a284.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="979a39dd-93fb-485c-a351-4c1e55fcce2a.md" r:id="rId8"/>
+    <hyperlink ref="I5" display="979a39dd-93fb-485c-a351-4c1e55fcce2a.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="b114e47b-e077-4cc3-9607-22bdba3f728c.md" r:id="rId10"/>
+    <hyperlink ref="I6" display="b114e47b-e077-4cc3-9607-22bdba3f728c.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="211c26fe-0f85-49d9-899a-e61e2d70a4c9.md" r:id="rId12"/>
+    <hyperlink ref="A8" display="ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.md" r:id="rId13"/>
+    <hyperlink ref="A9" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId14"/>
+    <hyperlink ref="I9" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId15"/>
+    <hyperlink ref="A10" display="33c9ee0c-d2d3-4861-8473-a84a503522ab.md" r:id="rId16"/>
+    <hyperlink ref="A11" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId17"/>
+    <hyperlink ref="I11" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId18"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>File Name</t>
   </si>
@@ -55,19 +55,28 @@
     <t>2016-11-02 05:02:02</t>
   </si>
   <si>
+    <t>b114e47b-e077-4cc3-9607-22bdba3f728c.md</t>
+  </si>
+  <si>
+    <t>e2e\b114e47b-e077-4cc3-9607-22bdba3f728c.md</t>
+  </si>
+  <si>
+    <t>211c26fe-0f85-49d9-899a-e61e2d70a4c9.md</t>
+  </si>
+  <si>
+    <t>e2e\211c26fe-0f85-49d9-899a-e61e2d70a4c9.md</t>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
     <t>6643e966-a856-4162-8920-bf9cb829a284.md</t>
   </si>
   <si>
     <t>e2e\6643e966-a856-4162-8920-bf9cb829a284.md</t>
   </si>
   <si>
-    <t>6e517505-cb33-4cb8-8334-ca867d235b70.md</t>
-  </si>
-  <si>
-    <t>e2e\6e517505-cb33-4cb8-8334-ca867d235b70.md</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:00:01</t>
+    <t>2016-11-02 05:04:48</t>
   </si>
   <si>
     <t>979a39dd-93fb-485c-a351-4c1e55fcce2a.md</t>
@@ -76,34 +85,19 @@
     <t>e2e\979a39dd-93fb-485c-a351-4c1e55fcce2a.md</t>
   </si>
   <si>
-    <t>b114e47b-e077-4cc3-9607-22bdba3f728c.md</t>
-  </si>
-  <si>
-    <t>e2e\b114e47b-e077-4cc3-9607-22bdba3f728c.md</t>
-  </si>
-  <si>
-    <t>211c26fe-0f85-49d9-899a-e61e2d70a4c9.md</t>
-  </si>
-  <si>
-    <t>e2e\211c26fe-0f85-49d9-899a-e61e2d70a4c9.md</t>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
     <t>ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.md</t>
   </si>
   <si>
     <t>e2e\ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.md</t>
   </si>
   <si>
-    <t>c1298a7c-69a1-4f15-9393-a695e307238f.md</t>
-  </si>
-  <si>
-    <t>e2e\c1298a7c-69a1-4f15-9393-a695e307238f.md</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:58:15</t>
+    <t>13aa5ab7-a259-4caf-976b-d0816863da6d.md</t>
+  </si>
+  <si>
+    <t>e2e\13aa5ab7-a259-4caf-976b-d0816863da6d.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
   </si>
   <si>
     <t>33c9ee0c-d2d3-4861-8473-a84a503522ab.md</t>
@@ -112,15 +106,6 @@
     <t>e2e\33c9ee0c-d2d3-4861-8473-a84a503522ab.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md</t>
-  </si>
-  <si>
-    <t>e2e\3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -190,97 +175,61 @@
     <t>True</t>
   </si>
   <si>
+    <t>b114e47b-e077-4cc3-9607-22bdba3f728c.ad97648c95b8e4eb9a712ee0c1302895b2aacf2b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>211c26fe-0f85-49d9-899a-e61e2d70a4c9.6176e7233ca4af644f58ed922493f12045c11db0.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>mt</t>
+  </si>
+  <si>
     <t>6643e966-a856-4162-8920-bf9cb829a284.87d727eb08db27a3db493f887958861cb19cbdaf.zh-cn.xlf</t>
   </si>
   <si>
-    <t>6e517505-cb33-4cb8-8334-ca867d235b70.70939e164cf26fb3ff54b576882348749a073883.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:59:47</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:00:43</t>
+    <t>2016-11-02 05:04:33</t>
   </si>
   <si>
     <t>979a39dd-93fb-485c-a351-4c1e55fcce2a.7bdaafff7cf2e256eac0f59075fba2e91af340d2.zh-cn.xlf</t>
   </si>
   <si>
-    <t>b114e47b-e077-4cc3-9607-22bdba3f728c.ad97648c95b8e4eb9a712ee0c1302895b2aacf2b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>211c26fe-0f85-49d9-899a-e61e2d70a4c9.6176e7233ca4af644f58ed922493f12045c11db0.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
     <t>ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.46079bd78f063b7ccc5d378baf8f577fe17fa430.zh-cn.xlf</t>
   </si>
   <si>
-    <t>c1298a7c-69a1-4f15-9393-a695e307238f.9f228a0894e611fe268525e595f3399c95b6df0c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:58:00</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:58:54</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/e52459422917ddab1e8592443e9df5a63fbf53cb/e2e/c1298a7c-69a1-4f15-9393-a695e307238f.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/2ac42011f3fadd174dbfe997421a0861be2b3188/e2e/c1298a7c-69a1-4f15-9393-a695e307238f.md.</t>
+    <t>13aa5ab7-a259-4caf-976b-d0816863da6d.f78c4615e62ba356e1d318f65ad8f3fc6ffea961.zh-cn.xlf</t>
   </si>
   <si>
     <t>33c9ee0c-d2d3-4861-8473-a84a503522ab.8ae843325e2ba805748aa47d67449a6a0f294381.zh-cn.xlf</t>
   </si>
   <si>
-    <t>3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.4825d3dc9a02fd03ee555e1aa0b75e2623b28ceb.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:57:07</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/e52459422917ddab1e8592443e9df5a63fbf53cb/e2e/3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/2ac42011f3fadd174dbfe997421a0861be2b3188/e2e/3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md.</t>
-  </si>
-  <si>
     <t>0ac4873a-1b02-420b-be87-e9bae8dbe671.86e90596c087158dc9b7b15493c7e92e53216742.de-de.xlf</t>
   </si>
   <si>
     <t>2016-11-02 05:03:59</t>
   </si>
   <si>
+    <t>b114e47b-e077-4cc3-9607-22bdba3f728c.ad97648c95b8e4eb9a712ee0c1302895b2aacf2b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>211c26fe-0f85-49d9-899a-e61e2d70a4c9.6176e7233ca4af644f58ed922493f12045c11db0.de-de.xlf</t>
+  </si>
+  <si>
     <t>6643e966-a856-4162-8920-bf9cb829a284.87d727eb08db27a3db493f887958861cb19cbdaf.de-de.xlf</t>
   </si>
   <si>
-    <t>6e517505-cb33-4cb8-8334-ca867d235b70.70939e164cf26fb3ff54b576882348749a073883.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:01:02</t>
-  </si>
-  <si>
     <t>979a39dd-93fb-485c-a351-4c1e55fcce2a.7bdaafff7cf2e256eac0f59075fba2e91af340d2.de-de.xlf</t>
   </si>
   <si>
-    <t>b114e47b-e077-4cc3-9607-22bdba3f728c.ad97648c95b8e4eb9a712ee0c1302895b2aacf2b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>211c26fe-0f85-49d9-899a-e61e2d70a4c9.6176e7233ca4af644f58ed922493f12045c11db0.de-de.xlf</t>
-  </si>
-  <si>
     <t>ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.46079bd78f063b7ccc5d378baf8f577fe17fa430.de-de.xlf</t>
   </si>
   <si>
-    <t>c1298a7c-69a1-4f15-9393-a695e307238f.9f228a0894e611fe268525e595f3399c95b6df0c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:59:12</t>
+    <t>13aa5ab7-a259-4caf-976b-d0816863da6d.f78c4615e62ba356e1d318f65ad8f3fc6ffea961.de-de.xlf</t>
   </si>
   <si>
     <t>33c9ee0c-d2d3-4861-8473-a84a503522ab.8ae843325e2ba805748aa47d67449a6a0f294381.de-de.xlf</t>
-  </si>
-  <si>
-    <t>3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.4825d3dc9a02fd03ee555e1aa0b75e2623b28ceb.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 04:57:26</t>
   </si>
 </sst>
 </file>
@@ -337,8 +286,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P11" headerRowCount="1">
-  <autoFilter ref="A1:P11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P9" headerRowCount="1">
+  <autoFilter ref="A1:P9"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -362,8 +311,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P11" headerRowCount="1">
-  <autoFilter ref="A1:P11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P9" headerRowCount="1">
+  <autoFilter ref="A1:P9"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -387,8 +336,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G11" headerRowCount="1">
-  <autoFilter ref="A1:G11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G9" headerRowCount="1">
+  <autoFilter ref="A1:G9"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -404,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -502,13 +451,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -525,44 +474,44 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>9</v>
@@ -571,10 +520,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>12</v>
@@ -594,96 +543,48 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="F9" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\0ac4873a-1b02-420b-be87-e9bae8dbe671.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\6643e966-a856-4162-8920-bf9cb829a284.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\979a39dd-93fb-485c-a351-4c1e55fcce2a.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\b114e47b-e077-4cc3-9607-22bdba3f728c.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\211c26fe-0f85-49d9-899a-e61e2d70a4c9.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.md" r:id="rId8"/>
-    <hyperlink ref="B9" display="e2e\c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId9"/>
-    <hyperlink ref="B10" display="e2e\33c9ee0c-d2d3-4861-8473-a84a503522ab.md" r:id="rId10"/>
-    <hyperlink ref="B11" display="e2e\3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId11"/>
+    <hyperlink ref="B3" display="e2e\b114e47b-e077-4cc3-9607-22bdba3f728c.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\211c26fe-0f85-49d9-899a-e61e2d70a4c9.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\6643e966-a856-4162-8920-bf9cb829a284.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\979a39dd-93fb-485c-a351-4c1e55fcce2a.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\13aa5ab7-a259-4caf-976b-d0816863da6d.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\33c9ee0c-d2d3-4861-8473-a84a503522ab.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -694,7 +595,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -715,57 +616,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -779,40 +680,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -829,40 +730,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -876,43 +777,43 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -926,43 +827,43 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -970,49 +871,49 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="L6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -1020,49 +921,49 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
@@ -1076,43 +977,43 @@
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="N8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
@@ -1120,173 +1021,68 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="N9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" s="0" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="0ac4873a-1b02-420b-be87-e9bae8dbe671.md" r:id="rId2"/>
     <hyperlink ref="I2" display="0ac4873a-1b02-420b-be87-e9bae8dbe671.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="6643e966-a856-4162-8920-bf9cb829a284.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="6643e966-a856-4162-8920-bf9cb829a284.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="979a39dd-93fb-485c-a351-4c1e55fcce2a.md" r:id="rId8"/>
-    <hyperlink ref="I5" display="979a39dd-93fb-485c-a351-4c1e55fcce2a.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="b114e47b-e077-4cc3-9607-22bdba3f728c.md" r:id="rId10"/>
-    <hyperlink ref="I6" display="b114e47b-e077-4cc3-9607-22bdba3f728c.md" r:id="rId11"/>
-    <hyperlink ref="A7" display="211c26fe-0f85-49d9-899a-e61e2d70a4c9.md" r:id="rId12"/>
-    <hyperlink ref="A8" display="ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.md" r:id="rId13"/>
-    <hyperlink ref="A9" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId14"/>
-    <hyperlink ref="I9" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId15"/>
-    <hyperlink ref="A10" display="33c9ee0c-d2d3-4861-8473-a84a503522ab.md" r:id="rId16"/>
-    <hyperlink ref="A11" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId17"/>
-    <hyperlink ref="I11" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId18"/>
+    <hyperlink ref="A3" display="b114e47b-e077-4cc3-9607-22bdba3f728c.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="b114e47b-e077-4cc3-9607-22bdba3f728c.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="211c26fe-0f85-49d9-899a-e61e2d70a4c9.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="6643e966-a856-4162-8920-bf9cb829a284.md" r:id="rId7"/>
+    <hyperlink ref="I5" display="6643e966-a856-4162-8920-bf9cb829a284.md" r:id="rId8"/>
+    <hyperlink ref="A6" display="979a39dd-93fb-485c-a351-4c1e55fcce2a.md" r:id="rId9"/>
+    <hyperlink ref="I6" display="979a39dd-93fb-485c-a351-4c1e55fcce2a.md" r:id="rId10"/>
+    <hyperlink ref="A7" display="ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.md" r:id="rId11"/>
+    <hyperlink ref="A8" display="13aa5ab7-a259-4caf-976b-d0816863da6d.md" r:id="rId12"/>
+    <hyperlink ref="A9" display="33c9ee0c-d2d3-4861-8473-a84a503522ab.md" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1297,7 +1093,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1318,57 +1114,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -1382,16 +1178,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1400,22 +1196,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -1432,16 +1228,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -1450,22 +1246,22 @@
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -1479,43 +1275,43 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1529,43 +1325,43 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -1573,49 +1369,49 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="I6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -1623,25 +1419,25 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>12</v>
@@ -1653,19 +1449,19 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
@@ -1679,43 +1475,43 @@
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="N8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
@@ -1723,173 +1519,68 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="N9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" s="0" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="0ac4873a-1b02-420b-be87-e9bae8dbe671.md" r:id="rId2"/>
     <hyperlink ref="I2" display="0ac4873a-1b02-420b-be87-e9bae8dbe671.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="6643e966-a856-4162-8920-bf9cb829a284.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="6643e966-a856-4162-8920-bf9cb829a284.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="6e517505-cb33-4cb8-8334-ca867d235b70.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="979a39dd-93fb-485c-a351-4c1e55fcce2a.md" r:id="rId8"/>
-    <hyperlink ref="I5" display="979a39dd-93fb-485c-a351-4c1e55fcce2a.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="b114e47b-e077-4cc3-9607-22bdba3f728c.md" r:id="rId10"/>
-    <hyperlink ref="I6" display="b114e47b-e077-4cc3-9607-22bdba3f728c.md" r:id="rId11"/>
-    <hyperlink ref="A7" display="211c26fe-0f85-49d9-899a-e61e2d70a4c9.md" r:id="rId12"/>
-    <hyperlink ref="A8" display="ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.md" r:id="rId13"/>
-    <hyperlink ref="A9" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId14"/>
-    <hyperlink ref="I9" display="c1298a7c-69a1-4f15-9393-a695e307238f.md" r:id="rId15"/>
-    <hyperlink ref="A10" display="33c9ee0c-d2d3-4861-8473-a84a503522ab.md" r:id="rId16"/>
-    <hyperlink ref="A11" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId17"/>
-    <hyperlink ref="I11" display="3b3f15b4-84d7-40d5-ad4c-eb49fa8d1bd3.md" r:id="rId18"/>
+    <hyperlink ref="A3" display="b114e47b-e077-4cc3-9607-22bdba3f728c.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="b114e47b-e077-4cc3-9607-22bdba3f728c.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="211c26fe-0f85-49d9-899a-e61e2d70a4c9.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="6643e966-a856-4162-8920-bf9cb829a284.md" r:id="rId7"/>
+    <hyperlink ref="I5" display="6643e966-a856-4162-8920-bf9cb829a284.md" r:id="rId8"/>
+    <hyperlink ref="A6" display="979a39dd-93fb-485c-a351-4c1e55fcce2a.md" r:id="rId9"/>
+    <hyperlink ref="I6" display="979a39dd-93fb-485c-a351-4c1e55fcce2a.md" r:id="rId10"/>
+    <hyperlink ref="A7" display="ab35659f-cf54-4c8b-89f1-d1eeeaa8d38f.md" r:id="rId11"/>
+    <hyperlink ref="A8" display="13aa5ab7-a259-4caf-976b-d0816863da6d.md" r:id="rId12"/>
+    <hyperlink ref="A9" display="33c9ee0c-d2d3-4861-8473-a84a503522ab.md" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2016-11-02 05:06:57</t>
@@ -270,8 +270,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
+    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -366,7 +366,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -554,7 +554,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>In Translation</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-11-02 05:06:57</t>
@@ -124,7 +124,7 @@
     <t>2016-11-02 05:06:36</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-11-02 05:08:55</t>
   </si>
   <si>
     <t>True</t>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>8dd12a97-07e7-46a7-b15d-706ded272ba3.653a61630b82854875c1bbcf0b5de061f1475b36.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:09:14</t>
   </si>
   <si>
     <t>c6bf6d86-d252-4660-befd-ac8a7511ad59.2a7eb19042dda99666cccf05d17b694fc1d89782.de-de.xlf</t>
@@ -270,8 +273,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
-    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -366,14 +369,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -457,11 +460,11 @@
       <c r="H2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>36</v>
@@ -507,11 +510,11 @@
       <c r="H3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>36</v>
@@ -535,7 +538,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="8dd12a97-07e7-46a7-b15d-706ded272ba3.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="c6bf6d86-d252-4660-befd-ac8a7511ad59.md" r:id="rId3"/>
+    <hyperlink ref="I2" display="8dd12a97-07e7-46a7-b15d-706ded272ba3.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="c6bf6d86-d252-4660-befd-ac8a7511ad59.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="c6bf6d86-d252-4660-befd-ac8a7511ad59.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -554,14 +559,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -645,14 +650,14 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -690,19 +695,19 @@
         <v>33</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -723,7 +728,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="8dd12a97-07e7-46a7-b15d-706ded272ba3.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="c6bf6d86-d252-4660-befd-ac8a7511ad59.md" r:id="rId3"/>
+    <hyperlink ref="I2" display="8dd12a97-07e7-46a7-b15d-706ded272ba3.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="c6bf6d86-d252-4660-befd-ac8a7511ad59.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="c6bf6d86-d252-4660-befd-ac8a7511ad59.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -37,21 +37,36 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>5e7aae90-ef65-489d-b29f-926879e950a5.md</t>
+  </si>
+  <si>
+    <t>e2e\5e7aae90-ef65-489d-b29f-926879e950a5.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:10:46</t>
+  </si>
+  <si>
+    <t>634a3189-31f2-46da-b9ac-ed0c612b9f9f.md</t>
+  </si>
+  <si>
+    <t>e2e\634a3189-31f2-46da-b9ac-ed0c612b9f9f.md</t>
+  </si>
+  <si>
     <t>8dd12a97-07e7-46a7-b15d-706ded272ba3.md</t>
   </si>
   <si>
     <t>e2e\8dd12a97-07e7-46a7-b15d-706ded272ba3.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2016-11-02 05:06:57</t>
   </si>
   <si>
@@ -61,24 +76,6 @@
     <t>e2e\c6bf6d86-d252-4660-befd-ac8a7511ad59.md</t>
   </si>
   <si>
-    <t>5e7aae90-ef65-489d-b29f-926879e950a5.md</t>
-  </si>
-  <si>
-    <t>e2e\5e7aae90-ef65-489d-b29f-926879e950a5.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:10:46</t>
-  </si>
-  <si>
-    <t>634a3189-31f2-46da-b9ac-ed0c612b9f9f.md</t>
-  </si>
-  <si>
-    <t>e2e\634a3189-31f2-46da-b9ac-ed0c612b9f9f.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -136,6 +133,21 @@
     <t>False</t>
   </si>
   <si>
+    <t>5e7aae90-ef65-489d-b29f-926879e950a5.34fabb83888b9183f2cde1b65119581289fcf2d0.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:10:31</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:11:23</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>634a3189-31f2-46da-b9ac-ed0c612b9f9f.a068cd2100044adeb885b1fd49ce798316825d30.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>8dd12a97-07e7-46a7-b15d-706ded272ba3.653a61630b82854875c1bbcf0b5de061f1475b36.zh-cn.xlf</t>
   </si>
   <si>
@@ -145,22 +157,16 @@
     <t>2016-11-02 05:08:55</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>c6bf6d86-d252-4660-befd-ac8a7511ad59.2a7eb19042dda99666cccf05d17b694fc1d89782.zh-cn.xlf</t>
   </si>
   <si>
-    <t>5e7aae90-ef65-489d-b29f-926879e950a5.34fabb83888b9183f2cde1b65119581289fcf2d0.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:10:31</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>634a3189-31f2-46da-b9ac-ed0c612b9f9f.a068cd2100044adeb885b1fd49ce798316825d30.zh-cn.xlf</t>
+    <t>5e7aae90-ef65-489d-b29f-926879e950a5.34fabb83888b9183f2cde1b65119581289fcf2d0.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:11:41</t>
+  </si>
+  <si>
+    <t>634a3189-31f2-46da-b9ac-ed0c612b9f9f.a068cd2100044adeb885b1fd49ce798316825d30.de-de.xlf</t>
   </si>
   <si>
     <t>8dd12a97-07e7-46a7-b15d-706ded272ba3.653a61630b82854875c1bbcf0b5de061f1475b36.de-de.xlf</t>
@@ -170,12 +176,6 @@
   </si>
   <si>
     <t>c6bf6d86-d252-4660-befd-ac8a7511ad59.2a7eb19042dda99666cccf05d17b694fc1d89782.de-de.xlf</t>
-  </si>
-  <si>
-    <t>5e7aae90-ef65-489d-b29f-926879e950a5.34fabb83888b9183f2cde1b65119581289fcf2d0.de-de.xlf</t>
-  </si>
-  <si>
-    <t>634a3189-31f2-46da-b9ac-ed0c612b9f9f.a068cd2100044adeb885b1fd49ce798316825d30.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -397,22 +397,22 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
       </c>
@@ -420,21 +420,21 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\8dd12a97-07e7-46a7-b15d-706ded272ba3.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\c6bf6d86-d252-4660-befd-ac8a7511ad59.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\5e7aae90-ef65-489d-b29f-926879e950a5.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\634a3189-31f2-46da-b9ac-ed0c612b9f9f.md" r:id="rId5"/>
+    <hyperlink ref="B2" display="e2e\5e7aae90-ef65-489d-b29f-926879e950a5.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\634a3189-31f2-46da-b9ac-ed0c612b9f9f.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\8dd12a97-07e7-46a7-b15d-706ded272ba3.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\c6bf6d86-d252-4660-befd-ac8a7511ad59.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -471,52 +471,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -530,40 +530,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="F2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -580,40 +580,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -627,43 +627,43 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -671,49 +671,49 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -721,12 +721,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="8dd12a97-07e7-46a7-b15d-706ded272ba3.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="8dd12a97-07e7-46a7-b15d-706ded272ba3.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="c6bf6d86-d252-4660-befd-ac8a7511ad59.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="c6bf6d86-d252-4660-befd-ac8a7511ad59.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="5e7aae90-ef65-489d-b29f-926879e950a5.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="634a3189-31f2-46da-b9ac-ed0c612b9f9f.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="5e7aae90-ef65-489d-b29f-926879e950a5.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="5e7aae90-ef65-489d-b29f-926879e950a5.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="634a3189-31f2-46da-b9ac-ed0c612b9f9f.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="634a3189-31f2-46da-b9ac-ed0c612b9f9f.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="8dd12a97-07e7-46a7-b15d-706ded272ba3.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="8dd12a97-07e7-46a7-b15d-706ded272ba3.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="c6bf6d86-d252-4660-befd-ac8a7511ad59.md" r:id="rId8"/>
+    <hyperlink ref="I5" display="c6bf6d86-d252-4660-befd-ac8a7511ad59.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -763,52 +765,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -822,16 +824,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -840,22 +842,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -872,16 +874,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -890,22 +892,22 @@
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -919,43 +921,43 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="0" t="s">
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -963,49 +965,49 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>53</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="J5" s="0" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -1013,12 +1015,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="8dd12a97-07e7-46a7-b15d-706ded272ba3.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="8dd12a97-07e7-46a7-b15d-706ded272ba3.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="c6bf6d86-d252-4660-befd-ac8a7511ad59.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="c6bf6d86-d252-4660-befd-ac8a7511ad59.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="5e7aae90-ef65-489d-b29f-926879e950a5.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="634a3189-31f2-46da-b9ac-ed0c612b9f9f.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="5e7aae90-ef65-489d-b29f-926879e950a5.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="5e7aae90-ef65-489d-b29f-926879e950a5.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="634a3189-31f2-46da-b9ac-ed0c612b9f9f.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="634a3189-31f2-46da-b9ac-ed0c612b9f9f.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="8dd12a97-07e7-46a7-b15d-706ded272ba3.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="8dd12a97-07e7-46a7-b15d-706ded272ba3.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="c6bf6d86-d252-4660-befd-ac8a7511ad59.md" r:id="rId8"/>
+    <hyperlink ref="I5" display="c6bf6d86-d252-4660-befd-ac8a7511ad59.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>File Name</t>
   </si>
@@ -37,22 +37,40 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>8dd12a97-07e7-46a7-b15d-706ded272ba3.md</t>
+  </si>
+  <si>
+    <t>e2e\8dd12a97-07e7-46a7-b15d-706ded272ba3.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:06:57</t>
+  </si>
+  <si>
+    <t>c6bf6d86-d252-4660-befd-ac8a7511ad59.md</t>
+  </si>
+  <si>
+    <t>e2e\c6bf6d86-d252-4660-befd-ac8a7511ad59.md</t>
+  </si>
+  <si>
     <t>5e7aae90-ef65-489d-b29f-926879e950a5.md</t>
   </si>
   <si>
     <t>e2e\5e7aae90-ef65-489d-b29f-926879e950a5.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:10:46</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:12:40</t>
   </si>
   <si>
     <t>634a3189-31f2-46da-b9ac-ed0c612b9f9f.md</t>
@@ -61,21 +79,6 @@
     <t>e2e\634a3189-31f2-46da-b9ac-ed0c612b9f9f.md</t>
   </si>
   <si>
-    <t>8dd12a97-07e7-46a7-b15d-706ded272ba3.md</t>
-  </si>
-  <si>
-    <t>e2e\8dd12a97-07e7-46a7-b15d-706ded272ba3.md</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:06:57</t>
-  </si>
-  <si>
-    <t>c6bf6d86-d252-4660-befd-ac8a7511ad59.md</t>
-  </si>
-  <si>
-    <t>e2e\c6bf6d86-d252-4660-befd-ac8a7511ad59.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -133,31 +136,46 @@
     <t>False</t>
   </si>
   <si>
+    <t>8dd12a97-07e7-46a7-b15d-706ded272ba3.653a61630b82854875c1bbcf0b5de061f1475b36.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:06:36</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:08:55</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>c6bf6d86-d252-4660-befd-ac8a7511ad59.2a7eb19042dda99666cccf05d17b694fc1d89782.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>5e7aae90-ef65-489d-b29f-926879e950a5.34fabb83888b9183f2cde1b65119581289fcf2d0.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-11-02 05:10:31</t>
+    <t>2016-11-02 05:12:25</t>
   </si>
   <si>
     <t>2016-11-02 05:11:23</t>
   </si>
   <si>
-    <t>True</t>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/c27258e1c50b196a8f6441066b89299a4da57526/e2e/5e7aae90-ef65-489d-b29f-926879e950a5.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/a3fa0c456a8988f7547ee98a3b82104c17837fce/e2e/5e7aae90-ef65-489d-b29f-926879e950a5.md.</t>
   </si>
   <si>
     <t>634a3189-31f2-46da-b9ac-ed0c612b9f9f.a068cd2100044adeb885b1fd49ce798316825d30.zh-cn.xlf</t>
   </si>
   <si>
-    <t>8dd12a97-07e7-46a7-b15d-706ded272ba3.653a61630b82854875c1bbcf0b5de061f1475b36.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:06:36</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:08:55</t>
-  </si>
-  <si>
-    <t>c6bf6d86-d252-4660-befd-ac8a7511ad59.2a7eb19042dda99666cccf05d17b694fc1d89782.zh-cn.xlf</t>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/c27258e1c50b196a8f6441066b89299a4da57526/e2e/634a3189-31f2-46da-b9ac-ed0c612b9f9f.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/a3fa0c456a8988f7547ee98a3b82104c17837fce/e2e/634a3189-31f2-46da-b9ac-ed0c612b9f9f.md.</t>
+  </si>
+  <si>
+    <t>8dd12a97-07e7-46a7-b15d-706ded272ba3.653a61630b82854875c1bbcf0b5de061f1475b36.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:09:14</t>
+  </si>
+  <si>
+    <t>c6bf6d86-d252-4660-befd-ac8a7511ad59.2a7eb19042dda99666cccf05d17b694fc1d89782.de-de.xlf</t>
   </si>
   <si>
     <t>5e7aae90-ef65-489d-b29f-926879e950a5.34fabb83888b9183f2cde1b65119581289fcf2d0.de-de.xlf</t>
@@ -167,15 +185,6 @@
   </si>
   <si>
     <t>634a3189-31f2-46da-b9ac-ed0c612b9f9f.a068cd2100044adeb885b1fd49ce798316825d30.de-de.xlf</t>
-  </si>
-  <si>
-    <t>8dd12a97-07e7-46a7-b15d-706ded272ba3.653a61630b82854875c1bbcf0b5de061f1475b36.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:09:14</t>
-  </si>
-  <si>
-    <t>c6bf6d86-d252-4660-befd-ac8a7511ad59.2a7eb19042dda99666cccf05d17b694fc1d89782.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -397,44 +406,44 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\5e7aae90-ef65-489d-b29f-926879e950a5.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\634a3189-31f2-46da-b9ac-ed0c612b9f9f.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\8dd12a97-07e7-46a7-b15d-706ded272ba3.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\c6bf6d86-d252-4660-befd-ac8a7511ad59.md" r:id="rId5"/>
+    <hyperlink ref="B2" display="e2e\8dd12a97-07e7-46a7-b15d-706ded272ba3.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\c6bf6d86-d252-4660-befd-ac8a7511ad59.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\5e7aae90-ef65-489d-b29f-926879e950a5.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\634a3189-31f2-46da-b9ac-ed0c612b9f9f.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -466,57 +475,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -530,40 +539,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -580,40 +589,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -627,108 +636,108 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="5e7aae90-ef65-489d-b29f-926879e950a5.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="5e7aae90-ef65-489d-b29f-926879e950a5.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="634a3189-31f2-46da-b9ac-ed0c612b9f9f.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="634a3189-31f2-46da-b9ac-ed0c612b9f9f.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="8dd12a97-07e7-46a7-b15d-706ded272ba3.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="8dd12a97-07e7-46a7-b15d-706ded272ba3.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="c6bf6d86-d252-4660-befd-ac8a7511ad59.md" r:id="rId8"/>
-    <hyperlink ref="I5" display="c6bf6d86-d252-4660-befd-ac8a7511ad59.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="8dd12a97-07e7-46a7-b15d-706ded272ba3.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="8dd12a97-07e7-46a7-b15d-706ded272ba3.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="c6bf6d86-d252-4660-befd-ac8a7511ad59.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="c6bf6d86-d252-4660-befd-ac8a7511ad59.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="5e7aae90-ef65-489d-b29f-926879e950a5.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="5e7aae90-ef65-489d-b29f-926879e950a5.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="634a3189-31f2-46da-b9ac-ed0c612b9f9f.md" r:id="rId8"/>
+    <hyperlink ref="I5" display="634a3189-31f2-46da-b9ac-ed0c612b9f9f.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -760,57 +769,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -824,16 +833,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -842,22 +851,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -874,16 +883,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -892,22 +901,22 @@
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -921,108 +930,108 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="5e7aae90-ef65-489d-b29f-926879e950a5.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="5e7aae90-ef65-489d-b29f-926879e950a5.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="634a3189-31f2-46da-b9ac-ed0c612b9f9f.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="634a3189-31f2-46da-b9ac-ed0c612b9f9f.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="8dd12a97-07e7-46a7-b15d-706ded272ba3.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="8dd12a97-07e7-46a7-b15d-706ded272ba3.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="c6bf6d86-d252-4660-befd-ac8a7511ad59.md" r:id="rId8"/>
-    <hyperlink ref="I5" display="c6bf6d86-d252-4660-befd-ac8a7511ad59.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="8dd12a97-07e7-46a7-b15d-706ded272ba3.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="8dd12a97-07e7-46a7-b15d-706ded272ba3.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="c6bf6d86-d252-4660-befd-ac8a7511ad59.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="c6bf6d86-d252-4660-befd-ac8a7511ad59.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="5e7aae90-ef65-489d-b29f-926879e950a5.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="5e7aae90-ef65-489d-b29f-926879e950a5.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="634a3189-31f2-46da-b9ac-ed0c612b9f9f.md" r:id="rId8"/>
+    <hyperlink ref="I5" display="634a3189-31f2-46da-b9ac-ed0c612b9f9f.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-11-02 05:15:08</t>
@@ -124,7 +124,7 @@
     <t>2016-11-02 05:14:48</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-11-02 05:15:44</t>
   </si>
   <si>
     <t>True</t>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>a44599e7-4040-4699-95bc-e3ab48235c91.d26d72325de2aab19b5e0cfebfaa474045cbb400.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:16:04</t>
   </si>
   <si>
     <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.035557fe3592c55133bd6b1a71f88bfede9ed4e3.de-de.xlf</t>
@@ -270,8 +273,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -366,14 +369,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -457,11 +460,11 @@
       <c r="H2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>36</v>
@@ -507,11 +510,11 @@
       <c r="H3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>36</v>
@@ -535,7 +538,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId3"/>
+    <hyperlink ref="I2" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -554,14 +559,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -645,14 +650,14 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -690,19 +695,19 @@
         <v>33</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -723,7 +728,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId3"/>
+    <hyperlink ref="I2" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>File Name</t>
   </si>
@@ -49,10 +49,10 @@
     <t/>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:15:08</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:17:00</t>
   </si>
   <si>
     <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.md</t>
@@ -112,7 +112,7 @@
     <t>e2e</t>
   </si>
   <si>
-    <t>ht</t>
+    <t>mt</t>
   </si>
   <si>
     <t>False</t>
@@ -121,13 +121,16 @@
     <t>a44599e7-4040-4699-95bc-e3ab48235c91.d26d72325de2aab19b5e0cfebfaa474045cbb400.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-11-02 05:14:48</t>
+    <t>2016-11-02 05:16:45</t>
   </si>
   <si>
     <t>2016-11-02 05:15:44</t>
   </si>
   <si>
     <t>True</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/19359c72d7d05967dd2186bb1a8bd89be9462f40/e2e/a44599e7-4040-4699-95bc-e3ab48235c91.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/bc90dc50159feed881f0961d1a7dea995005bb7c/e2e/a44599e7-4040-4699-95bc-e3ab48235c91.md.</t>
   </si>
   <si>
     <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.035557fe3592c55133bd6b1a71f88bfede9ed4e3.zh-cn.xlf</t>
@@ -273,8 +276,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -369,7 +372,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -382,7 +385,7 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -482,7 +485,7 @@
         <v>33</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -505,7 +508,7 @@
         <v>33</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>35</v>
@@ -514,7 +517,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>36</v>
@@ -559,7 +562,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -572,7 +575,7 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -645,7 +648,7 @@
         <v>33</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -654,10 +657,10 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -672,7 +675,7 @@
         <v>33</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -695,7 +698,7 @@
         <v>33</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -704,10 +707,10 @@
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-11-02 05:17:00</t>
@@ -124,22 +124,19 @@
     <t>2016-11-02 05:16:45</t>
   </si>
   <si>
-    <t>2016-11-02 05:15:44</t>
+    <t>2016-11-02 05:17:49</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/19359c72d7d05967dd2186bb1a8bd89be9462f40/e2e/a44599e7-4040-4699-95bc-e3ab48235c91.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/bc90dc50159feed881f0961d1a7dea995005bb7c/e2e/a44599e7-4040-4699-95bc-e3ab48235c91.md.</t>
-  </si>
-  <si>
     <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.035557fe3592c55133bd6b1a71f88bfede9ed4e3.zh-cn.xlf</t>
   </si>
   <si>
     <t>a44599e7-4040-4699-95bc-e3ab48235c91.d26d72325de2aab19b5e0cfebfaa474045cbb400.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-11-02 05:16:04</t>
+    <t>2016-11-02 05:18:08</t>
   </si>
   <si>
     <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.035557fe3592c55133bd6b1a71f88bfede9ed4e3.de-de.xlf</t>
@@ -276,8 +273,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -372,7 +369,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -385,7 +382,7 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -485,7 +482,7 @@
         <v>33</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +505,7 @@
         <v>33</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>35</v>
@@ -517,7 +514,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>36</v>
@@ -562,7 +559,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -575,7 +572,7 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -648,7 +645,7 @@
         <v>33</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -657,10 +654,10 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -675,7 +672,7 @@
         <v>33</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -698,7 +695,7 @@
         <v>33</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -707,10 +704,10 @@
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -37,39 +37,39 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>a44599e7-4040-4699-95bc-e3ab48235c91.md</t>
+  </si>
+  <si>
+    <t>e2e\a44599e7-4040-4699-95bc-e3ab48235c91.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:20:02</t>
+  </si>
+  <si>
     <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.md</t>
   </si>
   <si>
     <t>e2e\d55b802f-3346-4fb7-904f-c4a5400d7bcd.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:19:13</t>
-  </si>
-  <si>
-    <t>a44599e7-4040-4699-95bc-e3ab48235c91.md</t>
-  </si>
-  <si>
-    <t>e2e\a44599e7-4040-4699-95bc-e3ab48235c91.md</t>
+    <t>db2c5a51-4d09-484e-9393-0e6c6b2730a2.md</t>
+  </si>
+  <si>
+    <t>e2e\db2c5a51-4d09-484e-9393-0e6c6b2730a2.md</t>
   </si>
   <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>db2c5a51-4d09-484e-9393-0e6c6b2730a2.md</t>
-  </si>
-  <si>
-    <t>e2e\db2c5a51-4d09-484e-9393-0e6c6b2730a2.md</t>
-  </si>
-  <si>
     <t>e68f52e1-d1be-4d4b-8507-9fb227a128e8.md</t>
   </si>
   <si>
@@ -127,27 +127,27 @@
     <t>e2e</t>
   </si>
   <si>
-    <t>ht</t>
+    <t>mt</t>
   </si>
   <si>
     <t>False</t>
   </si>
   <si>
+    <t>a44599e7-4040-4699-95bc-e3ab48235c91.d26d72325de2aab19b5e0cfebfaa474045cbb400.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:19:46</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:17:49</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.035557fe3592c55133bd6b1a71f88bfede9ed4e3.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-11-02 05:18:57</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:17:49</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>a44599e7-4040-4699-95bc-e3ab48235c91.d26d72325de2aab19b5e0cfebfaa474045cbb400.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>db2c5a51-4d09-484e-9393-0e6c6b2730a2.be3c10778f0389a040236c9e6752051be50228b2.zh-cn.xlf</t>
   </si>
   <si>
@@ -157,13 +157,13 @@
     <t>e68f52e1-d1be-4d4b-8507-9fb227a128e8.90df6f47a95d181cf49c62046111b72b833d4b17.zh-cn.xlf</t>
   </si>
   <si>
+    <t>a44599e7-4040-4699-95bc-e3ab48235c91.d26d72325de2aab19b5e0cfebfaa474045cbb400.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:18:08</t>
+  </si>
+  <si>
     <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.035557fe3592c55133bd6b1a71f88bfede9ed4e3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:18:08</t>
-  </si>
-  <si>
-    <t>a44599e7-4040-4699-95bc-e3ab48235c91.d26d72325de2aab19b5e0cfebfaa474045cbb400.de-de.xlf</t>
   </si>
   <si>
     <t>db2c5a51-4d09-484e-9393-0e6c6b2730a2.be3c10778f0389a040236c9e6752051be50228b2.de-de.xlf</t>
@@ -368,10 +368,10 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
@@ -379,22 +379,22 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>12</v>
@@ -414,10 +414,10 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>12</v>
@@ -425,8 +425,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\db2c5a51-4d09-484e-9393-0e6c6b2730a2.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\e68f52e1-d1be-4d4b-8507-9fb227a128e8.md" r:id="rId5"/>
   </hyperlinks>
@@ -571,7 +571,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>36</v>
@@ -615,13 +615,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>36</v>
@@ -671,7 +671,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>36</v>
@@ -715,10 +715,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId5"/>
     <hyperlink ref="A4" display="db2c5a51-4d09-484e-9393-0e6c6b2730a2.md" r:id="rId6"/>
     <hyperlink ref="A5" display="e68f52e1-d1be-4d4b-8507-9fb227a128e8.md" r:id="rId7"/>
   </hyperlinks>
@@ -863,7 +863,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>36</v>
@@ -907,13 +907,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>36</v>
@@ -963,7 +963,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>36</v>
@@ -1007,10 +1007,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId5"/>
     <hyperlink ref="A4" display="db2c5a51-4d09-484e-9393-0e6c6b2730a2.md" r:id="rId6"/>
     <hyperlink ref="A5" display="e68f52e1-d1be-4d4b-8507-9fb227a128e8.md" r:id="rId7"/>
   </hyperlinks>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -37,45 +37,45 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>56861064-ec74-44ff-8a5e-91eb9922eb7f.md</t>
+  </si>
+  <si>
+    <t>e2e\56861064-ec74-44ff-8a5e-91eb9922eb7f.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:21:01</t>
+  </si>
+  <si>
+    <t>a233f04e-2d0b-4408-8458-a280f1e0e22f.md</t>
+  </si>
+  <si>
+    <t>e2e\a233f04e-2d0b-4408-8458-a280f1e0e22f.md</t>
+  </si>
+  <si>
     <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.md</t>
   </si>
   <si>
     <t>e2e\d55b802f-3346-4fb7-904f-c4a5400d7bcd.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:21:01</t>
-  </si>
-  <si>
-    <t>56861064-ec74-44ff-8a5e-91eb9922eb7f.md</t>
-  </si>
-  <si>
-    <t>e2e\56861064-ec74-44ff-8a5e-91eb9922eb7f.md</t>
+    <t>a44599e7-4040-4699-95bc-e3ab48235c91.md</t>
+  </si>
+  <si>
+    <t>e2e\a44599e7-4040-4699-95bc-e3ab48235c91.md</t>
   </si>
   <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>a233f04e-2d0b-4408-8458-a280f1e0e22f.md</t>
-  </si>
-  <si>
-    <t>e2e\a233f04e-2d0b-4408-8458-a280f1e0e22f.md</t>
-  </si>
-  <si>
-    <t>a44599e7-4040-4699-95bc-e3ab48235c91.md</t>
-  </si>
-  <si>
-    <t>e2e\a44599e7-4040-4699-95bc-e3ab48235c91.md</t>
-  </si>
-  <si>
     <t>db2c5a51-4d09-484e-9393-0e6c6b2730a2.md</t>
   </si>
   <si>
@@ -145,27 +145,27 @@
     <t>False</t>
   </si>
   <si>
+    <t>56861064-ec74-44ff-8a5e-91eb9922eb7f.95e8b901ef363d2fe1b3636e642c752701285c25.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:20:45</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>a233f04e-2d0b-4408-8458-a280f1e0e22f.8fd67ffb2787dc5006a87708268afd31cebffe0d.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.035557fe3592c55133bd6b1a71f88bfede9ed4e3.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-11-02 05:20:45</t>
-  </si>
-  <si>
     <t>2016-11-02 05:17:49</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>56861064-ec74-44ff-8a5e-91eb9922eb7f.95e8b901ef363d2fe1b3636e642c752701285c25.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>a233f04e-2d0b-4408-8458-a280f1e0e22f.8fd67ffb2787dc5006a87708268afd31cebffe0d.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>a44599e7-4040-4699-95bc-e3ab48235c91.d26d72325de2aab19b5e0cfebfaa474045cbb400.zh-cn.xlf</t>
   </si>
   <si>
@@ -175,16 +175,16 @@
     <t>e68f52e1-d1be-4d4b-8507-9fb227a128e8.90df6f47a95d181cf49c62046111b72b833d4b17.zh-cn.xlf</t>
   </si>
   <si>
+    <t>56861064-ec74-44ff-8a5e-91eb9922eb7f.95e8b901ef363d2fe1b3636e642c752701285c25.de-de.xlf</t>
+  </si>
+  <si>
+    <t>a233f04e-2d0b-4408-8458-a280f1e0e22f.8fd67ffb2787dc5006a87708268afd31cebffe0d.de-de.xlf</t>
+  </si>
+  <si>
     <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.035557fe3592c55133bd6b1a71f88bfede9ed4e3.de-de.xlf</t>
   </si>
   <si>
     <t>2016-11-02 05:18:08</t>
-  </si>
-  <si>
-    <t>56861064-ec74-44ff-8a5e-91eb9922eb7f.95e8b901ef363d2fe1b3636e642c752701285c25.de-de.xlf</t>
-  </si>
-  <si>
-    <t>a233f04e-2d0b-4408-8458-a280f1e0e22f.8fd67ffb2787dc5006a87708268afd31cebffe0d.de-de.xlf</t>
   </si>
   <si>
     <t>a44599e7-4040-4699-95bc-e3ab48235c91.d26d72325de2aab19b5e0cfebfaa474045cbb400.de-de.xlf</t>
@@ -392,10 +392,10 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
@@ -403,11 +403,11 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
@@ -415,10 +415,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>12</v>
@@ -426,22 +426,22 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>12</v>
@@ -461,10 +461,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>12</v>
@@ -484,10 +484,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>12</v>
@@ -495,9 +495,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\db2c5a51-4d09-484e-9393-0e6c6b2730a2.md" r:id="rId6"/>
     <hyperlink ref="B7" display="e2e\e68f52e1-d1be-4d4b-8507-9fb227a128e8.md" r:id="rId7"/>
@@ -610,11 +610,11 @@
       <c r="H2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>45</v>
@@ -643,7 +643,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>40</v>
@@ -667,7 +667,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -687,13 +687,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>40</v>
@@ -705,19 +705,19 @@
         <v>42</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
@@ -737,13 +737,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>40</v>
@@ -761,13 +761,13 @@
         <v>44</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>50</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
@@ -793,7 +793,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>40</v>
@@ -817,7 +817,7 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
@@ -843,7 +843,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>40</v>
@@ -867,7 +867,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
@@ -887,10 +887,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId4"/>
+    <hyperlink ref="I4" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId5"/>
     <hyperlink ref="A5" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId6"/>
     <hyperlink ref="I5" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId7"/>
     <hyperlink ref="A6" display="db2c5a51-4d09-484e-9393-0e6c6b2730a2.md" r:id="rId8"/>
@@ -1004,14 +1004,14 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -1037,7 +1037,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>40</v>
@@ -1049,7 +1049,7 @@
         <v>42</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -1061,7 +1061,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -1081,13 +1081,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>40</v>
@@ -1099,19 +1099,19 @@
         <v>42</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
@@ -1131,13 +1131,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>40</v>
@@ -1155,13 +1155,13 @@
         <v>12</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>57</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
@@ -1187,7 +1187,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>40</v>
@@ -1211,7 +1211,7 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
@@ -1237,7 +1237,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>40</v>
@@ -1261,7 +1261,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
@@ -1281,10 +1281,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId4"/>
+    <hyperlink ref="I4" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId5"/>
     <hyperlink ref="A5" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId6"/>
     <hyperlink ref="I5" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId7"/>
     <hyperlink ref="A6" display="db2c5a51-4d09-484e-9393-0e6c6b2730a2.md" r:id="rId8"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>File Name</t>
   </si>
@@ -37,42 +37,45 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>a233f04e-2d0b-4408-8458-a280f1e0e22f.md</t>
+  </si>
+  <si>
+    <t>e2e\a233f04e-2d0b-4408-8458-a280f1e0e22f.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:21:01</t>
+  </si>
+  <si>
+    <t>a44599e7-4040-4699-95bc-e3ab48235c91.md</t>
+  </si>
+  <si>
+    <t>e2e\a44599e7-4040-4699-95bc-e3ab48235c91.md</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:22:33</t>
+  </si>
+  <si>
+    <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.md</t>
+  </si>
+  <si>
+    <t>e2e\d55b802f-3346-4fb7-904f-c4a5400d7bcd.md</t>
+  </si>
+  <si>
     <t>56861064-ec74-44ff-8a5e-91eb9922eb7f.md</t>
   </si>
   <si>
     <t>e2e\56861064-ec74-44ff-8a5e-91eb9922eb7f.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:21:01</t>
-  </si>
-  <si>
-    <t>a233f04e-2d0b-4408-8458-a280f1e0e22f.md</t>
-  </si>
-  <si>
-    <t>e2e\a233f04e-2d0b-4408-8458-a280f1e0e22f.md</t>
-  </si>
-  <si>
-    <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.md</t>
-  </si>
-  <si>
-    <t>e2e\d55b802f-3346-4fb7-904f-c4a5400d7bcd.md</t>
-  </si>
-  <si>
-    <t>a44599e7-4040-4699-95bc-e3ab48235c91.md</t>
-  </si>
-  <si>
-    <t>e2e\a44599e7-4040-4699-95bc-e3ab48235c91.md</t>
-  </si>
-  <si>
     <t>Ready for handoff</t>
   </si>
   <si>
@@ -145,49 +148,55 @@
     <t>False</t>
   </si>
   <si>
+    <t>a233f04e-2d0b-4408-8458-a280f1e0e22f.8fd67ffb2787dc5006a87708268afd31cebffe0d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:20:45</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>mt</t>
+  </si>
+  <si>
+    <t>a44599e7-4040-4699-95bc-e3ab48235c91.d26d72325de2aab19b5e0cfebfaa474045cbb400.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:22:17</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:17:49</t>
+  </si>
+  <si>
+    <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.035557fe3592c55133bd6b1a71f88bfede9ed4e3.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>56861064-ec74-44ff-8a5e-91eb9922eb7f.95e8b901ef363d2fe1b3636e642c752701285c25.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-11-02 05:20:45</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>a233f04e-2d0b-4408-8458-a280f1e0e22f.8fd67ffb2787dc5006a87708268afd31cebffe0d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.035557fe3592c55133bd6b1a71f88bfede9ed4e3.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:17:49</t>
-  </si>
-  <si>
-    <t>a44599e7-4040-4699-95bc-e3ab48235c91.d26d72325de2aab19b5e0cfebfaa474045cbb400.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>db2c5a51-4d09-484e-9393-0e6c6b2730a2.be3c10778f0389a040236c9e6752051be50228b2.zh-cn.xlf</t>
   </si>
   <si>
     <t>e68f52e1-d1be-4d4b-8507-9fb227a128e8.90df6f47a95d181cf49c62046111b72b833d4b17.zh-cn.xlf</t>
   </si>
   <si>
+    <t>a233f04e-2d0b-4408-8458-a280f1e0e22f.8fd67ffb2787dc5006a87708268afd31cebffe0d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>a44599e7-4040-4699-95bc-e3ab48235c91.d26d72325de2aab19b5e0cfebfaa474045cbb400.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:18:08</t>
+  </si>
+  <si>
+    <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.035557fe3592c55133bd6b1a71f88bfede9ed4e3.de-de.xlf</t>
+  </si>
+  <si>
     <t>56861064-ec74-44ff-8a5e-91eb9922eb7f.95e8b901ef363d2fe1b3636e642c752701285c25.de-de.xlf</t>
-  </si>
-  <si>
-    <t>a233f04e-2d0b-4408-8458-a280f1e0e22f.8fd67ffb2787dc5006a87708268afd31cebffe0d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.035557fe3592c55133bd6b1a71f88bfede9ed4e3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:18:08</t>
-  </si>
-  <si>
-    <t>a44599e7-4040-4699-95bc-e3ab48235c91.d26d72325de2aab19b5e0cfebfaa474045cbb400.de-de.xlf</t>
   </si>
   <si>
     <t>db2c5a51-4d09-484e-9393-0e6c6b2730a2.be3c10778f0389a040236c9e6752051be50228b2.de-de.xlf</t>
@@ -398,15 +407,15 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -421,15 +430,15 @@
         <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -438,44 +447,44 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>19</v>
-      </c>
       <c r="F6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>9</v>
@@ -484,21 +493,21 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId5"/>
+    <hyperlink ref="B5" display="e2e\56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\db2c5a51-4d09-484e-9393-0e6c6b2730a2.md" r:id="rId6"/>
     <hyperlink ref="B7" display="e2e\e68f52e1-d1be-4d4b-8507-9fb227a128e8.md" r:id="rId7"/>
   </hyperlinks>
@@ -537,52 +546,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
@@ -596,19 +605,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -617,19 +626,19 @@
         <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -646,40 +655,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -687,7 +696,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -696,40 +705,40 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -737,49 +746,49 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>17</v>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -787,28 +796,28 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>19</v>
-      </c>
       <c r="D6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -817,19 +826,19 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -837,28 +846,28 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -867,19 +876,19 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
@@ -887,12 +896,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId4"/>
-    <hyperlink ref="I4" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId6"/>
-    <hyperlink ref="I5" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId3"/>
+    <hyperlink ref="I3" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId5"/>
+    <hyperlink ref="I4" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId7"/>
     <hyperlink ref="A6" display="db2c5a51-4d09-484e-9393-0e6c6b2730a2.md" r:id="rId8"/>
     <hyperlink ref="A7" display="e68f52e1-d1be-4d4b-8507-9fb227a128e8.md" r:id="rId9"/>
   </hyperlinks>
@@ -931,52 +940,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
@@ -990,16 +999,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1011,19 +1020,19 @@
         <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -1040,40 +1049,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -1081,7 +1090,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -1090,40 +1099,40 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1131,49 +1140,49 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -1181,28 +1190,28 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>19</v>
-      </c>
       <c r="D6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1211,19 +1220,19 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -1231,28 +1240,28 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -1261,19 +1270,19 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
@@ -1281,12 +1290,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId4"/>
-    <hyperlink ref="I4" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId6"/>
-    <hyperlink ref="I5" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId3"/>
+    <hyperlink ref="I3" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId5"/>
+    <hyperlink ref="I4" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId7"/>
     <hyperlink ref="A6" display="db2c5a51-4d09-484e-9393-0e6c6b2730a2.md" r:id="rId8"/>
     <hyperlink ref="A7" display="e68f52e1-d1be-4d4b-8507-9fb227a128e8.md" r:id="rId9"/>
   </hyperlinks>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>File Name</t>
   </si>
@@ -37,48 +37,54 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.md</t>
+  </si>
+  <si>
+    <t>e2e\d55b802f-3346-4fb7-904f-c4a5400d7bcd.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:23:25</t>
+  </si>
+  <si>
+    <t>3b28d930-fc03-4636-ab34-dadc356a835e.md</t>
+  </si>
+  <si>
+    <t>e2e\3b28d930-fc03-4636-ab34-dadc356a835e.md</t>
+  </si>
+  <si>
+    <t>Handback transform failed</t>
+  </si>
+  <si>
     <t>a233f04e-2d0b-4408-8458-a280f1e0e22f.md</t>
   </si>
   <si>
     <t>e2e\a233f04e-2d0b-4408-8458-a280f1e0e22f.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>In Translation</t>
   </si>
   <si>
     <t>2016-11-02 05:21:01</t>
   </si>
   <si>
-    <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.md</t>
-  </si>
-  <si>
-    <t>e2e\d55b802f-3346-4fb7-904f-c4a5400d7bcd.md</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:23:25</t>
-  </si>
-  <si>
-    <t>3b28d930-fc03-4636-ab34-dadc356a835e.md</t>
-  </si>
-  <si>
-    <t>e2e\3b28d930-fc03-4636-ab34-dadc356a835e.md</t>
+    <t>56861064-ec74-44ff-8a5e-91eb9922eb7f.md</t>
+  </si>
+  <si>
+    <t>e2e\56861064-ec74-44ff-8a5e-91eb9922eb7f.md</t>
   </si>
   <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>56861064-ec74-44ff-8a5e-91eb9922eb7f.md</t>
-  </si>
-  <si>
-    <t>e2e\56861064-ec74-44ff-8a5e-91eb9922eb7f.md</t>
-  </si>
-  <si>
     <t>a44599e7-4040-4699-95bc-e3ab48235c91.md</t>
   </si>
   <si>
@@ -154,58 +160,70 @@
     <t>False</t>
   </si>
   <si>
+    <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.035557fe3592c55133bd6b1a71f88bfede9ed4e3.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:23:11</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:24:03</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>3b28d930-fc03-4636-ab34-dadc356a835e.6a9377ba1cb76097eba0bc3726ad6a3c94b314d8.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>The handback priority in file path mt\3b28d930-fc03-4636-ab34-dadc356a835e.6a9377ba1cb76097eba0bc3726ad6a3c94b314d8.zh-cn.xlf is not match with handoff type ht</t>
+  </si>
+  <si>
     <t>a233f04e-2d0b-4408-8458-a280f1e0e22f.8fd67ffb2787dc5006a87708268afd31cebffe0d.zh-cn.xlf</t>
   </si>
   <si>
     <t>2016-11-02 05:20:45</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.035557fe3592c55133bd6b1a71f88bfede9ed4e3.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:23:11</t>
+    <t>56861064-ec74-44ff-8a5e-91eb9922eb7f.95e8b901ef363d2fe1b3636e642c752701285c25.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>a44599e7-4040-4699-95bc-e3ab48235c91.d26d72325de2aab19b5e0cfebfaa474045cbb400.zh-cn.xlf</t>
   </si>
   <si>
     <t>2016-11-02 05:17:49</t>
   </si>
   <si>
-    <t>3b28d930-fc03-4636-ab34-dadc356a835e.6a9377ba1cb76097eba0bc3726ad6a3c94b314d8.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>56861064-ec74-44ff-8a5e-91eb9922eb7f.95e8b901ef363d2fe1b3636e642c752701285c25.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>a44599e7-4040-4699-95bc-e3ab48235c91.d26d72325de2aab19b5e0cfebfaa474045cbb400.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>db2c5a51-4d09-484e-9393-0e6c6b2730a2.be3c10778f0389a040236c9e6752051be50228b2.zh-cn.xlf</t>
   </si>
   <si>
     <t>e68f52e1-d1be-4d4b-8507-9fb227a128e8.90df6f47a95d181cf49c62046111b72b833d4b17.zh-cn.xlf</t>
   </si>
   <si>
+    <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.035557fe3592c55133bd6b1a71f88bfede9ed4e3.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:24:22</t>
+  </si>
+  <si>
+    <t>3b28d930-fc03-4636-ab34-dadc356a835e.6a9377ba1cb76097eba0bc3726ad6a3c94b314d8.de-de.xlf</t>
+  </si>
+  <si>
+    <t>The handback priority in file path mt\3b28d930-fc03-4636-ab34-dadc356a835e.6a9377ba1cb76097eba0bc3726ad6a3c94b314d8.de-de.xlf is not match with handoff type ht</t>
+  </si>
+  <si>
     <t>a233f04e-2d0b-4408-8458-a280f1e0e22f.8fd67ffb2787dc5006a87708268afd31cebffe0d.de-de.xlf</t>
   </si>
   <si>
-    <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.035557fe3592c55133bd6b1a71f88bfede9ed4e3.de-de.xlf</t>
+    <t>56861064-ec74-44ff-8a5e-91eb9922eb7f.95e8b901ef363d2fe1b3636e642c752701285c25.de-de.xlf</t>
+  </si>
+  <si>
+    <t>a44599e7-4040-4699-95bc-e3ab48235c91.d26d72325de2aab19b5e0cfebfaa474045cbb400.de-de.xlf</t>
   </si>
   <si>
     <t>2016-11-02 05:18:08</t>
-  </si>
-  <si>
-    <t>3b28d930-fc03-4636-ab34-dadc356a835e.6a9377ba1cb76097eba0bc3726ad6a3c94b314d8.de-de.xlf</t>
-  </si>
-  <si>
-    <t>56861064-ec74-44ff-8a5e-91eb9922eb7f.95e8b901ef363d2fe1b3636e642c752701285c25.de-de.xlf</t>
-  </si>
-  <si>
-    <t>a44599e7-4040-4699-95bc-e3ab48235c91.d26d72325de2aab19b5e0cfebfaa474045cbb400.de-de.xlf</t>
   </si>
   <si>
     <t>db2c5a51-4d09-484e-9393-0e6c6b2730a2.be3c10778f0389a040236c9e6752051be50228b2.de-de.xlf</t>
@@ -345,8 +363,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -410,13 +428,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -439,15 +457,15 @@
         <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -456,21 +474,21 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -479,21 +497,21 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>9</v>
@@ -502,21 +520,21 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>9</v>
@@ -525,20 +543,20 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\3b28d930-fc03-4636-ab34-dadc356a835e.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\3b28d930-fc03-4636-ab34-dadc356a835e.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId6"/>
     <hyperlink ref="B7" display="e2e\db2c5a51-4d09-484e-9393-0e6c6b2730a2.md" r:id="rId7"/>
@@ -561,7 +579,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -574,57 +592,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -638,40 +656,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>49</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -685,46 +703,46 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -738,40 +756,40 @@
         <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -779,49 +797,49 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -829,49 +847,49 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -879,49 +897,49 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
@@ -929,49 +947,49 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="N8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
@@ -979,10 +997,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId3"/>
-    <hyperlink ref="I3" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="3b28d930-fc03-4636-ab34-dadc356a835e.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="3b28d930-fc03-4636-ab34-dadc356a835e.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId5"/>
     <hyperlink ref="A5" display="56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId6"/>
     <hyperlink ref="A6" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId7"/>
     <hyperlink ref="I6" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId8"/>
@@ -1006,7 +1024,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -1019,57 +1037,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -1083,40 +1101,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -1130,46 +1148,46 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -1183,19 +1201,19 @@
         <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -1204,19 +1222,19 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1224,28 +1242,28 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -1254,19 +1272,19 @@
         <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -1274,49 +1292,49 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -1324,28 +1342,28 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -1354,19 +1372,19 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
@@ -1374,28 +1392,28 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1404,19 +1422,19 @@
         <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
@@ -1424,10 +1442,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId3"/>
-    <hyperlink ref="I3" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="3b28d930-fc03-4636-ab34-dadc356a835e.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="3b28d930-fc03-4636-ab34-dadc356a835e.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId5"/>
     <hyperlink ref="A5" display="56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId6"/>
     <hyperlink ref="A6" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId7"/>
     <hyperlink ref="I6" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId8"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>File Name</t>
   </si>
@@ -73,6 +73,9 @@
     <t>Ready for handoff</t>
   </si>
   <si>
+    <t>2016-11-02 05:26:24</t>
+  </si>
+  <si>
     <t>3b28d930-fc03-4636-ab34-dadc356a835e.md</t>
   </si>
   <si>
@@ -188,6 +191,9 @@
   </si>
   <si>
     <t>1d191e04-1980-41ac-94c2-40e560739b4a.82ec5fcbcb3943e8d515b5a4ce91c0372a806141.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:26:10</t>
   </si>
   <si>
     <t>3b28d930-fc03-4636-ab34-dadc356a835e.6a9377ba1cb76097eba0bc3726ad6a3c94b314d8.zh-cn.xlf</t>
@@ -475,38 +481,38 @@
         <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -521,15 +527,15 @@
         <v>18</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>9</v>
@@ -544,15 +550,15 @@
         <v>18</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>9</v>
@@ -572,10 +578,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>9</v>
@@ -590,15 +596,15 @@
         <v>18</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>9</v>
@@ -613,7 +619,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -663,52 +669,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -722,19 +728,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -743,19 +749,19 @@
         <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -772,40 +778,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -822,19 +828,19 @@
         <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -843,19 +849,19 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -863,7 +869,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -872,19 +878,19 @@
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -893,27 +899,27 @@
         <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -922,19 +928,19 @@
         <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -943,19 +949,19 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -963,7 +969,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
@@ -972,19 +978,19 @@
         <v>18</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -993,19 +999,19 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
@@ -1013,7 +1019,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
@@ -1022,40 +1028,40 @@
         <v>18</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
@@ -1063,7 +1069,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
@@ -1072,19 +1078,19 @@
         <v>18</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
@@ -1093,19 +1099,19 @@
         <v>10</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>10</v>
@@ -1113,7 +1119,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
@@ -1122,19 +1128,19 @@
         <v>18</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>10</v>
@@ -1143,19 +1149,19 @@
         <v>10</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>10</v>
@@ -1210,52 +1216,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -1269,16 +1275,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1290,19 +1296,19 @@
         <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -1319,16 +1325,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
@@ -1337,22 +1343,22 @@
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -1369,19 +1375,19 @@
         <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -1390,19 +1396,19 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1410,29 +1416,29 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
@@ -1440,27 +1446,27 @@
         <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -1469,19 +1475,19 @@
         <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1490,19 +1496,19 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -1510,7 +1516,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
@@ -1519,19 +1525,19 @@
         <v>18</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -1540,19 +1546,19 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
@@ -1560,7 +1566,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
@@ -1569,40 +1575,40 @@
         <v>18</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
@@ -1610,7 +1616,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
@@ -1619,19 +1625,19 @@
         <v>18</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
@@ -1640,19 +1646,19 @@
         <v>10</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>10</v>
@@ -1660,7 +1666,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
@@ -1669,19 +1675,19 @@
         <v>18</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>10</v>
@@ -1690,19 +1696,19 @@
         <v>10</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>10</v>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -37,24 +37,39 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>0c1867a4-8189-4bb7-92ec-e709dfd642ad.md</t>
+  </si>
+  <si>
+    <t>e2e\0c1867a4-8189-4bb7-92ec-e709dfd642ad.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:27:23</t>
+  </si>
+  <si>
     <t>a233f04e-2d0b-4408-8458-a280f1e0e22f.md</t>
   </si>
   <si>
     <t>e2e\a233f04e-2d0b-4408-8458-a280f1e0e22f.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
     <t>2016-11-02 05:21:01</t>
   </si>
   <si>
+    <t>bd9e1420-d162-4512-95b9-cb84fb7b21b6.md</t>
+  </si>
+  <si>
+    <t>e2e\bd9e1420-d162-4512-95b9-cb84fb7b21b6.md</t>
+  </si>
+  <si>
     <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.md</t>
   </si>
   <si>
@@ -64,24 +79,15 @@
     <t>2016-11-02 05:25:34</t>
   </si>
   <si>
-    <t>0c1867a4-8189-4bb7-92ec-e709dfd642ad.md</t>
-  </si>
-  <si>
-    <t>e2e\0c1867a4-8189-4bb7-92ec-e709dfd642ad.md</t>
+    <t>1d191e04-1980-41ac-94c2-40e560739b4a.md</t>
+  </si>
+  <si>
+    <t>e2e\1d191e04-1980-41ac-94c2-40e560739b4a.md</t>
   </si>
   <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-11-02 05:27:23</t>
-  </si>
-  <si>
-    <t>1d191e04-1980-41ac-94c2-40e560739b4a.md</t>
-  </si>
-  <si>
-    <t>e2e\1d191e04-1980-41ac-94c2-40e560739b4a.md</t>
-  </si>
-  <si>
     <t>3b28d930-fc03-4636-ab34-dadc356a835e.md</t>
   </si>
   <si>
@@ -106,12 +112,6 @@
     <t>e2e\a44599e7-4040-4699-95bc-e3ab48235c91.md</t>
   </si>
   <si>
-    <t>bd9e1420-d162-4512-95b9-cb84fb7b21b6.md</t>
-  </si>
-  <si>
-    <t>e2e\bd9e1420-d162-4512-95b9-cb84fb7b21b6.md</t>
-  </si>
-  <si>
     <t>db2c5a51-4d09-484e-9393-0e6c6b2730a2.md</t>
   </si>
   <si>
@@ -175,22 +175,31 @@
     <t>e2e</t>
   </si>
   <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>0c1867a4-8189-4bb7-92ec-e709dfd642ad.ae4f3b02ac89148a793e464b03f8c92d258970fc.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:27:08</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>ht</t>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>a233f04e-2d0b-4408-8458-a280f1e0e22f.8fd67ffb2787dc5006a87708268afd31cebffe0d.zh-cn.xlf</t>
   </si>
   <si>
     <t>2016-11-02 05:20:45</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>True</t>
+    <t>bd9e1420-d162-4512-95b9-cb84fb7b21b6.90ff2b4cb394fbfb7668b068c8f031ecfddd115e.zh-cn.xlf</t>
   </si>
   <si>
     <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.035557fe3592c55133bd6b1a71f88bfede9ed4e3.zh-cn.xlf</t>
@@ -202,12 +211,6 @@
     <t>2016-11-02 05:24:03</t>
   </si>
   <si>
-    <t>0c1867a4-8189-4bb7-92ec-e709dfd642ad.ae4f3b02ac89148a793e464b03f8c92d258970fc.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:27:08</t>
-  </si>
-  <si>
     <t>1d191e04-1980-41ac-94c2-40e560739b4a.82ec5fcbcb3943e8d515b5a4ce91c0372a806141.zh-cn.xlf</t>
   </si>
   <si>
@@ -229,27 +232,27 @@
     <t>2016-11-02 05:17:49</t>
   </si>
   <si>
-    <t>bd9e1420-d162-4512-95b9-cb84fb7b21b6.90ff2b4cb394fbfb7668b068c8f031ecfddd115e.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>db2c5a51-4d09-484e-9393-0e6c6b2730a2.be3c10778f0389a040236c9e6752051be50228b2.zh-cn.xlf</t>
   </si>
   <si>
     <t>e68f52e1-d1be-4d4b-8507-9fb227a128e8.90df6f47a95d181cf49c62046111b72b833d4b17.zh-cn.xlf</t>
   </si>
   <si>
+    <t>0c1867a4-8189-4bb7-92ec-e709dfd642ad.ae4f3b02ac89148a793e464b03f8c92d258970fc.de-de.xlf</t>
+  </si>
+  <si>
     <t>a233f04e-2d0b-4408-8458-a280f1e0e22f.8fd67ffb2787dc5006a87708268afd31cebffe0d.de-de.xlf</t>
   </si>
   <si>
+    <t>bd9e1420-d162-4512-95b9-cb84fb7b21b6.90ff2b4cb394fbfb7668b068c8f031ecfddd115e.de-de.xlf</t>
+  </si>
+  <si>
     <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.035557fe3592c55133bd6b1a71f88bfede9ed4e3.de-de.xlf</t>
   </si>
   <si>
     <t>2016-11-02 05:24:22</t>
   </si>
   <si>
-    <t>0c1867a4-8189-4bb7-92ec-e709dfd642ad.ae4f3b02ac89148a793e464b03f8c92d258970fc.de-de.xlf</t>
-  </si>
-  <si>
     <t>1d191e04-1980-41ac-94c2-40e560739b4a.82ec5fcbcb3943e8d515b5a4ce91c0372a806141.de-de.xlf</t>
   </si>
   <si>
@@ -269,9 +272,6 @@
   </si>
   <si>
     <t>2016-11-02 05:18:08</t>
-  </si>
-  <si>
-    <t>bd9e1420-d162-4512-95b9-cb84fb7b21b6.90ff2b4cb394fbfb7668b068c8f031ecfddd115e.de-de.xlf</t>
   </si>
   <si>
     <t>db2c5a51-4d09-484e-9393-0e6c6b2730a2.be3c10778f0389a040236c9e6752051be50228b2.de-de.xlf</t>
@@ -499,45 +499,45 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
       </c>
@@ -545,13 +545,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -568,13 +568,13 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -591,13 +591,13 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -614,13 +614,13 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -637,13 +637,13 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -660,13 +660,13 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -683,26 +683,26 @@
         <v>10</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\0c1867a4-8189-4bb7-92ec-e709dfd642ad.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\1d191e04-1980-41ac-94c2-40e560739b4a.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\3b28d930-fc03-4636-ab34-dadc356a835e.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.md" r:id="rId8"/>
-    <hyperlink ref="B9" display="e2e\a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId9"/>
-    <hyperlink ref="B10" display="e2e\bd9e1420-d162-4512-95b9-cb84fb7b21b6.md" r:id="rId10"/>
+    <hyperlink ref="B2" display="e2e\0c1867a4-8189-4bb7-92ec-e709dfd642ad.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\bd9e1420-d162-4512-95b9-cb84fb7b21b6.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\1d191e04-1980-41ac-94c2-40e560739b4a.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\3b28d930-fc03-4636-ab34-dadc356a835e.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.md" r:id="rId9"/>
+    <hyperlink ref="B10" display="e2e\a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId10"/>
     <hyperlink ref="B11" display="e2e\db2c5a51-4d09-484e-9393-0e6c6b2730a2.md" r:id="rId11"/>
     <hyperlink ref="B12" display="e2e\e68f52e1-d1be-4d4b-8507-9fb227a128e8.md" r:id="rId12"/>
   </hyperlinks>
@@ -803,37 +803,37 @@
         <v>52</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -853,10 +853,10 @@
         <v>52</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>59</v>
@@ -864,26 +864,26 @@
       <c r="H3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -897,7 +897,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>52</v>
@@ -906,13 +906,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -921,19 +921,19 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -941,13 +941,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>52</v>
@@ -956,34 +956,34 @@
         <v>10</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -991,13 +991,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>52</v>
@@ -1006,13 +1006,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>65</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1021,22 +1021,22 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1047,7 +1047,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>52</v>
@@ -1056,37 +1056,37 @@
         <v>10</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G7" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1097,7 +1097,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>52</v>
@@ -1106,13 +1106,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>68</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1121,19 +1121,19 @@
         <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
@@ -1147,7 +1147,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>52</v>
@@ -1156,34 +1156,34 @@
         <v>10</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>69</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>28</v>
+        <v>55</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>10</v>
@@ -1197,7 +1197,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>52</v>
@@ -1206,34 +1206,34 @@
         <v>10</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="0" t="s">
-        <v>10</v>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>10</v>
@@ -1247,7 +1247,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>52</v>
@@ -1256,13 +1256,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>72</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>10</v>
@@ -1271,19 +1271,19 @@
         <v>10</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P11" s="0" t="s">
         <v>10</v>
@@ -1297,7 +1297,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>52</v>
@@ -1306,13 +1306,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>73</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>10</v>
@@ -1321,19 +1321,19 @@
         <v>10</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P12" s="0" t="s">
         <v>10</v>
@@ -1341,17 +1341,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId3"/>
-    <hyperlink ref="I3" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="0c1867a4-8189-4bb7-92ec-e709dfd642ad.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="1d191e04-1980-41ac-94c2-40e560739b4a.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="3b28d930-fc03-4636-ab34-dadc356a835e.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId8"/>
-    <hyperlink ref="A8" display="8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.md" r:id="rId9"/>
-    <hyperlink ref="A9" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId10"/>
-    <hyperlink ref="I9" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId11"/>
-    <hyperlink ref="A10" display="bd9e1420-d162-4512-95b9-cb84fb7b21b6.md" r:id="rId12"/>
+    <hyperlink ref="A2" display="0c1867a4-8189-4bb7-92ec-e709dfd642ad.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="bd9e1420-d162-4512-95b9-cb84fb7b21b6.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId5"/>
+    <hyperlink ref="I5" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId6"/>
+    <hyperlink ref="A6" display="1d191e04-1980-41ac-94c2-40e560739b4a.md" r:id="rId7"/>
+    <hyperlink ref="A7" display="3b28d930-fc03-4636-ab34-dadc356a835e.md" r:id="rId8"/>
+    <hyperlink ref="A8" display="56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId9"/>
+    <hyperlink ref="A9" display="8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.md" r:id="rId10"/>
+    <hyperlink ref="A10" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId11"/>
+    <hyperlink ref="I10" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId12"/>
     <hyperlink ref="A11" display="db2c5a51-4d09-484e-9393-0e6c6b2730a2.md" r:id="rId13"/>
     <hyperlink ref="A12" display="e68f52e1-d1be-4d4b-8507-9fb227a128e8.md" r:id="rId14"/>
   </hyperlinks>
@@ -1452,10 +1452,10 @@
         <v>52</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>74</v>
@@ -1470,19 +1470,19 @@
         <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -1502,10 +1502,10 @@
         <v>52</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>75</v>
@@ -1513,26 +1513,26 @@
       <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -1546,7 +1546,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>52</v>
@@ -1555,13 +1555,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -1570,19 +1570,19 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1590,49 +1590,49 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="I5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="0" t="s">
+      <c r="J5" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -1640,13 +1640,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>52</v>
@@ -1655,13 +1655,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>79</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1670,22 +1670,22 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1696,7 +1696,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>52</v>
@@ -1705,37 +1705,37 @@
         <v>10</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1746,7 +1746,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>52</v>
@@ -1755,13 +1755,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>82</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1770,19 +1770,19 @@
         <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
@@ -1796,7 +1796,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>52</v>
@@ -1805,34 +1805,34 @@
         <v>10</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>83</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>10</v>
@@ -1846,7 +1846,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>52</v>
@@ -1855,34 +1855,34 @@
         <v>10</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="L10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>10</v>
@@ -1896,7 +1896,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>52</v>
@@ -1905,13 +1905,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>86</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>10</v>
@@ -1920,19 +1920,19 @@
         <v>10</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P11" s="0" t="s">
         <v>10</v>
@@ -1946,7 +1946,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>52</v>
@@ -1955,13 +1955,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>87</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>10</v>
@@ -1970,19 +1970,19 @@
         <v>10</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P12" s="0" t="s">
         <v>10</v>
@@ -1990,17 +1990,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId3"/>
-    <hyperlink ref="I3" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="0c1867a4-8189-4bb7-92ec-e709dfd642ad.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="1d191e04-1980-41ac-94c2-40e560739b4a.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="3b28d930-fc03-4636-ab34-dadc356a835e.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId8"/>
-    <hyperlink ref="A8" display="8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.md" r:id="rId9"/>
-    <hyperlink ref="A9" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId10"/>
-    <hyperlink ref="I9" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId11"/>
-    <hyperlink ref="A10" display="bd9e1420-d162-4512-95b9-cb84fb7b21b6.md" r:id="rId12"/>
+    <hyperlink ref="A2" display="0c1867a4-8189-4bb7-92ec-e709dfd642ad.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="bd9e1420-d162-4512-95b9-cb84fb7b21b6.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId5"/>
+    <hyperlink ref="I5" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId6"/>
+    <hyperlink ref="A6" display="1d191e04-1980-41ac-94c2-40e560739b4a.md" r:id="rId7"/>
+    <hyperlink ref="A7" display="3b28d930-fc03-4636-ab34-dadc356a835e.md" r:id="rId8"/>
+    <hyperlink ref="A8" display="56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId9"/>
+    <hyperlink ref="A9" display="8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.md" r:id="rId10"/>
+    <hyperlink ref="A10" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId11"/>
+    <hyperlink ref="I10" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId12"/>
     <hyperlink ref="A11" display="db2c5a51-4d09-484e-9393-0e6c6b2730a2.md" r:id="rId13"/>
     <hyperlink ref="A12" display="e68f52e1-d1be-4d4b-8507-9fb227a128e8.md" r:id="rId14"/>
   </hyperlinks>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>File Name</t>
   </si>
@@ -37,46 +37,52 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>a233f04e-2d0b-4408-8458-a280f1e0e22f.md</t>
+  </si>
+  <si>
+    <t>e2e\a233f04e-2d0b-4408-8458-a280f1e0e22f.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:21:01</t>
+  </si>
+  <si>
+    <t>bd9e1420-d162-4512-95b9-cb84fb7b21b6.md</t>
+  </si>
+  <si>
+    <t>e2e\bd9e1420-d162-4512-95b9-cb84fb7b21b6.md</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:27:23</t>
+  </si>
+  <si>
+    <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.md</t>
+  </si>
+  <si>
+    <t>e2e\d55b802f-3346-4fb7-904f-c4a5400d7bcd.md</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:25:34</t>
+  </si>
+  <si>
     <t>0c1867a4-8189-4bb7-92ec-e709dfd642ad.md</t>
   </si>
   <si>
     <t>e2e\0c1867a4-8189-4bb7-92ec-e709dfd642ad.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:27:23</t>
-  </si>
-  <si>
-    <t>a233f04e-2d0b-4408-8458-a280f1e0e22f.md</t>
-  </si>
-  <si>
-    <t>e2e\a233f04e-2d0b-4408-8458-a280f1e0e22f.md</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:21:01</t>
-  </si>
-  <si>
-    <t>bd9e1420-d162-4512-95b9-cb84fb7b21b6.md</t>
-  </si>
-  <si>
-    <t>e2e\bd9e1420-d162-4512-95b9-cb84fb7b21b6.md</t>
-  </si>
-  <si>
-    <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.md</t>
-  </si>
-  <si>
-    <t>e2e\d55b802f-3346-4fb7-904f-c4a5400d7bcd.md</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:25:34</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:28:56</t>
   </si>
   <si>
     <t>1d191e04-1980-41ac-94c2-40e560739b4a.md</t>
@@ -85,9 +91,6 @@
     <t>e2e\1d191e04-1980-41ac-94c2-40e560739b4a.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>3b28d930-fc03-4636-ab34-dadc356a835e.md</t>
   </si>
   <si>
@@ -175,40 +178,43 @@
     <t>e2e</t>
   </si>
   <si>
+    <t>ht</t>
+  </si>
+  <si>
     <t>False</t>
   </si>
   <si>
+    <t>a233f04e-2d0b-4408-8458-a280f1e0e22f.8fd67ffb2787dc5006a87708268afd31cebffe0d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:20:45</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>bd9e1420-d162-4512-95b9-cb84fb7b21b6.90ff2b4cb394fbfb7668b068c8f031ecfddd115e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:27:08</t>
+  </si>
+  <si>
+    <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.035557fe3592c55133bd6b1a71f88bfede9ed4e3.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:25:19</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:24:03</t>
+  </si>
+  <si>
     <t>0c1867a4-8189-4bb7-92ec-e709dfd642ad.ae4f3b02ac89148a793e464b03f8c92d258970fc.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-11-02 05:27:08</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>ht</t>
-  </si>
-  <si>
-    <t>a233f04e-2d0b-4408-8458-a280f1e0e22f.8fd67ffb2787dc5006a87708268afd31cebffe0d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:20:45</t>
-  </si>
-  <si>
-    <t>bd9e1420-d162-4512-95b9-cb84fb7b21b6.90ff2b4cb394fbfb7668b068c8f031ecfddd115e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.035557fe3592c55133bd6b1a71f88bfede9ed4e3.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:25:19</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:24:03</t>
+    <t>2016-11-02 05:28:41</t>
   </si>
   <si>
     <t>1d191e04-1980-41ac-94c2-40e560739b4a.82ec5fcbcb3943e8d515b5a4ce91c0372a806141.zh-cn.xlf</t>
@@ -238,19 +244,19 @@
     <t>e68f52e1-d1be-4d4b-8507-9fb227a128e8.90df6f47a95d181cf49c62046111b72b833d4b17.zh-cn.xlf</t>
   </si>
   <si>
+    <t>a233f04e-2d0b-4408-8458-a280f1e0e22f.8fd67ffb2787dc5006a87708268afd31cebffe0d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>bd9e1420-d162-4512-95b9-cb84fb7b21b6.90ff2b4cb394fbfb7668b068c8f031ecfddd115e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.035557fe3592c55133bd6b1a71f88bfede9ed4e3.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:24:22</t>
+  </si>
+  <si>
     <t>0c1867a4-8189-4bb7-92ec-e709dfd642ad.ae4f3b02ac89148a793e464b03f8c92d258970fc.de-de.xlf</t>
-  </si>
-  <si>
-    <t>a233f04e-2d0b-4408-8458-a280f1e0e22f.8fd67ffb2787dc5006a87708268afd31cebffe0d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>bd9e1420-d162-4512-95b9-cb84fb7b21b6.90ff2b4cb394fbfb7668b068c8f031ecfddd115e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.035557fe3592c55133bd6b1a71f88bfede9ed4e3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:24:22</t>
   </si>
   <si>
     <t>1d191e04-1980-41ac-94c2-40e560739b4a.82ec5fcbcb3943e8d515b5a4ce91c0372a806141.de-de.xlf</t>
@@ -505,15 +511,15 @@
         <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -522,44 +528,44 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>9</v>
@@ -568,21 +574,21 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>9</v>
@@ -591,21 +597,21 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>9</v>
@@ -614,21 +620,21 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>9</v>
@@ -637,21 +643,21 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>9</v>
@@ -660,21 +666,21 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>9</v>
@@ -683,21 +689,21 @@
         <v>10</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\0c1867a4-8189-4bb7-92ec-e709dfd642ad.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\bd9e1420-d162-4512-95b9-cb84fb7b21b6.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId5"/>
+    <hyperlink ref="B2" display="e2e\a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\bd9e1420-d162-4512-95b9-cb84fb7b21b6.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\0c1867a4-8189-4bb7-92ec-e709dfd642ad.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\1d191e04-1980-41ac-94c2-40e560739b4a.md" r:id="rId6"/>
     <hyperlink ref="B7" display="e2e\3b28d930-fc03-4636-ab34-dadc356a835e.md" r:id="rId7"/>
     <hyperlink ref="B8" display="e2e\56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId8"/>
@@ -741,52 +747,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
@@ -800,19 +806,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -821,19 +827,19 @@
         <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -850,40 +856,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -900,40 +906,40 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
+        <v>63</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -941,49 +947,49 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>18</v>
+        <v>66</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -991,28 +997,28 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1021,19 +1027,19 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -1041,29 +1047,29 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G7" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
       </c>
@@ -1071,48 +1077,48 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1121,19 +1127,19 @@
         <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
@@ -1141,28 +1147,28 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
@@ -1171,19 +1177,19 @@
         <v>10</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>10</v>
@@ -1191,49 +1197,49 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>63</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>10</v>
@@ -1241,28 +1247,28 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>10</v>
@@ -1271,19 +1277,19 @@
         <v>10</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P11" s="0" t="s">
         <v>10</v>
@@ -1291,28 +1297,28 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>10</v>
@@ -1321,19 +1327,19 @@
         <v>10</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P12" s="0" t="s">
         <v>10</v>
@@ -1341,11 +1347,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="0c1867a4-8189-4bb7-92ec-e709dfd642ad.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="bd9e1420-d162-4512-95b9-cb84fb7b21b6.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId5"/>
-    <hyperlink ref="I5" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="bd9e1420-d162-4512-95b9-cb84fb7b21b6.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId4"/>
+    <hyperlink ref="I4" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId5"/>
+    <hyperlink ref="A5" display="0c1867a4-8189-4bb7-92ec-e709dfd642ad.md" r:id="rId6"/>
     <hyperlink ref="A6" display="1d191e04-1980-41ac-94c2-40e560739b4a.md" r:id="rId7"/>
     <hyperlink ref="A7" display="3b28d930-fc03-4636-ab34-dadc356a835e.md" r:id="rId8"/>
     <hyperlink ref="A8" display="56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId9"/>
@@ -1390,52 +1396,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
@@ -1449,16 +1455,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1470,19 +1476,19 @@
         <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -1499,16 +1505,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
@@ -1520,19 +1526,19 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -1549,40 +1555,40 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1590,49 +1596,49 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -1640,28 +1646,28 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1670,19 +1676,19 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -1690,28 +1696,28 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -1720,48 +1726,48 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1770,19 +1776,19 @@
         <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
@@ -1790,28 +1796,28 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
@@ -1820,19 +1826,19 @@
         <v>10</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>10</v>
@@ -1840,49 +1846,49 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>10</v>
@@ -1890,28 +1896,28 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>10</v>
@@ -1920,19 +1926,19 @@
         <v>10</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P11" s="0" t="s">
         <v>10</v>
@@ -1940,28 +1946,28 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>10</v>
@@ -1970,19 +1976,19 @@
         <v>10</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P12" s="0" t="s">
         <v>10</v>
@@ -1990,11 +1996,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="0c1867a4-8189-4bb7-92ec-e709dfd642ad.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="bd9e1420-d162-4512-95b9-cb84fb7b21b6.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId5"/>
-    <hyperlink ref="I5" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId6"/>
+    <hyperlink ref="A2" display="a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="bd9e1420-d162-4512-95b9-cb84fb7b21b6.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId4"/>
+    <hyperlink ref="I4" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId5"/>
+    <hyperlink ref="A5" display="0c1867a4-8189-4bb7-92ec-e709dfd642ad.md" r:id="rId6"/>
     <hyperlink ref="A6" display="1d191e04-1980-41ac-94c2-40e560739b4a.md" r:id="rId7"/>
     <hyperlink ref="A7" display="3b28d930-fc03-4636-ab34-dadc356a835e.md" r:id="rId8"/>
     <hyperlink ref="A8" display="56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId9"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>File Name</t>
   </si>
@@ -37,18 +37,36 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>26b1d521-de88-4cac-9a88-4a1d53416dbd.md</t>
+  </si>
+  <si>
+    <t>e2e\26b1d521-de88-4cac-9a88-4a1d53416dbd.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:29:56</t>
+  </si>
+  <si>
+    <t>9109bae0-03b7-4b6a-9fa3-7b781cd98c48.md</t>
+  </si>
+  <si>
+    <t>e2e\9109bae0-03b7-4b6a-9fa3-7b781cd98c48.md</t>
+  </si>
+  <si>
     <t>a233f04e-2d0b-4408-8458-a280f1e0e22f.md</t>
   </si>
   <si>
     <t>e2e\a233f04e-2d0b-4408-8458-a280f1e0e22f.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>In Translation</t>
   </si>
   <si>
@@ -82,21 +100,12 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-11-02 05:29:56</t>
-  </si>
-  <si>
     <t>1d191e04-1980-41ac-94c2-40e560739b4a.md</t>
   </si>
   <si>
     <t>e2e\1d191e04-1980-41ac-94c2-40e560739b4a.md</t>
   </si>
   <si>
-    <t>26b1d521-de88-4cac-9a88-4a1d53416dbd.md</t>
-  </si>
-  <si>
-    <t>e2e\26b1d521-de88-4cac-9a88-4a1d53416dbd.md</t>
-  </si>
-  <si>
     <t>3b28d930-fc03-4636-ab34-dadc356a835e.md</t>
   </si>
   <si>
@@ -115,12 +124,6 @@
     <t>e2e\8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.md</t>
   </si>
   <si>
-    <t>9109bae0-03b7-4b6a-9fa3-7b781cd98c48.md</t>
-  </si>
-  <si>
-    <t>e2e\9109bae0-03b7-4b6a-9fa3-7b781cd98c48.md</t>
-  </si>
-  <si>
     <t>a44599e7-4040-4699-95bc-e3ab48235c91.md</t>
   </si>
   <si>
@@ -190,12 +193,27 @@
     <t>e2e</t>
   </si>
   <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>26b1d521-de88-4cac-9a88-4a1d53416dbd.ff0b6834cdd3f73b900af66a18322f9792bdc189.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:29:40</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:30:26</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>9109bae0-03b7-4b6a-9fa3-7b781cd98c48.0bed73baff7b61afeb2c44e87adb871bd591f21d.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>ht</t>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>a233f04e-2d0b-4408-8458-a280f1e0e22f.8fd67ffb2787dc5006a87708268afd31cebffe0d.zh-cn.xlf</t>
   </si>
   <si>
@@ -205,9 +223,6 @@
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>bd9e1420-d162-4512-95b9-cb84fb7b21b6.90ff2b4cb394fbfb7668b068c8f031ecfddd115e.zh-cn.xlf</t>
   </si>
   <si>
@@ -226,15 +241,9 @@
     <t>0c1867a4-8189-4bb7-92ec-e709dfd642ad.ae4f3b02ac89148a793e464b03f8c92d258970fc.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-11-02 05:29:40</t>
-  </si>
-  <si>
     <t>1d191e04-1980-41ac-94c2-40e560739b4a.82ec5fcbcb3943e8d515b5a4ce91c0372a806141.zh-cn.xlf</t>
   </si>
   <si>
-    <t>26b1d521-de88-4cac-9a88-4a1d53416dbd.ff0b6834cdd3f73b900af66a18322f9792bdc189.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>3b28d930-fc03-4636-ab34-dadc356a835e.6a9377ba1cb76097eba0bc3726ad6a3c94b314d8.zh-cn.xlf</t>
   </si>
   <si>
@@ -247,9 +256,6 @@
     <t>8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.2cc3a66b61a8386b63ed6eff440218db854d1928.zh-cn.xlf</t>
   </si>
   <si>
-    <t>9109bae0-03b7-4b6a-9fa3-7b781cd98c48.0bed73baff7b61afeb2c44e87adb871bd591f21d.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>a44599e7-4040-4699-95bc-e3ab48235c91.d26d72325de2aab19b5e0cfebfaa474045cbb400.zh-cn.xlf</t>
   </si>
   <si>
@@ -262,6 +268,15 @@
     <t>e68f52e1-d1be-4d4b-8507-9fb227a128e8.90df6f47a95d181cf49c62046111b72b833d4b17.zh-cn.xlf</t>
   </si>
   <si>
+    <t>26b1d521-de88-4cac-9a88-4a1d53416dbd.ff0b6834cdd3f73b900af66a18322f9792bdc189.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:30:45</t>
+  </si>
+  <si>
+    <t>9109bae0-03b7-4b6a-9fa3-7b781cd98c48.0bed73baff7b61afeb2c44e87adb871bd591f21d.de-de.xlf</t>
+  </si>
+  <si>
     <t>a233f04e-2d0b-4408-8458-a280f1e0e22f.8fd67ffb2787dc5006a87708268afd31cebffe0d.de-de.xlf</t>
   </si>
   <si>
@@ -280,9 +295,6 @@
     <t>1d191e04-1980-41ac-94c2-40e560739b4a.82ec5fcbcb3943e8d515b5a4ce91c0372a806141.de-de.xlf</t>
   </si>
   <si>
-    <t>26b1d521-de88-4cac-9a88-4a1d53416dbd.ff0b6834cdd3f73b900af66a18322f9792bdc189.de-de.xlf</t>
-  </si>
-  <si>
     <t>3b28d930-fc03-4636-ab34-dadc356a835e.6a9377ba1cb76097eba0bc3726ad6a3c94b314d8.de-de.xlf</t>
   </si>
   <si>
@@ -293,9 +305,6 @@
   </si>
   <si>
     <t>8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.2cc3a66b61a8386b63ed6eff440218db854d1928.de-de.xlf</t>
-  </si>
-  <si>
-    <t>9109bae0-03b7-4b6a-9fa3-7b781cd98c48.0bed73baff7b61afeb2c44e87adb871bd591f21d.de-de.xlf</t>
   </si>
   <si>
     <t>a44599e7-4040-4699-95bc-e3ab48235c91.d26d72325de2aab19b5e0cfebfaa474045cbb400.de-de.xlf</t>
@@ -441,8 +450,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -512,27 +521,27 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>18</v>
@@ -552,36 +561,36 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -598,21 +607,21 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>9</v>
@@ -621,21 +630,21 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>9</v>
@@ -644,21 +653,21 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>9</v>
@@ -667,21 +676,21 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>9</v>
@@ -690,21 +699,21 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>9</v>
@@ -713,21 +722,21 @@
         <v>10</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>9</v>
@@ -736,21 +745,21 @@
         <v>10</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>9</v>
@@ -759,27 +768,27 @@
         <v>10</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\bd9e1420-d162-4512-95b9-cb84fb7b21b6.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\0c1867a4-8189-4bb7-92ec-e709dfd642ad.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\1d191e04-1980-41ac-94c2-40e560739b4a.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\26b1d521-de88-4cac-9a88-4a1d53416dbd.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\3b28d930-fc03-4636-ab34-dadc356a835e.md" r:id="rId8"/>
-    <hyperlink ref="B9" display="e2e\56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId9"/>
-    <hyperlink ref="B10" display="e2e\8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.md" r:id="rId10"/>
-    <hyperlink ref="B11" display="e2e\9109bae0-03b7-4b6a-9fa3-7b781cd98c48.md" r:id="rId11"/>
+    <hyperlink ref="B2" display="e2e\26b1d521-de88-4cac-9a88-4a1d53416dbd.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\9109bae0-03b7-4b6a-9fa3-7b781cd98c48.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\bd9e1420-d162-4512-95b9-cb84fb7b21b6.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\0c1867a4-8189-4bb7-92ec-e709dfd642ad.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\1d191e04-1980-41ac-94c2-40e560739b4a.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\3b28d930-fc03-4636-ab34-dadc356a835e.md" r:id="rId9"/>
+    <hyperlink ref="B10" display="e2e\56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId10"/>
+    <hyperlink ref="B11" display="e2e\8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.md" r:id="rId11"/>
     <hyperlink ref="B12" display="e2e\a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId12"/>
     <hyperlink ref="B13" display="e2e\db2c5a51-4d09-484e-9393-0e6c6b2730a2.md" r:id="rId13"/>
     <hyperlink ref="B14" display="e2e\e68f52e1-d1be-4d4b-8507-9fb227a128e8.md" r:id="rId14"/>
@@ -801,7 +810,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -819,52 +828,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
@@ -878,10 +887,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>59</v>
@@ -892,11 +901,11 @@
       <c r="H2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>62</v>
@@ -928,7 +937,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
@@ -940,13 +949,13 @@
         <v>64</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+        <v>61</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>62</v>
@@ -969,19 +978,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>59</v>
@@ -992,11 +1001,11 @@
       <c r="H4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>68</v>
@@ -1025,10 +1034,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>10</v>
@@ -1049,7 +1058,7 @@
         <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
@@ -1069,16 +1078,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>10</v>
@@ -1090,16 +1099,16 @@
         <v>71</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
+        <v>72</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
@@ -1125,10 +1134,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>10</v>
@@ -1137,10 +1146,10 @@
         <v>59</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -1149,7 +1158,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
@@ -1169,16 +1178,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>10</v>
@@ -1187,10 +1196,10 @@
         <v>59</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1199,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>10</v>
@@ -1214,21 +1223,21 @@
         <v>59</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>10</v>
@@ -1237,10 +1246,10 @@
         <v>59</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
@@ -1249,7 +1258,7 @@
         <v>10</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>10</v>
@@ -1264,21 +1273,21 @@
         <v>59</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>10</v>
@@ -1287,10 +1296,10 @@
         <v>59</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>10</v>
@@ -1299,7 +1308,7 @@
         <v>10</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>10</v>
@@ -1319,16 +1328,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>10</v>
@@ -1337,10 +1346,10 @@
         <v>59</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>10</v>
@@ -1349,7 +1358,7 @@
         <v>10</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>10</v>
@@ -1369,16 +1378,16 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>10</v>
@@ -1387,19 +1396,19 @@
         <v>59</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>10</v>
@@ -1419,16 +1428,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>10</v>
@@ -1437,10 +1446,10 @@
         <v>59</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>10</v>
@@ -1449,7 +1458,7 @@
         <v>10</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>10</v>
@@ -1469,16 +1478,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>10</v>
@@ -1487,10 +1496,10 @@
         <v>59</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>10</v>
@@ -1499,7 +1508,7 @@
         <v>10</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>10</v>
@@ -1519,21 +1528,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="bd9e1420-d162-4512-95b9-cb84fb7b21b6.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId4"/>
-    <hyperlink ref="I4" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="0c1867a4-8189-4bb7-92ec-e709dfd642ad.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="1d191e04-1980-41ac-94c2-40e560739b4a.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="26b1d521-de88-4cac-9a88-4a1d53416dbd.md" r:id="rId8"/>
-    <hyperlink ref="A8" display="3b28d930-fc03-4636-ab34-dadc356a835e.md" r:id="rId9"/>
-    <hyperlink ref="A9" display="56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId10"/>
-    <hyperlink ref="A10" display="8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.md" r:id="rId11"/>
-    <hyperlink ref="A11" display="9109bae0-03b7-4b6a-9fa3-7b781cd98c48.md" r:id="rId12"/>
-    <hyperlink ref="A12" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId13"/>
-    <hyperlink ref="I12" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId14"/>
-    <hyperlink ref="A13" display="db2c5a51-4d09-484e-9393-0e6c6b2730a2.md" r:id="rId15"/>
-    <hyperlink ref="A14" display="e68f52e1-d1be-4d4b-8507-9fb227a128e8.md" r:id="rId16"/>
+    <hyperlink ref="A2" display="26b1d521-de88-4cac-9a88-4a1d53416dbd.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="26b1d521-de88-4cac-9a88-4a1d53416dbd.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="9109bae0-03b7-4b6a-9fa3-7b781cd98c48.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="9109bae0-03b7-4b6a-9fa3-7b781cd98c48.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="bd9e1420-d162-4512-95b9-cb84fb7b21b6.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId8"/>
+    <hyperlink ref="I6" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId9"/>
+    <hyperlink ref="A7" display="0c1867a4-8189-4bb7-92ec-e709dfd642ad.md" r:id="rId10"/>
+    <hyperlink ref="A8" display="1d191e04-1980-41ac-94c2-40e560739b4a.md" r:id="rId11"/>
+    <hyperlink ref="A9" display="3b28d930-fc03-4636-ab34-dadc356a835e.md" r:id="rId12"/>
+    <hyperlink ref="A10" display="56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId13"/>
+    <hyperlink ref="A11" display="8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.md" r:id="rId14"/>
+    <hyperlink ref="A12" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId15"/>
+    <hyperlink ref="I12" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId16"/>
+    <hyperlink ref="A13" display="db2c5a51-4d09-484e-9393-0e6c6b2730a2.md" r:id="rId17"/>
+    <hyperlink ref="A14" display="e68f52e1-d1be-4d4b-8507-9fb227a128e8.md" r:id="rId18"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1552,7 +1563,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -1570,52 +1581,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
@@ -1629,28 +1640,28 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>59</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -1679,7 +1690,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
@@ -1688,19 +1699,19 @@
         <v>59</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -1720,37 +1731,37 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>59</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
@@ -1776,23 +1787,23 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
@@ -1800,7 +1811,7 @@
         <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
@@ -1820,16 +1831,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>10</v>
@@ -1838,19 +1849,19 @@
         <v>59</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="J6" s="0" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
@@ -1876,10 +1887,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>10</v>
@@ -1888,10 +1899,10 @@
         <v>59</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -1900,7 +1911,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
@@ -1920,16 +1931,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>10</v>
@@ -1938,10 +1949,10 @@
         <v>59</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1950,7 +1961,7 @@
         <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>10</v>
@@ -1965,21 +1976,21 @@
         <v>59</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>10</v>
@@ -1988,10 +1999,10 @@
         <v>59</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
@@ -2000,7 +2011,7 @@
         <v>10</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>10</v>
@@ -2015,21 +2026,21 @@
         <v>59</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>10</v>
@@ -2038,10 +2049,10 @@
         <v>59</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>10</v>
@@ -2050,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>10</v>
@@ -2070,16 +2081,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>10</v>
@@ -2088,10 +2099,10 @@
         <v>59</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>10</v>
@@ -2100,7 +2111,7 @@
         <v>10</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>10</v>
@@ -2120,16 +2131,16 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>10</v>
@@ -2138,19 +2149,19 @@
         <v>59</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>10</v>
@@ -2170,16 +2181,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>10</v>
@@ -2188,10 +2199,10 @@
         <v>59</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>10</v>
@@ -2200,7 +2211,7 @@
         <v>10</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>10</v>
@@ -2220,16 +2231,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>10</v>
@@ -2238,10 +2249,10 @@
         <v>59</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>10</v>
@@ -2250,7 +2261,7 @@
         <v>10</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>10</v>
@@ -2270,21 +2281,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="bd9e1420-d162-4512-95b9-cb84fb7b21b6.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId4"/>
-    <hyperlink ref="I4" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="0c1867a4-8189-4bb7-92ec-e709dfd642ad.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="1d191e04-1980-41ac-94c2-40e560739b4a.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="26b1d521-de88-4cac-9a88-4a1d53416dbd.md" r:id="rId8"/>
-    <hyperlink ref="A8" display="3b28d930-fc03-4636-ab34-dadc356a835e.md" r:id="rId9"/>
-    <hyperlink ref="A9" display="56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId10"/>
-    <hyperlink ref="A10" display="8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.md" r:id="rId11"/>
-    <hyperlink ref="A11" display="9109bae0-03b7-4b6a-9fa3-7b781cd98c48.md" r:id="rId12"/>
-    <hyperlink ref="A12" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId13"/>
-    <hyperlink ref="I12" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId14"/>
-    <hyperlink ref="A13" display="db2c5a51-4d09-484e-9393-0e6c6b2730a2.md" r:id="rId15"/>
-    <hyperlink ref="A14" display="e68f52e1-d1be-4d4b-8507-9fb227a128e8.md" r:id="rId16"/>
+    <hyperlink ref="A2" display="26b1d521-de88-4cac-9a88-4a1d53416dbd.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="26b1d521-de88-4cac-9a88-4a1d53416dbd.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="9109bae0-03b7-4b6a-9fa3-7b781cd98c48.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="9109bae0-03b7-4b6a-9fa3-7b781cd98c48.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="bd9e1420-d162-4512-95b9-cb84fb7b21b6.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId8"/>
+    <hyperlink ref="I6" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId9"/>
+    <hyperlink ref="A7" display="0c1867a4-8189-4bb7-92ec-e709dfd642ad.md" r:id="rId10"/>
+    <hyperlink ref="A8" display="1d191e04-1980-41ac-94c2-40e560739b4a.md" r:id="rId11"/>
+    <hyperlink ref="A9" display="3b28d930-fc03-4636-ab34-dadc356a835e.md" r:id="rId12"/>
+    <hyperlink ref="A10" display="56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId13"/>
+    <hyperlink ref="A11" display="8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.md" r:id="rId14"/>
+    <hyperlink ref="A12" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId15"/>
+    <hyperlink ref="I12" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId16"/>
+    <hyperlink ref="A13" display="db2c5a51-4d09-484e-9393-0e6c6b2730a2.md" r:id="rId17"/>
+    <hyperlink ref="A14" display="e68f52e1-d1be-4d4b-8507-9fb227a128e8.md" r:id="rId18"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>File Name</t>
   </si>
@@ -55,75 +55,78 @@
     <t>2016-11-02 05:29:56</t>
   </si>
   <si>
+    <t>a233f04e-2d0b-4408-8458-a280f1e0e22f.md</t>
+  </si>
+  <si>
+    <t>e2e\a233f04e-2d0b-4408-8458-a280f1e0e22f.md</t>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:21:01</t>
+  </si>
+  <si>
+    <t>bd9e1420-d162-4512-95b9-cb84fb7b21b6.md</t>
+  </si>
+  <si>
+    <t>e2e\bd9e1420-d162-4512-95b9-cb84fb7b21b6.md</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:27:23</t>
+  </si>
+  <si>
+    <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.md</t>
+  </si>
+  <si>
+    <t>e2e\d55b802f-3346-4fb7-904f-c4a5400d7bcd.md</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:25:34</t>
+  </si>
+  <si>
+    <t>0c1867a4-8189-4bb7-92ec-e709dfd642ad.md</t>
+  </si>
+  <si>
+    <t>e2e\0c1867a4-8189-4bb7-92ec-e709dfd642ad.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:31:43</t>
+  </si>
+  <si>
+    <t>1d191e04-1980-41ac-94c2-40e560739b4a.md</t>
+  </si>
+  <si>
+    <t>e2e\1d191e04-1980-41ac-94c2-40e560739b4a.md</t>
+  </si>
+  <si>
+    <t>3b28d930-fc03-4636-ab34-dadc356a835e.md</t>
+  </si>
+  <si>
+    <t>e2e\3b28d930-fc03-4636-ab34-dadc356a835e.md</t>
+  </si>
+  <si>
+    <t>56861064-ec74-44ff-8a5e-91eb9922eb7f.md</t>
+  </si>
+  <si>
+    <t>e2e\56861064-ec74-44ff-8a5e-91eb9922eb7f.md</t>
+  </si>
+  <si>
+    <t>8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.md</t>
+  </si>
+  <si>
+    <t>e2e\8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.md</t>
+  </si>
+  <si>
     <t>9109bae0-03b7-4b6a-9fa3-7b781cd98c48.md</t>
   </si>
   <si>
     <t>e2e\9109bae0-03b7-4b6a-9fa3-7b781cd98c48.md</t>
   </si>
   <si>
-    <t>a233f04e-2d0b-4408-8458-a280f1e0e22f.md</t>
-  </si>
-  <si>
-    <t>e2e\a233f04e-2d0b-4408-8458-a280f1e0e22f.md</t>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:21:01</t>
-  </si>
-  <si>
-    <t>bd9e1420-d162-4512-95b9-cb84fb7b21b6.md</t>
-  </si>
-  <si>
-    <t>e2e\bd9e1420-d162-4512-95b9-cb84fb7b21b6.md</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:27:23</t>
-  </si>
-  <si>
-    <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.md</t>
-  </si>
-  <si>
-    <t>e2e\d55b802f-3346-4fb7-904f-c4a5400d7bcd.md</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:25:34</t>
-  </si>
-  <si>
-    <t>0c1867a4-8189-4bb7-92ec-e709dfd642ad.md</t>
-  </si>
-  <si>
-    <t>e2e\0c1867a4-8189-4bb7-92ec-e709dfd642ad.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>1d191e04-1980-41ac-94c2-40e560739b4a.md</t>
-  </si>
-  <si>
-    <t>e2e\1d191e04-1980-41ac-94c2-40e560739b4a.md</t>
-  </si>
-  <si>
-    <t>3b28d930-fc03-4636-ab34-dadc356a835e.md</t>
-  </si>
-  <si>
-    <t>e2e\3b28d930-fc03-4636-ab34-dadc356a835e.md</t>
-  </si>
-  <si>
-    <t>56861064-ec74-44ff-8a5e-91eb9922eb7f.md</t>
-  </si>
-  <si>
-    <t>e2e\56861064-ec74-44ff-8a5e-91eb9922eb7f.md</t>
-  </si>
-  <si>
-    <t>8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.md</t>
-  </si>
-  <si>
-    <t>e2e\8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.md</t>
-  </si>
-  <si>
     <t>a44599e7-4040-4699-95bc-e3ab48235c91.md</t>
   </si>
   <si>
@@ -208,52 +211,58 @@
     <t>True</t>
   </si>
   <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>a233f04e-2d0b-4408-8458-a280f1e0e22f.8fd67ffb2787dc5006a87708268afd31cebffe0d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:20:45</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>bd9e1420-d162-4512-95b9-cb84fb7b21b6.90ff2b4cb394fbfb7668b068c8f031ecfddd115e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:27:08</t>
+  </si>
+  <si>
+    <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.035557fe3592c55133bd6b1a71f88bfede9ed4e3.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:25:19</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:24:03</t>
+  </si>
+  <si>
+    <t>0c1867a4-8189-4bb7-92ec-e709dfd642ad.ae4f3b02ac89148a793e464b03f8c92d258970fc.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:31:29</t>
+  </si>
+  <si>
+    <t>1d191e04-1980-41ac-94c2-40e560739b4a.82ec5fcbcb3943e8d515b5a4ce91c0372a806141.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>3b28d930-fc03-4636-ab34-dadc356a835e.6a9377ba1cb76097eba0bc3726ad6a3c94b314d8.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>The handback priority in file path mt\3b28d930-fc03-4636-ab34-dadc356a835e.6a9377ba1cb76097eba0bc3726ad6a3c94b314d8.zh-cn.xlf is not match with handoff type ht</t>
+  </si>
+  <si>
+    <t>56861064-ec74-44ff-8a5e-91eb9922eb7f.95e8b901ef363d2fe1b3636e642c752701285c25.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.2cc3a66b61a8386b63ed6eff440218db854d1928.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>9109bae0-03b7-4b6a-9fa3-7b781cd98c48.0bed73baff7b61afeb2c44e87adb871bd591f21d.zh-cn.xlf</t>
   </si>
   <si>
-    <t>ht</t>
-  </si>
-  <si>
-    <t>a233f04e-2d0b-4408-8458-a280f1e0e22f.8fd67ffb2787dc5006a87708268afd31cebffe0d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:20:45</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>bd9e1420-d162-4512-95b9-cb84fb7b21b6.90ff2b4cb394fbfb7668b068c8f031ecfddd115e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:27:08</t>
-  </si>
-  <si>
-    <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.035557fe3592c55133bd6b1a71f88bfede9ed4e3.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:25:19</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:24:03</t>
-  </si>
-  <si>
-    <t>0c1867a4-8189-4bb7-92ec-e709dfd642ad.ae4f3b02ac89148a793e464b03f8c92d258970fc.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>1d191e04-1980-41ac-94c2-40e560739b4a.82ec5fcbcb3943e8d515b5a4ce91c0372a806141.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>3b28d930-fc03-4636-ab34-dadc356a835e.6a9377ba1cb76097eba0bc3726ad6a3c94b314d8.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>The handback priority in file path mt\3b28d930-fc03-4636-ab34-dadc356a835e.6a9377ba1cb76097eba0bc3726ad6a3c94b314d8.zh-cn.xlf is not match with handoff type ht</t>
-  </si>
-  <si>
-    <t>56861064-ec74-44ff-8a5e-91eb9922eb7f.95e8b901ef363d2fe1b3636e642c752701285c25.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.2cc3a66b61a8386b63ed6eff440218db854d1928.zh-cn.xlf</t>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/36a7b570f62a34a790002e9c21c81a73f4cb6591/e2e/9109bae0-03b7-4b6a-9fa3-7b781cd98c48.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/2b349486bca75e271c44ae1ab21ecb0d16b1ba7b/e2e/9109bae0-03b7-4b6a-9fa3-7b781cd98c48.md.</t>
   </si>
   <si>
     <t>a44599e7-4040-4699-95bc-e3ab48235c91.d26d72325de2aab19b5e0cfebfaa474045cbb400.zh-cn.xlf</t>
@@ -274,37 +283,37 @@
     <t>2016-11-02 05:30:45</t>
   </si>
   <si>
+    <t>a233f04e-2d0b-4408-8458-a280f1e0e22f.8fd67ffb2787dc5006a87708268afd31cebffe0d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>bd9e1420-d162-4512-95b9-cb84fb7b21b6.90ff2b4cb394fbfb7668b068c8f031ecfddd115e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.035557fe3592c55133bd6b1a71f88bfede9ed4e3.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:24:22</t>
+  </si>
+  <si>
+    <t>0c1867a4-8189-4bb7-92ec-e709dfd642ad.ae4f3b02ac89148a793e464b03f8c92d258970fc.de-de.xlf</t>
+  </si>
+  <si>
+    <t>1d191e04-1980-41ac-94c2-40e560739b4a.82ec5fcbcb3943e8d515b5a4ce91c0372a806141.de-de.xlf</t>
+  </si>
+  <si>
+    <t>3b28d930-fc03-4636-ab34-dadc356a835e.6a9377ba1cb76097eba0bc3726ad6a3c94b314d8.de-de.xlf</t>
+  </si>
+  <si>
+    <t>The handback priority in file path mt\3b28d930-fc03-4636-ab34-dadc356a835e.6a9377ba1cb76097eba0bc3726ad6a3c94b314d8.de-de.xlf is not match with handoff type ht</t>
+  </si>
+  <si>
+    <t>56861064-ec74-44ff-8a5e-91eb9922eb7f.95e8b901ef363d2fe1b3636e642c752701285c25.de-de.xlf</t>
+  </si>
+  <si>
+    <t>8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.2cc3a66b61a8386b63ed6eff440218db854d1928.de-de.xlf</t>
+  </si>
+  <si>
     <t>9109bae0-03b7-4b6a-9fa3-7b781cd98c48.0bed73baff7b61afeb2c44e87adb871bd591f21d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>a233f04e-2d0b-4408-8458-a280f1e0e22f.8fd67ffb2787dc5006a87708268afd31cebffe0d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>bd9e1420-d162-4512-95b9-cb84fb7b21b6.90ff2b4cb394fbfb7668b068c8f031ecfddd115e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>d55b802f-3346-4fb7-904f-c4a5400d7bcd.035557fe3592c55133bd6b1a71f88bfede9ed4e3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:24:22</t>
-  </si>
-  <si>
-    <t>0c1867a4-8189-4bb7-92ec-e709dfd642ad.ae4f3b02ac89148a793e464b03f8c92d258970fc.de-de.xlf</t>
-  </si>
-  <si>
-    <t>1d191e04-1980-41ac-94c2-40e560739b4a.82ec5fcbcb3943e8d515b5a4ce91c0372a806141.de-de.xlf</t>
-  </si>
-  <si>
-    <t>3b28d930-fc03-4636-ab34-dadc356a835e.6a9377ba1cb76097eba0bc3726ad6a3c94b314d8.de-de.xlf</t>
-  </si>
-  <si>
-    <t>The handback priority in file path mt\3b28d930-fc03-4636-ab34-dadc356a835e.6a9377ba1cb76097eba0bc3726ad6a3c94b314d8.de-de.xlf is not match with handoff type ht</t>
-  </si>
-  <si>
-    <t>56861064-ec74-44ff-8a5e-91eb9922eb7f.95e8b901ef363d2fe1b3636e642c752701285c25.de-de.xlf</t>
-  </si>
-  <si>
-    <t>8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.2cc3a66b61a8386b63ed6eff440218db854d1928.de-de.xlf</t>
   </si>
   <si>
     <t>a44599e7-4040-4699-95bc-e3ab48235c91.d26d72325de2aab19b5e0cfebfaa474045cbb400.de-de.xlf</t>
@@ -515,44 +524,44 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -561,21 +570,21 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -584,44 +593,44 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>9</v>
@@ -630,21 +639,21 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>9</v>
@@ -653,21 +662,21 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>9</v>
@@ -676,21 +685,21 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>9</v>
@@ -699,21 +708,21 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>9</v>
@@ -722,21 +731,21 @@
         <v>10</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>9</v>
@@ -745,21 +754,21 @@
         <v>10</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>9</v>
@@ -768,27 +777,27 @@
         <v>10</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\26b1d521-de88-4cac-9a88-4a1d53416dbd.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\9109bae0-03b7-4b6a-9fa3-7b781cd98c48.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\bd9e1420-d162-4512-95b9-cb84fb7b21b6.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\0c1867a4-8189-4bb7-92ec-e709dfd642ad.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\1d191e04-1980-41ac-94c2-40e560739b4a.md" r:id="rId8"/>
-    <hyperlink ref="B9" display="e2e\3b28d930-fc03-4636-ab34-dadc356a835e.md" r:id="rId9"/>
-    <hyperlink ref="B10" display="e2e\56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId10"/>
-    <hyperlink ref="B11" display="e2e\8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.md" r:id="rId11"/>
+    <hyperlink ref="B3" display="e2e\a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\bd9e1420-d162-4512-95b9-cb84fb7b21b6.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\0c1867a4-8189-4bb7-92ec-e709dfd642ad.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\1d191e04-1980-41ac-94c2-40e560739b4a.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\3b28d930-fc03-4636-ab34-dadc356a835e.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId9"/>
+    <hyperlink ref="B10" display="e2e\8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.md" r:id="rId10"/>
+    <hyperlink ref="B11" display="e2e\9109bae0-03b7-4b6a-9fa3-7b781cd98c48.md" r:id="rId11"/>
     <hyperlink ref="B12" display="e2e\a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId12"/>
     <hyperlink ref="B13" display="e2e\db2c5a51-4d09-484e-9393-0e6c6b2730a2.md" r:id="rId13"/>
     <hyperlink ref="B14" display="e2e\e68f52e1-d1be-4d4b-8507-9fb227a128e8.md" r:id="rId14"/>
@@ -828,52 +837,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -887,40 +896,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -934,43 +943,43 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>67</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -978,28 +987,28 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="D4" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -1014,13 +1023,13 @@
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1028,49 +1037,49 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
+        <v>72</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -1078,49 +1087,49 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>22</v>
+        <v>75</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -1128,28 +1137,28 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -1164,13 +1173,13 @@
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
@@ -1178,28 +1187,28 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G8" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1214,42 +1223,42 @@
         <v>10</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
@@ -1264,42 +1273,42 @@
         <v>10</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>10</v>
@@ -1314,13 +1323,13 @@
         <v>10</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>10</v>
@@ -1328,99 +1337,99 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>10</v>
+        <v>75</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>72</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P12" s="0" t="s">
         <v>10</v>
@@ -1428,28 +1437,28 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>10</v>
@@ -1464,13 +1473,13 @@
         <v>10</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N13" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P13" s="0" t="s">
         <v>10</v>
@@ -1478,28 +1487,28 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>10</v>
@@ -1514,13 +1523,13 @@
         <v>10</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N14" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P14" s="0" t="s">
         <v>10</v>
@@ -1530,17 +1539,17 @@
   <hyperlinks>
     <hyperlink ref="A2" display="26b1d521-de88-4cac-9a88-4a1d53416dbd.md" r:id="rId2"/>
     <hyperlink ref="I2" display="26b1d521-de88-4cac-9a88-4a1d53416dbd.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="9109bae0-03b7-4b6a-9fa3-7b781cd98c48.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="9109bae0-03b7-4b6a-9fa3-7b781cd98c48.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="bd9e1420-d162-4512-95b9-cb84fb7b21b6.md" r:id="rId7"/>
-    <hyperlink ref="A6" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId8"/>
-    <hyperlink ref="I6" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId9"/>
-    <hyperlink ref="A7" display="0c1867a4-8189-4bb7-92ec-e709dfd642ad.md" r:id="rId10"/>
-    <hyperlink ref="A8" display="1d191e04-1980-41ac-94c2-40e560739b4a.md" r:id="rId11"/>
-    <hyperlink ref="A9" display="3b28d930-fc03-4636-ab34-dadc356a835e.md" r:id="rId12"/>
-    <hyperlink ref="A10" display="56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId13"/>
-    <hyperlink ref="A11" display="8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.md" r:id="rId14"/>
+    <hyperlink ref="A3" display="a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="bd9e1420-d162-4512-95b9-cb84fb7b21b6.md" r:id="rId5"/>
+    <hyperlink ref="A5" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId6"/>
+    <hyperlink ref="I5" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="0c1867a4-8189-4bb7-92ec-e709dfd642ad.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="1d191e04-1980-41ac-94c2-40e560739b4a.md" r:id="rId9"/>
+    <hyperlink ref="A8" display="3b28d930-fc03-4636-ab34-dadc356a835e.md" r:id="rId10"/>
+    <hyperlink ref="A9" display="56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId11"/>
+    <hyperlink ref="A10" display="8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.md" r:id="rId12"/>
+    <hyperlink ref="A11" display="9109bae0-03b7-4b6a-9fa3-7b781cd98c48.md" r:id="rId13"/>
+    <hyperlink ref="I11" display="9109bae0-03b7-4b6a-9fa3-7b781cd98c48.md" r:id="rId14"/>
     <hyperlink ref="A12" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId15"/>
     <hyperlink ref="I12" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId16"/>
     <hyperlink ref="A13" display="db2c5a51-4d09-484e-9393-0e6c6b2730a2.md" r:id="rId17"/>
@@ -1581,52 +1590,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -1640,16 +1649,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1658,22 +1667,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -1687,43 +1696,43 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -1731,28 +1740,28 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="D4" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -1767,13 +1776,13 @@
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1781,49 +1790,49 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -1831,49 +1840,49 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -1881,28 +1890,28 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -1917,13 +1926,13 @@
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
@@ -1931,28 +1940,28 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1967,42 +1976,42 @@
         <v>10</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
@@ -2017,42 +2026,42 @@
         <v>10</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>10</v>
@@ -2067,13 +2076,13 @@
         <v>10</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>10</v>
@@ -2081,99 +2090,99 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P12" s="0" t="s">
         <v>10</v>
@@ -2181,28 +2190,28 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>10</v>
@@ -2217,13 +2226,13 @@
         <v>10</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N13" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P13" s="0" t="s">
         <v>10</v>
@@ -2231,28 +2240,28 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>10</v>
@@ -2267,13 +2276,13 @@
         <v>10</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N14" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P14" s="0" t="s">
         <v>10</v>
@@ -2283,17 +2292,17 @@
   <hyperlinks>
     <hyperlink ref="A2" display="26b1d521-de88-4cac-9a88-4a1d53416dbd.md" r:id="rId2"/>
     <hyperlink ref="I2" display="26b1d521-de88-4cac-9a88-4a1d53416dbd.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="9109bae0-03b7-4b6a-9fa3-7b781cd98c48.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="9109bae0-03b7-4b6a-9fa3-7b781cd98c48.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="bd9e1420-d162-4512-95b9-cb84fb7b21b6.md" r:id="rId7"/>
-    <hyperlink ref="A6" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId8"/>
-    <hyperlink ref="I6" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId9"/>
-    <hyperlink ref="A7" display="0c1867a4-8189-4bb7-92ec-e709dfd642ad.md" r:id="rId10"/>
-    <hyperlink ref="A8" display="1d191e04-1980-41ac-94c2-40e560739b4a.md" r:id="rId11"/>
-    <hyperlink ref="A9" display="3b28d930-fc03-4636-ab34-dadc356a835e.md" r:id="rId12"/>
-    <hyperlink ref="A10" display="56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId13"/>
-    <hyperlink ref="A11" display="8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.md" r:id="rId14"/>
+    <hyperlink ref="A3" display="a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="bd9e1420-d162-4512-95b9-cb84fb7b21b6.md" r:id="rId5"/>
+    <hyperlink ref="A5" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId6"/>
+    <hyperlink ref="I5" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="0c1867a4-8189-4bb7-92ec-e709dfd642ad.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="1d191e04-1980-41ac-94c2-40e560739b4a.md" r:id="rId9"/>
+    <hyperlink ref="A8" display="3b28d930-fc03-4636-ab34-dadc356a835e.md" r:id="rId10"/>
+    <hyperlink ref="A9" display="56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId11"/>
+    <hyperlink ref="A10" display="8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.md" r:id="rId12"/>
+    <hyperlink ref="A11" display="9109bae0-03b7-4b6a-9fa3-7b781cd98c48.md" r:id="rId13"/>
+    <hyperlink ref="I11" display="9109bae0-03b7-4b6a-9fa3-7b781cd98c48.md" r:id="rId14"/>
     <hyperlink ref="A12" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId15"/>
     <hyperlink ref="I12" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId16"/>
     <hyperlink ref="A13" display="db2c5a51-4d09-484e-9393-0e6c6b2730a2.md" r:id="rId17"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>File Name</t>
   </si>
@@ -55,6 +55,21 @@
     <t>2016-11-02 05:29:56</t>
   </si>
   <si>
+    <t>6165cda3-c5b3-475f-9647-6bc4b7422834.md</t>
+  </si>
+  <si>
+    <t>e2e\6165cda3-c5b3-475f-9647-6bc4b7422834.md</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:32:41</t>
+  </si>
+  <si>
+    <t>6cccdc5c-8455-483e-b76f-5a95054102a2.md</t>
+  </si>
+  <si>
+    <t>e2e\6cccdc5c-8455-483e-b76f-5a95054102a2.md</t>
+  </si>
+  <si>
     <t>a233f04e-2d0b-4408-8458-a280f1e0e22f.md</t>
   </si>
   <si>
@@ -94,9 +109,6 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-11-02 05:32:41</t>
-  </si>
-  <si>
     <t>1d191e04-1980-41ac-94c2-40e560739b4a.md</t>
   </si>
   <si>
@@ -115,18 +127,6 @@
     <t>e2e\56861064-ec74-44ff-8a5e-91eb9922eb7f.md</t>
   </si>
   <si>
-    <t>6165cda3-c5b3-475f-9647-6bc4b7422834.md</t>
-  </si>
-  <si>
-    <t>e2e\6165cda3-c5b3-475f-9647-6bc4b7422834.md</t>
-  </si>
-  <si>
-    <t>6cccdc5c-8455-483e-b76f-5a95054102a2.md</t>
-  </si>
-  <si>
-    <t>e2e\6cccdc5c-8455-483e-b76f-5a95054102a2.md</t>
-  </si>
-  <si>
     <t>8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.md</t>
   </si>
   <si>
@@ -223,6 +223,18 @@
     <t>True</t>
   </si>
   <si>
+    <t>6165cda3-c5b3-475f-9647-6bc4b7422834.4f98a3535406d947b305d410654f2ebd6d12339d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:32:25</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:33:17</t>
+  </si>
+  <si>
+    <t>6cccdc5c-8455-483e-b76f-5a95054102a2.366c6246499f937ca569bdeaef2dd67f94b7b4e4.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>ht</t>
   </si>
   <si>
@@ -253,9 +265,6 @@
     <t>0c1867a4-8189-4bb7-92ec-e709dfd642ad.ae4f3b02ac89148a793e464b03f8c92d258970fc.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-11-02 05:32:25</t>
-  </si>
-  <si>
     <t>1d191e04-1980-41ac-94c2-40e560739b4a.82ec5fcbcb3943e8d515b5a4ce91c0372a806141.zh-cn.xlf</t>
   </si>
   <si>
@@ -268,12 +277,6 @@
     <t>56861064-ec74-44ff-8a5e-91eb9922eb7f.95e8b901ef363d2fe1b3636e642c752701285c25.zh-cn.xlf</t>
   </si>
   <si>
-    <t>6165cda3-c5b3-475f-9647-6bc4b7422834.4f98a3535406d947b305d410654f2ebd6d12339d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>6cccdc5c-8455-483e-b76f-5a95054102a2.366c6246499f937ca569bdeaef2dd67f94b7b4e4.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.2cc3a66b61a8386b63ed6eff440218db854d1928.zh-cn.xlf</t>
   </si>
   <si>
@@ -301,6 +304,15 @@
     <t>2016-11-02 05:30:45</t>
   </si>
   <si>
+    <t>6165cda3-c5b3-475f-9647-6bc4b7422834.4f98a3535406d947b305d410654f2ebd6d12339d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:33:38</t>
+  </si>
+  <si>
+    <t>6cccdc5c-8455-483e-b76f-5a95054102a2.366c6246499f937ca569bdeaef2dd67f94b7b4e4.de-de.xlf</t>
+  </si>
+  <si>
     <t>a233f04e-2d0b-4408-8458-a280f1e0e22f.8fd67ffb2787dc5006a87708268afd31cebffe0d.de-de.xlf</t>
   </si>
   <si>
@@ -326,12 +338,6 @@
   </si>
   <si>
     <t>56861064-ec74-44ff-8a5e-91eb9922eb7f.95e8b901ef363d2fe1b3636e642c752701285c25.de-de.xlf</t>
-  </si>
-  <si>
-    <t>6165cda3-c5b3-475f-9647-6bc4b7422834.4f98a3535406d947b305d410654f2ebd6d12339d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>6cccdc5c-8455-483e-b76f-5a95054102a2.366c6246499f937ca569bdeaef2dd67f94b7b4e4.de-de.xlf</t>
   </si>
   <si>
     <t>8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.2cc3a66b61a8386b63ed6eff440218db854d1928.de-de.xlf</t>
@@ -548,22 +554,22 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
@@ -571,91 +577,91 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="F5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C8" s="0" t="s">
         <v>9</v>
       </c>
@@ -663,13 +669,13 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -686,13 +692,13 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -709,13 +715,13 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -732,13 +738,13 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -755,13 +761,13 @@
         <v>10</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -778,13 +784,13 @@
         <v>10</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -801,13 +807,13 @@
         <v>10</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
@@ -824,13 +830,13 @@
         <v>10</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -847,27 +853,27 @@
         <v>10</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\26b1d521-de88-4cac-9a88-4a1d53416dbd.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\bd9e1420-d162-4512-95b9-cb84fb7b21b6.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\0c1867a4-8189-4bb7-92ec-e709dfd642ad.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\1d191e04-1980-41ac-94c2-40e560739b4a.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\3b28d930-fc03-4636-ab34-dadc356a835e.md" r:id="rId8"/>
-    <hyperlink ref="B9" display="e2e\56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId9"/>
-    <hyperlink ref="B10" display="e2e\6165cda3-c5b3-475f-9647-6bc4b7422834.md" r:id="rId10"/>
-    <hyperlink ref="B11" display="e2e\6cccdc5c-8455-483e-b76f-5a95054102a2.md" r:id="rId11"/>
+    <hyperlink ref="B3" display="e2e\6165cda3-c5b3-475f-9647-6bc4b7422834.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\6cccdc5c-8455-483e-b76f-5a95054102a2.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\bd9e1420-d162-4512-95b9-cb84fb7b21b6.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\0c1867a4-8189-4bb7-92ec-e709dfd642ad.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\1d191e04-1980-41ac-94c2-40e560739b4a.md" r:id="rId9"/>
+    <hyperlink ref="B10" display="e2e\3b28d930-fc03-4636-ab34-dadc356a835e.md" r:id="rId10"/>
+    <hyperlink ref="B11" display="e2e\56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId11"/>
     <hyperlink ref="B12" display="e2e\8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.md" r:id="rId12"/>
     <hyperlink ref="B13" display="e2e\9109bae0-03b7-4b6a-9fa3-7b781cd98c48.md" r:id="rId13"/>
     <hyperlink ref="B14" display="e2e\a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId14"/>
@@ -1015,31 +1021,31 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>63</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -1059,13 +1065,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>63</v>
@@ -1077,19 +1083,19 @@
         <v>64</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
+        <v>70</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
@@ -1109,37 +1115,37 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" s="0" t="s">
         <v>63</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>64</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
@@ -1159,13 +1165,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>63</v>
@@ -1177,11 +1183,11 @@
         <v>64</v>
       </c>
       <c r="G6" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
       </c>
@@ -1189,7 +1195,7 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
@@ -1209,37 +1215,37 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="J7" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
@@ -1259,13 +1265,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>63</v>
@@ -1277,10 +1283,10 @@
         <v>64</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1289,7 +1295,7 @@
         <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>10</v>
@@ -1304,7 +1310,7 @@
         <v>64</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1315,7 +1321,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>63</v>
@@ -1330,7 +1336,7 @@
         <v>83</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
@@ -1339,7 +1345,7 @@
         <v>10</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>10</v>
@@ -1365,7 +1371,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>63</v>
@@ -1380,7 +1386,7 @@
         <v>84</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>10</v>
@@ -1389,7 +1395,7 @@
         <v>10</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>10</v>
@@ -1404,7 +1410,7 @@
         <v>64</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -1415,7 +1421,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>63</v>
@@ -1427,10 +1433,10 @@
         <v>64</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>10</v>
@@ -1439,7 +1445,7 @@
         <v>10</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>10</v>
@@ -1465,7 +1471,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>63</v>
@@ -1477,10 +1483,10 @@
         <v>64</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>10</v>
@@ -1489,7 +1495,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>10</v>
@@ -1515,7 +1521,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>63</v>
@@ -1527,16 +1533,16 @@
         <v>64</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>39</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>67</v>
@@ -1554,7 +1560,7 @@
         <v>64</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
@@ -1565,7 +1571,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>63</v>
@@ -1577,19 +1583,19 @@
         <v>64</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>10</v>
@@ -1615,7 +1621,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>63</v>
@@ -1627,10 +1633,10 @@
         <v>64</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>10</v>
@@ -1639,7 +1645,7 @@
         <v>10</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>10</v>
@@ -1665,7 +1671,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>63</v>
@@ -1677,10 +1683,10 @@
         <v>64</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>10</v>
@@ -1689,7 +1695,7 @@
         <v>10</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>10</v>
@@ -1711,23 +1717,25 @@
   <hyperlinks>
     <hyperlink ref="A2" display="26b1d521-de88-4cac-9a88-4a1d53416dbd.md" r:id="rId2"/>
     <hyperlink ref="I2" display="26b1d521-de88-4cac-9a88-4a1d53416dbd.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="bd9e1420-d162-4512-95b9-cb84fb7b21b6.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId6"/>
-    <hyperlink ref="I5" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId7"/>
-    <hyperlink ref="A6" display="0c1867a4-8189-4bb7-92ec-e709dfd642ad.md" r:id="rId8"/>
-    <hyperlink ref="A7" display="1d191e04-1980-41ac-94c2-40e560739b4a.md" r:id="rId9"/>
-    <hyperlink ref="A8" display="3b28d930-fc03-4636-ab34-dadc356a835e.md" r:id="rId10"/>
-    <hyperlink ref="A9" display="56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId11"/>
-    <hyperlink ref="A10" display="6165cda3-c5b3-475f-9647-6bc4b7422834.md" r:id="rId12"/>
-    <hyperlink ref="A11" display="6cccdc5c-8455-483e-b76f-5a95054102a2.md" r:id="rId13"/>
-    <hyperlink ref="A12" display="8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.md" r:id="rId14"/>
-    <hyperlink ref="A13" display="9109bae0-03b7-4b6a-9fa3-7b781cd98c48.md" r:id="rId15"/>
-    <hyperlink ref="I13" display="9109bae0-03b7-4b6a-9fa3-7b781cd98c48.md" r:id="rId16"/>
-    <hyperlink ref="A14" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId17"/>
-    <hyperlink ref="I14" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId18"/>
-    <hyperlink ref="A15" display="db2c5a51-4d09-484e-9393-0e6c6b2730a2.md" r:id="rId19"/>
-    <hyperlink ref="A16" display="e68f52e1-d1be-4d4b-8507-9fb227a128e8.md" r:id="rId20"/>
+    <hyperlink ref="A3" display="6165cda3-c5b3-475f-9647-6bc4b7422834.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="6165cda3-c5b3-475f-9647-6bc4b7422834.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="6cccdc5c-8455-483e-b76f-5a95054102a2.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="6cccdc5c-8455-483e-b76f-5a95054102a2.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId8"/>
+    <hyperlink ref="A6" display="bd9e1420-d162-4512-95b9-cb84fb7b21b6.md" r:id="rId9"/>
+    <hyperlink ref="A7" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId10"/>
+    <hyperlink ref="I7" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId11"/>
+    <hyperlink ref="A8" display="0c1867a4-8189-4bb7-92ec-e709dfd642ad.md" r:id="rId12"/>
+    <hyperlink ref="A9" display="1d191e04-1980-41ac-94c2-40e560739b4a.md" r:id="rId13"/>
+    <hyperlink ref="A10" display="3b28d930-fc03-4636-ab34-dadc356a835e.md" r:id="rId14"/>
+    <hyperlink ref="A11" display="56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId15"/>
+    <hyperlink ref="A12" display="8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.md" r:id="rId16"/>
+    <hyperlink ref="A13" display="9109bae0-03b7-4b6a-9fa3-7b781cd98c48.md" r:id="rId17"/>
+    <hyperlink ref="I13" display="9109bae0-03b7-4b6a-9fa3-7b781cd98c48.md" r:id="rId18"/>
+    <hyperlink ref="A14" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId19"/>
+    <hyperlink ref="I14" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId20"/>
+    <hyperlink ref="A15" display="db2c5a51-4d09-484e-9393-0e6c6b2730a2.md" r:id="rId21"/>
+    <hyperlink ref="A16" display="e68f52e1-d1be-4d4b-8507-9fb227a128e8.md" r:id="rId22"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1832,7 +1840,7 @@
         <v>64</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1841,10 +1849,10 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -1870,31 +1878,31 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -1914,37 +1922,37 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
@@ -1964,37 +1972,37 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" s="0" t="s">
         <v>63</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>64</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
@@ -2014,13 +2022,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>63</v>
@@ -2032,10 +2040,10 @@
         <v>64</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -2044,7 +2052,7 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
@@ -2064,37 +2072,37 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="0" t="s">
+      <c r="I7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="J7" s="0" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
@@ -2114,13 +2122,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>63</v>
@@ -2132,10 +2140,10 @@
         <v>64</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -2144,7 +2152,7 @@
         <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>10</v>
@@ -2159,7 +2167,7 @@
         <v>64</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -2170,7 +2178,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>63</v>
@@ -2182,10 +2190,10 @@
         <v>64</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
@@ -2194,7 +2202,7 @@
         <v>10</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>10</v>
@@ -2220,7 +2228,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>63</v>
@@ -2232,10 +2240,10 @@
         <v>64</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>10</v>
@@ -2244,7 +2252,7 @@
         <v>10</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>10</v>
@@ -2259,7 +2267,7 @@
         <v>64</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
@@ -2270,7 +2278,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>63</v>
@@ -2282,10 +2290,10 @@
         <v>64</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>10</v>
@@ -2294,7 +2302,7 @@
         <v>10</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>10</v>
@@ -2320,7 +2328,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>63</v>
@@ -2332,10 +2340,10 @@
         <v>64</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>10</v>
@@ -2344,7 +2352,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>10</v>
@@ -2370,7 +2378,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>63</v>
@@ -2382,19 +2390,19 @@
         <v>64</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>39</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>10</v>
@@ -2409,7 +2417,7 @@
         <v>64</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
@@ -2420,7 +2428,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>63</v>
@@ -2432,19 +2440,19 @@
         <v>64</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>10</v>
@@ -2470,7 +2478,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>63</v>
@@ -2482,10 +2490,10 @@
         <v>64</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>10</v>
@@ -2494,7 +2502,7 @@
         <v>10</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>10</v>
@@ -2520,7 +2528,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>63</v>
@@ -2532,10 +2540,10 @@
         <v>64</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>10</v>
@@ -2544,7 +2552,7 @@
         <v>10</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>10</v>
@@ -2566,23 +2574,25 @@
   <hyperlinks>
     <hyperlink ref="A2" display="26b1d521-de88-4cac-9a88-4a1d53416dbd.md" r:id="rId2"/>
     <hyperlink ref="I2" display="26b1d521-de88-4cac-9a88-4a1d53416dbd.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="bd9e1420-d162-4512-95b9-cb84fb7b21b6.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId6"/>
-    <hyperlink ref="I5" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId7"/>
-    <hyperlink ref="A6" display="0c1867a4-8189-4bb7-92ec-e709dfd642ad.md" r:id="rId8"/>
-    <hyperlink ref="A7" display="1d191e04-1980-41ac-94c2-40e560739b4a.md" r:id="rId9"/>
-    <hyperlink ref="A8" display="3b28d930-fc03-4636-ab34-dadc356a835e.md" r:id="rId10"/>
-    <hyperlink ref="A9" display="56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId11"/>
-    <hyperlink ref="A10" display="6165cda3-c5b3-475f-9647-6bc4b7422834.md" r:id="rId12"/>
-    <hyperlink ref="A11" display="6cccdc5c-8455-483e-b76f-5a95054102a2.md" r:id="rId13"/>
-    <hyperlink ref="A12" display="8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.md" r:id="rId14"/>
-    <hyperlink ref="A13" display="9109bae0-03b7-4b6a-9fa3-7b781cd98c48.md" r:id="rId15"/>
-    <hyperlink ref="I13" display="9109bae0-03b7-4b6a-9fa3-7b781cd98c48.md" r:id="rId16"/>
-    <hyperlink ref="A14" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId17"/>
-    <hyperlink ref="I14" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId18"/>
-    <hyperlink ref="A15" display="db2c5a51-4d09-484e-9393-0e6c6b2730a2.md" r:id="rId19"/>
-    <hyperlink ref="A16" display="e68f52e1-d1be-4d4b-8507-9fb227a128e8.md" r:id="rId20"/>
+    <hyperlink ref="A3" display="6165cda3-c5b3-475f-9647-6bc4b7422834.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="6165cda3-c5b3-475f-9647-6bc4b7422834.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="6cccdc5c-8455-483e-b76f-5a95054102a2.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="6cccdc5c-8455-483e-b76f-5a95054102a2.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="a233f04e-2d0b-4408-8458-a280f1e0e22f.md" r:id="rId8"/>
+    <hyperlink ref="A6" display="bd9e1420-d162-4512-95b9-cb84fb7b21b6.md" r:id="rId9"/>
+    <hyperlink ref="A7" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId10"/>
+    <hyperlink ref="I7" display="d55b802f-3346-4fb7-904f-c4a5400d7bcd.md" r:id="rId11"/>
+    <hyperlink ref="A8" display="0c1867a4-8189-4bb7-92ec-e709dfd642ad.md" r:id="rId12"/>
+    <hyperlink ref="A9" display="1d191e04-1980-41ac-94c2-40e560739b4a.md" r:id="rId13"/>
+    <hyperlink ref="A10" display="3b28d930-fc03-4636-ab34-dadc356a835e.md" r:id="rId14"/>
+    <hyperlink ref="A11" display="56861064-ec74-44ff-8a5e-91eb9922eb7f.md" r:id="rId15"/>
+    <hyperlink ref="A12" display="8a056cb5-ece1-4c3b-89bb-a0e5e1eae970.md" r:id="rId16"/>
+    <hyperlink ref="A13" display="9109bae0-03b7-4b6a-9fa3-7b781cd98c48.md" r:id="rId17"/>
+    <hyperlink ref="I13" display="9109bae0-03b7-4b6a-9fa3-7b781cd98c48.md" r:id="rId18"/>
+    <hyperlink ref="A14" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId19"/>
+    <hyperlink ref="I14" display="a44599e7-4040-4699-95bc-e3ab48235c91.md" r:id="rId20"/>
+    <hyperlink ref="A15" display="db2c5a51-4d09-484e-9393-0e6c6b2730a2.md" r:id="rId21"/>
+    <hyperlink ref="A16" display="e68f52e1-d1be-4d4b-8507-9fb227a128e8.md" r:id="rId22"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2016-11-02 05:36:35</t>
@@ -258,8 +258,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
+    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -330,7 +330,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -467,7 +467,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>File Name</t>
   </si>
@@ -55,6 +55,18 @@
     <t>2016-11-02 05:36:35</t>
   </si>
   <si>
+    <t>c86199d4-8e8e-45a1-b7d3-9e6eed3d8d74oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md</t>
+  </si>
+  <si>
+    <t>e2e\c86199d4-8e8e-45a1-b7d3-9e6eed3d8d74oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:37:56</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -124,7 +136,16 @@
     <t>True</t>
   </si>
   <si>
+    <t>c86199d4-8e8e-45a1-b7d3-9e6eed3d8d74ooooooooooooooooooooooooooooooooooooooo.d3943bec35f4211b06356c0a259c04a581f9b3ac.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:37:43</t>
+  </si>
+  <si>
     <t>f22458c4-477e-467c-bd4a-48a95321e5bcooooooooooooooooooooooooooooooooooooooo.19aef2bf9319ed5707317a02011b04661c8fdee9.de-de.xlf</t>
+  </si>
+  <si>
+    <t>c86199d4-8e8e-45a1-b7d3-9e6eed3d8d74ooooooooooooooooooooooooooooooooooooooo.d3943bec35f4211b06356c0a259c04a581f9b3ac.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -181,8 +202,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P2" headerRowCount="1">
-  <autoFilter ref="A1:P2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P3" headerRowCount="1">
+  <autoFilter ref="A1:P3"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -206,8 +227,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P2" headerRowCount="1">
-  <autoFilter ref="A1:P2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P3" headerRowCount="1">
+  <autoFilter ref="A1:P3"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -231,8 +252,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -248,7 +269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -258,8 +279,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
-    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -309,9 +330,33 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\f22458c4-477e-467c-bd4a-48a95321e5bcoooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\c86199d4-8e8e-45a1-b7d3-9e6eed3d8d74oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -322,7 +367,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -330,7 +375,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -348,52 +393,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -407,48 +452,99 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="E3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="0" t="s">
+      <c r="G3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="f22458c4-477e-467c-bd4a-48a95321e5bcoooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="c86199d4-8e8e-45a1-b7d3-9e6eed3d8d74oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -459,7 +555,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -467,7 +563,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -485,52 +581,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -544,16 +640,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -565,27 +661,78 @@
         <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="0" t="s">
+      <c r="G3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="f22458c4-477e-467c-bd4a-48a95321e5bcoooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="c86199d4-8e8e-45a1-b7d3-9e6eed3d8d74oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>File Name</t>
   </si>
@@ -37,36 +37,36 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>c86199d4-8e8e-45a1-b7d3-9e6eed3d8d74oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md</t>
+  </si>
+  <si>
+    <t>e2e\c86199d4-8e8e-45a1-b7d3-9e6eed3d8d74oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:37:56</t>
+  </si>
+  <si>
     <t>f22458c4-477e-467c-bd4a-48a95321e5bcoooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md</t>
   </si>
   <si>
     <t>e2e\f22458c4-477e-467c-bd4a-48a95321e5bcoooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>In Translation</t>
   </si>
   <si>
     <t>2016-11-02 05:36:35</t>
   </si>
   <si>
-    <t>c86199d4-8e8e-45a1-b7d3-9e6eed3d8d74oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md</t>
-  </si>
-  <si>
-    <t>e2e\c86199d4-8e8e-45a1-b7d3-9e6eed3d8d74oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:37:56</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -124,6 +124,18 @@
     <t>False</t>
   </si>
   <si>
+    <t>c86199d4-8e8e-45a1-b7d3-9e6eed3d8d74ooooooooooooooooooooooooooooooooooooooo.d3943bec35f4211b06356c0a259c04a581f9b3ac.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:37:43</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:38:51</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>f22458c4-477e-467c-bd4a-48a95321e5bcooooooooooooooooooooooooooooooooooooooo.19aef2bf9319ed5707317a02011b04661c8fdee9.zh-cn.xlf</t>
   </si>
   <si>
@@ -133,19 +145,13 @@
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>c86199d4-8e8e-45a1-b7d3-9e6eed3d8d74ooooooooooooooooooooooooooooooooooooooo.d3943bec35f4211b06356c0a259c04a581f9b3ac.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:37:43</t>
+    <t>c86199d4-8e8e-45a1-b7d3-9e6eed3d8d74ooooooooooooooooooooooooooooooooooooooo.d3943bec35f4211b06356c0a259c04a581f9b3ac.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:39:09</t>
   </si>
   <si>
     <t>f22458c4-477e-467c-bd4a-48a95321e5bcooooooooooooooooooooooooooooooooooooooo.19aef2bf9319ed5707317a02011b04661c8fdee9.de-de.xlf</t>
-  </si>
-  <si>
-    <t>c86199d4-8e8e-45a1-b7d3-9e6eed3d8d74ooooooooooooooooooooooooooooooooooooooo.d3943bec35f4211b06356c0a259c04a581f9b3ac.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -279,8 +285,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -355,8 +361,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\f22458c4-477e-467c-bd4a-48a95321e5bcoooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\c86199d4-8e8e-45a1-b7d3-9e6eed3d8d74oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\c86199d4-8e8e-45a1-b7d3-9e6eed3d8d74oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\f22458c4-477e-467c-bd4a-48a95321e5bcoooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -375,14 +381,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -466,11 +472,11 @@
       <c r="H2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>38</v>
@@ -523,7 +529,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -543,8 +549,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="f22458c4-477e-467c-bd4a-48a95321e5bcoooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="c86199d4-8e8e-45a1-b7d3-9e6eed3d8d74oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="c86199d4-8e8e-45a1-b7d3-9e6eed3d8d74oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="c86199d4-8e8e-45a1-b7d3-9e6eed3d8d74oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="f22458c4-477e-467c-bd4a-48a95321e5bcoooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -563,14 +570,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -649,19 +656,19 @@
         <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -699,7 +706,7 @@
         <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
@@ -711,7 +718,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -731,8 +738,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="f22458c4-477e-467c-bd4a-48a95321e5bcoooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="c86199d4-8e8e-45a1-b7d3-9e6eed3d8d74oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="c86199d4-8e8e-45a1-b7d3-9e6eed3d8d74oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="c86199d4-8e8e-45a1-b7d3-9e6eed3d8d74oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="f22458c4-477e-467c-bd4a-48a95321e5bcoooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-11-02 05:41:03</t>
@@ -124,7 +124,7 @@
     <t>2016-11-02 05:40:47</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-11-02 05:41:41</t>
   </si>
   <si>
     <t>True</t>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>0f79903a-6429-4909-b05e-70595a75186a.e3f0eb7c0e947d8a66aec2f7bc08f24423ab0bfc.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:41:59</t>
   </si>
   <si>
     <t>8405c3c3-f951-44bf-91aa-bf8146efbc86.a3dfacdfbaa86dced21afe30143214db96cfd395.de-de.xlf</t>
@@ -270,8 +273,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -366,14 +369,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -457,11 +460,11 @@
       <c r="H2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>36</v>
@@ -507,11 +510,11 @@
       <c r="H3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>36</v>
@@ -535,7 +538,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="0f79903a-6429-4909-b05e-70595a75186a.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="8405c3c3-f951-44bf-91aa-bf8146efbc86.md" r:id="rId3"/>
+    <hyperlink ref="I2" display="0f79903a-6429-4909-b05e-70595a75186a.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="8405c3c3-f951-44bf-91aa-bf8146efbc86.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="8405c3c3-f951-44bf-91aa-bf8146efbc86.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -554,14 +559,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -645,14 +650,14 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -690,19 +695,19 @@
         <v>33</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -723,7 +728,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="0f79903a-6429-4909-b05e-70595a75186a.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="8405c3c3-f951-44bf-91aa-bf8146efbc86.md" r:id="rId3"/>
+    <hyperlink ref="I2" display="0f79903a-6429-4909-b05e-70595a75186a.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="8405c3c3-f951-44bf-91aa-bf8146efbc86.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="8405c3c3-f951-44bf-91aa-bf8146efbc86.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -37,48 +37,45 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>036d2d14-e7af-487b-94bf-8489aa10844f.md</t>
+  </si>
+  <si>
+    <t>e2e\036d2d14-e7af-487b-94bf-8489aa10844f.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:43:00</t>
+  </si>
+  <si>
     <t>0f79903a-6429-4909-b05e-70595a75186a.md</t>
   </si>
   <si>
     <t>e2e\0f79903a-6429-4909-b05e-70595a75186a.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2016-11-02 05:41:03</t>
   </si>
   <si>
+    <t>5e79ed8c-e6c1-4c06-840a-9cd3b6994314.md</t>
+  </si>
+  <si>
+    <t>e2e\5e79ed8c-e6c1-4c06-840a-9cd3b6994314.md</t>
+  </si>
+  <si>
     <t>8405c3c3-f951-44bf-91aa-bf8146efbc86.md</t>
   </si>
   <si>
     <t>e2e\8405c3c3-f951-44bf-91aa-bf8146efbc86.md</t>
   </si>
   <si>
-    <t>036d2d14-e7af-487b-94bf-8489aa10844f.md</t>
-  </si>
-  <si>
-    <t>e2e\036d2d14-e7af-487b-94bf-8489aa10844f.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:43:00</t>
-  </si>
-  <si>
-    <t>5e79ed8c-e6c1-4c06-840a-9cd3b6994314.md</t>
-  </si>
-  <si>
-    <t>e2e\5e79ed8c-e6c1-4c06-840a-9cd3b6994314.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -130,12 +127,27 @@
     <t>e2e</t>
   </si>
   <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>036d2d14-e7af-487b-94bf-8489aa10844f.6f71226ce6307757989851e4f93a601c027b4d08.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:42:46</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:43:38</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>ht</t>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>0f79903a-6429-4909-b05e-70595a75186a.e3f0eb7c0e947d8a66aec2f7bc08f24423ab0bfc.zh-cn.xlf</t>
   </si>
   <si>
@@ -145,25 +157,16 @@
     <t>2016-11-02 05:41:41</t>
   </si>
   <si>
-    <t>True</t>
+    <t>5e79ed8c-e6c1-4c06-840a-9cd3b6994314.23b4961a27cdedb18d587a7dec5fb3053d9ddc6a.zh-cn.xlf</t>
   </si>
   <si>
     <t>8405c3c3-f951-44bf-91aa-bf8146efbc86.a3dfacdfbaa86dced21afe30143214db96cfd395.zh-cn.xlf</t>
   </si>
   <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>036d2d14-e7af-487b-94bf-8489aa10844f.6f71226ce6307757989851e4f93a601c027b4d08.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-02 05:42:46</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>5e79ed8c-e6c1-4c06-840a-9cd3b6994314.23b4961a27cdedb18d587a7dec5fb3053d9ddc6a.zh-cn.xlf</t>
+    <t>036d2d14-e7af-487b-94bf-8489aa10844f.6f71226ce6307757989851e4f93a601c027b4d08.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:43:57</t>
   </si>
   <si>
     <t>0f79903a-6429-4909-b05e-70595a75186a.e3f0eb7c0e947d8a66aec2f7bc08f24423ab0bfc.de-de.xlf</t>
@@ -172,13 +175,10 @@
     <t>2016-11-02 05:41:59</t>
   </si>
   <si>
+    <t>5e79ed8c-e6c1-4c06-840a-9cd3b6994314.23b4961a27cdedb18d587a7dec5fb3053d9ddc6a.de-de.xlf</t>
+  </si>
+  <si>
     <t>8405c3c3-f951-44bf-91aa-bf8146efbc86.a3dfacdfbaa86dced21afe30143214db96cfd395.de-de.xlf</t>
-  </si>
-  <si>
-    <t>036d2d14-e7af-487b-94bf-8489aa10844f.6f71226ce6307757989851e4f93a601c027b4d08.de-de.xlf</t>
-  </si>
-  <si>
-    <t>5e79ed8c-e6c1-4c06-840a-9cd3b6994314.23b4961a27cdedb18d587a7dec5fb3053d9ddc6a.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -383,15 +383,15 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -400,22 +400,22 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
       </c>
@@ -423,21 +423,21 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\0f79903a-6429-4909-b05e-70595a75186a.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\8405c3c3-f951-44bf-91aa-bf8146efbc86.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\036d2d14-e7af-487b-94bf-8489aa10844f.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\5e79ed8c-e6c1-4c06-840a-9cd3b6994314.md" r:id="rId5"/>
+    <hyperlink ref="B2" display="e2e\036d2d14-e7af-487b-94bf-8489aa10844f.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\0f79903a-6429-4909-b05e-70595a75186a.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\5e79ed8c-e6c1-4c06-840a-9cd3b6994314.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\8405c3c3-f951-44bf-91aa-bf8146efbc86.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -474,52 +474,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -533,40 +533,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -583,19 +583,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
@@ -604,19 +604,19 @@
         <v>44</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -624,49 +624,49 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -674,49 +674,49 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -724,12 +724,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="0f79903a-6429-4909-b05e-70595a75186a.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="0f79903a-6429-4909-b05e-70595a75186a.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="8405c3c3-f951-44bf-91aa-bf8146efbc86.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="8405c3c3-f951-44bf-91aa-bf8146efbc86.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="036d2d14-e7af-487b-94bf-8489aa10844f.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="5e79ed8c-e6c1-4c06-840a-9cd3b6994314.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="036d2d14-e7af-487b-94bf-8489aa10844f.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="036d2d14-e7af-487b-94bf-8489aa10844f.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="0f79903a-6429-4909-b05e-70595a75186a.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="0f79903a-6429-4909-b05e-70595a75186a.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="5e79ed8c-e6c1-4c06-840a-9cd3b6994314.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="5e79ed8c-e6c1-4c06-840a-9cd3b6994314.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="8405c3c3-f951-44bf-91aa-bf8146efbc86.md" r:id="rId8"/>
+    <hyperlink ref="I5" display="8405c3c3-f951-44bf-91aa-bf8146efbc86.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -766,52 +768,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -825,16 +827,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -843,22 +845,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -875,40 +877,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -916,49 +918,49 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>53</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -966,49 +968,49 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>54</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="J5" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -1016,12 +1018,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="0f79903a-6429-4909-b05e-70595a75186a.md" r:id="rId2"/>
-    <hyperlink ref="I2" display="0f79903a-6429-4909-b05e-70595a75186a.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="8405c3c3-f951-44bf-91aa-bf8146efbc86.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="8405c3c3-f951-44bf-91aa-bf8146efbc86.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="036d2d14-e7af-487b-94bf-8489aa10844f.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="5e79ed8c-e6c1-4c06-840a-9cd3b6994314.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="036d2d14-e7af-487b-94bf-8489aa10844f.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="036d2d14-e7af-487b-94bf-8489aa10844f.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="0f79903a-6429-4909-b05e-70595a75186a.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="0f79903a-6429-4909-b05e-70595a75186a.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="5e79ed8c-e6c1-4c06-840a-9cd3b6994314.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="5e79ed8c-e6c1-4c06-840a-9cd3b6994314.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="8405c3c3-f951-44bf-91aa-bf8146efbc86.md" r:id="rId8"/>
+    <hyperlink ref="I5" display="8405c3c3-f951-44bf-91aa-bf8146efbc86.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>File Name</t>
   </si>
@@ -70,7 +70,7 @@
     <t>In Translation</t>
   </si>
   <si>
-    <t>2016-11-02 05:45:02</t>
+    <t>2016-11-02 05:45:52</t>
   </si>
   <si>
     <t>5e79ed8c-e6c1-4c06-840a-9cd3b6994314.md</t>
@@ -166,13 +166,10 @@
     <t>8405c3c3-f951-44bf-91aa-bf8146efbc86.a3dfacdfbaa86dced21afe30143214db96cfd395.zh-cn.xlf</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>036d2d14-e7af-487b-94bf-8489aa10844f.6f71226ce6307757989851e4f93a601c027b4d08.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-11-02 05:44:46</t>
+    <t>2016-11-02 05:45:37</t>
   </si>
   <si>
     <t>2016-11-02 05:43:38</t>
@@ -717,25 +714,25 @@
         <v>42</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>44</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
@@ -767,25 +764,25 @@
         <v>42</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>44</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
@@ -817,25 +814,25 @@
         <v>42</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>44</v>
       </c>
       <c r="G6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
@@ -867,16 +864,16 @@
         <v>42</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -885,7 +882,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
@@ -1019,7 +1016,7 @@
         <v>44</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1028,10 +1025,10 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -1069,7 +1066,7 @@
         <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -1078,10 +1075,10 @@
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -1113,13 +1110,13 @@
         <v>42</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>44</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>18</v>
@@ -1128,10 +1125,10 @@
         <v>15</v>
       </c>
       <c r="J4" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
@@ -1163,13 +1160,13 @@
         <v>42</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>44</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>18</v>
@@ -1178,10 +1175,10 @@
         <v>19</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
@@ -1213,13 +1210,13 @@
         <v>42</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>44</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>18</v>
@@ -1231,7 +1228,7 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
@@ -1263,13 +1260,13 @@
         <v>42</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>18</v>
@@ -1281,7 +1278,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2016-11-02 05:47:29</t>
@@ -285,8 +285,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
+    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -405,7 +405,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -644,7 +644,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>In Translation</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-11-02 05:47:29</t>
@@ -133,7 +133,7 @@
     <t>2016-11-02 05:47:08</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-11-02 05:48:50</t>
   </si>
   <si>
     <t>True</t>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>0000119d-a964-4eda-a1e5-c43738e26215.eaa503750b3ad913d439a5e3e6961b42423c4d31.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:49:09</t>
   </si>
   <si>
     <t>99d96804-800c-4316-9acd-83e3e4cbfd53.62e86d38c64d2b276a18fbf4f74b43c32c30c84c.de-de.xlf</t>
@@ -285,8 +288,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
-    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -405,14 +408,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -496,11 +499,11 @@
       <c r="H2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>39</v>
@@ -546,11 +549,11 @@
       <c r="H3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>39</v>
@@ -596,11 +599,11 @@
       <c r="H4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>39</v>
@@ -624,8 +627,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="0000119d-a964-4eda-a1e5-c43738e26215.yml" r:id="rId2"/>
-    <hyperlink ref="A3" display="99d96804-800c-4316-9acd-83e3e4cbfd53.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="a3671ea2-c63a-4b18-a556-996cabb3313e.yml" r:id="rId4"/>
+    <hyperlink ref="I2" display="0000119d-a964-4eda-a1e5-c43738e26215.yml" r:id="rId3"/>
+    <hyperlink ref="A3" display="99d96804-800c-4316-9acd-83e3e4cbfd53.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="99d96804-800c-4316-9acd-83e3e4cbfd53.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="a3671ea2-c63a-4b18-a556-996cabb3313e.yml" r:id="rId6"/>
+    <hyperlink ref="I4" display="a3671ea2-c63a-4b18-a556-996cabb3313e.yml" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -644,14 +650,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -735,14 +741,14 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -780,19 +786,19 @@
         <v>36</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
@@ -830,19 +836,19 @@
         <v>36</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
@@ -863,8 +869,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="0000119d-a964-4eda-a1e5-c43738e26215.yml" r:id="rId2"/>
-    <hyperlink ref="A3" display="99d96804-800c-4316-9acd-83e3e4cbfd53.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="a3671ea2-c63a-4b18-a556-996cabb3313e.yml" r:id="rId4"/>
+    <hyperlink ref="I2" display="0000119d-a964-4eda-a1e5-c43738e26215.yml" r:id="rId3"/>
+    <hyperlink ref="A3" display="99d96804-800c-4316-9acd-83e3e4cbfd53.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="99d96804-800c-4316-9acd-83e3e4cbfd53.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="a3671ea2-c63a-4b18-a556-996cabb3313e.yml" r:id="rId6"/>
+    <hyperlink ref="I4" display="a3671ea2-c63a-4b18-a556-996cabb3313e.yml" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>File Name</t>
   </si>
@@ -70,6 +70,33 @@
     <t>e2e\a3671ea2-c63a-4b18-a556-996cabb3313e.yml</t>
   </si>
   <si>
+    <t>eb8ab756-3dbf-4572-8f49-25b5607fafd0.md</t>
+  </si>
+  <si>
+    <t>e2e\eb8ab756-3dbf-4572-8f49-25b5607fafd0.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:50:11</t>
+  </si>
+  <si>
+    <t>f60228d2-3616-46ba-b922-79e8c510cab1.png</t>
+  </si>
+  <si>
+    <t>e2e\f60228d2-3616-46ba-b922-79e8c510cab1.png</t>
+  </si>
+  <si>
+    <t>.png</t>
+  </si>
+  <si>
+    <t>ec5f1808-f645-4f30-b119-7c1fe8985a7e.png</t>
+  </si>
+  <si>
+    <t>e2e\ec5f1808-f645-4f30-b119-7c1fe8985a7e.png</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -145,6 +172,24 @@
     <t>a3671ea2-c63a-4b18-a556-996cabb3313e.8bb1d2ce098ddf06ca2e1d8ca8a6f97c067dd605.zh-cn.xlf</t>
   </si>
   <si>
+    <t>eb8ab756-3dbf-4572-8f49-25b5607fafd0.f29cb93078b07eed539eb380cbdb87114bf032ab.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-02 05:49:54</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>2a546161cd49519b90afbd247352939c0ff0198e.png</t>
+  </si>
+  <si>
+    <t>True(Dependency)</t>
+  </si>
+  <si>
+    <t>d08688717f888f3f4950ca95b1021c8310d4b96e.png</t>
+  </si>
+  <si>
     <t>0000119d-a964-4eda-a1e5-c43738e26215.eaa503750b3ad913d439a5e3e6961b42423c4d31.de-de.xlf</t>
   </si>
   <si>
@@ -155,6 +200,9 @@
   </si>
   <si>
     <t>a3671ea2-c63a-4b18-a556-996cabb3313e.8bb1d2ce098ddf06ca2e1d8ca8a6f97c067dd605.de-de.xlf</t>
+  </si>
+  <si>
+    <t>eb8ab756-3dbf-4572-8f49-25b5607fafd0.f29cb93078b07eed539eb380cbdb87114bf032ab.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -211,8 +259,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P4" headerRowCount="1">
-  <autoFilter ref="A1:P4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P7" headerRowCount="1">
+  <autoFilter ref="A1:P7"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -236,8 +284,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P4" headerRowCount="1">
-  <autoFilter ref="A1:P4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P7" headerRowCount="1">
+  <autoFilter ref="A1:P7"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -261,8 +309,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
-  <autoFilter ref="A1:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G7" headerRowCount="1">
+  <autoFilter ref="A1:G7"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -278,7 +326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -385,11 +433,83 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\0000119d-a964-4eda-a1e5-c43738e26215.yml" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\99d96804-800c-4316-9acd-83e3e4cbfd53.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\a3671ea2-c63a-4b18-a556-996cabb3313e.yml" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\eb8ab756-3dbf-4572-8f49-25b5607fafd0.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\f60228d2-3616-46ba-b922-79e8c510cab1.png" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\ec5f1808-f645-4f30-b119-7c1fe8985a7e.png" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -400,7 +520,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,60 +538,60 @@
     <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
-    <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
-    <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
+    <col min="13" max="13" width="17.7080821990967" customWidth="1"/>
+    <col min="14" max="14" width="40" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
     <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -485,40 +605,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -535,40 +655,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -585,42 +705,192 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -632,6 +902,9 @@
     <hyperlink ref="I3" display="99d96804-800c-4316-9acd-83e3e4cbfd53.md" r:id="rId5"/>
     <hyperlink ref="A4" display="a3671ea2-c63a-4b18-a556-996cabb3313e.yml" r:id="rId6"/>
     <hyperlink ref="I4" display="a3671ea2-c63a-4b18-a556-996cabb3313e.yml" r:id="rId7"/>
+    <hyperlink ref="A5" display="eb8ab756-3dbf-4572-8f49-25b5607fafd0.md" r:id="rId8"/>
+    <hyperlink ref="A6" display="f60228d2-3616-46ba-b922-79e8c510cab1.png" r:id="rId9"/>
+    <hyperlink ref="A7" display="ec5f1808-f645-4f30-b119-7c1fe8985a7e.png" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -642,7 +915,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -660,60 +933,60 @@
     <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
-    <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
-    <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
+    <col min="13" max="13" width="17.7080821990967" customWidth="1"/>
+    <col min="14" max="14" width="40" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
     <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -727,16 +1000,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -745,22 +1018,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -777,16 +1050,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -795,22 +1068,22 @@
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -827,16 +1100,16 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
@@ -845,24 +1118,174 @@
         <v>16</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="0" t="s">
+      <c r="F5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -874,6 +1297,9 @@
     <hyperlink ref="I3" display="99d96804-800c-4316-9acd-83e3e4cbfd53.md" r:id="rId5"/>
     <hyperlink ref="A4" display="a3671ea2-c63a-4b18-a556-996cabb3313e.yml" r:id="rId6"/>
     <hyperlink ref="I4" display="a3671ea2-c63a-4b18-a556-996cabb3313e.yml" r:id="rId7"/>
+    <hyperlink ref="A5" display="eb8ab756-3dbf-4572-8f49-25b5607fafd0.md" r:id="rId8"/>
+    <hyperlink ref="A6" display="f60228d2-3616-46ba-b922-79e8c510cab1.png" r:id="rId9"/>
+    <hyperlink ref="A7" display="ec5f1808-f645-4f30-b119-7c1fe8985a7e.png" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>File Name</t>
   </si>
@@ -76,27 +76,12 @@
     <t>e2e\eb8ab756-3dbf-4572-8f49-25b5607fafd0.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2016-11-02 05:50:11</t>
   </si>
   <si>
-    <t>f60228d2-3616-46ba-b922-79e8c510cab1.png</t>
-  </si>
-  <si>
-    <t>e2e\f60228d2-3616-46ba-b922-79e8c510cab1.png</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>ec5f1808-f645-4f30-b119-7c1fe8985a7e.png</t>
-  </si>
-  <si>
-    <t>e2e\ec5f1808-f645-4f30-b119-7c1fe8985a7e.png</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -179,15 +164,6 @@
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>2a546161cd49519b90afbd247352939c0ff0198e.png</t>
-  </si>
-  <si>
-    <t>True(Dependency)</t>
-  </si>
-  <si>
-    <t>d08688717f888f3f4950ca95b1021c8310d4b96e.png</t>
   </si>
   <si>
     <t>0000119d-a964-4eda-a1e5-c43738e26215.eaa503750b3ad913d439a5e3e6961b42423c4d31.de-de.xlf</t>
@@ -259,8 +235,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P7" headerRowCount="1">
-  <autoFilter ref="A1:P7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P5" headerRowCount="1">
+  <autoFilter ref="A1:P5"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -284,8 +260,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P7" headerRowCount="1">
-  <autoFilter ref="A1:P7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P5" headerRowCount="1">
+  <autoFilter ref="A1:P5"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -309,8 +285,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G7" headerRowCount="1">
-  <autoFilter ref="A1:G7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G5" headerRowCount="1">
+  <autoFilter ref="A1:G5"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -326,7 +302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -456,60 +432,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\0000119d-a964-4eda-a1e5-c43738e26215.yml" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\99d96804-800c-4316-9acd-83e3e4cbfd53.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\a3671ea2-c63a-4b18-a556-996cabb3313e.yml" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\eb8ab756-3dbf-4572-8f49-25b5607fafd0.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\f60228d2-3616-46ba-b922-79e8c510cab1.png" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\ec5f1808-f645-4f30-b119-7c1fe8985a7e.png" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -520,7 +448,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -538,60 +466,60 @@
     <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
-    <col min="13" max="13" width="17.7080821990967" customWidth="1"/>
-    <col min="14" max="14" width="40" customWidth="1"/>
+    <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
+    <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
     <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -605,40 +533,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -655,40 +583,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -705,40 +633,40 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -755,142 +683,42 @@
         <v>20</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -903,8 +731,6 @@
     <hyperlink ref="A4" display="a3671ea2-c63a-4b18-a556-996cabb3313e.yml" r:id="rId6"/>
     <hyperlink ref="I4" display="a3671ea2-c63a-4b18-a556-996cabb3313e.yml" r:id="rId7"/>
     <hyperlink ref="A5" display="eb8ab756-3dbf-4572-8f49-25b5607fafd0.md" r:id="rId8"/>
-    <hyperlink ref="A6" display="f60228d2-3616-46ba-b922-79e8c510cab1.png" r:id="rId9"/>
-    <hyperlink ref="A7" display="ec5f1808-f645-4f30-b119-7c1fe8985a7e.png" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -915,7 +741,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -933,60 +759,60 @@
     <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
-    <col min="13" max="13" width="17.7080821990967" customWidth="1"/>
-    <col min="14" max="14" width="40" customWidth="1"/>
+    <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
+    <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
     <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -1000,16 +826,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1018,22 +844,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -1050,16 +876,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -1068,22 +894,22 @@
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -1100,16 +926,16 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
@@ -1118,22 +944,22 @@
         <v>16</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1150,16 +976,16 @@
         <v>20</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>21</v>
@@ -1171,121 +997,21 @@
         <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1298,8 +1024,6 @@
     <hyperlink ref="A4" display="a3671ea2-c63a-4b18-a556-996cabb3313e.yml" r:id="rId6"/>
     <hyperlink ref="I4" display="a3671ea2-c63a-4b18-a556-996cabb3313e.yml" r:id="rId7"/>
     <hyperlink ref="A5" display="eb8ab756-3dbf-4572-8f49-25b5607fafd0.md" r:id="rId8"/>
-    <hyperlink ref="A6" display="f60228d2-3616-46ba-b922-79e8c510cab1.png" r:id="rId9"/>
-    <hyperlink ref="A7" display="ec5f1808-f645-4f30-b119-7c1fe8985a7e.png" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2016-11-02 06:30:23</t>
@@ -270,8 +270,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
+    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -366,7 +366,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -554,7 +554,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2016-11-07 06:48:41</t>
@@ -270,8 +270,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
+    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -366,7 +366,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -554,7 +554,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>File Name</t>
   </si>
@@ -61,6 +61,24 @@
     <t>e2e\209c48c6-fc24-415d-a9e7-73c5a75a6102.md</t>
   </si>
   <si>
+    <t>70d2e4f3-9044-424f-b315-358cf7ddc94d.md</t>
+  </si>
+  <si>
+    <t>e2e\70d2e4f3-9044-424f-b315-358cf7ddc94d.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-11-07 06:50:17</t>
+  </si>
+  <si>
+    <t>b7277af2-cbe8-4e42-9c08-0f7360d1714a.md</t>
+  </si>
+  <si>
+    <t>e2e\b7277af2-cbe8-4e42-9c08-0f7360d1714a.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -133,10 +151,25 @@
     <t>209c48c6-fc24-415d-a9e7-73c5a75a6102.a0c96fdd85379e67b198a784961a146d34f7c165.zh-cn.xlf</t>
   </si>
   <si>
+    <t>70d2e4f3-9044-424f-b315-358cf7ddc94d.a72cc6dc5863a6460521b86121a6aca0b18f92a8.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-07 06:50:03</t>
+  </si>
+  <si>
+    <t>b7277af2-cbe8-4e42-9c08-0f7360d1714a.48151d32738d36ccf46c134c39835abf022fbe6c.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0c47f287-8800-41bb-bee0-29a00708bd1b.72e1fe1cec3bcedaeeab9741bf833b60eab3393e.de-de.xlf</t>
   </si>
   <si>
     <t>209c48c6-fc24-415d-a9e7-73c5a75a6102.a0c96fdd85379e67b198a784961a146d34f7c165.de-de.xlf</t>
+  </si>
+  <si>
+    <t>70d2e4f3-9044-424f-b315-358cf7ddc94d.a72cc6dc5863a6460521b86121a6aca0b18f92a8.de-de.xlf</t>
+  </si>
+  <si>
+    <t>b7277af2-cbe8-4e42-9c08-0f7360d1714a.48151d32738d36ccf46c134c39835abf022fbe6c.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -193,8 +226,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P3" headerRowCount="1">
-  <autoFilter ref="A1:P3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P5" headerRowCount="1">
+  <autoFilter ref="A1:P5"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -218,8 +251,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P3" headerRowCount="1">
-  <autoFilter ref="A1:P3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P5" headerRowCount="1">
+  <autoFilter ref="A1:P5"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -243,8 +276,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G5" headerRowCount="1">
+  <autoFilter ref="A1:G5"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -260,7 +293,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -270,8 +303,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
-    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -344,10 +377,58 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\0c47f287-8800-41bb-bee0-29a00708bd1b.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\209c48c6-fc24-415d-a9e7-73c5a75a6102.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\70d2e4f3-9044-424f-b315-358cf7ddc94d.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -358,7 +439,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -366,7 +447,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -384,52 +465,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -443,19 +524,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -464,19 +545,19 @@
         <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -493,42 +574,142 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
+      <c r="F4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="0" t="s">
+      <c r="E5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -536,6 +717,8 @@
   <hyperlinks>
     <hyperlink ref="A2" display="0c47f287-8800-41bb-bee0-29a00708bd1b.md" r:id="rId2"/>
     <hyperlink ref="A3" display="209c48c6-fc24-415d-a9e7-73c5a75a6102.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="70d2e4f3-9044-424f-b315-358cf7ddc94d.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -546,7 +729,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -554,7 +737,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -572,52 +755,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -631,16 +814,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -652,19 +835,19 @@
         <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -681,16 +864,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -702,21 +885,121 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="0" t="s">
+      <c r="E4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -724,6 +1007,8 @@
   <hyperlinks>
     <hyperlink ref="A2" display="0c47f287-8800-41bb-bee0-29a00708bd1b.md" r:id="rId2"/>
     <hyperlink ref="A3" display="209c48c6-fc24-415d-a9e7-73c5a75a6102.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="70d2e4f3-9044-424f-b315-358cf7ddc94d.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>File Name</t>
   </si>
@@ -79,6 +79,9 @@
     <t>e2e\b7277af2-cbe8-4e42-9c08-0f7360d1714a.md</t>
   </si>
   <si>
+    <t>2016-11-07 06:51:08</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -158,6 +161,9 @@
   </si>
   <si>
     <t>b7277af2-cbe8-4e42-9c08-0f7360d1714a.48151d32738d36ccf46c134c39835abf022fbe6c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-07 06:50:54</t>
   </si>
   <si>
     <t>0c47f287-8800-41bb-bee0-29a00708bd1b.72e1fe1cec3bcedaeeab9741bf833b60eab3393e.de-de.xlf</t>
@@ -420,7 +426,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -465,52 +471,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -524,19 +530,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -545,19 +551,19 @@
         <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -574,40 +580,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -624,19 +630,19 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -645,19 +651,19 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -674,19 +680,19 @@
         <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -695,19 +701,19 @@
         <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -755,52 +761,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -814,16 +820,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -835,19 +841,19 @@
         <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -864,16 +870,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -885,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -914,16 +920,16 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>18</v>
@@ -935,19 +941,19 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -964,19 +970,19 @@
         <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -985,19 +991,19 @@
         <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -67,16 +67,16 @@
     <t>e2e\70d2e4f3-9044-424f-b315-358cf7ddc94d.md</t>
   </si>
   <si>
+    <t>2016-11-07 06:50:17</t>
+  </si>
+  <si>
+    <t>b7277af2-cbe8-4e42-9c08-0f7360d1714a.md</t>
+  </si>
+  <si>
+    <t>e2e\b7277af2-cbe8-4e42-9c08-0f7360d1714a.md</t>
+  </si>
+  <si>
     <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2016-11-07 06:50:17</t>
-  </si>
-  <si>
-    <t>b7277af2-cbe8-4e42-9c08-0f7360d1714a.md</t>
-  </si>
-  <si>
-    <t>e2e\b7277af2-cbe8-4e42-9c08-0f7360d1714a.md</t>
   </si>
   <si>
     <t>2016-11-07 06:51:08</t>
@@ -397,33 +397,33 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>21</v>
@@ -627,7 +627,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>38</v>
@@ -671,13 +671,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>38</v>
@@ -917,7 +917,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>38</v>
@@ -932,7 +932,7 @@
         <v>52</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -961,13 +961,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>38</v>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -79,7 +79,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-11-07 06:52:48</t>
+    <t>2016-11-07 06:53:36</t>
   </si>
   <si>
     <t>b7277af2-cbe8-4e42-9c08-0f7360d1714a.md</t>
@@ -172,7 +172,7 @@
     <t>a14b8ca5-f559-4148-9701-350adb07cd9e.24e393409de0d4860379416983f101ce9b2505f3.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-11-07 06:52:33</t>
+    <t>2016-11-07 06:53:22</t>
   </si>
   <si>
     <t>b7277af2-cbe8-4e42-9c08-0f7360d1714a.48151d32738d36ccf46c134c39835abf022fbe6c.zh-cn.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>File Name</t>
   </si>
@@ -175,6 +175,12 @@
     <t>2016-11-07 06:53:22</t>
   </si>
   <si>
+    <t>2016-11-07 06:54:23</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/dab2c4adb2271edb501907d3d10923f49d4f0af6/e2e/a14b8ca5-f559-4148-9701-350adb07cd9e.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/7100a5fa181df88894f3deac028304d24a80d08b/e2e/a14b8ca5-f559-4148-9701-350adb07cd9e.md.</t>
+  </si>
+  <si>
     <t>b7277af2-cbe8-4e42-9c08-0f7360d1714a.48151d32738d36ccf46c134c39835abf022fbe6c.zh-cn.xlf</t>
   </si>
   <si>
@@ -191,6 +197,9 @@
   </si>
   <si>
     <t>a14b8ca5-f559-4148-9701-350adb07cd9e.24e393409de0d4860379416983f101ce9b2505f3.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-07 06:54:42</t>
   </si>
   <si>
     <t>b7277af2-cbe8-4e42-9c08-0f7360d1714a.48151d32738d36ccf46c134c39835abf022fbe6c.de-de.xlf</t>
@@ -501,14 +510,14 @@
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -736,14 +745,14 @@
       <c r="H5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
@@ -758,7 +767,7 @@
         <v>43</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -781,10 +790,10 @@
         <v>43</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -817,7 +826,8 @@
     <hyperlink ref="A3" display="209c48c6-fc24-415d-a9e7-73c5a75a6102.md" r:id="rId3"/>
     <hyperlink ref="A4" display="70d2e4f3-9044-424f-b315-358cf7ddc94d.md" r:id="rId4"/>
     <hyperlink ref="A5" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId6"/>
+    <hyperlink ref="I5" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId6"/>
+    <hyperlink ref="A6" display="b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -842,14 +852,14 @@
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -922,7 +932,7 @@
         <v>43</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -972,7 +982,7 @@
         <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -1022,7 +1032,7 @@
         <v>43</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>17</v>
@@ -1072,19 +1082,19 @@
         <v>43</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
@@ -1099,7 +1109,7 @@
         <v>43</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -1122,7 +1132,7 @@
         <v>43</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>24</v>
@@ -1158,7 +1168,8 @@
     <hyperlink ref="A3" display="209c48c6-fc24-415d-a9e7-73c5a75a6102.md" r:id="rId3"/>
     <hyperlink ref="A4" display="70d2e4f3-9044-424f-b315-358cf7ddc94d.md" r:id="rId4"/>
     <hyperlink ref="A5" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId6"/>
+    <hyperlink ref="I5" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId6"/>
+    <hyperlink ref="A6" display="b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -76,16 +76,16 @@
     <t>e2e\a14b8ca5-f559-4148-9701-350adb07cd9e.md</t>
   </si>
   <si>
+    <t>2016-11-07 06:53:36</t>
+  </si>
+  <si>
+    <t>b7277af2-cbe8-4e42-9c08-0f7360d1714a.md</t>
+  </si>
+  <si>
+    <t>e2e\b7277af2-cbe8-4e42-9c08-0f7360d1714a.md</t>
+  </si>
+  <si>
     <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2016-11-07 06:53:36</t>
-  </si>
-  <si>
-    <t>b7277af2-cbe8-4e42-9c08-0f7360d1714a.md</t>
-  </si>
-  <si>
-    <t>e2e\b7277af2-cbe8-4e42-9c08-0f7360d1714a.md</t>
   </si>
   <si>
     <t>2016-11-07 06:51:08</t>
@@ -447,33 +447,33 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="F6" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>24</v>
@@ -728,7 +728,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>41</v>
@@ -772,13 +772,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>41</v>
@@ -1070,7 +1070,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>41</v>
@@ -1085,7 +1085,7 @@
         <v>60</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>18</v>
@@ -1114,13 +1114,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>41</v>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>File Name</t>
   </si>
@@ -91,6 +91,15 @@
     <t>2016-11-07 06:51:08</t>
   </si>
   <si>
+    <t>d90b8816-4b3a-47be-9bdf-38b007fe90ff.md</t>
+  </si>
+  <si>
+    <t>e2e\d90b8816-4b3a-47be-9bdf-38b007fe90ff.md</t>
+  </si>
+  <si>
+    <t>2016-11-07 06:56:18</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -187,6 +196,12 @@
     <t>2016-11-07 06:50:54</t>
   </si>
   <si>
+    <t>d90b8816-4b3a-47be-9bdf-38b007fe90ff.469eb875979ee048aaa47db77e61783c3208b67c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-07 06:56:03</t>
+  </si>
+  <si>
     <t>0c47f287-8800-41bb-bee0-29a00708bd1b.72e1fe1cec3bcedaeeab9741bf833b60eab3393e.de-de.xlf</t>
   </si>
   <si>
@@ -203,6 +218,9 @@
   </si>
   <si>
     <t>b7277af2-cbe8-4e42-9c08-0f7360d1714a.48151d32738d36ccf46c134c39835abf022fbe6c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>d90b8816-4b3a-47be-9bdf-38b007fe90ff.469eb875979ee048aaa47db77e61783c3208b67c.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -259,8 +277,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P6" headerRowCount="1">
-  <autoFilter ref="A1:P6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P7" headerRowCount="1">
+  <autoFilter ref="A1:P7"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -284,8 +302,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P6" headerRowCount="1">
-  <autoFilter ref="A1:P6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P7" headerRowCount="1">
+  <autoFilter ref="A1:P7"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -309,8 +327,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G6" headerRowCount="1">
-  <autoFilter ref="A1:G6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G7" headerRowCount="1">
+  <autoFilter ref="A1:G7"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -326,7 +344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -479,6 +497,29 @@
         <v>24</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\0c47f287-8800-41bb-bee0-29a00708bd1b.md" r:id="rId2"/>
@@ -486,6 +527,7 @@
     <hyperlink ref="B4" display="e2e\70d2e4f3-9044-424f-b315-358cf7ddc94d.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\d90b8816-4b3a-47be-9bdf-38b007fe90ff.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -496,7 +538,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -522,52 +564,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
@@ -581,19 +623,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -602,19 +644,19 @@
         <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -631,20 +673,20 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
@@ -652,19 +694,19 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -681,40 +723,40 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -731,43 +773,43 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -781,19 +823,19 @@
         <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -802,21 +844,71 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -828,6 +920,7 @@
     <hyperlink ref="A5" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId5"/>
     <hyperlink ref="I5" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId6"/>
     <hyperlink ref="A6" display="b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId7"/>
+    <hyperlink ref="A7" display="d90b8816-4b3a-47be-9bdf-38b007fe90ff.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -838,7 +931,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -864,52 +957,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
@@ -923,16 +1016,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -944,19 +1037,19 @@
         <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -973,16 +1066,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -994,19 +1087,19 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -1023,16 +1116,16 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>17</v>
@@ -1044,19 +1137,19 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1073,16 +1166,16 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>20</v>
@@ -1091,25 +1184,25 @@
         <v>18</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -1123,16 +1216,16 @@
         <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>24</v>
@@ -1144,21 +1237,71 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1170,6 +1313,7 @@
     <hyperlink ref="A5" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId5"/>
     <hyperlink ref="I5" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId6"/>
     <hyperlink ref="A6" display="b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId7"/>
+    <hyperlink ref="A7" display="d90b8816-4b3a-47be-9bdf-38b007fe90ff.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -79,6 +79,15 @@
     <t>2016-11-07 06:53:36</t>
   </si>
   <si>
+    <t>d90b8816-4b3a-47be-9bdf-38b007fe90ff.md</t>
+  </si>
+  <si>
+    <t>e2e\d90b8816-4b3a-47be-9bdf-38b007fe90ff.md</t>
+  </si>
+  <si>
+    <t>2016-11-07 06:56:18</t>
+  </si>
+  <si>
     <t>b7277af2-cbe8-4e42-9c08-0f7360d1714a.md</t>
   </si>
   <si>
@@ -91,15 +100,6 @@
     <t>2016-11-07 06:51:08</t>
   </si>
   <si>
-    <t>d90b8816-4b3a-47be-9bdf-38b007fe90ff.md</t>
-  </si>
-  <si>
-    <t>e2e\d90b8816-4b3a-47be-9bdf-38b007fe90ff.md</t>
-  </si>
-  <si>
-    <t>2016-11-07 06:56:18</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -190,18 +190,18 @@
     <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/dab2c4adb2271edb501907d3d10923f49d4f0af6/e2e/a14b8ca5-f559-4148-9701-350adb07cd9e.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/7100a5fa181df88894f3deac028304d24a80d08b/e2e/a14b8ca5-f559-4148-9701-350adb07cd9e.md.</t>
   </si>
   <si>
+    <t>d90b8816-4b3a-47be-9bdf-38b007fe90ff.469eb875979ee048aaa47db77e61783c3208b67c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-07 06:56:03</t>
+  </si>
+  <si>
     <t>b7277af2-cbe8-4e42-9c08-0f7360d1714a.48151d32738d36ccf46c134c39835abf022fbe6c.zh-cn.xlf</t>
   </si>
   <si>
     <t>2016-11-07 06:50:54</t>
   </si>
   <si>
-    <t>d90b8816-4b3a-47be-9bdf-38b007fe90ff.469eb875979ee048aaa47db77e61783c3208b67c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-07 06:56:03</t>
-  </si>
-  <si>
     <t>0c47f287-8800-41bb-bee0-29a00708bd1b.72e1fe1cec3bcedaeeab9741bf833b60eab3393e.de-de.xlf</t>
   </si>
   <si>
@@ -217,10 +217,10 @@
     <t>2016-11-07 06:54:42</t>
   </si>
   <si>
+    <t>d90b8816-4b3a-47be-9bdf-38b007fe90ff.469eb875979ee048aaa47db77e61783c3208b67c.de-de.xlf</t>
+  </si>
+  <si>
     <t>b7277af2-cbe8-4e42-9c08-0f7360d1714a.48151d32738d36ccf46c134c39835abf022fbe6c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>d90b8816-4b3a-47be-9bdf-38b007fe90ff.469eb875979ee048aaa47db77e61783c3208b67c.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -488,33 +488,33 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="F7" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>27</v>
@@ -526,8 +526,8 @@
     <hyperlink ref="B3" display="e2e\209c48c6-fc24-415d-a9e7-73c5a75a6102.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\70d2e4f3-9044-424f-b315-358cf7ddc94d.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\d90b8816-4b3a-47be-9bdf-38b007fe90ff.md" r:id="rId7"/>
+    <hyperlink ref="B6" display="e2e\d90b8816-4b3a-47be-9bdf-38b007fe90ff.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -820,7 +820,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>44</v>
@@ -864,13 +864,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>44</v>
@@ -919,8 +919,8 @@
     <hyperlink ref="A4" display="70d2e4f3-9044-424f-b315-358cf7ddc94d.md" r:id="rId4"/>
     <hyperlink ref="A5" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId5"/>
     <hyperlink ref="I5" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="d90b8816-4b3a-47be-9bdf-38b007fe90ff.md" r:id="rId8"/>
+    <hyperlink ref="A6" display="d90b8816-4b3a-47be-9bdf-38b007fe90ff.md" r:id="rId7"/>
+    <hyperlink ref="A7" display="b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1213,7 +1213,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>44</v>
@@ -1228,7 +1228,7 @@
         <v>67</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1257,13 +1257,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>44</v>
@@ -1312,8 +1312,8 @@
     <hyperlink ref="A4" display="70d2e4f3-9044-424f-b315-358cf7ddc94d.md" r:id="rId4"/>
     <hyperlink ref="A5" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId5"/>
     <hyperlink ref="I5" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="d90b8816-4b3a-47be-9bdf-38b007fe90ff.md" r:id="rId8"/>
+    <hyperlink ref="A6" display="d90b8816-4b3a-47be-9bdf-38b007fe90ff.md" r:id="rId7"/>
+    <hyperlink ref="A7" display="b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -79,25 +79,25 @@
     <t>2016-11-07 06:53:36</t>
   </si>
   <si>
+    <t>b7277af2-cbe8-4e42-9c08-0f7360d1714a.md</t>
+  </si>
+  <si>
+    <t>e2e\b7277af2-cbe8-4e42-9c08-0f7360d1714a.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-11-07 06:51:08</t>
+  </si>
+  <si>
     <t>d90b8816-4b3a-47be-9bdf-38b007fe90ff.md</t>
   </si>
   <si>
     <t>e2e\d90b8816-4b3a-47be-9bdf-38b007fe90ff.md</t>
   </si>
   <si>
-    <t>2016-11-07 06:56:18</t>
-  </si>
-  <si>
-    <t>b7277af2-cbe8-4e42-9c08-0f7360d1714a.md</t>
-  </si>
-  <si>
-    <t>e2e\b7277af2-cbe8-4e42-9c08-0f7360d1714a.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2016-11-07 06:51:08</t>
+    <t>2016-11-07 06:57:59</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -190,16 +190,16 @@
     <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/dab2c4adb2271edb501907d3d10923f49d4f0af6/e2e/a14b8ca5-f559-4148-9701-350adb07cd9e.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/7100a5fa181df88894f3deac028304d24a80d08b/e2e/a14b8ca5-f559-4148-9701-350adb07cd9e.md.</t>
   </si>
   <si>
+    <t>b7277af2-cbe8-4e42-9c08-0f7360d1714a.48151d32738d36ccf46c134c39835abf022fbe6c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-07 06:50:54</t>
+  </si>
+  <si>
     <t>d90b8816-4b3a-47be-9bdf-38b007fe90ff.469eb875979ee048aaa47db77e61783c3208b67c.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-11-07 06:56:03</t>
-  </si>
-  <si>
-    <t>b7277af2-cbe8-4e42-9c08-0f7360d1714a.48151d32738d36ccf46c134c39835abf022fbe6c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-07 06:50:54</t>
+    <t>2016-11-07 06:57:45</t>
   </si>
   <si>
     <t>0c47f287-8800-41bb-bee0-29a00708bd1b.72e1fe1cec3bcedaeeab9741bf833b60eab3393e.de-de.xlf</t>
@@ -217,10 +217,10 @@
     <t>2016-11-07 06:54:42</t>
   </si>
   <si>
+    <t>b7277af2-cbe8-4e42-9c08-0f7360d1714a.48151d32738d36ccf46c134c39835abf022fbe6c.de-de.xlf</t>
+  </si>
+  <si>
     <t>d90b8816-4b3a-47be-9bdf-38b007fe90ff.469eb875979ee048aaa47db77e61783c3208b67c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>b7277af2-cbe8-4e42-9c08-0f7360d1714a.48151d32738d36ccf46c134c39835abf022fbe6c.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -488,21 +488,21 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>9</v>
@@ -511,10 +511,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>27</v>
@@ -526,8 +526,8 @@
     <hyperlink ref="B3" display="e2e\209c48c6-fc24-415d-a9e7-73c5a75a6102.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\70d2e4f3-9044-424f-b315-358cf7ddc94d.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\d90b8816-4b3a-47be-9bdf-38b007fe90ff.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId7"/>
+    <hyperlink ref="B6" display="e2e\b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\d90b8816-4b3a-47be-9bdf-38b007fe90ff.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -820,7 +820,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>44</v>
@@ -864,13 +864,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>44</v>
@@ -919,8 +919,8 @@
     <hyperlink ref="A4" display="70d2e4f3-9044-424f-b315-358cf7ddc94d.md" r:id="rId4"/>
     <hyperlink ref="A5" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId5"/>
     <hyperlink ref="I5" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="d90b8816-4b3a-47be-9bdf-38b007fe90ff.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId8"/>
+    <hyperlink ref="A6" display="b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId7"/>
+    <hyperlink ref="A7" display="d90b8816-4b3a-47be-9bdf-38b007fe90ff.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1213,7 +1213,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>44</v>
@@ -1228,7 +1228,7 @@
         <v>67</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1257,13 +1257,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>44</v>
@@ -1312,8 +1312,8 @@
     <hyperlink ref="A4" display="70d2e4f3-9044-424f-b315-358cf7ddc94d.md" r:id="rId4"/>
     <hyperlink ref="A5" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId5"/>
     <hyperlink ref="I5" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="d90b8816-4b3a-47be-9bdf-38b007fe90ff.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId8"/>
+    <hyperlink ref="A6" display="b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId7"/>
+    <hyperlink ref="A7" display="d90b8816-4b3a-47be-9bdf-38b007fe90ff.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -79,6 +79,15 @@
     <t>2016-11-07 06:53:36</t>
   </si>
   <si>
+    <t>d90b8816-4b3a-47be-9bdf-38b007fe90ff.md</t>
+  </si>
+  <si>
+    <t>e2e\d90b8816-4b3a-47be-9bdf-38b007fe90ff.md</t>
+  </si>
+  <si>
+    <t>2016-11-07 06:58:48</t>
+  </si>
+  <si>
     <t>b7277af2-cbe8-4e42-9c08-0f7360d1714a.md</t>
   </si>
   <si>
@@ -91,15 +100,6 @@
     <t>2016-11-07 06:51:08</t>
   </si>
   <si>
-    <t>d90b8816-4b3a-47be-9bdf-38b007fe90ff.md</t>
-  </si>
-  <si>
-    <t>e2e\d90b8816-4b3a-47be-9bdf-38b007fe90ff.md</t>
-  </si>
-  <si>
-    <t>2016-11-07 06:57:59</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -190,18 +190,18 @@
     <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/dab2c4adb2271edb501907d3d10923f49d4f0af6/e2e/a14b8ca5-f559-4148-9701-350adb07cd9e.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/7100a5fa181df88894f3deac028304d24a80d08b/e2e/a14b8ca5-f559-4148-9701-350adb07cd9e.md.</t>
   </si>
   <si>
+    <t>d90b8816-4b3a-47be-9bdf-38b007fe90ff.469eb875979ee048aaa47db77e61783c3208b67c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-07 06:58:34</t>
+  </si>
+  <si>
     <t>b7277af2-cbe8-4e42-9c08-0f7360d1714a.48151d32738d36ccf46c134c39835abf022fbe6c.zh-cn.xlf</t>
   </si>
   <si>
     <t>2016-11-07 06:50:54</t>
   </si>
   <si>
-    <t>d90b8816-4b3a-47be-9bdf-38b007fe90ff.469eb875979ee048aaa47db77e61783c3208b67c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-07 06:57:45</t>
-  </si>
-  <si>
     <t>0c47f287-8800-41bb-bee0-29a00708bd1b.72e1fe1cec3bcedaeeab9741bf833b60eab3393e.de-de.xlf</t>
   </si>
   <si>
@@ -217,10 +217,10 @@
     <t>2016-11-07 06:54:42</t>
   </si>
   <si>
+    <t>d90b8816-4b3a-47be-9bdf-38b007fe90ff.469eb875979ee048aaa47db77e61783c3208b67c.de-de.xlf</t>
+  </si>
+  <si>
     <t>b7277af2-cbe8-4e42-9c08-0f7360d1714a.48151d32738d36ccf46c134c39835abf022fbe6c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>d90b8816-4b3a-47be-9bdf-38b007fe90ff.469eb875979ee048aaa47db77e61783c3208b67c.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -488,33 +488,33 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="F7" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>27</v>
@@ -526,8 +526,8 @@
     <hyperlink ref="B3" display="e2e\209c48c6-fc24-415d-a9e7-73c5a75a6102.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\70d2e4f3-9044-424f-b315-358cf7ddc94d.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\d90b8816-4b3a-47be-9bdf-38b007fe90ff.md" r:id="rId7"/>
+    <hyperlink ref="B6" display="e2e\d90b8816-4b3a-47be-9bdf-38b007fe90ff.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -820,7 +820,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>44</v>
@@ -864,13 +864,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>44</v>
@@ -919,8 +919,8 @@
     <hyperlink ref="A4" display="70d2e4f3-9044-424f-b315-358cf7ddc94d.md" r:id="rId4"/>
     <hyperlink ref="A5" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId5"/>
     <hyperlink ref="I5" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="d90b8816-4b3a-47be-9bdf-38b007fe90ff.md" r:id="rId8"/>
+    <hyperlink ref="A6" display="d90b8816-4b3a-47be-9bdf-38b007fe90ff.md" r:id="rId7"/>
+    <hyperlink ref="A7" display="b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1213,7 +1213,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>44</v>
@@ -1228,7 +1228,7 @@
         <v>67</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1257,13 +1257,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>44</v>
@@ -1312,8 +1312,8 @@
     <hyperlink ref="A4" display="70d2e4f3-9044-424f-b315-358cf7ddc94d.md" r:id="rId4"/>
     <hyperlink ref="A5" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId5"/>
     <hyperlink ref="I5" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="d90b8816-4b3a-47be-9bdf-38b007fe90ff.md" r:id="rId8"/>
+    <hyperlink ref="A6" display="d90b8816-4b3a-47be-9bdf-38b007fe90ff.md" r:id="rId7"/>
+    <hyperlink ref="A7" display="b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>File Name</t>
   </si>
@@ -88,15 +88,24 @@
     <t>2016-11-07 06:58:48</t>
   </si>
   <si>
+    <t>a76e6cba-593d-4816-ae50-60ba263a5476.md</t>
+  </si>
+  <si>
+    <t>e2e\a76e6cba-593d-4816-ae50-60ba263a5476.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-11-07 06:59:42</t>
+  </si>
+  <si>
     <t>b7277af2-cbe8-4e42-9c08-0f7360d1714a.md</t>
   </si>
   <si>
     <t>e2e\b7277af2-cbe8-4e42-9c08-0f7360d1714a.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>2016-11-07 06:51:08</t>
   </si>
   <si>
@@ -196,6 +205,12 @@
     <t>2016-11-07 06:58:34</t>
   </si>
   <si>
+    <t>a76e6cba-593d-4816-ae50-60ba263a5476.122c563cf74da4ac5e9e8723a49a6cbe539d49ba.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-07 06:59:29</t>
+  </si>
+  <si>
     <t>b7277af2-cbe8-4e42-9c08-0f7360d1714a.48151d32738d36ccf46c134c39835abf022fbe6c.zh-cn.xlf</t>
   </si>
   <si>
@@ -218,6 +233,9 @@
   </si>
   <si>
     <t>d90b8816-4b3a-47be-9bdf-38b007fe90ff.469eb875979ee048aaa47db77e61783c3208b67c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>a76e6cba-593d-4816-ae50-60ba263a5476.122c563cf74da4ac5e9e8723a49a6cbe539d49ba.de-de.xlf</t>
   </si>
   <si>
     <t>b7277af2-cbe8-4e42-9c08-0f7360d1714a.48151d32738d36ccf46c134c39835abf022fbe6c.de-de.xlf</t>
@@ -277,8 +295,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P7" headerRowCount="1">
-  <autoFilter ref="A1:P7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P8" headerRowCount="1">
+  <autoFilter ref="A1:P8"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -302,8 +320,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P7" headerRowCount="1">
-  <autoFilter ref="A1:P7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P8" headerRowCount="1">
+  <autoFilter ref="A1:P8"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -327,8 +345,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G7" headerRowCount="1">
-  <autoFilter ref="A1:G7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G8" headerRowCount="1">
+  <autoFilter ref="A1:G8"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -344,7 +362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -520,6 +538,29 @@
         <v>27</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\0c47f287-8800-41bb-bee0-29a00708bd1b.md" r:id="rId2"/>
@@ -527,7 +568,8 @@
     <hyperlink ref="B4" display="e2e\70d2e4f3-9044-424f-b315-358cf7ddc94d.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\d90b8816-4b3a-47be-9bdf-38b007fe90ff.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId7"/>
+    <hyperlink ref="B7" display="e2e\a76e6cba-593d-4816-ae50-60ba263a5476.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -538,7 +580,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -564,52 +606,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -623,19 +665,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -644,19 +686,19 @@
         <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -673,20 +715,20 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
@@ -694,19 +736,19 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -723,40 +765,40 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -773,43 +815,43 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -823,19 +865,19 @@
         <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -844,19 +886,19 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -873,19 +915,19 @@
         <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -894,21 +936,71 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -920,7 +1012,8 @@
     <hyperlink ref="A5" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId5"/>
     <hyperlink ref="I5" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId6"/>
     <hyperlink ref="A6" display="d90b8816-4b3a-47be-9bdf-38b007fe90ff.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="a76e6cba-593d-4816-ae50-60ba263a5476.md" r:id="rId8"/>
+    <hyperlink ref="A8" display="b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -931,7 +1024,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -957,52 +1050,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -1016,16 +1109,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1037,19 +1130,19 @@
         <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -1066,16 +1159,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -1087,19 +1180,19 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -1116,16 +1209,16 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>17</v>
@@ -1137,19 +1230,19 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1166,16 +1259,16 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>20</v>
@@ -1184,25 +1277,25 @@
         <v>18</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -1216,16 +1309,16 @@
         <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>23</v>
@@ -1237,19 +1330,19 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -1266,16 +1359,16 @@
         <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>27</v>
@@ -1287,21 +1380,71 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1313,7 +1456,8 @@
     <hyperlink ref="A5" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId5"/>
     <hyperlink ref="I5" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId6"/>
     <hyperlink ref="A6" display="d90b8816-4b3a-47be-9bdf-38b007fe90ff.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="a76e6cba-593d-4816-ae50-60ba263a5476.md" r:id="rId8"/>
+    <hyperlink ref="A8" display="b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>File Name</t>
   </si>
@@ -37,18 +37,30 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>a76e6cba-593d-4816-ae50-60ba263a5476.md</t>
+  </si>
+  <si>
+    <t>e2e\a76e6cba-593d-4816-ae50-60ba263a5476.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-11-07 06:59:42</t>
+  </si>
+  <si>
     <t>0c47f287-8800-41bb-bee0-29a00708bd1b.md</t>
   </si>
   <si>
     <t>e2e\0c47f287-8800-41bb-bee0-29a00708bd1b.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>In Translation</t>
   </si>
   <si>
@@ -88,24 +100,15 @@
     <t>2016-11-07 06:58:48</t>
   </si>
   <si>
-    <t>a76e6cba-593d-4816-ae50-60ba263a5476.md</t>
-  </si>
-  <si>
-    <t>e2e\a76e6cba-593d-4816-ae50-60ba263a5476.md</t>
+    <t>b7277af2-cbe8-4e42-9c08-0f7360d1714a.md</t>
+  </si>
+  <si>
+    <t>e2e\b7277af2-cbe8-4e42-9c08-0f7360d1714a.md</t>
   </si>
   <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-11-07 06:59:42</t>
-  </si>
-  <si>
-    <t>b7277af2-cbe8-4e42-9c08-0f7360d1714a.md</t>
-  </si>
-  <si>
-    <t>e2e\b7277af2-cbe8-4e42-9c08-0f7360d1714a.md</t>
-  </si>
-  <si>
     <t>2016-11-07 06:51:08</t>
   </si>
   <si>
@@ -166,6 +169,18 @@
     <t>False</t>
   </si>
   <si>
+    <t>a76e6cba-593d-4816-ae50-60ba263a5476.122c563cf74da4ac5e9e8723a49a6cbe539d49ba.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-07 06:59:29</t>
+  </si>
+  <si>
+    <t>2016-11-07 07:00:31</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>0c47f287-8800-41bb-bee0-29a00708bd1b.72e1fe1cec3bcedaeeab9741bf833b60eab3393e.zh-cn.xlf</t>
   </si>
   <si>
@@ -175,9 +190,6 @@
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>209c48c6-fc24-415d-a9e7-73c5a75a6102.a0c96fdd85379e67b198a784961a146d34f7c165.zh-cn.xlf</t>
   </si>
   <si>
@@ -205,18 +217,18 @@
     <t>2016-11-07 06:58:34</t>
   </si>
   <si>
-    <t>a76e6cba-593d-4816-ae50-60ba263a5476.122c563cf74da4ac5e9e8723a49a6cbe539d49ba.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-07 06:59:29</t>
-  </si>
-  <si>
     <t>b7277af2-cbe8-4e42-9c08-0f7360d1714a.48151d32738d36ccf46c134c39835abf022fbe6c.zh-cn.xlf</t>
   </si>
   <si>
     <t>2016-11-07 06:50:54</t>
   </si>
   <si>
+    <t>a76e6cba-593d-4816-ae50-60ba263a5476.122c563cf74da4ac5e9e8723a49a6cbe539d49ba.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-07 07:00:50</t>
+  </si>
+  <si>
     <t>0c47f287-8800-41bb-bee0-29a00708bd1b.72e1fe1cec3bcedaeeab9741bf833b60eab3393e.de-de.xlf</t>
   </si>
   <si>
@@ -233,9 +245,6 @@
   </si>
   <si>
     <t>d90b8816-4b3a-47be-9bdf-38b007fe90ff.469eb875979ee048aaa47db77e61783c3208b67c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>a76e6cba-593d-4816-ae50-60ba263a5476.122c563cf74da4ac5e9e8723a49a6cbe539d49ba.de-de.xlf</t>
   </si>
   <si>
     <t>b7277af2-cbe8-4e42-9c08-0f7360d1714a.48151d32738d36ccf46c134c39835abf022fbe6c.de-de.xlf</t>
@@ -372,8 +381,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -437,44 +446,44 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -483,21 +492,21 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -506,21 +515,21 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>9</v>
@@ -529,10 +538,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>27</v>
@@ -552,23 +561,23 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\0c47f287-8800-41bb-bee0-29a00708bd1b.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\209c48c6-fc24-415d-a9e7-73c5a75a6102.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\70d2e4f3-9044-424f-b315-358cf7ddc94d.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\d90b8816-4b3a-47be-9bdf-38b007fe90ff.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\a76e6cba-593d-4816-ae50-60ba263a5476.md" r:id="rId7"/>
+    <hyperlink ref="B2" display="e2e\a76e6cba-593d-4816-ae50-60ba263a5476.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\0c47f287-8800-41bb-bee0-29a00708bd1b.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\209c48c6-fc24-415d-a9e7-73c5a75a6102.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\70d2e4f3-9044-424f-b315-358cf7ddc94d.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\d90b8816-4b3a-47be-9bdf-38b007fe90ff.md" r:id="rId7"/>
     <hyperlink ref="B8" display="e2e\b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
@@ -588,7 +597,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -606,52 +615,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -665,40 +674,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -712,43 +721,43 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -756,25 +765,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>56</v>
@@ -786,19 +795,19 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -806,72 +815,72 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>61</v>
@@ -879,55 +888,55 @@
       <c r="H6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
+      <c r="I6" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -936,19 +945,19 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
@@ -962,22 +971,22 @@
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -986,19 +995,19 @@
         <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
@@ -1006,14 +1015,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="0c47f287-8800-41bb-bee0-29a00708bd1b.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="209c48c6-fc24-415d-a9e7-73c5a75a6102.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="70d2e4f3-9044-424f-b315-358cf7ddc94d.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId5"/>
-    <hyperlink ref="I5" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="d90b8816-4b3a-47be-9bdf-38b007fe90ff.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="a76e6cba-593d-4816-ae50-60ba263a5476.md" r:id="rId8"/>
-    <hyperlink ref="A8" display="b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="a76e6cba-593d-4816-ae50-60ba263a5476.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="a76e6cba-593d-4816-ae50-60ba263a5476.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="0c47f287-8800-41bb-bee0-29a00708bd1b.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="209c48c6-fc24-415d-a9e7-73c5a75a6102.md" r:id="rId5"/>
+    <hyperlink ref="A5" display="70d2e4f3-9044-424f-b315-358cf7ddc94d.md" r:id="rId6"/>
+    <hyperlink ref="A6" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId7"/>
+    <hyperlink ref="I6" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="d90b8816-4b3a-47be-9bdf-38b007fe90ff.md" r:id="rId9"/>
+    <hyperlink ref="A8" display="b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1032,7 +1042,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -1050,52 +1060,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -1109,40 +1119,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -1156,22 +1166,22 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -1180,19 +1190,19 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -1200,28 +1210,28 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -1230,19 +1240,19 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1250,125 +1260,125 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>27</v>
@@ -1380,19 +1390,19 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
@@ -1406,22 +1416,22 @@
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1430,19 +1440,19 @@
         <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
@@ -1450,14 +1460,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="0c47f287-8800-41bb-bee0-29a00708bd1b.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="209c48c6-fc24-415d-a9e7-73c5a75a6102.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="70d2e4f3-9044-424f-b315-358cf7ddc94d.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId5"/>
-    <hyperlink ref="I5" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="d90b8816-4b3a-47be-9bdf-38b007fe90ff.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="a76e6cba-593d-4816-ae50-60ba263a5476.md" r:id="rId8"/>
-    <hyperlink ref="A8" display="b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="a76e6cba-593d-4816-ae50-60ba263a5476.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="a76e6cba-593d-4816-ae50-60ba263a5476.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="0c47f287-8800-41bb-bee0-29a00708bd1b.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="209c48c6-fc24-415d-a9e7-73c5a75a6102.md" r:id="rId5"/>
+    <hyperlink ref="A5" display="70d2e4f3-9044-424f-b315-358cf7ddc94d.md" r:id="rId6"/>
+    <hyperlink ref="A6" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId7"/>
+    <hyperlink ref="I6" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="d90b8816-4b3a-47be-9bdf-38b007fe90ff.md" r:id="rId9"/>
+    <hyperlink ref="A8" display="b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>File Name</t>
   </si>
@@ -100,15 +100,24 @@
     <t>2016-11-07 06:58:48</t>
   </si>
   <si>
+    <t>7394c74c-cae0-442c-9973-bea43e8715e3.md</t>
+  </si>
+  <si>
+    <t>e2e\7394c74c-cae0-442c-9973-bea43e8715e3.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-11-07 07:02:06</t>
+  </si>
+  <si>
     <t>b7277af2-cbe8-4e42-9c08-0f7360d1714a.md</t>
   </si>
   <si>
     <t>e2e\b7277af2-cbe8-4e42-9c08-0f7360d1714a.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>2016-11-07 06:51:08</t>
   </si>
   <si>
@@ -217,6 +226,12 @@
     <t>2016-11-07 06:58:34</t>
   </si>
   <si>
+    <t>7394c74c-cae0-442c-9973-bea43e8715e3.82b8558eea1bb472f771b86eaef7fc66eef111ca.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-07 07:01:51</t>
+  </si>
+  <si>
     <t>b7277af2-cbe8-4e42-9c08-0f7360d1714a.48151d32738d36ccf46c134c39835abf022fbe6c.zh-cn.xlf</t>
   </si>
   <si>
@@ -245,6 +260,9 @@
   </si>
   <si>
     <t>d90b8816-4b3a-47be-9bdf-38b007fe90ff.469eb875979ee048aaa47db77e61783c3208b67c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>7394c74c-cae0-442c-9973-bea43e8715e3.82b8558eea1bb472f771b86eaef7fc66eef111ca.de-de.xlf</t>
   </si>
   <si>
     <t>b7277af2-cbe8-4e42-9c08-0f7360d1714a.48151d32738d36ccf46c134c39835abf022fbe6c.de-de.xlf</t>
@@ -304,8 +322,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P8" headerRowCount="1">
-  <autoFilter ref="A1:P8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P9" headerRowCount="1">
+  <autoFilter ref="A1:P9"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -329,8 +347,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P8" headerRowCount="1">
-  <autoFilter ref="A1:P8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P9" headerRowCount="1">
+  <autoFilter ref="A1:P9"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -354,8 +372,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G8" headerRowCount="1">
-  <autoFilter ref="A1:G8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G9" headerRowCount="1">
+  <autoFilter ref="A1:G9"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -371,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -570,6 +588,29 @@
         <v>31</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\a76e6cba-593d-4816-ae50-60ba263a5476.md" r:id="rId2"/>
@@ -578,7 +619,8 @@
     <hyperlink ref="B5" display="e2e\70d2e4f3-9044-424f-b315-358cf7ddc94d.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId6"/>
     <hyperlink ref="B7" display="e2e\d90b8816-4b3a-47be-9bdf-38b007fe90ff.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId8"/>
+    <hyperlink ref="B8" display="e2e\7394c74c-cae0-442c-9973-bea43e8715e3.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -589,7 +631,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -615,52 +657,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -674,40 +716,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -724,19 +766,19 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -745,19 +787,19 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -774,19 +816,19 @@
         <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -795,19 +837,19 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -824,40 +866,40 @@
         <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -874,43 +916,43 @@
         <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
@@ -924,19 +966,19 @@
         <v>15</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -945,19 +987,19 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="L7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
@@ -974,19 +1016,19 @@
         <v>30</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -995,21 +1037,71 @@
         <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="L8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="N8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1023,7 +1115,8 @@
     <hyperlink ref="A6" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId7"/>
     <hyperlink ref="I6" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId8"/>
     <hyperlink ref="A7" display="d90b8816-4b3a-47be-9bdf-38b007fe90ff.md" r:id="rId9"/>
-    <hyperlink ref="A8" display="b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId10"/>
+    <hyperlink ref="A8" display="7394c74c-cae0-442c-9973-bea43e8715e3.md" r:id="rId10"/>
+    <hyperlink ref="A9" display="b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1034,7 +1127,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1060,52 +1153,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -1119,16 +1212,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1137,22 +1230,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -1169,16 +1262,16 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
@@ -1190,19 +1283,19 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -1219,16 +1312,16 @@
         <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>16</v>
@@ -1240,19 +1333,19 @@
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1269,16 +1362,16 @@
         <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>21</v>
@@ -1290,19 +1383,19 @@
         <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -1319,16 +1412,16 @@
         <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>24</v>
@@ -1337,25 +1430,25 @@
         <v>22</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
@@ -1369,16 +1462,16 @@
         <v>15</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>27</v>
@@ -1390,19 +1483,19 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="L7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
@@ -1419,16 +1512,16 @@
         <v>30</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>31</v>
@@ -1440,21 +1533,71 @@
         <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="L8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="N8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1468,7 +1611,8 @@
     <hyperlink ref="A6" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId7"/>
     <hyperlink ref="I6" display="a14b8ca5-f559-4148-9701-350adb07cd9e.md" r:id="rId8"/>
     <hyperlink ref="A7" display="d90b8816-4b3a-47be-9bdf-38b007fe90ff.md" r:id="rId9"/>
-    <hyperlink ref="A8" display="b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId10"/>
+    <hyperlink ref="A8" display="7394c74c-cae0-442c-9973-bea43e8715e3.md" r:id="rId10"/>
+    <hyperlink ref="A9" display="b7277af2-cbe8-4e42-9c08-0f7360d1714a.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-11-09 10:34:58</t>
@@ -118,13 +118,16 @@
     <t>2016-11-09 10:34:35</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-11-09 10:35:37</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
     <t>d776a15b-3318-458f-8b3f-cfea753e3722.ee157fd339f6e56e19fd59a7c27df5bd54048765.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-09 10:35:57</t>
   </si>
 </sst>
 </file>
@@ -258,8 +261,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -330,14 +333,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -421,11 +424,11 @@
       <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>34</v>
@@ -449,6 +452,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="d776a15b-3318-458f-8b3f-cfea753e3722.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="d776a15b-3318-458f-8b3f-cfea753e3722.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -467,14 +471,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -558,14 +562,14 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -586,6 +590,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="d776a15b-3318-458f-8b3f-cfea753e3722.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="d776a15b-3318-458f-8b3f-cfea753e3722.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-11-09 10:40:53</t>
@@ -118,13 +118,16 @@
     <t>2016-11-09 10:40:35</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-11-09 10:42:43</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
     <t>14c5eaed-5d6a-401f-8390-6458a266a54d.e700243b4f973f6f0fba52dd76dfe2e7c8fe8655.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-09 10:43:02</t>
   </si>
 </sst>
 </file>
@@ -258,8 +261,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -330,14 +333,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -421,11 +424,11 @@
       <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>34</v>
@@ -449,6 +452,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="14c5eaed-5d6a-401f-8390-6458a266a54d.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="14c5eaed-5d6a-401f-8390-6458a266a54d.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -467,14 +471,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -558,14 +562,14 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -586,6 +590,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="14c5eaed-5d6a-401f-8390-6458a266a54d.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="14c5eaed-5d6a-401f-8390-6458a266a54d.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-11-09 10:47:02</t>
@@ -118,13 +118,16 @@
     <t>2016-11-09 10:46:43</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-11-09 10:53:31</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
     <t>1dc4552f-4109-4511-b3c0-35bc5bd32916.eef01d68377a84301fb70fd3fff53cd96e888a52.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-09 10:53:50</t>
   </si>
 </sst>
 </file>
@@ -258,8 +261,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -330,14 +333,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -421,11 +424,11 @@
       <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>34</v>
@@ -449,6 +452,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1dc4552f-4109-4511-b3c0-35bc5bd32916.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="1dc4552f-4109-4511-b3c0-35bc5bd32916.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -467,14 +471,14 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
@@ -558,14 +562,14 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
@@ -586,6 +590,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1dc4552f-4109-4511-b3c0-35bc5bd32916.md" r:id="rId2"/>
+    <hyperlink ref="I2" display="1dc4552f-4109-4511-b3c0-35bc5bd32916.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-11-10 03:53:57</t>
@@ -67,21 +67,6 @@
     <t>e2e\7f817965-000d-4c4c-85c2-fe768f7b99f0.md</t>
   </si>
   <si>
-    <t>cffd7c51-39c7-4d88-b2cd-e6e2f655e64c.png</t>
-  </si>
-  <si>
-    <t>e2e\cffd7c51-39c7-4d88-b2cd-e6e2f655e64c.png</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>2b2205e7-cf5b-445e-b2cc-773734e8cf19.png</t>
-  </si>
-  <si>
-    <t>e2e\2b2205e7-cf5b-445e-b2cc-773734e8cf19.png</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -145,7 +130,7 @@
     <t>2016-11-10 03:53:36</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-11-10 03:54:45</t>
   </si>
   <si>
     <t>True</t>
@@ -157,16 +142,10 @@
     <t>7f817965-000d-4c4c-85c2-fe768f7b99f0.8842299fe82adbbd970f98f9f729e43ce9e05076.zh-cn.xlf</t>
   </si>
   <si>
-    <t>38404b106f118f46a279b58facfa331a37e04cce.png</t>
-  </si>
-  <si>
-    <t>True(Dependency)</t>
-  </si>
-  <si>
-    <t>7bf39cc2cfec4c9236775490938c38aad1ac3b40.png</t>
-  </si>
-  <si>
     <t>1cf009b4-b7c0-4b66-b31f-1ed4a376164e.434e8aee7a17db618ca155cc0a703ba25d210799.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-10 03:55:05</t>
   </si>
   <si>
     <t>75dac912-eb42-48fe-80f4-6f90e433553f.a9665326d2fdd544c6f58ecf10832fe787ff6ccd.de-de.xlf</t>
@@ -229,8 +208,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P6" headerRowCount="1">
-  <autoFilter ref="A1:P6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P4" headerRowCount="1">
+  <autoFilter ref="A1:P4"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -254,8 +233,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P6" headerRowCount="1">
-  <autoFilter ref="A1:P6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P4" headerRowCount="1">
+  <autoFilter ref="A1:P4"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -279,8 +258,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G6" headerRowCount="1">
-  <autoFilter ref="A1:G6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -296,7 +275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -306,8 +285,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -403,59 +382,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\1cf009b4-b7c0-4b66-b31f-1ed4a376164e.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\75dac912-eb42-48fe-80f4-6f90e433553f.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\7f817965-000d-4c4c-85c2-fe768f7b99f0.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\cffd7c51-39c7-4d88-b2cd-e6e2f655e64c.png" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\2b2205e7-cf5b-445e-b2cc-773734e8cf19.png" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -466,7 +397,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -474,70 +405,70 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
-    <col min="13" max="13" width="17.7080821990967" customWidth="1"/>
-    <col min="14" max="14" width="40" customWidth="1"/>
+    <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
+    <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
     <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -551,40 +482,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -601,40 +532,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -651,152 +582,53 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1cf009b4-b7c0-4b66-b31f-1ed4a376164e.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="75dac912-eb42-48fe-80f4-6f90e433553f.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="7f817965-000d-4c4c-85c2-fe768f7b99f0.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="cffd7c51-39c7-4d88-b2cd-e6e2f655e64c.png" r:id="rId5"/>
-    <hyperlink ref="A6" display="2b2205e7-cf5b-445e-b2cc-773734e8cf19.png" r:id="rId6"/>
+    <hyperlink ref="I2" display="1cf009b4-b7c0-4b66-b31f-1ed4a376164e.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="75dac912-eb42-48fe-80f4-6f90e433553f.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="75dac912-eb42-48fe-80f4-6f90e433553f.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="7f817965-000d-4c4c-85c2-fe768f7b99f0.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="7f817965-000d-4c4c-85c2-fe768f7b99f0.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -807,7 +639,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -815,70 +647,70 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
-    <col min="13" max="13" width="17.7080821990967" customWidth="1"/>
-    <col min="14" max="14" width="40" customWidth="1"/>
+    <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
+    <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
     <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -892,25 +724,25 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>43</v>
@@ -919,13 +751,13 @@
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -942,25 +774,25 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>43</v>
@@ -969,13 +801,13 @@
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -992,25 +824,25 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>43</v>
@@ -1019,125 +851,26 @@
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1cf009b4-b7c0-4b66-b31f-1ed4a376164e.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="75dac912-eb42-48fe-80f4-6f90e433553f.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="7f817965-000d-4c4c-85c2-fe768f7b99f0.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="cffd7c51-39c7-4d88-b2cd-e6e2f655e64c.png" r:id="rId5"/>
-    <hyperlink ref="A6" display="2b2205e7-cf5b-445e-b2cc-773734e8cf19.png" r:id="rId6"/>
+    <hyperlink ref="I2" display="1cf009b4-b7c0-4b66-b31f-1ed4a376164e.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="75dac912-eb42-48fe-80f4-6f90e433553f.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="75dac912-eb42-48fe-80f4-6f90e433553f.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="7f817965-000d-4c4c-85c2-fe768f7b99f0.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="7f817965-000d-4c4c-85c2-fe768f7b99f0.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-11-10 04:05:17</t>
@@ -67,21 +67,6 @@
     <t>e2e\5aea49fd-a402-48e5-a9ab-e68b0d2d87dd.md</t>
   </si>
   <si>
-    <t>6e56fb67-ae16-440e-8f80-c8231fac804f.png</t>
-  </si>
-  <si>
-    <t>e2e\6e56fb67-ae16-440e-8f80-c8231fac804f.png</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>2e4a13e2-bb19-431e-9c54-fdd23141bc6c.png</t>
-  </si>
-  <si>
-    <t>e2e\2e4a13e2-bb19-431e-9c54-fdd23141bc6c.png</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -145,7 +130,7 @@
     <t>2016-11-10 04:04:55</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-11-10 04:06:02</t>
   </si>
   <si>
     <t>True</t>
@@ -157,16 +142,10 @@
     <t>5aea49fd-a402-48e5-a9ab-e68b0d2d87dd.821de2377779368424cae0c28ffdfdae02111281.zh-cn.xlf</t>
   </si>
   <si>
-    <t>c835c1b08a9715dfef271d54343be2e4c83c687a.png</t>
-  </si>
-  <si>
-    <t>True(Dependency)</t>
-  </si>
-  <si>
-    <t>9e0776f45ae4cc2ea07bd5befd9b9d5e759b6d23.png</t>
-  </si>
-  <si>
     <t>4c4220d4-b6a1-432f-9f97-96170e9328ff.de1b01bfd96add22b4c499015c3e395b43ee7fde.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-10 04:06:22</t>
   </si>
   <si>
     <t>58401111-ec19-440a-8e29-b735a67a6513.2161de84ba5fd60a572cb67a0d547b42879ac956.de-de.xlf</t>
@@ -229,8 +208,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P6" headerRowCount="1">
-  <autoFilter ref="A1:P6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P4" headerRowCount="1">
+  <autoFilter ref="A1:P4"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -254,8 +233,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P6" headerRowCount="1">
-  <autoFilter ref="A1:P6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P4" headerRowCount="1">
+  <autoFilter ref="A1:P4"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -279,8 +258,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G6" headerRowCount="1">
-  <autoFilter ref="A1:G6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -296,7 +275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -306,8 +285,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -403,59 +382,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\4c4220d4-b6a1-432f-9f97-96170e9328ff.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\58401111-ec19-440a-8e29-b735a67a6513.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\5aea49fd-a402-48e5-a9ab-e68b0d2d87dd.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\6e56fb67-ae16-440e-8f80-c8231fac804f.png" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\2e4a13e2-bb19-431e-9c54-fdd23141bc6c.png" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -466,7 +397,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -474,70 +405,70 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
-    <col min="13" max="13" width="17.7080821990967" customWidth="1"/>
-    <col min="14" max="14" width="40" customWidth="1"/>
+    <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
+    <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
     <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -551,40 +482,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -601,40 +532,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -651,152 +582,53 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="4c4220d4-b6a1-432f-9f97-96170e9328ff.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="58401111-ec19-440a-8e29-b735a67a6513.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="5aea49fd-a402-48e5-a9ab-e68b0d2d87dd.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="6e56fb67-ae16-440e-8f80-c8231fac804f.png" r:id="rId5"/>
-    <hyperlink ref="A6" display="2e4a13e2-bb19-431e-9c54-fdd23141bc6c.png" r:id="rId6"/>
+    <hyperlink ref="I2" display="4c4220d4-b6a1-432f-9f97-96170e9328ff.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="58401111-ec19-440a-8e29-b735a67a6513.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="58401111-ec19-440a-8e29-b735a67a6513.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="5aea49fd-a402-48e5-a9ab-e68b0d2d87dd.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="5aea49fd-a402-48e5-a9ab-e68b0d2d87dd.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -807,7 +639,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -815,70 +647,70 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
-    <col min="13" max="13" width="17.7080821990967" customWidth="1"/>
-    <col min="14" max="14" width="40" customWidth="1"/>
+    <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
+    <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
     <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -892,25 +724,25 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>43</v>
@@ -919,13 +751,13 @@
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -942,25 +774,25 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>43</v>
@@ -969,13 +801,13 @@
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -992,25 +824,25 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>43</v>
@@ -1019,125 +851,26 @@
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="4c4220d4-b6a1-432f-9f97-96170e9328ff.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="58401111-ec19-440a-8e29-b735a67a6513.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="5aea49fd-a402-48e5-a9ab-e68b0d2d87dd.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="6e56fb67-ae16-440e-8f80-c8231fac804f.png" r:id="rId5"/>
-    <hyperlink ref="A6" display="2e4a13e2-bb19-431e-9c54-fdd23141bc6c.png" r:id="rId6"/>
+    <hyperlink ref="I2" display="4c4220d4-b6a1-432f-9f97-96170e9328ff.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="58401111-ec19-440a-8e29-b735a67a6513.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="58401111-ec19-440a-8e29-b735a67a6513.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="5aea49fd-a402-48e5-a9ab-e68b0d2d87dd.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="5aea49fd-a402-48e5-a9ab-e68b0d2d87dd.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-11-10 05:59:01</t>
@@ -67,21 +67,6 @@
     <t>e2e\f9b2a795-e97e-4a71-980a-c451661e00a3.md</t>
   </si>
   <si>
-    <t>1e1e8418-225c-48d2-80b3-a0f0729abb08.png</t>
-  </si>
-  <si>
-    <t>e2e\1e1e8418-225c-48d2-80b3-a0f0729abb08.png</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>055c4190-2e0b-4dd5-b504-a24a1a6e1c79.png</t>
-  </si>
-  <si>
-    <t>e2e\055c4190-2e0b-4dd5-b504-a24a1a6e1c79.png</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -145,7 +130,7 @@
     <t>2016-11-10 05:58:37</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-11-10 05:59:40</t>
   </si>
   <si>
     <t>True</t>
@@ -157,16 +142,10 @@
     <t>f9b2a795-e97e-4a71-980a-c451661e00a3.42e39c0736310f0f680e17bfd9e5b3ce5662c71e.zh-cn.xlf</t>
   </si>
   <si>
-    <t>85c1fc19f9c61cdeff8b7b5426a73ff84b48ae7c.png</t>
-  </si>
-  <si>
-    <t>True(Dependency)</t>
-  </si>
-  <si>
-    <t>986e7861070965dad4dd290c168d6101d307427c.png</t>
-  </si>
-  <si>
     <t>4ef90370-7590-44e9-836d-12c43740e87d.6c11e04ed08baaa4cffc4ef4e667829c51374016.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-10 06:00:00</t>
   </si>
   <si>
     <t>68afe4e8-b8f2-4f1d-8221-b2efca81ee5c.8a26ff33ed7c1f0054e8a62003fb1ac0bf89dcca.de-de.xlf</t>
@@ -229,8 +208,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P6" headerRowCount="1">
-  <autoFilter ref="A1:P6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P4" headerRowCount="1">
+  <autoFilter ref="A1:P4"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -254,8 +233,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P6" headerRowCount="1">
-  <autoFilter ref="A1:P6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P4" headerRowCount="1">
+  <autoFilter ref="A1:P4"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -279,8 +258,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G6" headerRowCount="1">
-  <autoFilter ref="A1:G6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -296,7 +275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -306,8 +285,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -403,59 +382,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\4ef90370-7590-44e9-836d-12c43740e87d.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\68afe4e8-b8f2-4f1d-8221-b2efca81ee5c.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\f9b2a795-e97e-4a71-980a-c451661e00a3.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\1e1e8418-225c-48d2-80b3-a0f0729abb08.png" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\055c4190-2e0b-4dd5-b504-a24a1a6e1c79.png" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -466,7 +397,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -474,70 +405,70 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
-    <col min="13" max="13" width="17.7080821990967" customWidth="1"/>
-    <col min="14" max="14" width="40" customWidth="1"/>
+    <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
+    <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
     <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -551,40 +482,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -601,40 +532,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -651,152 +582,53 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="4ef90370-7590-44e9-836d-12c43740e87d.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="68afe4e8-b8f2-4f1d-8221-b2efca81ee5c.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="f9b2a795-e97e-4a71-980a-c451661e00a3.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="1e1e8418-225c-48d2-80b3-a0f0729abb08.png" r:id="rId5"/>
-    <hyperlink ref="A6" display="055c4190-2e0b-4dd5-b504-a24a1a6e1c79.png" r:id="rId6"/>
+    <hyperlink ref="I2" display="4ef90370-7590-44e9-836d-12c43740e87d.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="68afe4e8-b8f2-4f1d-8221-b2efca81ee5c.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="68afe4e8-b8f2-4f1d-8221-b2efca81ee5c.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="f9b2a795-e97e-4a71-980a-c451661e00a3.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="f9b2a795-e97e-4a71-980a-c451661e00a3.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -807,7 +639,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -815,70 +647,70 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
-    <col min="13" max="13" width="17.7080821990967" customWidth="1"/>
-    <col min="14" max="14" width="40" customWidth="1"/>
+    <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
+    <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
     <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -892,25 +724,25 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>43</v>
@@ -919,13 +751,13 @@
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -942,25 +774,25 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>43</v>
@@ -969,13 +801,13 @@
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -992,25 +824,25 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>43</v>
@@ -1019,125 +851,26 @@
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="4ef90370-7590-44e9-836d-12c43740e87d.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="68afe4e8-b8f2-4f1d-8221-b2efca81ee5c.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="f9b2a795-e97e-4a71-980a-c451661e00a3.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="1e1e8418-225c-48d2-80b3-a0f0729abb08.png" r:id="rId5"/>
-    <hyperlink ref="A6" display="055c4190-2e0b-4dd5-b504-a24a1a6e1c79.png" r:id="rId6"/>
+    <hyperlink ref="I2" display="4ef90370-7590-44e9-836d-12c43740e87d.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="68afe4e8-b8f2-4f1d-8221-b2efca81ee5c.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="68afe4e8-b8f2-4f1d-8221-b2efca81ee5c.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="f9b2a795-e97e-4a71-980a-c451661e00a3.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="f9b2a795-e97e-4a71-980a-c451661e00a3.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-11-10 06:20:05</t>
@@ -67,21 +67,6 @@
     <t>e2e\71d9f00b-57d1-4d98-827f-b0bf53ab7d84.md</t>
   </si>
   <si>
-    <t>46651fc3-d82d-431c-bc8d-e5afc0db240c.png</t>
-  </si>
-  <si>
-    <t>e2e\46651fc3-d82d-431c-bc8d-e5afc0db240c.png</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>0ae75d13-867e-4880-93fa-ae6e8fefa0cd.png</t>
-  </si>
-  <si>
-    <t>e2e\0ae75d13-867e-4880-93fa-ae6e8fefa0cd.png</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -145,7 +130,7 @@
     <t>2016-11-10 06:19:47</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-11-10 06:23:04</t>
   </si>
   <si>
     <t>True</t>
@@ -157,16 +142,10 @@
     <t>71d9f00b-57d1-4d98-827f-b0bf53ab7d84.7c5320f0a9d4b5dcdb71082f5ee13bff2b92a28a.zh-cn.xlf</t>
   </si>
   <si>
-    <t>ff911d9991e1adae8a57e609c6cbac79dc2d3d32.png</t>
-  </si>
-  <si>
-    <t>True(Dependency)</t>
-  </si>
-  <si>
-    <t>22e69f6c0c9f2e3159f404fd235d145dc40066ef.png</t>
-  </si>
-  <si>
     <t>051aaeb4-9ddd-4111-a911-a0fd2d87e6a3.f4a290bd52689230851177187d584adc3ae316ca.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-10 06:23:25</t>
   </si>
   <si>
     <t>5a780037-518b-4a4c-b866-7c9df15d87e0.34b701b273082f1303d397a4204d9990bdf25886.de-de.xlf</t>
@@ -229,8 +208,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P6" headerRowCount="1">
-  <autoFilter ref="A1:P6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P4" headerRowCount="1">
+  <autoFilter ref="A1:P4"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -254,8 +233,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P6" headerRowCount="1">
-  <autoFilter ref="A1:P6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P4" headerRowCount="1">
+  <autoFilter ref="A1:P4"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -279,8 +258,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G6" headerRowCount="1">
-  <autoFilter ref="A1:G6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -296,7 +275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -306,8 +285,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -403,59 +382,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\051aaeb4-9ddd-4111-a911-a0fd2d87e6a3.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\5a780037-518b-4a4c-b866-7c9df15d87e0.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\71d9f00b-57d1-4d98-827f-b0bf53ab7d84.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\46651fc3-d82d-431c-bc8d-e5afc0db240c.png" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\0ae75d13-867e-4880-93fa-ae6e8fefa0cd.png" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -466,7 +397,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -474,70 +405,70 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
-    <col min="13" max="13" width="17.7080821990967" customWidth="1"/>
-    <col min="14" max="14" width="40" customWidth="1"/>
+    <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
+    <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
     <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -551,40 +482,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -601,40 +532,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -651,152 +582,53 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="051aaeb4-9ddd-4111-a911-a0fd2d87e6a3.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="5a780037-518b-4a4c-b866-7c9df15d87e0.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="71d9f00b-57d1-4d98-827f-b0bf53ab7d84.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="46651fc3-d82d-431c-bc8d-e5afc0db240c.png" r:id="rId5"/>
-    <hyperlink ref="A6" display="0ae75d13-867e-4880-93fa-ae6e8fefa0cd.png" r:id="rId6"/>
+    <hyperlink ref="I2" display="051aaeb4-9ddd-4111-a911-a0fd2d87e6a3.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="5a780037-518b-4a4c-b866-7c9df15d87e0.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="5a780037-518b-4a4c-b866-7c9df15d87e0.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="71d9f00b-57d1-4d98-827f-b0bf53ab7d84.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="71d9f00b-57d1-4d98-827f-b0bf53ab7d84.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -807,7 +639,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -815,70 +647,70 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
-    <col min="13" max="13" width="17.7080821990967" customWidth="1"/>
-    <col min="14" max="14" width="40" customWidth="1"/>
+    <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
+    <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
     <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -892,25 +724,25 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>43</v>
@@ -919,13 +751,13 @@
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -942,25 +774,25 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>43</v>
@@ -969,13 +801,13 @@
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -992,25 +824,25 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>43</v>
@@ -1019,125 +851,26 @@
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="051aaeb4-9ddd-4111-a911-a0fd2d87e6a3.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="5a780037-518b-4a4c-b866-7c9df15d87e0.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="71d9f00b-57d1-4d98-827f-b0bf53ab7d84.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="46651fc3-d82d-431c-bc8d-e5afc0db240c.png" r:id="rId5"/>
-    <hyperlink ref="A6" display="0ae75d13-867e-4880-93fa-ae6e8fefa0cd.png" r:id="rId6"/>
+    <hyperlink ref="I2" display="051aaeb4-9ddd-4111-a911-a0fd2d87e6a3.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="5a780037-518b-4a4c-b866-7c9df15d87e0.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="5a780037-518b-4a4c-b866-7c9df15d87e0.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="71d9f00b-57d1-4d98-827f-b0bf53ab7d84.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="71d9f00b-57d1-4d98-827f-b0bf53ab7d84.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-11-10 06:38:00</t>
@@ -67,21 +67,6 @@
     <t>e2e\f7c573b5-210d-4457-aa12-dc21f8919674.md</t>
   </si>
   <si>
-    <t>925cea4e-b7af-4ba3-9d7b-f1a0aea8e0a7.png</t>
-  </si>
-  <si>
-    <t>e2e\925cea4e-b7af-4ba3-9d7b-f1a0aea8e0a7.png</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>7a285476-1239-4f37-bbcb-b0733c97d9c2.png</t>
-  </si>
-  <si>
-    <t>e2e\7a285476-1239-4f37-bbcb-b0733c97d9c2.png</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -145,7 +130,7 @@
     <t>2016-11-10 06:37:44</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2016-11-10 06:38:45</t>
   </si>
   <si>
     <t>True</t>
@@ -157,16 +142,10 @@
     <t>f7c573b5-210d-4457-aa12-dc21f8919674.d6f208215f56a17dee6da6ad79bf48a190ab8437.zh-cn.xlf</t>
   </si>
   <si>
-    <t>b825cd5b3a80bbff46513219541bb97b3919c298.png</t>
-  </si>
-  <si>
-    <t>True(Dependency)</t>
-  </si>
-  <si>
-    <t>25f931f43d712a6c2de0ca828f19f4a945dd49e1.png</t>
-  </si>
-  <si>
     <t>4b740145-cd67-40db-9228-17010fb6e6a3.a1ec94b669a323d09edde52cc75af337817abe04.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-10 06:39:05</t>
   </si>
   <si>
     <t>54f9528b-44ec-45a5-9ec9-d8b507c5d970.5c71ea2abc32ae69a38c3bfdadb4327bc2f798b1.de-de.xlf</t>
@@ -229,8 +208,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P6" headerRowCount="1">
-  <autoFilter ref="A1:P6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P4" headerRowCount="1">
+  <autoFilter ref="A1:P4"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -254,8 +233,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P6" headerRowCount="1">
-  <autoFilter ref="A1:P6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P4" headerRowCount="1">
+  <autoFilter ref="A1:P4"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -279,8 +258,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G6" headerRowCount="1">
-  <autoFilter ref="A1:G6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -296,7 +275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -306,8 +285,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -403,59 +382,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\4b740145-cd67-40db-9228-17010fb6e6a3.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\925cea4e-b7af-4ba3-9d7b-f1a0aea8e0a7.png" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\7a285476-1239-4f37-bbcb-b0733c97d9c2.png" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -466,7 +397,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -474,70 +405,70 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
-    <col min="13" max="13" width="17.7080821990967" customWidth="1"/>
-    <col min="14" max="14" width="40" customWidth="1"/>
+    <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
+    <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
     <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -551,40 +482,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -601,40 +532,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -651,152 +582,53 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="4b740145-cd67-40db-9228-17010fb6e6a3.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="925cea4e-b7af-4ba3-9d7b-f1a0aea8e0a7.png" r:id="rId5"/>
-    <hyperlink ref="A6" display="7a285476-1239-4f37-bbcb-b0733c97d9c2.png" r:id="rId6"/>
+    <hyperlink ref="I2" display="4b740145-cd67-40db-9228-17010fb6e6a3.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -807,7 +639,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -815,70 +647,70 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="18.6506061553955" customWidth="1"/>
-    <col min="10" max="10" width="21.7054767608643" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
-    <col min="13" max="13" width="17.7080821990967" customWidth="1"/>
-    <col min="14" max="14" width="40" customWidth="1"/>
+    <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
+    <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
     <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -892,25 +724,25 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>43</v>
@@ -919,13 +751,13 @@
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -942,25 +774,25 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>43</v>
@@ -969,13 +801,13 @@
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -992,25 +824,25 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>43</v>
@@ -1019,125 +851,26 @@
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="4b740145-cd67-40db-9228-17010fb6e6a3.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="925cea4e-b7af-4ba3-9d7b-f1a0aea8e0a7.png" r:id="rId5"/>
-    <hyperlink ref="A6" display="7a285476-1239-4f37-bbcb-b0733c97d9c2.png" r:id="rId6"/>
+    <hyperlink ref="I2" display="4b740145-cd67-40db-9228-17010fb6e6a3.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>File Name</t>
   </si>
@@ -55,16 +55,31 @@
     <t>2016-11-10 06:38:00</t>
   </si>
   <si>
+    <t>f7c573b5-210d-4457-aa12-dc21f8919674.md</t>
+  </si>
+  <si>
+    <t>e2e\f7c573b5-210d-4457-aa12-dc21f8919674.md</t>
+  </si>
+  <si>
+    <t>925cea4e-b7af-4ba3-9d7b-f1a0aea8e0a7.png</t>
+  </si>
+  <si>
+    <t>e2e\925cea4e-b7af-4ba3-9d7b-f1a0aea8e0a7.png</t>
+  </si>
+  <si>
+    <t>.png</t>
+  </si>
+  <si>
     <t>54f9528b-44ec-45a5-9ec9-d8b507c5d970.md</t>
   </si>
   <si>
     <t>e2e\54f9528b-44ec-45a5-9ec9-d8b507c5d970.md</t>
   </si>
   <si>
-    <t>f7c573b5-210d-4457-aa12-dc21f8919674.md</t>
-  </si>
-  <si>
-    <t>e2e\f7c573b5-210d-4457-aa12-dc21f8919674.md</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-11-10 06:40:08</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -136,10 +151,22 @@
     <t>True</t>
   </si>
   <si>
+    <t>f7c573b5-210d-4457-aa12-dc21f8919674.d6f208215f56a17dee6da6ad79bf48a190ab8437.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>b825cd5b3a80bbff46513219541bb97b3919c298.png</t>
+  </si>
+  <si>
+    <t>True(Dependency)</t>
+  </si>
+  <si>
     <t>54f9528b-44ec-45a5-9ec9-d8b507c5d970.5c71ea2abc32ae69a38c3bfdadb4327bc2f798b1.zh-cn.xlf</t>
   </si>
   <si>
-    <t>f7c573b5-210d-4457-aa12-dc21f8919674.d6f208215f56a17dee6da6ad79bf48a190ab8437.zh-cn.xlf</t>
+    <t>2016-11-10 06:39:53</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/d0ea60244a7b1ec7d192c57cd9e5cb447e8e75ef/e2e/54f9528b-44ec-45a5-9ec9-d8b507c5d970.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/ea508b2f7232a3c58379e23b6fed937238b94264/e2e/54f9528b-44ec-45a5-9ec9-d8b507c5d970.md.</t>
   </si>
   <si>
     <t>4b740145-cd67-40db-9228-17010fb6e6a3.a1ec94b669a323d09edde52cc75af337817abe04.de-de.xlf</t>
@@ -148,10 +175,10 @@
     <t>2016-11-10 06:39:05</t>
   </si>
   <si>
+    <t>f7c573b5-210d-4457-aa12-dc21f8919674.d6f208215f56a17dee6da6ad79bf48a190ab8437.de-de.xlf</t>
+  </si>
+  <si>
     <t>54f9528b-44ec-45a5-9ec9-d8b507c5d970.5c71ea2abc32ae69a38c3bfdadb4327bc2f798b1.de-de.xlf</t>
-  </si>
-  <si>
-    <t>f7c573b5-210d-4457-aa12-dc21f8919674.d6f208215f56a17dee6da6ad79bf48a190ab8437.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -208,8 +235,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P4" headerRowCount="1">
-  <autoFilter ref="A1:P4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P5" headerRowCount="1">
+  <autoFilter ref="A1:P5"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -233,8 +260,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P4" headerRowCount="1">
-  <autoFilter ref="A1:P4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P5" headerRowCount="1">
+  <autoFilter ref="A1:P5"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -258,8 +285,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
-  <autoFilter ref="A1:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G5" headerRowCount="1">
+  <autoFilter ref="A1:G5"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -275,7 +302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -367,7 +394,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>10</v>
@@ -380,13 +407,37 @@
       </c>
       <c r="G4" s="2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\4b740145-cd67-40db-9228-17010fb6e6a3.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId4"/>
+    <hyperlink ref="B3" display="e2e\f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\925cea4e-b7af-4ba3-9d7b-f1a0aea8e0a7.png" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -397,7 +448,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,60 +466,60 @@
     <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
-    <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
-    <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
+    <col min="13" max="13" width="17.7080821990967" customWidth="1"/>
+    <col min="14" max="14" width="40" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -482,40 +533,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -532,40 +583,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -576,59 +627,111 @@
         <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>10</v>
+      <c r="F5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="4b740145-cd67-40db-9228-17010fb6e6a3.md" r:id="rId2"/>
     <hyperlink ref="I2" display="4b740145-cd67-40db-9228-17010fb6e6a3.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId7"/>
+    <hyperlink ref="A3" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="925cea4e-b7af-4ba3-9d7b-f1a0aea8e0a7.png" r:id="rId6"/>
+    <hyperlink ref="I4" display="925cea4e-b7af-4ba3-9d7b-f1a0aea8e0a7.png" r:id="rId7"/>
+    <hyperlink ref="A5" display="54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId8"/>
+    <hyperlink ref="I5" display="54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -639,7 +742,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -657,60 +760,60 @@
     <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
-    <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
-    <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
+    <col min="13" max="13" width="17.7080821990967" customWidth="1"/>
+    <col min="14" max="14" width="40" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -724,16 +827,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -742,22 +845,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -774,16 +877,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -792,22 +895,22 @@
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -818,22 +921,22 @@
         <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
@@ -842,35 +945,87 @@
         <v>15</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>10</v>
+      <c r="F5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="4b740145-cd67-40db-9228-17010fb6e6a3.md" r:id="rId2"/>
     <hyperlink ref="I2" display="4b740145-cd67-40db-9228-17010fb6e6a3.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId7"/>
+    <hyperlink ref="A3" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="925cea4e-b7af-4ba3-9d7b-f1a0aea8e0a7.png" r:id="rId6"/>
+    <hyperlink ref="I4" display="925cea4e-b7af-4ba3-9d7b-f1a0aea8e0a7.png" r:id="rId7"/>
+    <hyperlink ref="A5" display="54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId8"/>
+    <hyperlink ref="I5" display="54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>File Name</t>
   </si>
@@ -55,33 +55,21 @@
     <t>2016-11-10 06:38:00</t>
   </si>
   <si>
+    <t>54f9528b-44ec-45a5-9ec9-d8b507c5d970.md</t>
+  </si>
+  <si>
+    <t>e2e\54f9528b-44ec-45a5-9ec9-d8b507c5d970.md</t>
+  </si>
+  <si>
+    <t>2016-11-10 06:40:08</t>
+  </si>
+  <si>
     <t>f7c573b5-210d-4457-aa12-dc21f8919674.md</t>
   </si>
   <si>
     <t>e2e\f7c573b5-210d-4457-aa12-dc21f8919674.md</t>
   </si>
   <si>
-    <t>925cea4e-b7af-4ba3-9d7b-f1a0aea8e0a7.png</t>
-  </si>
-  <si>
-    <t>e2e\925cea4e-b7af-4ba3-9d7b-f1a0aea8e0a7.png</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>54f9528b-44ec-45a5-9ec9-d8b507c5d970.md</t>
-  </si>
-  <si>
-    <t>e2e\54f9528b-44ec-45a5-9ec9-d8b507c5d970.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2016-11-10 06:40:08</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -151,34 +139,31 @@
     <t>True</t>
   </si>
   <si>
+    <t>54f9528b-44ec-45a5-9ec9-d8b507c5d970.5c71ea2abc32ae69a38c3bfdadb4327bc2f798b1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-10 06:39:53</t>
+  </si>
+  <si>
+    <t>2016-11-10 06:40:46</t>
+  </si>
+  <si>
     <t>f7c573b5-210d-4457-aa12-dc21f8919674.d6f208215f56a17dee6da6ad79bf48a190ab8437.zh-cn.xlf</t>
   </si>
   <si>
-    <t>b825cd5b3a80bbff46513219541bb97b3919c298.png</t>
-  </si>
-  <si>
-    <t>True(Dependency)</t>
-  </si>
-  <si>
-    <t>54f9528b-44ec-45a5-9ec9-d8b507c5d970.5c71ea2abc32ae69a38c3bfdadb4327bc2f798b1.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-10 06:39:53</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/d0ea60244a7b1ec7d192c57cd9e5cb447e8e75ef/e2e/54f9528b-44ec-45a5-9ec9-d8b507c5d970.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/ea508b2f7232a3c58379e23b6fed937238b94264/e2e/54f9528b-44ec-45a5-9ec9-d8b507c5d970.md.</t>
-  </si>
-  <si>
     <t>4b740145-cd67-40db-9228-17010fb6e6a3.a1ec94b669a323d09edde52cc75af337817abe04.de-de.xlf</t>
   </si>
   <si>
     <t>2016-11-10 06:39:05</t>
   </si>
   <si>
+    <t>54f9528b-44ec-45a5-9ec9-d8b507c5d970.5c71ea2abc32ae69a38c3bfdadb4327bc2f798b1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-10 06:41:07</t>
+  </si>
+  <si>
     <t>f7c573b5-210d-4457-aa12-dc21f8919674.d6f208215f56a17dee6da6ad79bf48a190ab8437.de-de.xlf</t>
-  </si>
-  <si>
-    <t>54f9528b-44ec-45a5-9ec9-d8b507c5d970.5c71ea2abc32ae69a38c3bfdadb4327bc2f798b1.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -235,8 +220,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P5" headerRowCount="1">
-  <autoFilter ref="A1:P5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P4" headerRowCount="1">
+  <autoFilter ref="A1:P4"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -260,8 +245,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P5" headerRowCount="1">
-  <autoFilter ref="A1:P5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P4" headerRowCount="1">
+  <autoFilter ref="A1:P4"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -285,8 +270,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G5" headerRowCount="1">
-  <autoFilter ref="A1:G5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -302,7 +287,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -383,18 +368,18 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>10</v>
@@ -407,37 +392,13 @@
       </c>
       <c r="G4" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\4b740145-cd67-40db-9228-17010fb6e6a3.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\925cea4e-b7af-4ba3-9d7b-f1a0aea8e0a7.png" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId5"/>
+    <hyperlink ref="B3" display="e2e\54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -448,7 +409,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -466,60 +427,60 @@
     <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
-    <col min="13" max="13" width="17.7080821990967" customWidth="1"/>
-    <col min="14" max="14" width="40" customWidth="1"/>
+    <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
+    <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -533,40 +494,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -583,16 +544,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>42</v>
@@ -601,7 +562,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>43</v>
@@ -610,13 +571,13 @@
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -624,114 +585,62 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="L4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="N4" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="4b740145-cd67-40db-9228-17010fb6e6a3.md" r:id="rId2"/>
     <hyperlink ref="I2" display="4b740145-cd67-40db-9228-17010fb6e6a3.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="925cea4e-b7af-4ba3-9d7b-f1a0aea8e0a7.png" r:id="rId6"/>
-    <hyperlink ref="I4" display="925cea4e-b7af-4ba3-9d7b-f1a0aea8e0a7.png" r:id="rId7"/>
-    <hyperlink ref="A5" display="54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId8"/>
-    <hyperlink ref="I5" display="54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId9"/>
+    <hyperlink ref="A3" display="54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -742,7 +651,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -760,60 +669,60 @@
     <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="27.1533012390137" customWidth="1"/>
     <col min="12" max="12" width="19.2982063293457" customWidth="1"/>
-    <col min="13" max="13" width="17.7080821990967" customWidth="1"/>
-    <col min="14" max="14" width="40" customWidth="1"/>
+    <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
+    <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -827,16 +736,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -845,22 +754,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -877,40 +786,40 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -918,114 +827,62 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="L4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="4b740145-cd67-40db-9228-17010fb6e6a3.md" r:id="rId2"/>
     <hyperlink ref="I2" display="4b740145-cd67-40db-9228-17010fb6e6a3.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="925cea4e-b7af-4ba3-9d7b-f1a0aea8e0a7.png" r:id="rId6"/>
-    <hyperlink ref="I4" display="925cea4e-b7af-4ba3-9d7b-f1a0aea8e0a7.png" r:id="rId7"/>
-    <hyperlink ref="A5" display="54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId8"/>
-    <hyperlink ref="I5" display="54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId9"/>
+    <hyperlink ref="A3" display="54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId6"/>
+    <hyperlink ref="I4" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>File Name</t>
   </si>
@@ -55,21 +55,18 @@
     <t>2016-11-10 06:38:00</t>
   </si>
   <si>
-    <t>54f9528b-44ec-45a5-9ec9-d8b507c5d970.md</t>
-  </si>
-  <si>
-    <t>e2e\54f9528b-44ec-45a5-9ec9-d8b507c5d970.md</t>
-  </si>
-  <si>
-    <t>2016-11-10 06:40:08</t>
-  </si>
-  <si>
     <t>f7c573b5-210d-4457-aa12-dc21f8919674.md</t>
   </si>
   <si>
     <t>e2e\f7c573b5-210d-4457-aa12-dc21f8919674.md</t>
   </si>
   <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-11-10 06:42:00</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -139,28 +136,19 @@
     <t>True</t>
   </si>
   <si>
-    <t>54f9528b-44ec-45a5-9ec9-d8b507c5d970.5c71ea2abc32ae69a38c3bfdadb4327bc2f798b1.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-10 06:39:53</t>
-  </si>
-  <si>
-    <t>2016-11-10 06:40:46</t>
-  </si>
-  <si>
     <t>f7c573b5-210d-4457-aa12-dc21f8919674.d6f208215f56a17dee6da6ad79bf48a190ab8437.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-11-10 06:41:45</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/d0ea60244a7b1ec7d192c57cd9e5cb447e8e75ef/e2e/f7c573b5-210d-4457-aa12-dc21f8919674.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/3597f57f0d8c423d1fff5bf482dd93ca333122bd/e2e/f7c573b5-210d-4457-aa12-dc21f8919674.md.</t>
+  </si>
+  <si>
     <t>4b740145-cd67-40db-9228-17010fb6e6a3.a1ec94b669a323d09edde52cc75af337817abe04.de-de.xlf</t>
   </si>
   <si>
     <t>2016-11-10 06:39:05</t>
-  </si>
-  <si>
-    <t>54f9528b-44ec-45a5-9ec9-d8b507c5d970.5c71ea2abc32ae69a38c3bfdadb4327bc2f798b1.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-11-10 06:41:07</t>
   </si>
   <si>
     <t>f7c573b5-210d-4457-aa12-dc21f8919674.d6f208215f56a17dee6da6ad79bf48a190ab8437.de-de.xlf</t>
@@ -220,8 +208,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P4" headerRowCount="1">
-  <autoFilter ref="A1:P4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:P3" headerRowCount="1">
+  <autoFilter ref="A1:P3"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -245,8 +233,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P4" headerRowCount="1">
-  <autoFilter ref="A1:P4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:P3" headerRowCount="1">
+  <autoFilter ref="A1:P3"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -270,8 +258,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
-  <autoFilter ref="A1:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -287,7 +275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -362,43 +350,19 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\4b740145-cd67-40db-9228-17010fb6e6a3.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId4"/>
+    <hyperlink ref="B3" display="e2e\f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -409,7 +373,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,57 +394,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -494,40 +458,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -541,106 +505,54 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="G3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="4b740145-cd67-40db-9228-17010fb6e6a3.md" r:id="rId2"/>
     <hyperlink ref="I2" display="4b740145-cd67-40db-9228-17010fb6e6a3.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId7"/>
+    <hyperlink ref="A3" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -651,7 +563,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -672,57 +584,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -736,16 +648,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -754,22 +666,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -783,106 +695,54 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="4b740145-cd67-40db-9228-17010fb6e6a3.md" r:id="rId2"/>
     <hyperlink ref="I2" display="4b740145-cd67-40db-9228-17010fb6e6a3.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId4"/>
-    <hyperlink ref="I3" display="54f9528b-44ec-45a5-9ec9-d8b507c5d970.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId6"/>
-    <hyperlink ref="I4" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId7"/>
+    <hyperlink ref="A3" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="f7c573b5-210d-4457-aa12-dc21f8919674.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/yufeih/localization-status.xlsx
@@ -61,9 +61,6 @@
     <t>e2e\f7c573b5-210d-4457-aa12-dc21f8919674.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>2016-11-10 06:42:00</t>
   </si>
   <si>
@@ -142,7 +139,7 @@
     <t>2016-11-10 06:41:45</t>
   </si>
   <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/d0ea60244a7b1ec7d192c57cd9e5cb447e8e75ef/e2e/f7c573b5-210d-4457-aa12-dc21f8919674.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/3597f57f0d8c423d1fff5bf482dd93ca333122bd/e2e/f7c573b5-210d-4457-aa12-dc21f8919674.md.</t>
+    <t>2016-11-10 06:42:39</t>
   </si>
   <si>
     <t>4b740145-cd67-40db-9228-17010fb6e6a3.a1ec94b669a323d09edde52cc75af337817abe04.de-de.xlf</t>
@@ -152,6 +149,9 @@
   </si>
   <si>
     <t>f7c573b5-210d-4457-aa12-dc21f8919674.d6f208215f56a17dee6da6ad79bf48a190ab8437.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-10 06:42:58</t>
   </si>
 </sst>
 </file>
@@ -350,13 +350,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -394,57 +394,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -458,40 +458,40 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -505,46 +505,46 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="G3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -584,57 +584,57 @@
     <col min="13" max="13" width="16.6648349761963" customWidth="1"/>
     <col min="14" max="14" width="19.7299385070801" customWidth="1"/>
     <col min="15" max="15" width="15.850474357605" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="16" max="16" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -648,16 +648,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -666,22 +666,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="L2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -695,46 +695,46 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
